--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria 2. Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria 2. Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="311">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -655,6 +655,9 @@
     <t>['33', '81']</t>
   </si>
   <si>
+    <t>['31', '37']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -941,6 +944,9 @@
   </si>
   <si>
     <t>['11', '70', '86']</t>
+  </si>
+  <si>
+    <t>['3', '61']</t>
   </si>
 </sst>
 </file>
@@ -1302,7 +1308,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP190"/>
+  <dimension ref="A1:BP191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1561,7 +1567,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1767,7 +1773,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1973,7 +1979,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q4">
         <v>6.5</v>
@@ -2179,7 +2185,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q5">
         <v>3.25</v>
@@ -2463,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AQ6">
         <v>1.42</v>
@@ -3290,7 +3296,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ10">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3415,7 +3421,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3621,7 +3627,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -4445,7 +4451,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q16">
         <v>2.1</v>
@@ -4651,7 +4657,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -4857,7 +4863,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q18">
         <v>2.2</v>
@@ -5063,7 +5069,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q19">
         <v>2.5</v>
@@ -5269,7 +5275,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q20">
         <v>3.75</v>
@@ -5475,7 +5481,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q21">
         <v>4.5</v>
@@ -5681,7 +5687,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5965,7 +5971,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AQ23">
         <v>0.42</v>
@@ -6093,7 +6099,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6299,7 +6305,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q25">
         <v>2.38</v>
@@ -6505,7 +6511,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6711,7 +6717,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q27">
         <v>4.5</v>
@@ -7123,7 +7129,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q29">
         <v>2.05</v>
@@ -7329,7 +7335,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q30">
         <v>2.75</v>
@@ -7410,7 +7416,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ30">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR30">
         <v>1.86</v>
@@ -7535,7 +7541,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -8153,7 +8159,7 @@
         <v>109</v>
       </c>
       <c r="P34" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q34">
         <v>1.8</v>
@@ -8437,7 +8443,7 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AQ35">
         <v>1</v>
@@ -8565,7 +8571,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -8771,7 +8777,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8977,7 +8983,7 @@
         <v>112</v>
       </c>
       <c r="P38" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q38">
         <v>2.75</v>
@@ -9389,7 +9395,7 @@
         <v>86</v>
       </c>
       <c r="P40" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9595,7 +9601,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9801,7 +9807,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -10419,7 +10425,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10625,7 +10631,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10831,7 +10837,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q47">
         <v>3.6</v>
@@ -11037,7 +11043,7 @@
         <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -11321,7 +11327,7 @@
         <v>1.33</v>
       </c>
       <c r="AP49">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AQ49">
         <v>0.75</v>
@@ -11655,7 +11661,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -11861,7 +11867,7 @@
         <v>86</v>
       </c>
       <c r="P52" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q52">
         <v>2.1</v>
@@ -12148,7 +12154,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ53">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR53">
         <v>0.98</v>
@@ -12273,7 +12279,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -12557,7 +12563,7 @@
         <v>2.33</v>
       </c>
       <c r="AP55">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AQ55">
         <v>1.42</v>
@@ -12685,7 +12691,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q56">
         <v>3.25</v>
@@ -12891,7 +12897,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q57">
         <v>3.2</v>
@@ -13097,7 +13103,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q58">
         <v>1.8</v>
@@ -13384,7 +13390,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ59">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR59">
         <v>1.05</v>
@@ -13715,7 +13721,7 @@
         <v>125</v>
       </c>
       <c r="P61" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -14127,7 +14133,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q63">
         <v>3.6</v>
@@ -14539,7 +14545,7 @@
         <v>128</v>
       </c>
       <c r="P65" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14745,7 +14751,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -14951,7 +14957,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -15157,7 +15163,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q68">
         <v>2.1</v>
@@ -15775,7 +15781,7 @@
         <v>133</v>
       </c>
       <c r="P71" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q71">
         <v>2.1</v>
@@ -16599,7 +16605,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16805,7 +16811,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -17011,7 +17017,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q77">
         <v>3.1</v>
@@ -17217,7 +17223,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q78">
         <v>3.75</v>
@@ -17423,7 +17429,7 @@
         <v>138</v>
       </c>
       <c r="P79" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17707,7 +17713,7 @@
         <v>1.25</v>
       </c>
       <c r="AP80">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AQ80">
         <v>1</v>
@@ -17835,7 +17841,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -18534,7 +18540,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ84">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR84">
         <v>1.58</v>
@@ -18659,7 +18665,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q85">
         <v>2</v>
@@ -18865,7 +18871,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -19277,7 +19283,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q88">
         <v>4.33</v>
@@ -19483,7 +19489,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q89">
         <v>3.1</v>
@@ -19689,7 +19695,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19973,7 +19979,7 @@
         <v>2.6</v>
       </c>
       <c r="AP91">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AQ91">
         <v>2.38</v>
@@ -20101,7 +20107,7 @@
         <v>86</v>
       </c>
       <c r="P92" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q92">
         <v>2.5</v>
@@ -20307,7 +20313,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20513,7 +20519,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20719,7 +20725,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q95">
         <v>2.6</v>
@@ -21006,7 +21012,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ96">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR96">
         <v>1.29</v>
@@ -21131,7 +21137,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q97">
         <v>3.2</v>
@@ -21543,7 +21549,7 @@
         <v>142</v>
       </c>
       <c r="P99" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21749,7 +21755,7 @@
         <v>86</v>
       </c>
       <c r="P100" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q100">
         <v>3.2</v>
@@ -21955,7 +21961,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -22367,7 +22373,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q103">
         <v>4.5</v>
@@ -22573,7 +22579,7 @@
         <v>152</v>
       </c>
       <c r="P104" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -22985,7 +22991,7 @@
         <v>86</v>
       </c>
       <c r="P106" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23191,7 +23197,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23397,7 +23403,7 @@
         <v>153</v>
       </c>
       <c r="P108" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q108">
         <v>2.88</v>
@@ -23603,7 +23609,7 @@
         <v>86</v>
       </c>
       <c r="P109" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q109">
         <v>3.2</v>
@@ -24299,7 +24305,7 @@
         <v>2.17</v>
       </c>
       <c r="AP112">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AQ112">
         <v>1.73</v>
@@ -24508,7 +24514,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ113">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR113">
         <v>1.3</v>
@@ -25045,7 +25051,7 @@
         <v>157</v>
       </c>
       <c r="P116" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q116">
         <v>3.5</v>
@@ -25663,7 +25669,7 @@
         <v>152</v>
       </c>
       <c r="P119" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q119">
         <v>2.63</v>
@@ -26281,7 +26287,7 @@
         <v>86</v>
       </c>
       <c r="P122" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -26568,7 +26574,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ123">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR123">
         <v>1.4</v>
@@ -26693,7 +26699,7 @@
         <v>161</v>
       </c>
       <c r="P124" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q124">
         <v>2.38</v>
@@ -26899,7 +26905,7 @@
         <v>162</v>
       </c>
       <c r="P125" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -27105,7 +27111,7 @@
         <v>163</v>
       </c>
       <c r="P126" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -27311,7 +27317,7 @@
         <v>164</v>
       </c>
       <c r="P127" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27517,7 +27523,7 @@
         <v>165</v>
       </c>
       <c r="P128" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q128">
         <v>2.75</v>
@@ -27723,7 +27729,7 @@
         <v>166</v>
       </c>
       <c r="P129" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q129">
         <v>1.95</v>
@@ -27929,7 +27935,7 @@
         <v>86</v>
       </c>
       <c r="P130" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q130">
         <v>3.4</v>
@@ -28341,7 +28347,7 @@
         <v>153</v>
       </c>
       <c r="P132" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28547,7 +28553,7 @@
         <v>168</v>
       </c>
       <c r="P133" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q133">
         <v>2.5</v>
@@ -28625,7 +28631,7 @@
         <v>2.29</v>
       </c>
       <c r="AP133">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AQ133">
         <v>1.55</v>
@@ -29371,7 +29377,7 @@
         <v>170</v>
       </c>
       <c r="P137" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q137">
         <v>2.75</v>
@@ -29783,7 +29789,7 @@
         <v>171</v>
       </c>
       <c r="P139" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q139">
         <v>4.8</v>
@@ -30195,7 +30201,7 @@
         <v>173</v>
       </c>
       <c r="P141" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -30482,7 +30488,7 @@
         <v>2</v>
       </c>
       <c r="AQ142">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR142">
         <v>1.21</v>
@@ -31225,7 +31231,7 @@
         <v>178</v>
       </c>
       <c r="P146" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q146">
         <v>2.5</v>
@@ -31431,7 +31437,7 @@
         <v>179</v>
       </c>
       <c r="P147" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q147">
         <v>2.36</v>
@@ -31843,7 +31849,7 @@
         <v>181</v>
       </c>
       <c r="P149" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q149">
         <v>2.1</v>
@@ -31921,7 +31927,7 @@
         <v>1.25</v>
       </c>
       <c r="AP149">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AQ149">
         <v>1.08</v>
@@ -32049,7 +32055,7 @@
         <v>182</v>
       </c>
       <c r="P150" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q150">
         <v>2.63</v>
@@ -32667,7 +32673,7 @@
         <v>185</v>
       </c>
       <c r="P153" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q153">
         <v>2.88</v>
@@ -32873,7 +32879,7 @@
         <v>86</v>
       </c>
       <c r="P154" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q154">
         <v>3.75</v>
@@ -33079,7 +33085,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q155">
         <v>3.6</v>
@@ -33160,7 +33166,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ155">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR155">
         <v>1.03</v>
@@ -33697,7 +33703,7 @@
         <v>188</v>
       </c>
       <c r="P158" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q158">
         <v>2.4</v>
@@ -34315,7 +34321,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -34521,7 +34527,7 @@
         <v>192</v>
       </c>
       <c r="P162" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q162">
         <v>3.2</v>
@@ -35345,7 +35351,7 @@
         <v>195</v>
       </c>
       <c r="P166" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q166">
         <v>2.88</v>
@@ -35629,7 +35635,7 @@
         <v>1.9</v>
       </c>
       <c r="AP167">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AQ167">
         <v>1.67</v>
@@ -35963,7 +35969,7 @@
         <v>198</v>
       </c>
       <c r="P169" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q169">
         <v>2.88</v>
@@ -36044,7 +36050,7 @@
         <v>2</v>
       </c>
       <c r="AQ169">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR169">
         <v>1.67</v>
@@ -36375,7 +36381,7 @@
         <v>200</v>
       </c>
       <c r="P171" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q171">
         <v>2.5</v>
@@ -36787,7 +36793,7 @@
         <v>86</v>
       </c>
       <c r="P173" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q173">
         <v>3.1</v>
@@ -36993,7 +36999,7 @@
         <v>86</v>
       </c>
       <c r="P174" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q174">
         <v>4.33</v>
@@ -37199,7 +37205,7 @@
         <v>177</v>
       </c>
       <c r="P175" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q175">
         <v>5</v>
@@ -37611,7 +37617,7 @@
         <v>86</v>
       </c>
       <c r="P177" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q177">
         <v>5.25</v>
@@ -37817,7 +37823,7 @@
         <v>203</v>
       </c>
       <c r="P178" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q178">
         <v>2.2</v>
@@ -38229,7 +38235,7 @@
         <v>204</v>
       </c>
       <c r="P180" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q180">
         <v>4.2</v>
@@ -38641,7 +38647,7 @@
         <v>206</v>
       </c>
       <c r="P182" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q182">
         <v>2.3</v>
@@ -38847,7 +38853,7 @@
         <v>207</v>
       </c>
       <c r="P183" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q183">
         <v>3.45</v>
@@ -39259,7 +39265,7 @@
         <v>208</v>
       </c>
       <c r="P185" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q185">
         <v>3.4</v>
@@ -39465,7 +39471,7 @@
         <v>209</v>
       </c>
       <c r="P186" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q186">
         <v>2.87</v>
@@ -39671,7 +39677,7 @@
         <v>152</v>
       </c>
       <c r="P187" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q187">
         <v>3</v>
@@ -39877,7 +39883,7 @@
         <v>210</v>
       </c>
       <c r="P188" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q188">
         <v>2.7</v>
@@ -40083,7 +40089,7 @@
         <v>211</v>
       </c>
       <c r="P189" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q189">
         <v>3.6</v>
@@ -40446,6 +40452,212 @@
       </c>
       <c r="BP190">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="191" spans="1:68">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>7484726</v>
+      </c>
+      <c r="C191" t="s">
+        <v>68</v>
+      </c>
+      <c r="D191" t="s">
+        <v>69</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45765.64583333334</v>
+      </c>
+      <c r="F191">
+        <v>24</v>
+      </c>
+      <c r="G191" t="s">
+        <v>74</v>
+      </c>
+      <c r="H191" t="s">
+        <v>72</v>
+      </c>
+      <c r="I191">
+        <v>2</v>
+      </c>
+      <c r="J191">
+        <v>1</v>
+      </c>
+      <c r="K191">
+        <v>3</v>
+      </c>
+      <c r="L191">
+        <v>2</v>
+      </c>
+      <c r="M191">
+        <v>2</v>
+      </c>
+      <c r="N191">
+        <v>4</v>
+      </c>
+      <c r="O191" t="s">
+        <v>213</v>
+      </c>
+      <c r="P191" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q191">
+        <v>2.2</v>
+      </c>
+      <c r="R191">
+        <v>2.14</v>
+      </c>
+      <c r="S191">
+        <v>5.25</v>
+      </c>
+      <c r="T191">
+        <v>1.39</v>
+      </c>
+      <c r="U191">
+        <v>2.75</v>
+      </c>
+      <c r="V191">
+        <v>2.88</v>
+      </c>
+      <c r="W191">
+        <v>1.41</v>
+      </c>
+      <c r="X191">
+        <v>7</v>
+      </c>
+      <c r="Y191">
+        <v>1.08</v>
+      </c>
+      <c r="Z191">
+        <v>1.65</v>
+      </c>
+      <c r="AA191">
+        <v>3.84</v>
+      </c>
+      <c r="AB191">
+        <v>4.9</v>
+      </c>
+      <c r="AC191">
+        <v>1.02</v>
+      </c>
+      <c r="AD191">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE191">
+        <v>1.33</v>
+      </c>
+      <c r="AF191">
+        <v>3.2</v>
+      </c>
+      <c r="AG191">
+        <v>1.94</v>
+      </c>
+      <c r="AH191">
+        <v>1.8</v>
+      </c>
+      <c r="AI191">
+        <v>1.95</v>
+      </c>
+      <c r="AJ191">
+        <v>1.83</v>
+      </c>
+      <c r="AK191">
+        <v>1.27</v>
+      </c>
+      <c r="AL191">
+        <v>0</v>
+      </c>
+      <c r="AM191">
+        <v>2.26</v>
+      </c>
+      <c r="AN191">
+        <v>2.36</v>
+      </c>
+      <c r="AO191">
+        <v>0.73</v>
+      </c>
+      <c r="AP191">
+        <v>2.25</v>
+      </c>
+      <c r="AQ191">
+        <v>0.75</v>
+      </c>
+      <c r="AR191">
+        <v>1.44</v>
+      </c>
+      <c r="AS191">
+        <v>1.14</v>
+      </c>
+      <c r="AT191">
+        <v>2.58</v>
+      </c>
+      <c r="AU191">
+        <v>4</v>
+      </c>
+      <c r="AV191">
+        <v>5</v>
+      </c>
+      <c r="AW191">
+        <v>4</v>
+      </c>
+      <c r="AX191">
+        <v>4</v>
+      </c>
+      <c r="AY191">
+        <v>8</v>
+      </c>
+      <c r="AZ191">
+        <v>9</v>
+      </c>
+      <c r="BA191">
+        <v>10</v>
+      </c>
+      <c r="BB191">
+        <v>3</v>
+      </c>
+      <c r="BC191">
+        <v>13</v>
+      </c>
+      <c r="BD191">
+        <v>1.3</v>
+      </c>
+      <c r="BE191">
+        <v>9.5</v>
+      </c>
+      <c r="BF191">
+        <v>4.92</v>
+      </c>
+      <c r="BG191">
+        <v>1.34</v>
+      </c>
+      <c r="BH191">
+        <v>2.78</v>
+      </c>
+      <c r="BI191">
+        <v>1.64</v>
+      </c>
+      <c r="BJ191">
+        <v>2.1</v>
+      </c>
+      <c r="BK191">
+        <v>2.11</v>
+      </c>
+      <c r="BL191">
+        <v>1.65</v>
+      </c>
+      <c r="BM191">
+        <v>2.67</v>
+      </c>
+      <c r="BN191">
+        <v>1.36</v>
+      </c>
+      <c r="BO191">
+        <v>3.86</v>
+      </c>
+      <c r="BP191">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria 2. Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria 2. Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="311">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1308,7 +1308,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP191"/>
+  <dimension ref="A1:BP192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3708,7 +3708,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ12">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4323,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ15">
         <v>1.17</v>
@@ -6795,7 +6795,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ27">
         <v>2.42</v>
@@ -7622,7 +7622,7 @@
         <v>2</v>
       </c>
       <c r="AQ31">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR31">
         <v>0.93</v>
@@ -8858,7 +8858,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ37">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR37">
         <v>1.32</v>
@@ -10297,7 +10297,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ44">
         <v>0.42</v>
@@ -11330,7 +11330,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ49">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR49">
         <v>1.42</v>
@@ -12357,7 +12357,7 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ54">
         <v>1.55</v>
@@ -15035,7 +15035,7 @@
         <v>1.5</v>
       </c>
       <c r="AP67">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ67">
         <v>0.64</v>
@@ -15656,7 +15656,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ70">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR70">
         <v>1.74</v>
@@ -17922,7 +17922,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ81">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR81">
         <v>1.61</v>
@@ -19155,7 +19155,7 @@
         <v>2.2</v>
       </c>
       <c r="AP87">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ87">
         <v>1.42</v>
@@ -21833,7 +21833,7 @@
         <v>1.5</v>
       </c>
       <c r="AP100">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ100">
         <v>1.67</v>
@@ -22042,7 +22042,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ101">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR101">
         <v>1.23</v>
@@ -25956,7 +25956,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ120">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR120">
         <v>1.33</v>
@@ -26159,7 +26159,7 @@
         <v>1.86</v>
       </c>
       <c r="AP121">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ121">
         <v>1.42</v>
@@ -26780,7 +26780,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ124">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR124">
         <v>1.35</v>
@@ -27601,7 +27601,7 @@
         <v>1.5</v>
       </c>
       <c r="AP128">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ128">
         <v>1.17</v>
@@ -30694,7 +30694,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ143">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR143">
         <v>1.39</v>
@@ -32751,7 +32751,7 @@
         <v>1.22</v>
       </c>
       <c r="AP153">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ153">
         <v>1</v>
@@ -35226,7 +35226,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ165">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR165">
         <v>1.59</v>
@@ -36047,7 +36047,7 @@
         <v>0.5</v>
       </c>
       <c r="AP169">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ169">
         <v>0.75</v>
@@ -38934,7 +38934,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ183">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR183">
         <v>1.41</v>
@@ -40658,6 +40658,212 @@
       </c>
       <c r="BP191">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="192" spans="1:68">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>7484731</v>
+      </c>
+      <c r="C192" t="s">
+        <v>68</v>
+      </c>
+      <c r="D192" t="s">
+        <v>69</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45768.22916666666</v>
+      </c>
+      <c r="F192">
+        <v>25</v>
+      </c>
+      <c r="G192" t="s">
+        <v>83</v>
+      </c>
+      <c r="H192" t="s">
+        <v>77</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
+      <c r="L192">
+        <v>0</v>
+      </c>
+      <c r="M192">
+        <v>1</v>
+      </c>
+      <c r="N192">
+        <v>1</v>
+      </c>
+      <c r="O192" t="s">
+        <v>86</v>
+      </c>
+      <c r="P192" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q192">
+        <v>3.6</v>
+      </c>
+      <c r="R192">
+        <v>2.2</v>
+      </c>
+      <c r="S192">
+        <v>2.83</v>
+      </c>
+      <c r="T192">
+        <v>1.34</v>
+      </c>
+      <c r="U192">
+        <v>3.04</v>
+      </c>
+      <c r="V192">
+        <v>2.72</v>
+      </c>
+      <c r="W192">
+        <v>1.46</v>
+      </c>
+      <c r="X192">
+        <v>5.7</v>
+      </c>
+      <c r="Y192">
+        <v>1.06</v>
+      </c>
+      <c r="Z192">
+        <v>2.7</v>
+      </c>
+      <c r="AA192">
+        <v>3.47</v>
+      </c>
+      <c r="AB192">
+        <v>2.43</v>
+      </c>
+      <c r="AC192">
+        <v>1.01</v>
+      </c>
+      <c r="AD192">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE192">
+        <v>1.2</v>
+      </c>
+      <c r="AF192">
+        <v>3.85</v>
+      </c>
+      <c r="AG192">
+        <v>1.83</v>
+      </c>
+      <c r="AH192">
+        <v>1.91</v>
+      </c>
+      <c r="AI192">
+        <v>1.62</v>
+      </c>
+      <c r="AJ192">
+        <v>2.2</v>
+      </c>
+      <c r="AK192">
+        <v>1.62</v>
+      </c>
+      <c r="AL192">
+        <v>1.25</v>
+      </c>
+      <c r="AM192">
+        <v>1.4</v>
+      </c>
+      <c r="AN192">
+        <v>2</v>
+      </c>
+      <c r="AO192">
+        <v>0.75</v>
+      </c>
+      <c r="AP192">
+        <v>1.83</v>
+      </c>
+      <c r="AQ192">
+        <v>0.92</v>
+      </c>
+      <c r="AR192">
+        <v>1.71</v>
+      </c>
+      <c r="AS192">
+        <v>1.18</v>
+      </c>
+      <c r="AT192">
+        <v>2.89</v>
+      </c>
+      <c r="AU192">
+        <v>5</v>
+      </c>
+      <c r="AV192">
+        <v>6</v>
+      </c>
+      <c r="AW192">
+        <v>6</v>
+      </c>
+      <c r="AX192">
+        <v>6</v>
+      </c>
+      <c r="AY192">
+        <v>13</v>
+      </c>
+      <c r="AZ192">
+        <v>12</v>
+      </c>
+      <c r="BA192">
+        <v>8</v>
+      </c>
+      <c r="BB192">
+        <v>3</v>
+      </c>
+      <c r="BC192">
+        <v>11</v>
+      </c>
+      <c r="BD192">
+        <v>2.14</v>
+      </c>
+      <c r="BE192">
+        <v>6.35</v>
+      </c>
+      <c r="BF192">
+        <v>2.06</v>
+      </c>
+      <c r="BG192">
+        <v>1.23</v>
+      </c>
+      <c r="BH192">
+        <v>3.42</v>
+      </c>
+      <c r="BI192">
+        <v>1.5</v>
+      </c>
+      <c r="BJ192">
+        <v>2.41</v>
+      </c>
+      <c r="BK192">
+        <v>2.07</v>
+      </c>
+      <c r="BL192">
+        <v>1.91</v>
+      </c>
+      <c r="BM192">
+        <v>2.31</v>
+      </c>
+      <c r="BN192">
+        <v>1.58</v>
+      </c>
+      <c r="BO192">
+        <v>3.05</v>
+      </c>
+      <c r="BP192">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria 2. Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria 2. Liga_20242025.xlsx
@@ -640,19 +640,19 @@
     <t>['45', '83']</t>
   </si>
   <si>
-    <t>['71']</t>
+    <t>['29']</t>
+  </si>
+  <si>
+    <t>['11', '13', '28']</t>
+  </si>
+  <si>
+    <t>['33', '81']</t>
   </si>
   <si>
     <t>['16', '32', '57']</t>
   </si>
   <si>
-    <t>['11', '13', '28']</t>
-  </si>
-  <si>
-    <t>['29']</t>
-  </si>
-  <si>
-    <t>['33', '81']</t>
+    <t>['71']</t>
   </si>
   <si>
     <t>['31', '37']</t>
@@ -946,19 +946,19 @@
     <t>['7', '37']</t>
   </si>
   <si>
-    <t>['38', '79']</t>
+    <t>['11', '70', '86']</t>
+  </si>
+  <si>
+    <t>['36', '68']</t>
+  </si>
+  <si>
+    <t>['13', '20']</t>
   </si>
   <si>
     <t>['4', '84']</t>
   </si>
   <si>
-    <t>['13', '20']</t>
-  </si>
-  <si>
-    <t>['36', '68']</t>
-  </si>
-  <si>
-    <t>['11', '70', '86']</t>
+    <t>['38', '79']</t>
   </si>
   <si>
     <t>['3', '61']</t>
@@ -32291,7 +32291,7 @@
         <v>183</v>
       </c>
       <c r="P151" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Q151">
         <v>3.5</v>
@@ -39253,7 +39253,7 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>7484725</v>
+        <v>7484720</v>
       </c>
       <c r="C185" t="s">
         <v>68</v>
@@ -39268,28 +39268,28 @@
         <v>24</v>
       </c>
       <c r="G185" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H185" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="I185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J185">
         <v>1</v>
       </c>
       <c r="K185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L185">
         <v>1</v>
       </c>
       <c r="M185">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N185">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O185" t="s">
         <v>208</v>
@@ -39298,160 +39298,160 @@
         <v>310</v>
       </c>
       <c r="Q185">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="R185">
+        <v>2.33</v>
+      </c>
+      <c r="S185">
+        <v>2.58</v>
+      </c>
+      <c r="T185">
+        <v>1.32</v>
+      </c>
+      <c r="U185">
+        <v>3.25</v>
+      </c>
+      <c r="V185">
+        <v>2.3</v>
+      </c>
+      <c r="W185">
+        <v>1.61</v>
+      </c>
+      <c r="X185">
+        <v>5.5</v>
+      </c>
+      <c r="Y185">
+        <v>1.14</v>
+      </c>
+      <c r="Z185">
+        <v>3.19</v>
+      </c>
+      <c r="AA185">
+        <v>4.1</v>
+      </c>
+      <c r="AB185">
+        <v>1.9</v>
+      </c>
+      <c r="AC185">
+        <v>1.02</v>
+      </c>
+      <c r="AD185">
+        <v>12</v>
+      </c>
+      <c r="AE185">
+        <v>1.14</v>
+      </c>
+      <c r="AF185">
+        <v>4.7</v>
+      </c>
+      <c r="AG185">
+        <v>1.57</v>
+      </c>
+      <c r="AH185">
+        <v>2.25</v>
+      </c>
+      <c r="AI185">
+        <v>1.52</v>
+      </c>
+      <c r="AJ185">
+        <v>2.3</v>
+      </c>
+      <c r="AK185">
+        <v>1.26</v>
+      </c>
+      <c r="AL185">
+        <v>0</v>
+      </c>
+      <c r="AM185">
+        <v>1.32</v>
+      </c>
+      <c r="AN185">
+        <v>0.64</v>
+      </c>
+      <c r="AO185">
+        <v>1</v>
+      </c>
+      <c r="AP185">
+        <v>0.58</v>
+      </c>
+      <c r="AQ185">
+        <v>1.17</v>
+      </c>
+      <c r="AR185">
+        <v>1.42</v>
+      </c>
+      <c r="AS185">
+        <v>1.55</v>
+      </c>
+      <c r="AT185">
+        <v>2.97</v>
+      </c>
+      <c r="AU185">
+        <v>5</v>
+      </c>
+      <c r="AV185">
+        <v>7</v>
+      </c>
+      <c r="AW185">
+        <v>2</v>
+      </c>
+      <c r="AX185">
+        <v>5</v>
+      </c>
+      <c r="AY185">
+        <v>8</v>
+      </c>
+      <c r="AZ185">
+        <v>13</v>
+      </c>
+      <c r="BA185">
+        <v>5</v>
+      </c>
+      <c r="BB185">
+        <v>5</v>
+      </c>
+      <c r="BC185">
+        <v>10</v>
+      </c>
+      <c r="BD185">
+        <v>3.02</v>
+      </c>
+      <c r="BE185">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF185">
+        <v>1.6</v>
+      </c>
+      <c r="BG185">
+        <v>1.22</v>
+      </c>
+      <c r="BH185">
+        <v>3.27</v>
+      </c>
+      <c r="BI185">
+        <v>1.5</v>
+      </c>
+      <c r="BJ185">
+        <v>2.42</v>
+      </c>
+      <c r="BK185">
         <v>2.05</v>
       </c>
-      <c r="S185">
-        <v>2.89</v>
-      </c>
-      <c r="T185">
-        <v>1.42</v>
-      </c>
-      <c r="U185">
-        <v>2.7</v>
-      </c>
-      <c r="V185">
-        <v>2.88</v>
-      </c>
-      <c r="W185">
-        <v>1.36</v>
-      </c>
-      <c r="X185">
-        <v>6.5</v>
-      </c>
-      <c r="Y185">
-        <v>1.07</v>
-      </c>
-      <c r="Z185">
-        <v>2.8</v>
-      </c>
-      <c r="AA185">
-        <v>3.34</v>
-      </c>
-      <c r="AB185">
-        <v>2.41</v>
-      </c>
-      <c r="AC185">
-        <v>1.04</v>
-      </c>
-      <c r="AD185">
-        <v>8.5</v>
-      </c>
-      <c r="AE185">
-        <v>1.33</v>
-      </c>
-      <c r="AF185">
-        <v>3.2</v>
-      </c>
-      <c r="AG185">
-        <v>2.05</v>
-      </c>
-      <c r="AH185">
-        <v>1.75</v>
-      </c>
-      <c r="AI185">
-        <v>1.75</v>
-      </c>
-      <c r="AJ185">
-        <v>2</v>
-      </c>
-      <c r="AK185">
-        <v>1.29</v>
-      </c>
-      <c r="AL185">
-        <v>0</v>
-      </c>
-      <c r="AM185">
-        <v>1.36</v>
-      </c>
-      <c r="AN185">
-        <v>1.55</v>
-      </c>
-      <c r="AO185">
-        <v>2.33</v>
-      </c>
-      <c r="AP185">
-        <v>1.42</v>
-      </c>
-      <c r="AQ185">
-        <v>2.38</v>
-      </c>
-      <c r="AR185">
-        <v>1.63</v>
-      </c>
-      <c r="AS185">
-        <v>1.6</v>
-      </c>
-      <c r="AT185">
-        <v>3.23</v>
-      </c>
-      <c r="AU185">
-        <v>4</v>
-      </c>
-      <c r="AV185">
-        <v>8</v>
-      </c>
-      <c r="AW185">
-        <v>3</v>
-      </c>
-      <c r="AX185">
-        <v>15</v>
-      </c>
-      <c r="AY185">
-        <v>7</v>
-      </c>
-      <c r="AZ185">
-        <v>28</v>
-      </c>
-      <c r="BA185">
-        <v>3</v>
-      </c>
-      <c r="BB185">
-        <v>13</v>
-      </c>
-      <c r="BC185">
-        <v>16</v>
-      </c>
-      <c r="BD185">
-        <v>2.01</v>
-      </c>
-      <c r="BE185">
-        <v>6.6</v>
-      </c>
-      <c r="BF185">
-        <v>2.18</v>
-      </c>
-      <c r="BG185">
-        <v>1.39</v>
-      </c>
-      <c r="BH185">
-        <v>2.77</v>
-      </c>
-      <c r="BI185">
-        <v>1.68</v>
-      </c>
-      <c r="BJ185">
-        <v>2.14</v>
-      </c>
-      <c r="BK185">
-        <v>2.09</v>
-      </c>
       <c r="BL185">
-        <v>1.66</v>
+        <v>1.92</v>
       </c>
       <c r="BM185">
-        <v>2.65</v>
+        <v>2.27</v>
       </c>
       <c r="BN185">
-        <v>1.42</v>
+        <v>1.59</v>
       </c>
       <c r="BO185">
-        <v>3.52</v>
+        <v>2.97</v>
       </c>
       <c r="BP185">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="186" spans="1:68">
@@ -39459,7 +39459,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>7484724</v>
+        <v>7484721</v>
       </c>
       <c r="C186" t="s">
         <v>68</v>
@@ -39474,19 +39474,19 @@
         <v>24</v>
       </c>
       <c r="G186" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H186" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I186">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J186">
         <v>1</v>
       </c>
       <c r="K186">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L186">
         <v>3</v>
@@ -39504,160 +39504,160 @@
         <v>311</v>
       </c>
       <c r="Q186">
-        <v>2.87</v>
+        <v>2.7</v>
       </c>
       <c r="R186">
-        <v>2.25</v>
+        <v>2.26</v>
       </c>
       <c r="S186">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T186">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="U186">
-        <v>3.2</v>
+        <v>3.22</v>
       </c>
       <c r="V186">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="W186">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="X186">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="Y186">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="Z186">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="AA186">
         <v>3.4</v>
       </c>
       <c r="AB186">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AC186">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD186">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE186">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="AF186">
-        <v>4.52</v>
+        <v>4.2</v>
       </c>
       <c r="AG186">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="AH186">
-        <v>2.19</v>
+        <v>2.17</v>
       </c>
       <c r="AI186">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="AJ186">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="AK186">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
       <c r="AL186">
         <v>0</v>
       </c>
       <c r="AM186">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="AN186">
-        <v>1.73</v>
+        <v>0.58</v>
       </c>
       <c r="AO186">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="AP186">
-        <v>1.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ186">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AR186">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="AS186">
-        <v>1.46</v>
+        <v>1.27</v>
       </c>
       <c r="AT186">
-        <v>2.86</v>
+        <v>2.28</v>
       </c>
       <c r="AU186">
+        <v>9</v>
+      </c>
+      <c r="AV186">
+        <v>4</v>
+      </c>
+      <c r="AW186">
         <v>6</v>
-      </c>
-      <c r="AV186">
-        <v>5</v>
-      </c>
-      <c r="AW186">
-        <v>8</v>
       </c>
       <c r="AX186">
         <v>8</v>
       </c>
       <c r="AY186">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ186">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA186">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BB186">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BC186">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="BD186">
-        <v>2.77</v>
+        <v>2.2</v>
       </c>
       <c r="BE186">
-        <v>7.4</v>
+        <v>6.35</v>
       </c>
       <c r="BF186">
-        <v>1.67</v>
+        <v>1.98</v>
       </c>
       <c r="BG186">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="BH186">
-        <v>4.1</v>
+        <v>3.15</v>
       </c>
       <c r="BI186">
-        <v>1.29</v>
+        <v>1.51</v>
       </c>
       <c r="BJ186">
-        <v>2.98</v>
+        <v>2.32</v>
       </c>
       <c r="BK186">
-        <v>1.74</v>
+        <v>1.89</v>
       </c>
       <c r="BL186">
-        <v>2.26</v>
+        <v>1.81</v>
       </c>
       <c r="BM186">
-        <v>1.93</v>
+        <v>2.45</v>
       </c>
       <c r="BN186">
-        <v>1.78</v>
+        <v>1.53</v>
       </c>
       <c r="BO186">
-        <v>2.48</v>
+        <v>3.12</v>
       </c>
       <c r="BP186">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="187" spans="1:68">
@@ -39665,7 +39665,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>7484723</v>
+        <v>7484722</v>
       </c>
       <c r="C187" t="s">
         <v>68</v>
@@ -39680,43 +39680,43 @@
         <v>24</v>
       </c>
       <c r="G187" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H187" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M187">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N187">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O187" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="P187" t="s">
-        <v>312</v>
+        <v>86</v>
       </c>
       <c r="Q187">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="R187">
-        <v>2.27</v>
+        <v>2.28</v>
       </c>
       <c r="S187">
-        <v>3.41</v>
+        <v>3.8</v>
       </c>
       <c r="T187">
         <v>1.36</v>
@@ -39725,145 +39725,145 @@
         <v>2.88</v>
       </c>
       <c r="V187">
-        <v>2.6</v>
+        <v>2.73</v>
       </c>
       <c r="W187">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="X187">
-        <v>6.85</v>
+        <v>6.3</v>
       </c>
       <c r="Y187">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="Z187">
-        <v>2.45</v>
+        <v>1.99</v>
       </c>
       <c r="AA187">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AB187">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="AC187">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="AD187">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="AE187">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="AF187">
-        <v>3.5</v>
+        <v>3.28</v>
       </c>
       <c r="AG187">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="AH187">
+        <v>1.89</v>
+      </c>
+      <c r="AI187">
+        <v>1.73</v>
+      </c>
+      <c r="AJ187">
         <v>1.95</v>
       </c>
-      <c r="AI187">
-        <v>1.66</v>
-      </c>
-      <c r="AJ187">
-        <v>2.16</v>
-      </c>
       <c r="AK187">
+        <v>1.3</v>
+      </c>
+      <c r="AL187">
+        <v>0</v>
+      </c>
+      <c r="AM187">
+        <v>1.8</v>
+      </c>
+      <c r="AN187">
+        <v>1.18</v>
+      </c>
+      <c r="AO187">
+        <v>1.09</v>
+      </c>
+      <c r="AP187">
         <v>1.33</v>
       </c>
-      <c r="AL187">
-        <v>0</v>
-      </c>
-      <c r="AM187">
-        <v>1.54</v>
-      </c>
-      <c r="AN187">
-        <v>0.82</v>
-      </c>
-      <c r="AO187">
-        <v>1.6</v>
-      </c>
-      <c r="AP187">
-        <v>0.75</v>
-      </c>
       <c r="AQ187">
-        <v>1.73</v>
+        <v>1</v>
       </c>
       <c r="AR187">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="AS187">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="AT187">
-        <v>2.63</v>
+        <v>2.77</v>
       </c>
       <c r="AU187">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV187">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AW187">
         <v>6</v>
       </c>
       <c r="AX187">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AY187">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ187">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA187">
+        <v>7</v>
+      </c>
+      <c r="BB187">
+        <v>5</v>
+      </c>
+      <c r="BC187">
         <v>12</v>
       </c>
-      <c r="BB187">
-        <v>3</v>
-      </c>
-      <c r="BC187">
-        <v>15</v>
-      </c>
       <c r="BD187">
+        <v>1.65</v>
+      </c>
+      <c r="BE187">
+        <v>6.65</v>
+      </c>
+      <c r="BF187">
+        <v>2.83</v>
+      </c>
+      <c r="BG187">
+        <v>1.27</v>
+      </c>
+      <c r="BH187">
+        <v>3.3</v>
+      </c>
+      <c r="BI187">
+        <v>1.44</v>
+      </c>
+      <c r="BJ187">
+        <v>2.5</v>
+      </c>
+      <c r="BK187">
+        <v>2.07</v>
+      </c>
+      <c r="BL187">
         <v>1.95</v>
       </c>
-      <c r="BE187">
-        <v>6.45</v>
-      </c>
-      <c r="BF187">
-        <v>2.27</v>
-      </c>
-      <c r="BG187">
-        <v>1.24</v>
-      </c>
-      <c r="BH187">
-        <v>3.48</v>
-      </c>
-      <c r="BI187">
-        <v>1.41</v>
-      </c>
-      <c r="BJ187">
-        <v>2.6</v>
-      </c>
-      <c r="BK187">
-        <v>1.78</v>
-      </c>
-      <c r="BL187">
-        <v>2.02</v>
-      </c>
       <c r="BM187">
-        <v>2.2</v>
+        <v>2.29</v>
       </c>
       <c r="BN187">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="BO187">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="BP187">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="188" spans="1:68">
@@ -39871,7 +39871,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>7484721</v>
+        <v>7484723</v>
       </c>
       <c r="C188" t="s">
         <v>68</v>
@@ -39886,190 +39886,190 @@
         <v>24</v>
       </c>
       <c r="G188" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H188" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>2</v>
+      </c>
+      <c r="K188">
+        <v>2</v>
+      </c>
+      <c r="L188">
+        <v>1</v>
+      </c>
+      <c r="M188">
+        <v>2</v>
+      </c>
+      <c r="N188">
         <v>3</v>
       </c>
-      <c r="J188">
-        <v>1</v>
-      </c>
-      <c r="K188">
-        <v>4</v>
-      </c>
-      <c r="L188">
+      <c r="O188" t="s">
+        <v>152</v>
+      </c>
+      <c r="P188" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q188">
         <v>3</v>
       </c>
-      <c r="M188">
-        <v>2</v>
-      </c>
-      <c r="N188">
-        <v>5</v>
-      </c>
-      <c r="O188" t="s">
-        <v>210</v>
-      </c>
-      <c r="P188" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q188">
-        <v>2.7</v>
-      </c>
       <c r="R188">
-        <v>2.26</v>
+        <v>2.27</v>
       </c>
       <c r="S188">
-        <v>3.3</v>
+        <v>3.41</v>
       </c>
       <c r="T188">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="U188">
-        <v>3.22</v>
+        <v>2.88</v>
       </c>
       <c r="V188">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="W188">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="X188">
-        <v>5.2</v>
+        <v>6.85</v>
       </c>
       <c r="Y188">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="Z188">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="AA188">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="AB188">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="AC188">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="AD188">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE188">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AF188">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="AG188">
+        <v>1.85</v>
+      </c>
+      <c r="AH188">
+        <v>1.95</v>
+      </c>
+      <c r="AI188">
+        <v>1.66</v>
+      </c>
+      <c r="AJ188">
+        <v>2.16</v>
+      </c>
+      <c r="AK188">
+        <v>1.33</v>
+      </c>
+      <c r="AL188">
+        <v>0</v>
+      </c>
+      <c r="AM188">
+        <v>1.54</v>
+      </c>
+      <c r="AN188">
+        <v>0.82</v>
+      </c>
+      <c r="AO188">
+        <v>1.6</v>
+      </c>
+      <c r="AP188">
+        <v>0.75</v>
+      </c>
+      <c r="AQ188">
         <v>1.73</v>
       </c>
-      <c r="AH188">
-        <v>2.17</v>
-      </c>
-      <c r="AI188">
-        <v>1.55</v>
-      </c>
-      <c r="AJ188">
-        <v>2.25</v>
-      </c>
-      <c r="AK188">
-        <v>1.28</v>
-      </c>
-      <c r="AL188">
-        <v>0</v>
-      </c>
-      <c r="AM188">
-        <v>1.61</v>
-      </c>
-      <c r="AN188">
-        <v>0.58</v>
-      </c>
-      <c r="AO188">
-        <v>1.18</v>
-      </c>
-      <c r="AP188">
-        <v>0.77</v>
-      </c>
-      <c r="AQ188">
-        <v>1.08</v>
-      </c>
       <c r="AR188">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="AS188">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="AT188">
-        <v>2.28</v>
+        <v>2.63</v>
       </c>
       <c r="AU188">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AV188">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW188">
         <v>6</v>
       </c>
       <c r="AX188">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AY188">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AZ188">
+        <v>9</v>
+      </c>
+      <c r="BA188">
+        <v>12</v>
+      </c>
+      <c r="BB188">
+        <v>3</v>
+      </c>
+      <c r="BC188">
         <v>15</v>
       </c>
-      <c r="BA188">
-        <v>5</v>
-      </c>
-      <c r="BB188">
-        <v>8</v>
-      </c>
-      <c r="BC188">
-        <v>13</v>
-      </c>
       <c r="BD188">
+        <v>1.95</v>
+      </c>
+      <c r="BE188">
+        <v>6.45</v>
+      </c>
+      <c r="BF188">
+        <v>2.27</v>
+      </c>
+      <c r="BG188">
+        <v>1.24</v>
+      </c>
+      <c r="BH188">
+        <v>3.48</v>
+      </c>
+      <c r="BI188">
+        <v>1.41</v>
+      </c>
+      <c r="BJ188">
+        <v>2.6</v>
+      </c>
+      <c r="BK188">
+        <v>1.78</v>
+      </c>
+      <c r="BL188">
+        <v>2.02</v>
+      </c>
+      <c r="BM188">
         <v>2.2</v>
       </c>
-      <c r="BE188">
-        <v>6.35</v>
-      </c>
-      <c r="BF188">
-        <v>1.98</v>
-      </c>
-      <c r="BG188">
-        <v>1.29</v>
-      </c>
-      <c r="BH188">
-        <v>3.15</v>
-      </c>
-      <c r="BI188">
-        <v>1.51</v>
-      </c>
-      <c r="BJ188">
-        <v>2.32</v>
-      </c>
-      <c r="BK188">
-        <v>1.89</v>
-      </c>
-      <c r="BL188">
-        <v>1.81</v>
-      </c>
-      <c r="BM188">
-        <v>2.45</v>
-      </c>
       <c r="BN188">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="BO188">
-        <v>3.12</v>
+        <v>2.88</v>
       </c>
       <c r="BP188">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="189" spans="1:68">
@@ -40077,7 +40077,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>7484720</v>
+        <v>7484724</v>
       </c>
       <c r="C189" t="s">
         <v>68</v>
@@ -40092,190 +40092,190 @@
         <v>24</v>
       </c>
       <c r="G189" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H189" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J189">
         <v>1</v>
       </c>
       <c r="K189">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L189">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M189">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N189">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O189" t="s">
         <v>211</v>
       </c>
       <c r="P189" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Q189">
-        <v>3.6</v>
+        <v>2.87</v>
       </c>
       <c r="R189">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="S189">
-        <v>2.58</v>
+        <v>3.25</v>
       </c>
       <c r="T189">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="U189">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="V189">
+        <v>2.37</v>
+      </c>
+      <c r="W189">
+        <v>1.55</v>
+      </c>
+      <c r="X189">
+        <v>5.4</v>
+      </c>
+      <c r="Y189">
+        <v>1.09</v>
+      </c>
+      <c r="Z189">
         <v>2.3</v>
       </c>
-      <c r="W189">
-        <v>1.61</v>
-      </c>
-      <c r="X189">
-        <v>5.5</v>
-      </c>
-      <c r="Y189">
-        <v>1.14</v>
-      </c>
-      <c r="Z189">
-        <v>3.19</v>
-      </c>
       <c r="AA189">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="AB189">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="AC189">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AD189">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE189">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="AF189">
-        <v>4.7</v>
+        <v>4.52</v>
       </c>
       <c r="AG189">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="AH189">
-        <v>2.25</v>
+        <v>2.19</v>
       </c>
       <c r="AI189">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="AJ189">
         <v>2.3</v>
       </c>
       <c r="AK189">
-        <v>1.26</v>
+        <v>1.39</v>
       </c>
       <c r="AL189">
         <v>0</v>
       </c>
       <c r="AM189">
-        <v>1.32</v>
+        <v>1.55</v>
       </c>
       <c r="AN189">
-        <v>0.64</v>
+        <v>1.73</v>
       </c>
       <c r="AO189">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AP189">
-        <v>0.58</v>
+        <v>1.83</v>
       </c>
       <c r="AQ189">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR189">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AS189">
-        <v>1.55</v>
+        <v>1.46</v>
       </c>
       <c r="AT189">
-        <v>2.97</v>
+        <v>2.86</v>
       </c>
       <c r="AU189">
+        <v>6</v>
+      </c>
+      <c r="AV189">
         <v>5</v>
       </c>
-      <c r="AV189">
-        <v>7</v>
-      </c>
       <c r="AW189">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AX189">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AY189">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AZ189">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA189">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BB189">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC189">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BD189">
-        <v>3.02</v>
+        <v>2.77</v>
       </c>
       <c r="BE189">
-        <v>8.699999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="BF189">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="BG189">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="BH189">
-        <v>3.27</v>
+        <v>4.1</v>
       </c>
       <c r="BI189">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="BJ189">
-        <v>2.42</v>
+        <v>2.98</v>
       </c>
       <c r="BK189">
-        <v>2.05</v>
+        <v>1.74</v>
       </c>
       <c r="BL189">
-        <v>1.92</v>
+        <v>2.26</v>
       </c>
       <c r="BM189">
-        <v>2.27</v>
+        <v>1.93</v>
       </c>
       <c r="BN189">
-        <v>1.59</v>
+        <v>1.78</v>
       </c>
       <c r="BO189">
-        <v>2.97</v>
+        <v>2.48</v>
       </c>
       <c r="BP189">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="190" spans="1:68">
@@ -40283,7 +40283,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>7484722</v>
+        <v>7484725</v>
       </c>
       <c r="C190" t="s">
         <v>68</v>
@@ -40298,190 +40298,190 @@
         <v>24</v>
       </c>
       <c r="G190" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H190" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K190">
         <v>1</v>
       </c>
       <c r="L190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M190">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N190">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O190" t="s">
         <v>212</v>
       </c>
       <c r="P190" t="s">
-        <v>86</v>
+        <v>314</v>
       </c>
       <c r="Q190">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="R190">
-        <v>2.28</v>
+        <v>2.05</v>
       </c>
       <c r="S190">
-        <v>3.8</v>
+        <v>2.89</v>
       </c>
       <c r="T190">
+        <v>1.42</v>
+      </c>
+      <c r="U190">
+        <v>2.7</v>
+      </c>
+      <c r="V190">
+        <v>2.88</v>
+      </c>
+      <c r="W190">
         <v>1.36</v>
       </c>
-      <c r="U190">
-        <v>2.88</v>
-      </c>
-      <c r="V190">
-        <v>2.73</v>
-      </c>
-      <c r="W190">
-        <v>1.45</v>
-      </c>
       <c r="X190">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="Y190">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="Z190">
-        <v>1.99</v>
+        <v>2.8</v>
       </c>
       <c r="AA190">
-        <v>3.4</v>
+        <v>3.34</v>
       </c>
       <c r="AB190">
-        <v>3.25</v>
+        <v>2.41</v>
       </c>
       <c r="AC190">
         <v>1.04</v>
       </c>
       <c r="AD190">
-        <v>9.75</v>
+        <v>8.5</v>
       </c>
       <c r="AE190">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AF190">
-        <v>3.28</v>
+        <v>3.2</v>
       </c>
       <c r="AG190">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="AH190">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="AI190">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="AJ190">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AK190">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AL190">
         <v>0</v>
       </c>
       <c r="AM190">
-        <v>1.8</v>
+        <v>1.36</v>
       </c>
       <c r="AN190">
-        <v>1.18</v>
+        <v>1.55</v>
       </c>
       <c r="AO190">
-        <v>1.09</v>
+        <v>2.33</v>
       </c>
       <c r="AP190">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ190">
-        <v>1</v>
+        <v>2.38</v>
       </c>
       <c r="AR190">
-        <v>1.27</v>
+        <v>1.63</v>
       </c>
       <c r="AS190">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT190">
+        <v>3.23</v>
+      </c>
+      <c r="AU190">
+        <v>4</v>
+      </c>
+      <c r="AV190">
+        <v>8</v>
+      </c>
+      <c r="AW190">
+        <v>3</v>
+      </c>
+      <c r="AX190">
+        <v>15</v>
+      </c>
+      <c r="AY190">
+        <v>7</v>
+      </c>
+      <c r="AZ190">
+        <v>28</v>
+      </c>
+      <c r="BA190">
+        <v>3</v>
+      </c>
+      <c r="BB190">
+        <v>13</v>
+      </c>
+      <c r="BC190">
+        <v>16</v>
+      </c>
+      <c r="BD190">
+        <v>2.01</v>
+      </c>
+      <c r="BE190">
+        <v>6.6</v>
+      </c>
+      <c r="BF190">
+        <v>2.18</v>
+      </c>
+      <c r="BG190">
+        <v>1.39</v>
+      </c>
+      <c r="BH190">
         <v>2.77</v>
       </c>
-      <c r="AU190">
-        <v>6</v>
-      </c>
-      <c r="AV190">
-        <v>0</v>
-      </c>
-      <c r="AW190">
-        <v>6</v>
-      </c>
-      <c r="AX190">
-        <v>10</v>
-      </c>
-      <c r="AY190">
-        <v>15</v>
-      </c>
-      <c r="AZ190">
-        <v>12</v>
-      </c>
-      <c r="BA190">
-        <v>7</v>
-      </c>
-      <c r="BB190">
-        <v>5</v>
-      </c>
-      <c r="BC190">
-        <v>12</v>
-      </c>
-      <c r="BD190">
-        <v>1.65</v>
-      </c>
-      <c r="BE190">
-        <v>6.65</v>
-      </c>
-      <c r="BF190">
-        <v>2.83</v>
-      </c>
-      <c r="BG190">
-        <v>1.27</v>
-      </c>
-      <c r="BH190">
-        <v>3.3</v>
-      </c>
       <c r="BI190">
-        <v>1.44</v>
+        <v>1.68</v>
       </c>
       <c r="BJ190">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="BK190">
-        <v>2.07</v>
+        <v>2.09</v>
       </c>
       <c r="BL190">
-        <v>1.95</v>
+        <v>1.66</v>
       </c>
       <c r="BM190">
-        <v>2.29</v>
+        <v>2.65</v>
       </c>
       <c r="BN190">
-        <v>1.58</v>
+        <v>1.42</v>
       </c>
       <c r="BO190">
-        <v>2.9</v>
+        <v>3.52</v>
       </c>
       <c r="BP190">
-        <v>1.36</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="191" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria 2. Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria 2. Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="328">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -676,6 +676,18 @@
     <t>['81']</t>
   </si>
   <si>
+    <t>['13', '22', '35', '37']</t>
+  </si>
+  <si>
+    <t>['16', '86', '90+2']</t>
+  </si>
+  <si>
+    <t>['17', '78']</t>
+  </si>
+  <si>
+    <t>['14', '77']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -977,6 +989,15 @@
   </si>
   <si>
     <t>['8', '53', '86']</t>
+  </si>
+  <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
+    <t>['32', '41', '75']</t>
+  </si>
+  <si>
+    <t>['21', '23']</t>
   </si>
 </sst>
 </file>
@@ -1338,7 +1359,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP199"/>
+  <dimension ref="A1:BP204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1597,7 +1618,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1678,7 +1699,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ2">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1803,7 +1824,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1881,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -2009,7 +2030,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q4">
         <v>6.5</v>
@@ -2215,7 +2236,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q5">
         <v>3.25</v>
@@ -2296,7 +2317,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2499,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AQ6">
         <v>1.54</v>
@@ -2705,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ7">
         <v>0.38</v>
@@ -2914,7 +2935,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ8">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3451,7 +3472,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3529,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AQ11">
         <v>1.73</v>
@@ -3657,7 +3678,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3944,7 +3965,7 @@
         <v>2</v>
       </c>
       <c r="AQ13">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4147,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ14">
         <v>1.38</v>
@@ -4481,7 +4502,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q16">
         <v>2.1</v>
@@ -4562,7 +4583,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ16">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4687,7 +4708,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -4893,7 +4914,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q18">
         <v>2.2</v>
@@ -4974,7 +4995,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ18">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR18">
         <v>1.17</v>
@@ -5099,7 +5120,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q19">
         <v>2.5</v>
@@ -5177,10 +5198,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR19">
         <v>0.97</v>
@@ -5305,7 +5326,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q20">
         <v>3.75</v>
@@ -5386,7 +5407,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ20">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR20">
         <v>0.71</v>
@@ -5511,7 +5532,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q21">
         <v>4.5</v>
@@ -5717,7 +5738,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5795,10 +5816,10 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR22">
         <v>1.76</v>
@@ -6001,7 +6022,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AQ23">
         <v>0.38</v>
@@ -6129,7 +6150,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6335,7 +6356,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q25">
         <v>2.38</v>
@@ -6413,7 +6434,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ25">
         <v>1</v>
@@ -6541,7 +6562,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6747,7 +6768,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q27">
         <v>4.5</v>
@@ -7159,7 +7180,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q29">
         <v>2.05</v>
@@ -7240,7 +7261,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ29">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR29">
         <v>1.46</v>
@@ -7365,7 +7386,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q30">
         <v>2.75</v>
@@ -7443,7 +7464,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AQ30">
         <v>0.77</v>
@@ -7571,7 +7592,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -8189,7 +8210,7 @@
         <v>109</v>
       </c>
       <c r="P34" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q34">
         <v>1.8</v>
@@ -8270,7 +8291,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ34">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR34">
         <v>1.46</v>
@@ -8473,10 +8494,10 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR35">
         <v>1.62</v>
@@ -8601,7 +8622,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -8682,7 +8703,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ36">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR36">
         <v>1.65</v>
@@ -8807,7 +8828,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8885,7 +8906,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ37">
         <v>0.92</v>
@@ -9013,7 +9034,7 @@
         <v>112</v>
       </c>
       <c r="P38" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q38">
         <v>2.75</v>
@@ -9300,7 +9321,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ39">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR39">
         <v>0.82</v>
@@ -9425,7 +9446,7 @@
         <v>86</v>
       </c>
       <c r="P40" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9503,7 +9524,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AQ40">
         <v>2.38</v>
@@ -9631,7 +9652,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9709,7 +9730,7 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
         <v>1.54</v>
@@ -9837,7 +9858,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -10455,7 +10476,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10536,7 +10557,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ45">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR45">
         <v>0.9399999999999999</v>
@@ -10661,7 +10682,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10742,7 +10763,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR46">
         <v>1.15</v>
@@ -10867,7 +10888,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q47">
         <v>3.6</v>
@@ -10945,7 +10966,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ47">
         <v>1.77</v>
@@ -11073,7 +11094,7 @@
         <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -11151,7 +11172,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AQ48">
         <v>1.54</v>
@@ -11357,7 +11378,7 @@
         <v>1.33</v>
       </c>
       <c r="AP49">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AQ49">
         <v>0.92</v>
@@ -11563,10 +11584,10 @@
         <v>0.33</v>
       </c>
       <c r="AP50">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ50">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR50">
         <v>1.26</v>
@@ -11691,7 +11712,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -11897,7 +11918,7 @@
         <v>86</v>
       </c>
       <c r="P52" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q52">
         <v>2.1</v>
@@ -11978,7 +11999,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ52">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR52">
         <v>1.53</v>
@@ -12309,7 +12330,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -12390,7 +12411,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ54">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR54">
         <v>1.74</v>
@@ -12593,7 +12614,7 @@
         <v>2.33</v>
       </c>
       <c r="AP55">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AQ55">
         <v>1.38</v>
@@ -12721,7 +12742,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q56">
         <v>3.25</v>
@@ -12927,7 +12948,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q57">
         <v>3.2</v>
@@ -13133,7 +13154,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q58">
         <v>1.8</v>
@@ -13214,7 +13235,7 @@
         <v>2</v>
       </c>
       <c r="AQ58">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR58">
         <v>1.23</v>
@@ -13417,7 +13438,7 @@
         <v>0.33</v>
       </c>
       <c r="AP59">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ59">
         <v>0.77</v>
@@ -13751,7 +13772,7 @@
         <v>125</v>
       </c>
       <c r="P61" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -14035,7 +14056,7 @@
         <v>3</v>
       </c>
       <c r="AP62">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ62">
         <v>2.23</v>
@@ -14163,7 +14184,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q63">
         <v>3.6</v>
@@ -14244,7 +14265,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ63">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR63">
         <v>1.26</v>
@@ -14575,7 +14596,7 @@
         <v>128</v>
       </c>
       <c r="P65" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14653,7 +14674,7 @@
         <v>0.25</v>
       </c>
       <c r="AP65">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ65">
         <v>0.38</v>
@@ -14781,7 +14802,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -14987,7 +15008,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -15068,7 +15089,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ67">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR67">
         <v>1.77</v>
@@ -15193,7 +15214,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q68">
         <v>2.1</v>
@@ -15274,7 +15295,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ68">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR68">
         <v>1.14</v>
@@ -15811,7 +15832,7 @@
         <v>133</v>
       </c>
       <c r="P71" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q71">
         <v>2.1</v>
@@ -16301,7 +16322,7 @@
         <v>2</v>
       </c>
       <c r="AP73">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ73">
         <v>1.73</v>
@@ -16507,7 +16528,7 @@
         <v>3</v>
       </c>
       <c r="AP74">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ74">
         <v>2.38</v>
@@ -16635,7 +16656,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16716,7 +16737,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ75">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR75">
         <v>1.29</v>
@@ -16841,7 +16862,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -16922,7 +16943,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ76">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR76">
         <v>1.4</v>
@@ -17047,7 +17068,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q77">
         <v>3.1</v>
@@ -17253,7 +17274,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q78">
         <v>3.75</v>
@@ -17331,10 +17352,10 @@
         <v>1.75</v>
       </c>
       <c r="AP78">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AQ78">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR78">
         <v>1.34</v>
@@ -17459,7 +17480,7 @@
         <v>138</v>
       </c>
       <c r="P79" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17540,7 +17561,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ79">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR79">
         <v>0.98</v>
@@ -17743,7 +17764,7 @@
         <v>1.25</v>
       </c>
       <c r="AP80">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AQ80">
         <v>1</v>
@@ -17871,7 +17892,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -18695,7 +18716,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q85">
         <v>2</v>
@@ -18901,7 +18922,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -19313,7 +19334,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q88">
         <v>4.33</v>
@@ -19519,7 +19540,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q89">
         <v>3.1</v>
@@ -19725,7 +19746,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19803,10 +19824,10 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ90">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR90">
         <v>1.43</v>
@@ -20009,7 +20030,7 @@
         <v>2.6</v>
       </c>
       <c r="AP91">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AQ91">
         <v>2.38</v>
@@ -20137,7 +20158,7 @@
         <v>86</v>
       </c>
       <c r="P92" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q92">
         <v>2.5</v>
@@ -20215,7 +20236,7 @@
         <v>1</v>
       </c>
       <c r="AP92">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ92">
         <v>1</v>
@@ -20343,7 +20364,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20421,7 +20442,7 @@
         <v>2</v>
       </c>
       <c r="AP93">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ93">
         <v>1.73</v>
@@ -20549,7 +20570,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20630,7 +20651,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ94">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR94">
         <v>1.93</v>
@@ -20755,7 +20776,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q95">
         <v>2.6</v>
@@ -20833,10 +20854,10 @@
         <v>1.2</v>
       </c>
       <c r="AP95">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AQ95">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR95">
         <v>1.33</v>
@@ -21167,7 +21188,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q97">
         <v>3.2</v>
@@ -21248,7 +21269,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ97">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR97">
         <v>1.11</v>
@@ -21579,7 +21600,7 @@
         <v>142</v>
       </c>
       <c r="P99" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21785,7 +21806,7 @@
         <v>86</v>
       </c>
       <c r="P100" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q100">
         <v>3.2</v>
@@ -21991,7 +22012,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -22403,7 +22424,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q103">
         <v>4.5</v>
@@ -22609,7 +22630,7 @@
         <v>152</v>
       </c>
       <c r="P104" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -22687,7 +22708,7 @@
         <v>2.4</v>
       </c>
       <c r="AP104">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ104">
         <v>2.23</v>
@@ -22896,7 +22917,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ105">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR105">
         <v>1.61</v>
@@ -23021,7 +23042,7 @@
         <v>86</v>
       </c>
       <c r="P106" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23227,7 +23248,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23433,7 +23454,7 @@
         <v>153</v>
       </c>
       <c r="P108" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q108">
         <v>2.88</v>
@@ -23514,7 +23535,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ108">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR108">
         <v>1.76</v>
@@ -23639,7 +23660,7 @@
         <v>86</v>
       </c>
       <c r="P109" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q109">
         <v>3.2</v>
@@ -23717,10 +23738,10 @@
         <v>1.29</v>
       </c>
       <c r="AP109">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AQ109">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR109">
         <v>1.43</v>
@@ -23926,7 +23947,7 @@
         <v>2</v>
       </c>
       <c r="AQ110">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR110">
         <v>1.28</v>
@@ -24132,7 +24153,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ111">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR111">
         <v>1.21</v>
@@ -24335,7 +24356,7 @@
         <v>2.17</v>
       </c>
       <c r="AP112">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AQ112">
         <v>1.73</v>
@@ -24541,7 +24562,7 @@
         <v>0.5</v>
       </c>
       <c r="AP113">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ113">
         <v>0.77</v>
@@ -24953,7 +24974,7 @@
         <v>1.71</v>
       </c>
       <c r="AP115">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ115">
         <v>1.38</v>
@@ -25081,7 +25102,7 @@
         <v>157</v>
       </c>
       <c r="P116" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q116">
         <v>3.5</v>
@@ -25162,7 +25183,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ116">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR116">
         <v>1.11</v>
@@ -25365,7 +25386,7 @@
         <v>0.57</v>
       </c>
       <c r="AP117">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ117">
         <v>0.38</v>
@@ -25699,7 +25720,7 @@
         <v>152</v>
       </c>
       <c r="P119" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q119">
         <v>2.63</v>
@@ -26317,7 +26338,7 @@
         <v>86</v>
       </c>
       <c r="P122" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -26729,7 +26750,7 @@
         <v>161</v>
       </c>
       <c r="P124" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q124">
         <v>2.38</v>
@@ -26807,7 +26828,7 @@
         <v>1</v>
       </c>
       <c r="AP124">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ124">
         <v>0.92</v>
@@ -26935,7 +26956,7 @@
         <v>162</v>
       </c>
       <c r="P125" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -27141,7 +27162,7 @@
         <v>163</v>
       </c>
       <c r="P126" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -27347,7 +27368,7 @@
         <v>164</v>
       </c>
       <c r="P127" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27425,7 +27446,7 @@
         <v>1.5</v>
       </c>
       <c r="AP127">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AQ127">
         <v>1.38</v>
@@ -27553,7 +27574,7 @@
         <v>165</v>
       </c>
       <c r="P128" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q128">
         <v>2.75</v>
@@ -27634,7 +27655,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ128">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR128">
         <v>1.75</v>
@@ -27759,7 +27780,7 @@
         <v>166</v>
       </c>
       <c r="P129" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q129">
         <v>1.95</v>
@@ -27840,7 +27861,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ129">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR129">
         <v>1.89</v>
@@ -27965,7 +27986,7 @@
         <v>86</v>
       </c>
       <c r="P130" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q130">
         <v>3.4</v>
@@ -28043,7 +28064,7 @@
         <v>1.88</v>
       </c>
       <c r="AP130">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ130">
         <v>1.77</v>
@@ -28377,7 +28398,7 @@
         <v>153</v>
       </c>
       <c r="P132" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28583,7 +28604,7 @@
         <v>168</v>
       </c>
       <c r="P133" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q133">
         <v>2.5</v>
@@ -28661,10 +28682,10 @@
         <v>2.29</v>
       </c>
       <c r="AP133">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AQ133">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR133">
         <v>1.4</v>
@@ -29076,7 +29097,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ135">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR135">
         <v>1.26</v>
@@ -29485,10 +29506,10 @@
         <v>1.43</v>
       </c>
       <c r="AP137">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ137">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR137">
         <v>1.29</v>
@@ -29819,7 +29840,7 @@
         <v>171</v>
       </c>
       <c r="P139" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q139">
         <v>4.8</v>
@@ -29897,7 +29918,7 @@
         <v>2.38</v>
       </c>
       <c r="AP139">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AQ139">
         <v>2.23</v>
@@ -30231,7 +30252,7 @@
         <v>173</v>
       </c>
       <c r="P141" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -30930,7 +30951,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ144">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR144">
         <v>1.3</v>
@@ -31133,10 +31154,10 @@
         <v>0.75</v>
       </c>
       <c r="AP145">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ145">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR145">
         <v>1.22</v>
@@ -31261,7 +31282,7 @@
         <v>178</v>
       </c>
       <c r="P146" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q146">
         <v>2.5</v>
@@ -31467,7 +31488,7 @@
         <v>179</v>
       </c>
       <c r="P147" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q147">
         <v>2.36</v>
@@ -31545,7 +31566,7 @@
         <v>1.56</v>
       </c>
       <c r="AP147">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ147">
         <v>1.54</v>
@@ -31751,10 +31772,10 @@
         <v>1.22</v>
       </c>
       <c r="AP148">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ148">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR148">
         <v>1.35</v>
@@ -31879,7 +31900,7 @@
         <v>181</v>
       </c>
       <c r="P149" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q149">
         <v>2.1</v>
@@ -31957,10 +31978,10 @@
         <v>1.25</v>
       </c>
       <c r="AP149">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AQ149">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR149">
         <v>1.38</v>
@@ -32085,7 +32106,7 @@
         <v>182</v>
       </c>
       <c r="P150" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q150">
         <v>2.63</v>
@@ -32372,7 +32393,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ151">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR151">
         <v>1.34</v>
@@ -32703,7 +32724,7 @@
         <v>185</v>
       </c>
       <c r="P153" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q153">
         <v>2.88</v>
@@ -32909,7 +32930,7 @@
         <v>86</v>
       </c>
       <c r="P154" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q154">
         <v>3.75</v>
@@ -33115,7 +33136,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q155">
         <v>3.6</v>
@@ -33733,7 +33754,7 @@
         <v>188</v>
       </c>
       <c r="P158" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q158">
         <v>2.4</v>
@@ -33811,10 +33832,10 @@
         <v>1.78</v>
       </c>
       <c r="AP158">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ158">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR158">
         <v>1.5</v>
@@ -34351,7 +34372,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -34429,7 +34450,7 @@
         <v>1.4</v>
       </c>
       <c r="AP161">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ161">
         <v>1.54</v>
@@ -34557,7 +34578,7 @@
         <v>192</v>
       </c>
       <c r="P162" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q162">
         <v>3.2</v>
@@ -34635,10 +34656,10 @@
         <v>1.11</v>
       </c>
       <c r="AP162">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AQ162">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR162">
         <v>1.33</v>
@@ -34844,7 +34865,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ163">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR163">
         <v>1.17</v>
@@ -35047,7 +35068,7 @@
         <v>2.2</v>
       </c>
       <c r="AP164">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ164">
         <v>2.38</v>
@@ -35381,7 +35402,7 @@
         <v>195</v>
       </c>
       <c r="P166" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q166">
         <v>2.88</v>
@@ -35462,7 +35483,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ166">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR166">
         <v>1.64</v>
@@ -35665,7 +35686,7 @@
         <v>1.9</v>
       </c>
       <c r="AP167">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AQ167">
         <v>1.77</v>
@@ -35874,7 +35895,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ168">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR168">
         <v>1.22</v>
@@ -35999,7 +36020,7 @@
         <v>198</v>
       </c>
       <c r="P169" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q169">
         <v>2.88</v>
@@ -36286,7 +36307,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ170">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR170">
         <v>1.79</v>
@@ -36411,7 +36432,7 @@
         <v>200</v>
       </c>
       <c r="P171" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q171">
         <v>2.5</v>
@@ -36823,7 +36844,7 @@
         <v>86</v>
       </c>
       <c r="P173" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q173">
         <v>3.1</v>
@@ -37235,7 +37256,7 @@
         <v>177</v>
       </c>
       <c r="P175" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q175">
         <v>5</v>
@@ -37519,7 +37540,7 @@
         <v>1.1</v>
       </c>
       <c r="AP176">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ176">
         <v>1.17</v>
@@ -37647,7 +37668,7 @@
         <v>86</v>
       </c>
       <c r="P177" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q177">
         <v>5.25</v>
@@ -37853,7 +37874,7 @@
         <v>203</v>
       </c>
       <c r="P178" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q178">
         <v>2.2</v>
@@ -37934,7 +37955,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ178">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR178">
         <v>1.24</v>
@@ -38137,7 +38158,7 @@
         <v>2.36</v>
       </c>
       <c r="AP179">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ179">
         <v>2.23</v>
@@ -38265,7 +38286,7 @@
         <v>204</v>
       </c>
       <c r="P180" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q180">
         <v>4.2</v>
@@ -38677,7 +38698,7 @@
         <v>206</v>
       </c>
       <c r="P182" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q182">
         <v>2.3</v>
@@ -38755,10 +38776,10 @@
         <v>1.18</v>
       </c>
       <c r="AP182">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ182">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR182">
         <v>1.41</v>
@@ -38883,7 +38904,7 @@
         <v>207</v>
       </c>
       <c r="P183" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q183">
         <v>3.45</v>
@@ -38961,7 +38982,7 @@
         <v>0.73</v>
       </c>
       <c r="AP183">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AQ183">
         <v>0.92</v>
@@ -39170,7 +39191,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ184">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR184">
         <v>1.72</v>
@@ -39295,7 +39316,7 @@
         <v>208</v>
       </c>
       <c r="P185" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q185">
         <v>3.6</v>
@@ -39373,7 +39394,7 @@
         <v>1</v>
       </c>
       <c r="AP185">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AQ185">
         <v>1.17</v>
@@ -39501,7 +39522,7 @@
         <v>209</v>
       </c>
       <c r="P186" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q186">
         <v>2.7</v>
@@ -39582,7 +39603,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ186">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR186">
         <v>1.01</v>
@@ -39788,7 +39809,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ187">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR187">
         <v>1.27</v>
@@ -39913,7 +39934,7 @@
         <v>152</v>
       </c>
       <c r="P188" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q188">
         <v>3</v>
@@ -39991,7 +40012,7 @@
         <v>1.6</v>
       </c>
       <c r="AP188">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ188">
         <v>1.73</v>
@@ -40119,7 +40140,7 @@
         <v>211</v>
       </c>
       <c r="P189" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q189">
         <v>2.87</v>
@@ -40325,7 +40346,7 @@
         <v>212</v>
       </c>
       <c r="P190" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q190">
         <v>3.4</v>
@@ -40403,7 +40424,7 @@
         <v>2.33</v>
       </c>
       <c r="AP190">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ190">
         <v>2.38</v>
@@ -40531,7 +40552,7 @@
         <v>213</v>
       </c>
       <c r="P191" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q191">
         <v>2.2</v>
@@ -40609,7 +40630,7 @@
         <v>0.73</v>
       </c>
       <c r="AP191">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AQ191">
         <v>0.77</v>
@@ -40943,7 +40964,7 @@
         <v>214</v>
       </c>
       <c r="P193" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q193">
         <v>3.8</v>
@@ -41149,7 +41170,7 @@
         <v>86</v>
       </c>
       <c r="P194" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q194">
         <v>2.98</v>
@@ -41561,7 +41582,7 @@
         <v>216</v>
       </c>
       <c r="P196" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q196">
         <v>2.58</v>
@@ -41639,7 +41660,7 @@
         <v>0.75</v>
       </c>
       <c r="AP196">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ196">
         <v>0.77</v>
@@ -41767,7 +41788,7 @@
         <v>217</v>
       </c>
       <c r="P197" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -41973,7 +41994,7 @@
         <v>218</v>
       </c>
       <c r="P198" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q198">
         <v>1.75</v>
@@ -42179,7 +42200,7 @@
         <v>219</v>
       </c>
       <c r="P199" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q199">
         <v>3</v>
@@ -42260,7 +42281,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ199">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR199">
         <v>1.32</v>
@@ -42336,6 +42357,1036 @@
       </c>
       <c r="BP199">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="200" spans="1:68">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>7484742</v>
+      </c>
+      <c r="C200" t="s">
+        <v>68</v>
+      </c>
+      <c r="D200" t="s">
+        <v>69</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45772.54166666666</v>
+      </c>
+      <c r="F200">
+        <v>26</v>
+      </c>
+      <c r="G200" t="s">
+        <v>82</v>
+      </c>
+      <c r="H200" t="s">
+        <v>73</v>
+      </c>
+      <c r="I200">
+        <v>4</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>4</v>
+      </c>
+      <c r="L200">
+        <v>4</v>
+      </c>
+      <c r="M200">
+        <v>1</v>
+      </c>
+      <c r="N200">
+        <v>5</v>
+      </c>
+      <c r="O200" t="s">
+        <v>220</v>
+      </c>
+      <c r="P200" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q200">
+        <v>1.92</v>
+      </c>
+      <c r="R200">
+        <v>2.56</v>
+      </c>
+      <c r="S200">
+        <v>5.25</v>
+      </c>
+      <c r="T200">
+        <v>1.22</v>
+      </c>
+      <c r="U200">
+        <v>4.4</v>
+      </c>
+      <c r="V200">
+        <v>2.22</v>
+      </c>
+      <c r="W200">
+        <v>1.66</v>
+      </c>
+      <c r="X200">
+        <v>4.33</v>
+      </c>
+      <c r="Y200">
+        <v>1.12</v>
+      </c>
+      <c r="Z200">
+        <v>1.51</v>
+      </c>
+      <c r="AA200">
+        <v>4.1</v>
+      </c>
+      <c r="AB200">
+        <v>6.2</v>
+      </c>
+      <c r="AC200">
+        <v>1.03</v>
+      </c>
+      <c r="AD200">
+        <v>12</v>
+      </c>
+      <c r="AE200">
+        <v>1.09</v>
+      </c>
+      <c r="AF200">
+        <v>5.8</v>
+      </c>
+      <c r="AG200">
+        <v>1.95</v>
+      </c>
+      <c r="AH200">
+        <v>1.79</v>
+      </c>
+      <c r="AI200">
+        <v>1.57</v>
+      </c>
+      <c r="AJ200">
+        <v>2.15</v>
+      </c>
+      <c r="AK200">
+        <v>1.13</v>
+      </c>
+      <c r="AL200">
+        <v>0</v>
+      </c>
+      <c r="AM200">
+        <v>2.65</v>
+      </c>
+      <c r="AN200">
+        <v>1.42</v>
+      </c>
+      <c r="AO200">
+        <v>0.83</v>
+      </c>
+      <c r="AP200">
+        <v>1.54</v>
+      </c>
+      <c r="AQ200">
+        <v>0.77</v>
+      </c>
+      <c r="AR200">
+        <v>1.57</v>
+      </c>
+      <c r="AS200">
+        <v>1</v>
+      </c>
+      <c r="AT200">
+        <v>2.57</v>
+      </c>
+      <c r="AU200">
+        <v>9</v>
+      </c>
+      <c r="AV200">
+        <v>5</v>
+      </c>
+      <c r="AW200">
+        <v>13</v>
+      </c>
+      <c r="AX200">
+        <v>3</v>
+      </c>
+      <c r="AY200">
+        <v>25</v>
+      </c>
+      <c r="AZ200">
+        <v>8</v>
+      </c>
+      <c r="BA200">
+        <v>14</v>
+      </c>
+      <c r="BB200">
+        <v>3</v>
+      </c>
+      <c r="BC200">
+        <v>17</v>
+      </c>
+      <c r="BD200">
+        <v>1.32</v>
+      </c>
+      <c r="BE200">
+        <v>10</v>
+      </c>
+      <c r="BF200">
+        <v>4.61</v>
+      </c>
+      <c r="BG200">
+        <v>1.19</v>
+      </c>
+      <c r="BH200">
+        <v>3.68</v>
+      </c>
+      <c r="BI200">
+        <v>1.4</v>
+      </c>
+      <c r="BJ200">
+        <v>2.65</v>
+      </c>
+      <c r="BK200">
+        <v>1.89</v>
+      </c>
+      <c r="BL200">
+        <v>2.08</v>
+      </c>
+      <c r="BM200">
+        <v>2.11</v>
+      </c>
+      <c r="BN200">
+        <v>1.68</v>
+      </c>
+      <c r="BO200">
+        <v>2.65</v>
+      </c>
+      <c r="BP200">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="201" spans="1:68">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>7484738</v>
+      </c>
+      <c r="C201" t="s">
+        <v>68</v>
+      </c>
+      <c r="D201" t="s">
+        <v>69</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45772.54166666666</v>
+      </c>
+      <c r="F201">
+        <v>26</v>
+      </c>
+      <c r="G201" t="s">
+        <v>79</v>
+      </c>
+      <c r="H201" t="s">
+        <v>84</v>
+      </c>
+      <c r="I201">
+        <v>1</v>
+      </c>
+      <c r="J201">
+        <v>1</v>
+      </c>
+      <c r="K201">
+        <v>2</v>
+      </c>
+      <c r="L201">
+        <v>3</v>
+      </c>
+      <c r="M201">
+        <v>1</v>
+      </c>
+      <c r="N201">
+        <v>4</v>
+      </c>
+      <c r="O201" t="s">
+        <v>221</v>
+      </c>
+      <c r="P201" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q201">
+        <v>3.2</v>
+      </c>
+      <c r="R201">
+        <v>2.6</v>
+      </c>
+      <c r="S201">
+        <v>2.45</v>
+      </c>
+      <c r="T201">
+        <v>1.16</v>
+      </c>
+      <c r="U201">
+        <v>4.35</v>
+      </c>
+      <c r="V201">
+        <v>1.91</v>
+      </c>
+      <c r="W201">
+        <v>1.85</v>
+      </c>
+      <c r="X201">
+        <v>4.35</v>
+      </c>
+      <c r="Y201">
+        <v>1.17</v>
+      </c>
+      <c r="Z201">
+        <v>3.85</v>
+      </c>
+      <c r="AA201">
+        <v>4.1</v>
+      </c>
+      <c r="AB201">
+        <v>1.76</v>
+      </c>
+      <c r="AC201">
+        <v>1</v>
+      </c>
+      <c r="AD201">
+        <v>10</v>
+      </c>
+      <c r="AE201">
+        <v>1.08</v>
+      </c>
+      <c r="AF201">
+        <v>6.55</v>
+      </c>
+      <c r="AG201">
+        <v>1.45</v>
+      </c>
+      <c r="AH201">
+        <v>2.56</v>
+      </c>
+      <c r="AI201">
+        <v>1.31</v>
+      </c>
+      <c r="AJ201">
+        <v>3</v>
+      </c>
+      <c r="AK201">
+        <v>1.22</v>
+      </c>
+      <c r="AL201">
+        <v>0</v>
+      </c>
+      <c r="AM201">
+        <v>1.35</v>
+      </c>
+      <c r="AN201">
+        <v>0.58</v>
+      </c>
+      <c r="AO201">
+        <v>1</v>
+      </c>
+      <c r="AP201">
+        <v>0.77</v>
+      </c>
+      <c r="AQ201">
+        <v>0.92</v>
+      </c>
+      <c r="AR201">
+        <v>1.39</v>
+      </c>
+      <c r="AS201">
+        <v>1.46</v>
+      </c>
+      <c r="AT201">
+        <v>2.85</v>
+      </c>
+      <c r="AU201">
+        <v>5</v>
+      </c>
+      <c r="AV201">
+        <v>2</v>
+      </c>
+      <c r="AW201">
+        <v>3</v>
+      </c>
+      <c r="AX201">
+        <v>6</v>
+      </c>
+      <c r="AY201">
+        <v>8</v>
+      </c>
+      <c r="AZ201">
+        <v>8</v>
+      </c>
+      <c r="BA201">
+        <v>2</v>
+      </c>
+      <c r="BB201">
+        <v>5</v>
+      </c>
+      <c r="BC201">
+        <v>7</v>
+      </c>
+      <c r="BD201">
+        <v>2.38</v>
+      </c>
+      <c r="BE201">
+        <v>6.9</v>
+      </c>
+      <c r="BF201">
+        <v>1.87</v>
+      </c>
+      <c r="BG201">
+        <v>1.19</v>
+      </c>
+      <c r="BH201">
+        <v>3.95</v>
+      </c>
+      <c r="BI201">
+        <v>1.38</v>
+      </c>
+      <c r="BJ201">
+        <v>2.88</v>
+      </c>
+      <c r="BK201">
+        <v>1.7</v>
+      </c>
+      <c r="BL201">
+        <v>2.05</v>
+      </c>
+      <c r="BM201">
+        <v>2</v>
+      </c>
+      <c r="BN201">
+        <v>1.76</v>
+      </c>
+      <c r="BO201">
+        <v>2.5</v>
+      </c>
+      <c r="BP201">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="202" spans="1:68">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>7484745</v>
+      </c>
+      <c r="C202" t="s">
+        <v>68</v>
+      </c>
+      <c r="D202" t="s">
+        <v>69</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45772.54166666666</v>
+      </c>
+      <c r="F202">
+        <v>26</v>
+      </c>
+      <c r="G202" t="s">
+        <v>74</v>
+      </c>
+      <c r="H202" t="s">
+        <v>76</v>
+      </c>
+      <c r="I202">
+        <v>1</v>
+      </c>
+      <c r="J202">
+        <v>2</v>
+      </c>
+      <c r="K202">
+        <v>3</v>
+      </c>
+      <c r="L202">
+        <v>2</v>
+      </c>
+      <c r="M202">
+        <v>3</v>
+      </c>
+      <c r="N202">
+        <v>5</v>
+      </c>
+      <c r="O202" t="s">
+        <v>222</v>
+      </c>
+      <c r="P202" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q202">
+        <v>1.77</v>
+      </c>
+      <c r="R202">
+        <v>2.65</v>
+      </c>
+      <c r="S202">
+        <v>7</v>
+      </c>
+      <c r="T202">
+        <v>1.25</v>
+      </c>
+      <c r="U202">
+        <v>3.6</v>
+      </c>
+      <c r="V202">
+        <v>2.27</v>
+      </c>
+      <c r="W202">
+        <v>1.58</v>
+      </c>
+      <c r="X202">
+        <v>5</v>
+      </c>
+      <c r="Y202">
+        <v>1.15</v>
+      </c>
+      <c r="Z202">
+        <v>1.76</v>
+      </c>
+      <c r="AA202">
+        <v>3.53</v>
+      </c>
+      <c r="AB202">
+        <v>4.6</v>
+      </c>
+      <c r="AC202">
+        <v>1.02</v>
+      </c>
+      <c r="AD202">
+        <v>14.5</v>
+      </c>
+      <c r="AE202">
+        <v>1.17</v>
+      </c>
+      <c r="AF202">
+        <v>4.75</v>
+      </c>
+      <c r="AG202">
+        <v>1.65</v>
+      </c>
+      <c r="AH202">
+        <v>2.05</v>
+      </c>
+      <c r="AI202">
+        <v>1.79</v>
+      </c>
+      <c r="AJ202">
+        <v>1.93</v>
+      </c>
+      <c r="AK202">
+        <v>1.17</v>
+      </c>
+      <c r="AL202">
+        <v>0</v>
+      </c>
+      <c r="AM202">
+        <v>2.65</v>
+      </c>
+      <c r="AN202">
+        <v>2.25</v>
+      </c>
+      <c r="AO202">
+        <v>1.17</v>
+      </c>
+      <c r="AP202">
+        <v>2.08</v>
+      </c>
+      <c r="AQ202">
+        <v>1.31</v>
+      </c>
+      <c r="AR202">
+        <v>1.43</v>
+      </c>
+      <c r="AS202">
+        <v>1.46</v>
+      </c>
+      <c r="AT202">
+        <v>2.89</v>
+      </c>
+      <c r="AU202">
+        <v>10</v>
+      </c>
+      <c r="AV202">
+        <v>6</v>
+      </c>
+      <c r="AW202">
+        <v>9</v>
+      </c>
+      <c r="AX202">
+        <v>2</v>
+      </c>
+      <c r="AY202">
+        <v>24</v>
+      </c>
+      <c r="AZ202">
+        <v>10</v>
+      </c>
+      <c r="BA202">
+        <v>10</v>
+      </c>
+      <c r="BB202">
+        <v>1</v>
+      </c>
+      <c r="BC202">
+        <v>11</v>
+      </c>
+      <c r="BD202">
+        <v>1.32</v>
+      </c>
+      <c r="BE202">
+        <v>7.7</v>
+      </c>
+      <c r="BF202">
+        <v>4.5</v>
+      </c>
+      <c r="BG202">
+        <v>1.26</v>
+      </c>
+      <c r="BH202">
+        <v>3.22</v>
+      </c>
+      <c r="BI202">
+        <v>1.52</v>
+      </c>
+      <c r="BJ202">
+        <v>2.36</v>
+      </c>
+      <c r="BK202">
+        <v>2.14</v>
+      </c>
+      <c r="BL202">
+        <v>1.91</v>
+      </c>
+      <c r="BM202">
+        <v>2.4</v>
+      </c>
+      <c r="BN202">
+        <v>1.52</v>
+      </c>
+      <c r="BO202">
+        <v>3.28</v>
+      </c>
+      <c r="BP202">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="203" spans="1:68">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>7484736</v>
+      </c>
+      <c r="C203" t="s">
+        <v>68</v>
+      </c>
+      <c r="D203" t="s">
+        <v>69</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45772.54166666666</v>
+      </c>
+      <c r="F203">
+        <v>26</v>
+      </c>
+      <c r="G203" t="s">
+        <v>71</v>
+      </c>
+      <c r="H203" t="s">
+        <v>85</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>2</v>
+      </c>
+      <c r="K203">
+        <v>2</v>
+      </c>
+      <c r="L203">
+        <v>0</v>
+      </c>
+      <c r="M203">
+        <v>2</v>
+      </c>
+      <c r="N203">
+        <v>2</v>
+      </c>
+      <c r="O203" t="s">
+        <v>86</v>
+      </c>
+      <c r="P203" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q203">
+        <v>2.62</v>
+      </c>
+      <c r="R203">
+        <v>2.25</v>
+      </c>
+      <c r="S203">
+        <v>3.4</v>
+      </c>
+      <c r="T203">
+        <v>1.3</v>
+      </c>
+      <c r="U203">
+        <v>3.2</v>
+      </c>
+      <c r="V203">
+        <v>2.41</v>
+      </c>
+      <c r="W203">
+        <v>1.5</v>
+      </c>
+      <c r="X203">
+        <v>5.5</v>
+      </c>
+      <c r="Y203">
+        <v>1.11</v>
+      </c>
+      <c r="Z203">
+        <v>2.83</v>
+      </c>
+      <c r="AA203">
+        <v>3.64</v>
+      </c>
+      <c r="AB203">
+        <v>2.27</v>
+      </c>
+      <c r="AC203">
+        <v>1.01</v>
+      </c>
+      <c r="AD203">
+        <v>11.5</v>
+      </c>
+      <c r="AE203">
+        <v>1.16</v>
+      </c>
+      <c r="AF203">
+        <v>4.2</v>
+      </c>
+      <c r="AG203">
+        <v>1.79</v>
+      </c>
+      <c r="AH203">
+        <v>1.95</v>
+      </c>
+      <c r="AI203">
+        <v>1.5</v>
+      </c>
+      <c r="AJ203">
+        <v>2.2</v>
+      </c>
+      <c r="AK203">
+        <v>1.29</v>
+      </c>
+      <c r="AL203">
+        <v>0</v>
+      </c>
+      <c r="AM203">
+        <v>1.7</v>
+      </c>
+      <c r="AN203">
+        <v>1.08</v>
+      </c>
+      <c r="AO203">
+        <v>1.55</v>
+      </c>
+      <c r="AP203">
+        <v>1</v>
+      </c>
+      <c r="AQ203">
+        <v>1.67</v>
+      </c>
+      <c r="AR203">
+        <v>1.53</v>
+      </c>
+      <c r="AS203">
+        <v>1.5</v>
+      </c>
+      <c r="AT203">
+        <v>3.03</v>
+      </c>
+      <c r="AU203">
+        <v>2</v>
+      </c>
+      <c r="AV203">
+        <v>5</v>
+      </c>
+      <c r="AW203">
+        <v>5</v>
+      </c>
+      <c r="AX203">
+        <v>5</v>
+      </c>
+      <c r="AY203">
+        <v>7</v>
+      </c>
+      <c r="AZ203">
+        <v>11</v>
+      </c>
+      <c r="BA203">
+        <v>4</v>
+      </c>
+      <c r="BB203">
+        <v>4</v>
+      </c>
+      <c r="BC203">
+        <v>8</v>
+      </c>
+      <c r="BD203">
+        <v>1.62</v>
+      </c>
+      <c r="BE203">
+        <v>7.4</v>
+      </c>
+      <c r="BF203">
+        <v>2.72</v>
+      </c>
+      <c r="BG203">
+        <v>1.23</v>
+      </c>
+      <c r="BH203">
+        <v>3.58</v>
+      </c>
+      <c r="BI203">
+        <v>1.4</v>
+      </c>
+      <c r="BJ203">
+        <v>2.64</v>
+      </c>
+      <c r="BK203">
+        <v>1.72</v>
+      </c>
+      <c r="BL203">
+        <v>2</v>
+      </c>
+      <c r="BM203">
+        <v>2.1</v>
+      </c>
+      <c r="BN203">
+        <v>1.65</v>
+      </c>
+      <c r="BO203">
+        <v>2.7</v>
+      </c>
+      <c r="BP203">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="204" spans="1:68">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>7484740</v>
+      </c>
+      <c r="C204" t="s">
+        <v>68</v>
+      </c>
+      <c r="D204" t="s">
+        <v>69</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45772.64583333334</v>
+      </c>
+      <c r="F204">
+        <v>26</v>
+      </c>
+      <c r="G204" t="s">
+        <v>75</v>
+      </c>
+      <c r="H204" t="s">
+        <v>83</v>
+      </c>
+      <c r="I204">
+        <v>1</v>
+      </c>
+      <c r="J204">
+        <v>1</v>
+      </c>
+      <c r="K204">
+        <v>2</v>
+      </c>
+      <c r="L204">
+        <v>2</v>
+      </c>
+      <c r="M204">
+        <v>1</v>
+      </c>
+      <c r="N204">
+        <v>3</v>
+      </c>
+      <c r="O204" t="s">
+        <v>223</v>
+      </c>
+      <c r="P204" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q204">
+        <v>2.3</v>
+      </c>
+      <c r="R204">
+        <v>2.39</v>
+      </c>
+      <c r="S204">
+        <v>3.85</v>
+      </c>
+      <c r="T204">
+        <v>1.32</v>
+      </c>
+      <c r="U204">
+        <v>3.31</v>
+      </c>
+      <c r="V204">
+        <v>2.1</v>
+      </c>
+      <c r="W204">
+        <v>1.64</v>
+      </c>
+      <c r="X204">
+        <v>3.8</v>
+      </c>
+      <c r="Y204">
+        <v>1.14</v>
+      </c>
+      <c r="Z204">
+        <v>2.23</v>
+      </c>
+      <c r="AA204">
+        <v>3.58</v>
+      </c>
+      <c r="AB204">
+        <v>2.92</v>
+      </c>
+      <c r="AC204">
+        <v>1</v>
+      </c>
+      <c r="AD204">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE204">
+        <v>1.11</v>
+      </c>
+      <c r="AF204">
+        <v>5</v>
+      </c>
+      <c r="AG204">
+        <v>1.87</v>
+      </c>
+      <c r="AH204">
+        <v>1.87</v>
+      </c>
+      <c r="AI204">
+        <v>1.49</v>
+      </c>
+      <c r="AJ204">
+        <v>2.5</v>
+      </c>
+      <c r="AK204">
+        <v>1.29</v>
+      </c>
+      <c r="AL204">
+        <v>0</v>
+      </c>
+      <c r="AM204">
+        <v>2</v>
+      </c>
+      <c r="AN204">
+        <v>0.75</v>
+      </c>
+      <c r="AO204">
+        <v>1.08</v>
+      </c>
+      <c r="AP204">
+        <v>0.92</v>
+      </c>
+      <c r="AQ204">
+        <v>1</v>
+      </c>
+      <c r="AR204">
+        <v>1.23</v>
+      </c>
+      <c r="AS204">
+        <v>1.3</v>
+      </c>
+      <c r="AT204">
+        <v>2.53</v>
+      </c>
+      <c r="AU204">
+        <v>6</v>
+      </c>
+      <c r="AV204">
+        <v>3</v>
+      </c>
+      <c r="AW204">
+        <v>5</v>
+      </c>
+      <c r="AX204">
+        <v>7</v>
+      </c>
+      <c r="AY204">
+        <v>14</v>
+      </c>
+      <c r="AZ204">
+        <v>12</v>
+      </c>
+      <c r="BA204">
+        <v>2</v>
+      </c>
+      <c r="BB204">
+        <v>3</v>
+      </c>
+      <c r="BC204">
+        <v>5</v>
+      </c>
+      <c r="BD204">
+        <v>1.46</v>
+      </c>
+      <c r="BE204">
+        <v>7.1</v>
+      </c>
+      <c r="BF204">
+        <v>3.22</v>
+      </c>
+      <c r="BG204">
+        <v>1.23</v>
+      </c>
+      <c r="BH204">
+        <v>3.58</v>
+      </c>
+      <c r="BI204">
+        <v>1.36</v>
+      </c>
+      <c r="BJ204">
+        <v>2.7</v>
+      </c>
+      <c r="BK204">
+        <v>1.66</v>
+      </c>
+      <c r="BL204">
+        <v>2.04</v>
+      </c>
+      <c r="BM204">
+        <v>2.12</v>
+      </c>
+      <c r="BN204">
+        <v>1.65</v>
+      </c>
+      <c r="BO204">
+        <v>2.7</v>
+      </c>
+      <c r="BP204">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria 2. Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria 2. Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="329">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -688,6 +688,9 @@
     <t>['14', '77']</t>
   </si>
   <si>
+    <t>['44']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -1359,7 +1362,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP204"/>
+  <dimension ref="A1:BP205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1618,7 +1621,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1824,7 +1827,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1905,7 +1908,7 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2030,7 +2033,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q4">
         <v>6.5</v>
@@ -2236,7 +2239,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q5">
         <v>3.25</v>
@@ -3138,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ9">
         <v>1.77</v>
@@ -3472,7 +3475,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3678,7 +3681,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -4502,7 +4505,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q16">
         <v>2.1</v>
@@ -4708,7 +4711,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -4914,7 +4917,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q18">
         <v>2.2</v>
@@ -5120,7 +5123,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q19">
         <v>2.5</v>
@@ -5326,7 +5329,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q20">
         <v>3.75</v>
@@ -5532,7 +5535,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q21">
         <v>4.5</v>
@@ -5610,7 +5613,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ21">
         <v>2.38</v>
@@ -5738,7 +5741,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -6150,7 +6153,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6356,7 +6359,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q25">
         <v>2.38</v>
@@ -6437,7 +6440,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR25">
         <v>0.84</v>
@@ -6562,7 +6565,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6768,7 +6771,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q27">
         <v>4.5</v>
@@ -7180,7 +7183,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q29">
         <v>2.05</v>
@@ -7386,7 +7389,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q30">
         <v>2.75</v>
@@ -7592,7 +7595,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -8210,7 +8213,7 @@
         <v>109</v>
       </c>
       <c r="P34" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q34">
         <v>1.8</v>
@@ -8622,7 +8625,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -8828,7 +8831,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -9034,7 +9037,7 @@
         <v>112</v>
       </c>
       <c r="P38" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q38">
         <v>2.75</v>
@@ -9446,7 +9449,7 @@
         <v>86</v>
       </c>
       <c r="P40" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9652,7 +9655,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9858,7 +9861,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -10476,7 +10479,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10682,7 +10685,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10888,7 +10891,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q47">
         <v>3.6</v>
@@ -11094,7 +11097,7 @@
         <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -11712,7 +11715,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -11918,7 +11921,7 @@
         <v>86</v>
       </c>
       <c r="P52" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q52">
         <v>2.1</v>
@@ -12330,7 +12333,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -12742,7 +12745,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q56">
         <v>3.25</v>
@@ -12823,7 +12826,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ56">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR56">
         <v>1.26</v>
@@ -12948,7 +12951,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q57">
         <v>3.2</v>
@@ -13154,7 +13157,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q58">
         <v>1.8</v>
@@ -13772,7 +13775,7 @@
         <v>125</v>
       </c>
       <c r="P61" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -13850,7 +13853,7 @@
         <v>0.33</v>
       </c>
       <c r="AP61">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ61">
         <v>0.38</v>
@@ -14184,7 +14187,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q63">
         <v>3.6</v>
@@ -14471,7 +14474,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ64">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR64">
         <v>1.93</v>
@@ -14596,7 +14599,7 @@
         <v>128</v>
       </c>
       <c r="P65" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14802,7 +14805,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -15008,7 +15011,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -15214,7 +15217,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q68">
         <v>2.1</v>
@@ -15832,7 +15835,7 @@
         <v>133</v>
       </c>
       <c r="P71" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q71">
         <v>2.1</v>
@@ -16656,7 +16659,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16862,7 +16865,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -16940,7 +16943,7 @@
         <v>2</v>
       </c>
       <c r="AP76">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ76">
         <v>1</v>
@@ -17068,7 +17071,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q77">
         <v>3.1</v>
@@ -17274,7 +17277,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q78">
         <v>3.75</v>
@@ -17480,7 +17483,7 @@
         <v>138</v>
       </c>
       <c r="P79" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17767,7 +17770,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ80">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR80">
         <v>1.44</v>
@@ -17892,7 +17895,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -18716,7 +18719,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q85">
         <v>2</v>
@@ -18922,7 +18925,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -19334,7 +19337,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q88">
         <v>4.33</v>
@@ -19540,7 +19543,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q89">
         <v>3.1</v>
@@ -19618,7 +19621,7 @@
         <v>1.75</v>
       </c>
       <c r="AP89">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ89">
         <v>1.73</v>
@@ -19746,7 +19749,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -20158,7 +20161,7 @@
         <v>86</v>
       </c>
       <c r="P92" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q92">
         <v>2.5</v>
@@ -20239,7 +20242,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ92">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR92">
         <v>1.32</v>
@@ -20364,7 +20367,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20570,7 +20573,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20776,7 +20779,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q95">
         <v>2.6</v>
@@ -21060,7 +21063,7 @@
         <v>0.4</v>
       </c>
       <c r="AP96">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ96">
         <v>0.77</v>
@@ -21188,7 +21191,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q97">
         <v>3.2</v>
@@ -21600,7 +21603,7 @@
         <v>142</v>
       </c>
       <c r="P99" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21806,7 +21809,7 @@
         <v>86</v>
       </c>
       <c r="P100" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q100">
         <v>3.2</v>
@@ -22012,7 +22015,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -22424,7 +22427,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q103">
         <v>4.5</v>
@@ -22630,7 +22633,7 @@
         <v>152</v>
       </c>
       <c r="P104" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -23042,7 +23045,7 @@
         <v>86</v>
       </c>
       <c r="P106" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23120,7 +23123,7 @@
         <v>0.83</v>
       </c>
       <c r="AP106">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ106">
         <v>1.17</v>
@@ -23248,7 +23251,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23454,7 +23457,7 @@
         <v>153</v>
       </c>
       <c r="P108" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q108">
         <v>2.88</v>
@@ -23660,7 +23663,7 @@
         <v>86</v>
       </c>
       <c r="P109" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q109">
         <v>3.2</v>
@@ -25102,7 +25105,7 @@
         <v>157</v>
       </c>
       <c r="P116" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q116">
         <v>3.5</v>
@@ -25720,7 +25723,7 @@
         <v>152</v>
       </c>
       <c r="P119" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q119">
         <v>2.63</v>
@@ -25801,7 +25804,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ119">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR119">
         <v>1.62</v>
@@ -26338,7 +26341,7 @@
         <v>86</v>
       </c>
       <c r="P122" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -26750,7 +26753,7 @@
         <v>161</v>
       </c>
       <c r="P124" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q124">
         <v>2.38</v>
@@ -26956,7 +26959,7 @@
         <v>162</v>
       </c>
       <c r="P125" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -27162,7 +27165,7 @@
         <v>163</v>
       </c>
       <c r="P126" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -27368,7 +27371,7 @@
         <v>164</v>
       </c>
       <c r="P127" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27574,7 +27577,7 @@
         <v>165</v>
       </c>
       <c r="P128" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q128">
         <v>2.75</v>
@@ -27780,7 +27783,7 @@
         <v>166</v>
       </c>
       <c r="P129" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q129">
         <v>1.95</v>
@@ -27986,7 +27989,7 @@
         <v>86</v>
       </c>
       <c r="P130" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q130">
         <v>3.4</v>
@@ -28273,7 +28276,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ131">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR131">
         <v>1.14</v>
@@ -28398,7 +28401,7 @@
         <v>153</v>
       </c>
       <c r="P132" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28476,7 +28479,7 @@
         <v>1.63</v>
       </c>
       <c r="AP132">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ132">
         <v>1.54</v>
@@ -28604,7 +28607,7 @@
         <v>168</v>
       </c>
       <c r="P133" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q133">
         <v>2.5</v>
@@ -29840,7 +29843,7 @@
         <v>171</v>
       </c>
       <c r="P139" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q139">
         <v>4.8</v>
@@ -30252,7 +30255,7 @@
         <v>173</v>
       </c>
       <c r="P141" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -31282,7 +31285,7 @@
         <v>178</v>
       </c>
       <c r="P146" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q146">
         <v>2.5</v>
@@ -31488,7 +31491,7 @@
         <v>179</v>
       </c>
       <c r="P147" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q147">
         <v>2.36</v>
@@ -31900,7 +31903,7 @@
         <v>181</v>
       </c>
       <c r="P149" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q149">
         <v>2.1</v>
@@ -32106,7 +32109,7 @@
         <v>182</v>
       </c>
       <c r="P150" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q150">
         <v>2.63</v>
@@ -32187,7 +32190,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ150">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR150">
         <v>1.28</v>
@@ -32390,7 +32393,7 @@
         <v>2</v>
       </c>
       <c r="AP151">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ151">
         <v>1.67</v>
@@ -32724,7 +32727,7 @@
         <v>185</v>
       </c>
       <c r="P153" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q153">
         <v>2.88</v>
@@ -32805,7 +32808,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ153">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR153">
         <v>1.72</v>
@@ -32930,7 +32933,7 @@
         <v>86</v>
       </c>
       <c r="P154" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q154">
         <v>3.75</v>
@@ -33136,7 +33139,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q155">
         <v>3.6</v>
@@ -33420,7 +33423,7 @@
         <v>1.3</v>
       </c>
       <c r="AP156">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ156">
         <v>1.38</v>
@@ -33754,7 +33757,7 @@
         <v>188</v>
       </c>
       <c r="P158" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q158">
         <v>2.4</v>
@@ -34372,7 +34375,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -34578,7 +34581,7 @@
         <v>192</v>
       </c>
       <c r="P162" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q162">
         <v>3.2</v>
@@ -35402,7 +35405,7 @@
         <v>195</v>
       </c>
       <c r="P166" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q166">
         <v>2.88</v>
@@ -36020,7 +36023,7 @@
         <v>198</v>
       </c>
       <c r="P169" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q169">
         <v>2.88</v>
@@ -36432,7 +36435,7 @@
         <v>200</v>
       </c>
       <c r="P171" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q171">
         <v>2.5</v>
@@ -36719,7 +36722,7 @@
         <v>2</v>
       </c>
       <c r="AQ172">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR172">
         <v>1.46</v>
@@ -36844,7 +36847,7 @@
         <v>86</v>
       </c>
       <c r="P173" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q173">
         <v>3.1</v>
@@ -37256,7 +37259,7 @@
         <v>177</v>
       </c>
       <c r="P175" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q175">
         <v>5</v>
@@ -37334,7 +37337,7 @@
         <v>2.3</v>
       </c>
       <c r="AP175">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ175">
         <v>2.23</v>
@@ -37668,7 +37671,7 @@
         <v>86</v>
       </c>
       <c r="P177" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q177">
         <v>5.25</v>
@@ -37874,7 +37877,7 @@
         <v>203</v>
       </c>
       <c r="P178" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q178">
         <v>2.2</v>
@@ -38286,7 +38289,7 @@
         <v>204</v>
       </c>
       <c r="P180" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q180">
         <v>4.2</v>
@@ -38698,7 +38701,7 @@
         <v>206</v>
       </c>
       <c r="P182" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q182">
         <v>2.3</v>
@@ -38904,7 +38907,7 @@
         <v>207</v>
       </c>
       <c r="P183" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q183">
         <v>3.45</v>
@@ -39316,7 +39319,7 @@
         <v>208</v>
       </c>
       <c r="P185" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q185">
         <v>3.6</v>
@@ -39522,7 +39525,7 @@
         <v>209</v>
       </c>
       <c r="P186" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q186">
         <v>2.7</v>
@@ -39806,7 +39809,7 @@
         <v>1.09</v>
       </c>
       <c r="AP187">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ187">
         <v>0.92</v>
@@ -39934,7 +39937,7 @@
         <v>152</v>
       </c>
       <c r="P188" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q188">
         <v>3</v>
@@ -40140,7 +40143,7 @@
         <v>211</v>
       </c>
       <c r="P189" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q189">
         <v>2.87</v>
@@ -40221,7 +40224,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ189">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR189">
         <v>1.4</v>
@@ -40346,7 +40349,7 @@
         <v>212</v>
       </c>
       <c r="P190" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q190">
         <v>3.4</v>
@@ -40552,7 +40555,7 @@
         <v>213</v>
       </c>
       <c r="P191" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q191">
         <v>2.2</v>
@@ -40964,7 +40967,7 @@
         <v>214</v>
       </c>
       <c r="P193" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q193">
         <v>3.8</v>
@@ -41170,7 +41173,7 @@
         <v>86</v>
       </c>
       <c r="P194" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q194">
         <v>2.98</v>
@@ -41582,7 +41585,7 @@
         <v>216</v>
       </c>
       <c r="P196" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q196">
         <v>2.58</v>
@@ -41788,7 +41791,7 @@
         <v>217</v>
       </c>
       <c r="P197" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -41994,7 +41997,7 @@
         <v>218</v>
       </c>
       <c r="P198" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q198">
         <v>1.75</v>
@@ -42200,7 +42203,7 @@
         <v>219</v>
       </c>
       <c r="P199" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q199">
         <v>3</v>
@@ -42406,7 +42409,7 @@
         <v>220</v>
       </c>
       <c r="P200" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q200">
         <v>1.92</v>
@@ -42612,7 +42615,7 @@
         <v>221</v>
       </c>
       <c r="P201" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q201">
         <v>3.2</v>
@@ -42818,7 +42821,7 @@
         <v>222</v>
       </c>
       <c r="P202" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q202">
         <v>1.77</v>
@@ -43024,7 +43027,7 @@
         <v>86</v>
       </c>
       <c r="P203" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q203">
         <v>2.62</v>
@@ -43387,6 +43390,212 @@
       </c>
       <c r="BP204">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="205" spans="1:68">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>7484739</v>
+      </c>
+      <c r="C205" t="s">
+        <v>68</v>
+      </c>
+      <c r="D205" t="s">
+        <v>69</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45773.39583333334</v>
+      </c>
+      <c r="F205">
+        <v>26</v>
+      </c>
+      <c r="G205" t="s">
+        <v>77</v>
+      </c>
+      <c r="H205" t="s">
+        <v>78</v>
+      </c>
+      <c r="I205">
+        <v>1</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>1</v>
+      </c>
+      <c r="L205">
+        <v>1</v>
+      </c>
+      <c r="M205">
+        <v>0</v>
+      </c>
+      <c r="N205">
+        <v>1</v>
+      </c>
+      <c r="O205" t="s">
+        <v>224</v>
+      </c>
+      <c r="P205" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q205">
+        <v>2.71</v>
+      </c>
+      <c r="R205">
+        <v>2.16</v>
+      </c>
+      <c r="S205">
+        <v>3.45</v>
+      </c>
+      <c r="T205">
+        <v>1.35</v>
+      </c>
+      <c r="U205">
+        <v>2.94</v>
+      </c>
+      <c r="V205">
+        <v>2.75</v>
+      </c>
+      <c r="W205">
+        <v>1.39</v>
+      </c>
+      <c r="X205">
+        <v>7</v>
+      </c>
+      <c r="Y205">
+        <v>1.08</v>
+      </c>
+      <c r="Z205">
+        <v>2.1</v>
+      </c>
+      <c r="AA205">
+        <v>3.54</v>
+      </c>
+      <c r="AB205">
+        <v>3.15</v>
+      </c>
+      <c r="AC205">
+        <v>1.05</v>
+      </c>
+      <c r="AD205">
+        <v>9.25</v>
+      </c>
+      <c r="AE205">
+        <v>1.25</v>
+      </c>
+      <c r="AF205">
+        <v>3.25</v>
+      </c>
+      <c r="AG205">
+        <v>1.81</v>
+      </c>
+      <c r="AH205">
+        <v>1.8</v>
+      </c>
+      <c r="AI205">
+        <v>1.75</v>
+      </c>
+      <c r="AJ205">
+        <v>2.18</v>
+      </c>
+      <c r="AK205">
+        <v>1.29</v>
+      </c>
+      <c r="AL205">
+        <v>0</v>
+      </c>
+      <c r="AM205">
+        <v>1.65</v>
+      </c>
+      <c r="AN205">
+        <v>1.33</v>
+      </c>
+      <c r="AO205">
+        <v>1</v>
+      </c>
+      <c r="AP205">
+        <v>1.46</v>
+      </c>
+      <c r="AQ205">
+        <v>0.92</v>
+      </c>
+      <c r="AR205">
+        <v>1.3</v>
+      </c>
+      <c r="AS205">
+        <v>1.48</v>
+      </c>
+      <c r="AT205">
+        <v>2.78</v>
+      </c>
+      <c r="AU205">
+        <v>4</v>
+      </c>
+      <c r="AV205">
+        <v>4</v>
+      </c>
+      <c r="AW205">
+        <v>2</v>
+      </c>
+      <c r="AX205">
+        <v>4</v>
+      </c>
+      <c r="AY205">
+        <v>8</v>
+      </c>
+      <c r="AZ205">
+        <v>9</v>
+      </c>
+      <c r="BA205">
+        <v>1</v>
+      </c>
+      <c r="BB205">
+        <v>5</v>
+      </c>
+      <c r="BC205">
+        <v>6</v>
+      </c>
+      <c r="BD205">
+        <v>1.65</v>
+      </c>
+      <c r="BE205">
+        <v>7.5</v>
+      </c>
+      <c r="BF205">
+        <v>2.78</v>
+      </c>
+      <c r="BG205">
+        <v>1.2</v>
+      </c>
+      <c r="BH205">
+        <v>3.52</v>
+      </c>
+      <c r="BI205">
+        <v>1.4</v>
+      </c>
+      <c r="BJ205">
+        <v>2.64</v>
+      </c>
+      <c r="BK205">
+        <v>1.94</v>
+      </c>
+      <c r="BL205">
+        <v>1.99</v>
+      </c>
+      <c r="BM205">
+        <v>2.17</v>
+      </c>
+      <c r="BN205">
+        <v>1.58</v>
+      </c>
+      <c r="BO205">
+        <v>2.73</v>
+      </c>
+      <c r="BP205">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria 2. Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria 2. Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="331">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -691,6 +691,9 @@
     <t>['44']</t>
   </si>
   <si>
+    <t>['59', '75']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -1001,6 +1004,9 @@
   </si>
   <si>
     <t>['21', '23']</t>
+  </si>
+  <si>
+    <t>['47']</t>
   </si>
 </sst>
 </file>
@@ -1362,7 +1368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP205"/>
+  <dimension ref="A1:BP206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1621,7 +1627,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1827,7 +1833,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -2033,7 +2039,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q4">
         <v>6.5</v>
@@ -2114,7 +2120,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ4">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2239,7 +2245,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q5">
         <v>3.25</v>
@@ -3475,7 +3481,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3681,7 +3687,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3759,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ12">
         <v>0.92</v>
@@ -4505,7 +4511,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q16">
         <v>2.1</v>
@@ -4711,7 +4717,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -4917,7 +4923,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q18">
         <v>2.2</v>
@@ -5123,7 +5129,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q19">
         <v>2.5</v>
@@ -5329,7 +5335,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q20">
         <v>3.75</v>
@@ -5535,7 +5541,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q21">
         <v>4.5</v>
@@ -5616,7 +5622,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ21">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AR21">
         <v>1.86</v>
@@ -5741,7 +5747,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -6153,7 +6159,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6359,7 +6365,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q25">
         <v>2.38</v>
@@ -6565,7 +6571,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6771,7 +6777,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q27">
         <v>4.5</v>
@@ -7055,7 +7061,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ28">
         <v>1.77</v>
@@ -7183,7 +7189,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q29">
         <v>2.05</v>
@@ -7389,7 +7395,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q30">
         <v>2.75</v>
@@ -7595,7 +7601,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -8213,7 +8219,7 @@
         <v>109</v>
       </c>
       <c r="P34" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q34">
         <v>1.8</v>
@@ -8625,7 +8631,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -8831,7 +8837,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -9037,7 +9043,7 @@
         <v>112</v>
       </c>
       <c r="P38" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q38">
         <v>2.75</v>
@@ -9449,7 +9455,7 @@
         <v>86</v>
       </c>
       <c r="P40" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9530,7 +9536,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ40">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AR40">
         <v>1.6</v>
@@ -9655,7 +9661,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9861,7 +9867,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -9939,7 +9945,7 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ42">
         <v>1.38</v>
@@ -10479,7 +10485,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10685,7 +10691,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10891,7 +10897,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q47">
         <v>3.6</v>
@@ -11097,7 +11103,7 @@
         <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -11715,7 +11721,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -11796,7 +11802,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ51">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AR51">
         <v>1.65</v>
@@ -11921,7 +11927,7 @@
         <v>86</v>
       </c>
       <c r="P52" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q52">
         <v>2.1</v>
@@ -12333,7 +12339,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -12745,7 +12751,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q56">
         <v>3.25</v>
@@ -12951,7 +12957,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q57">
         <v>3.2</v>
@@ -13029,7 +13035,7 @@
         <v>1.5</v>
       </c>
       <c r="AP57">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ57">
         <v>1.73</v>
@@ -13157,7 +13163,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q58">
         <v>1.8</v>
@@ -13775,7 +13781,7 @@
         <v>125</v>
       </c>
       <c r="P61" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -14187,7 +14193,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q63">
         <v>3.6</v>
@@ -14599,7 +14605,7 @@
         <v>128</v>
       </c>
       <c r="P65" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14805,7 +14811,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -15011,7 +15017,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -15217,7 +15223,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q68">
         <v>2.1</v>
@@ -15835,7 +15841,7 @@
         <v>133</v>
       </c>
       <c r="P71" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q71">
         <v>2.1</v>
@@ -16534,7 +16540,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ74">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AR74">
         <v>1.42</v>
@@ -16659,7 +16665,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16865,7 +16871,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -17071,7 +17077,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q77">
         <v>3.1</v>
@@ -17277,7 +17283,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q78">
         <v>3.75</v>
@@ -17483,7 +17489,7 @@
         <v>138</v>
       </c>
       <c r="P79" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17561,7 +17567,7 @@
         <v>1.4</v>
       </c>
       <c r="AP79">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ79">
         <v>0.92</v>
@@ -17895,7 +17901,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -18719,7 +18725,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q85">
         <v>2</v>
@@ -18925,7 +18931,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -19337,7 +19343,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q88">
         <v>4.33</v>
@@ -19543,7 +19549,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q89">
         <v>3.1</v>
@@ -19749,7 +19755,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -20036,7 +20042,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ91">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AR91">
         <v>1.44</v>
@@ -20161,7 +20167,7 @@
         <v>86</v>
       </c>
       <c r="P92" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q92">
         <v>2.5</v>
@@ -20367,7 +20373,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20573,7 +20579,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20779,7 +20785,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q95">
         <v>2.6</v>
@@ -21191,7 +21197,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q97">
         <v>3.2</v>
@@ -21269,7 +21275,7 @@
         <v>2</v>
       </c>
       <c r="AP97">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ97">
         <v>1.67</v>
@@ -21603,7 +21609,7 @@
         <v>142</v>
       </c>
       <c r="P99" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21809,7 +21815,7 @@
         <v>86</v>
       </c>
       <c r="P100" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q100">
         <v>3.2</v>
@@ -22015,7 +22021,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -22427,7 +22433,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q103">
         <v>4.5</v>
@@ -22508,7 +22514,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ103">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AR103">
         <v>1.49</v>
@@ -22633,7 +22639,7 @@
         <v>152</v>
       </c>
       <c r="P104" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -23045,7 +23051,7 @@
         <v>86</v>
       </c>
       <c r="P106" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23251,7 +23257,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23457,7 +23463,7 @@
         <v>153</v>
       </c>
       <c r="P108" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q108">
         <v>2.88</v>
@@ -23663,7 +23669,7 @@
         <v>86</v>
       </c>
       <c r="P109" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q109">
         <v>3.2</v>
@@ -24153,7 +24159,7 @@
         <v>1</v>
       </c>
       <c r="AP111">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ111">
         <v>0.77</v>
@@ -25105,7 +25111,7 @@
         <v>157</v>
       </c>
       <c r="P116" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q116">
         <v>3.5</v>
@@ -25598,7 +25604,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ118">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AR118">
         <v>1.23</v>
@@ -25723,7 +25729,7 @@
         <v>152</v>
       </c>
       <c r="P119" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q119">
         <v>2.63</v>
@@ -26341,7 +26347,7 @@
         <v>86</v>
       </c>
       <c r="P122" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -26753,7 +26759,7 @@
         <v>161</v>
       </c>
       <c r="P124" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q124">
         <v>2.38</v>
@@ -26959,7 +26965,7 @@
         <v>162</v>
       </c>
       <c r="P125" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -27165,7 +27171,7 @@
         <v>163</v>
       </c>
       <c r="P126" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -27243,7 +27249,7 @@
         <v>2.29</v>
       </c>
       <c r="AP126">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ126">
         <v>2.23</v>
@@ -27371,7 +27377,7 @@
         <v>164</v>
       </c>
       <c r="P127" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27577,7 +27583,7 @@
         <v>165</v>
       </c>
       <c r="P128" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q128">
         <v>2.75</v>
@@ -27783,7 +27789,7 @@
         <v>166</v>
       </c>
       <c r="P129" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q129">
         <v>1.95</v>
@@ -27989,7 +27995,7 @@
         <v>86</v>
       </c>
       <c r="P130" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q130">
         <v>3.4</v>
@@ -28401,7 +28407,7 @@
         <v>153</v>
       </c>
       <c r="P132" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28607,7 +28613,7 @@
         <v>168</v>
       </c>
       <c r="P133" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q133">
         <v>2.5</v>
@@ -29306,7 +29312,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ136">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AR136">
         <v>1.11</v>
@@ -29843,7 +29849,7 @@
         <v>171</v>
       </c>
       <c r="P139" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q139">
         <v>4.8</v>
@@ -30255,7 +30261,7 @@
         <v>173</v>
       </c>
       <c r="P141" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -30951,7 +30957,7 @@
         <v>1.33</v>
       </c>
       <c r="AP144">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ144">
         <v>1.31</v>
@@ -31285,7 +31291,7 @@
         <v>178</v>
       </c>
       <c r="P146" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q146">
         <v>2.5</v>
@@ -31491,7 +31497,7 @@
         <v>179</v>
       </c>
       <c r="P147" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q147">
         <v>2.36</v>
@@ -31903,7 +31909,7 @@
         <v>181</v>
       </c>
       <c r="P149" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q149">
         <v>2.1</v>
@@ -32109,7 +32115,7 @@
         <v>182</v>
       </c>
       <c r="P150" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q150">
         <v>2.63</v>
@@ -32602,7 +32608,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ152">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AR152">
         <v>1.56</v>
@@ -32727,7 +32733,7 @@
         <v>185</v>
       </c>
       <c r="P153" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q153">
         <v>2.88</v>
@@ -32933,7 +32939,7 @@
         <v>86</v>
       </c>
       <c r="P154" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q154">
         <v>3.75</v>
@@ -33139,7 +33145,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q155">
         <v>3.6</v>
@@ -33757,7 +33763,7 @@
         <v>188</v>
       </c>
       <c r="P158" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q158">
         <v>2.4</v>
@@ -34247,7 +34253,7 @@
         <v>1.22</v>
       </c>
       <c r="AP160">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ160">
         <v>1.17</v>
@@ -34375,7 +34381,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -34581,7 +34587,7 @@
         <v>192</v>
       </c>
       <c r="P162" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q162">
         <v>3.2</v>
@@ -35074,7 +35080,7 @@
         <v>1</v>
       </c>
       <c r="AQ164">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AR164">
         <v>1.46</v>
@@ -35405,7 +35411,7 @@
         <v>195</v>
       </c>
       <c r="P166" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q166">
         <v>2.88</v>
@@ -36023,7 +36029,7 @@
         <v>198</v>
       </c>
       <c r="P169" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q169">
         <v>2.88</v>
@@ -36435,7 +36441,7 @@
         <v>200</v>
       </c>
       <c r="P171" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q171">
         <v>2.5</v>
@@ -36513,7 +36519,7 @@
         <v>0.45</v>
       </c>
       <c r="AP171">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ171">
         <v>0.38</v>
@@ -36847,7 +36853,7 @@
         <v>86</v>
       </c>
       <c r="P173" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q173">
         <v>3.1</v>
@@ -37259,7 +37265,7 @@
         <v>177</v>
       </c>
       <c r="P175" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q175">
         <v>5</v>
@@ -37671,7 +37677,7 @@
         <v>86</v>
       </c>
       <c r="P177" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q177">
         <v>5.25</v>
@@ -37752,7 +37758,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ177">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AR177">
         <v>1.71</v>
@@ -37877,7 +37883,7 @@
         <v>203</v>
       </c>
       <c r="P178" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q178">
         <v>2.2</v>
@@ -38289,7 +38295,7 @@
         <v>204</v>
       </c>
       <c r="P180" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q180">
         <v>4.2</v>
@@ -38701,7 +38707,7 @@
         <v>206</v>
       </c>
       <c r="P182" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q182">
         <v>2.3</v>
@@ -38907,7 +38913,7 @@
         <v>207</v>
       </c>
       <c r="P183" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q183">
         <v>3.45</v>
@@ -39319,7 +39325,7 @@
         <v>208</v>
       </c>
       <c r="P185" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q185">
         <v>3.6</v>
@@ -39525,7 +39531,7 @@
         <v>209</v>
       </c>
       <c r="P186" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q186">
         <v>2.7</v>
@@ -39937,7 +39943,7 @@
         <v>152</v>
       </c>
       <c r="P188" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q188">
         <v>3</v>
@@ -40143,7 +40149,7 @@
         <v>211</v>
       </c>
       <c r="P189" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q189">
         <v>2.87</v>
@@ -40221,7 +40227,7 @@
         <v>1.09</v>
       </c>
       <c r="AP189">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ189">
         <v>0.92</v>
@@ -40349,7 +40355,7 @@
         <v>212</v>
       </c>
       <c r="P190" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q190">
         <v>3.4</v>
@@ -40430,7 +40436,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ190">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AR190">
         <v>1.63</v>
@@ -40555,7 +40561,7 @@
         <v>213</v>
       </c>
       <c r="P191" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q191">
         <v>2.2</v>
@@ -40967,7 +40973,7 @@
         <v>214</v>
       </c>
       <c r="P193" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q193">
         <v>3.8</v>
@@ -41173,7 +41179,7 @@
         <v>86</v>
       </c>
       <c r="P194" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q194">
         <v>2.98</v>
@@ -41585,7 +41591,7 @@
         <v>216</v>
       </c>
       <c r="P196" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q196">
         <v>2.58</v>
@@ -41791,7 +41797,7 @@
         <v>217</v>
       </c>
       <c r="P197" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -41997,7 +42003,7 @@
         <v>218</v>
       </c>
       <c r="P198" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q198">
         <v>1.75</v>
@@ -42203,7 +42209,7 @@
         <v>219</v>
       </c>
       <c r="P199" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q199">
         <v>3</v>
@@ -42409,7 +42415,7 @@
         <v>220</v>
       </c>
       <c r="P200" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q200">
         <v>1.92</v>
@@ -42615,7 +42621,7 @@
         <v>221</v>
       </c>
       <c r="P201" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q201">
         <v>3.2</v>
@@ -42821,7 +42827,7 @@
         <v>222</v>
       </c>
       <c r="P202" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q202">
         <v>1.77</v>
@@ -43027,7 +43033,7 @@
         <v>86</v>
       </c>
       <c r="P203" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q203">
         <v>2.62</v>
@@ -43596,6 +43602,212 @@
       </c>
       <c r="BP205">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:68">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>7484741</v>
+      </c>
+      <c r="C206" t="s">
+        <v>68</v>
+      </c>
+      <c r="D206" t="s">
+        <v>69</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45774.22916666666</v>
+      </c>
+      <c r="F206">
+        <v>26</v>
+      </c>
+      <c r="G206" t="s">
+        <v>80</v>
+      </c>
+      <c r="H206" t="s">
+        <v>81</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206">
+        <v>0</v>
+      </c>
+      <c r="L206">
+        <v>2</v>
+      </c>
+      <c r="M206">
+        <v>1</v>
+      </c>
+      <c r="N206">
+        <v>3</v>
+      </c>
+      <c r="O206" t="s">
+        <v>225</v>
+      </c>
+      <c r="P206" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q206">
+        <v>5.19</v>
+      </c>
+      <c r="R206">
+        <v>2.34</v>
+      </c>
+      <c r="S206">
+        <v>2.05</v>
+      </c>
+      <c r="T206">
+        <v>1.31</v>
+      </c>
+      <c r="U206">
+        <v>3.25</v>
+      </c>
+      <c r="V206">
+        <v>2.4</v>
+      </c>
+      <c r="W206">
+        <v>1.49</v>
+      </c>
+      <c r="X206">
+        <v>5.3</v>
+      </c>
+      <c r="Y206">
+        <v>1.11</v>
+      </c>
+      <c r="Z206">
+        <v>4.2</v>
+      </c>
+      <c r="AA206">
+        <v>3.98</v>
+      </c>
+      <c r="AB206">
+        <v>1.73</v>
+      </c>
+      <c r="AC206">
+        <v>1.04</v>
+      </c>
+      <c r="AD206">
+        <v>13</v>
+      </c>
+      <c r="AE206">
+        <v>1.22</v>
+      </c>
+      <c r="AF206">
+        <v>3.9</v>
+      </c>
+      <c r="AG206">
+        <v>1.65</v>
+      </c>
+      <c r="AH206">
+        <v>2.05</v>
+      </c>
+      <c r="AI206">
+        <v>1.75</v>
+      </c>
+      <c r="AJ206">
+        <v>2</v>
+      </c>
+      <c r="AK206">
+        <v>2.3</v>
+      </c>
+      <c r="AL206">
+        <v>0</v>
+      </c>
+      <c r="AM206">
+        <v>1.1</v>
+      </c>
+      <c r="AN206">
+        <v>1.83</v>
+      </c>
+      <c r="AO206">
+        <v>2.38</v>
+      </c>
+      <c r="AP206">
+        <v>1.92</v>
+      </c>
+      <c r="AQ206">
+        <v>2.21</v>
+      </c>
+      <c r="AR206">
+        <v>1.42</v>
+      </c>
+      <c r="AS206">
+        <v>1.68</v>
+      </c>
+      <c r="AT206">
+        <v>3.1</v>
+      </c>
+      <c r="AU206">
+        <v>4</v>
+      </c>
+      <c r="AV206">
+        <v>6</v>
+      </c>
+      <c r="AW206">
+        <v>2</v>
+      </c>
+      <c r="AX206">
+        <v>1</v>
+      </c>
+      <c r="AY206">
+        <v>6</v>
+      </c>
+      <c r="AZ206">
+        <v>7</v>
+      </c>
+      <c r="BA206">
+        <v>6</v>
+      </c>
+      <c r="BB206">
+        <v>5</v>
+      </c>
+      <c r="BC206">
+        <v>11</v>
+      </c>
+      <c r="BD206">
+        <v>3.86</v>
+      </c>
+      <c r="BE206">
+        <v>9</v>
+      </c>
+      <c r="BF206">
+        <v>1.36</v>
+      </c>
+      <c r="BG206">
+        <v>1.35</v>
+      </c>
+      <c r="BH206">
+        <v>2.83</v>
+      </c>
+      <c r="BI206">
+        <v>1.6</v>
+      </c>
+      <c r="BJ206">
+        <v>2.11</v>
+      </c>
+      <c r="BK206">
+        <v>2.07</v>
+      </c>
+      <c r="BL206">
+        <v>1.73</v>
+      </c>
+      <c r="BM206">
+        <v>2.37</v>
+      </c>
+      <c r="BN206">
+        <v>1.55</v>
+      </c>
+      <c r="BO206">
+        <v>3.42</v>
+      </c>
+      <c r="BP206">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria 2. Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria 2. Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="333">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -694,6 +694,9 @@
     <t>['59', '75']</t>
   </si>
   <si>
+    <t>['12', '33', '40', '63']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -1007,6 +1010,9 @@
   </si>
   <si>
     <t>['47']</t>
+  </si>
+  <si>
+    <t>['73']</t>
   </si>
 </sst>
 </file>
@@ -1368,7 +1374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP206"/>
+  <dimension ref="A1:BP207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1627,7 +1633,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1708,7 +1714,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ2">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1833,7 +1839,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -2039,7 +2045,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q4">
         <v>6.5</v>
@@ -2245,7 +2251,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q5">
         <v>3.25</v>
@@ -2941,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ8">
         <v>1</v>
@@ -3481,7 +3487,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3687,7 +3693,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -4511,7 +4517,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q16">
         <v>2.1</v>
@@ -4717,7 +4723,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -4923,7 +4929,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q18">
         <v>2.2</v>
@@ -5129,7 +5135,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q19">
         <v>2.5</v>
@@ -5335,7 +5341,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q20">
         <v>3.75</v>
@@ -5416,7 +5422,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ20">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR20">
         <v>0.71</v>
@@ -5541,7 +5547,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q21">
         <v>4.5</v>
@@ -5747,7 +5753,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -6159,7 +6165,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6237,7 +6243,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ24">
         <v>1.54</v>
@@ -6365,7 +6371,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q25">
         <v>2.38</v>
@@ -6571,7 +6577,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6777,7 +6783,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q27">
         <v>4.5</v>
@@ -7189,7 +7195,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q29">
         <v>2.05</v>
@@ -7395,7 +7401,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q30">
         <v>2.75</v>
@@ -7601,7 +7607,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -8219,7 +8225,7 @@
         <v>109</v>
       </c>
       <c r="P34" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q34">
         <v>1.8</v>
@@ -8631,7 +8637,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -8837,7 +8843,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -9043,7 +9049,7 @@
         <v>112</v>
       </c>
       <c r="P38" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q38">
         <v>2.75</v>
@@ -9455,7 +9461,7 @@
         <v>86</v>
       </c>
       <c r="P40" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9661,7 +9667,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9867,7 +9873,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -10485,7 +10491,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10691,7 +10697,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10897,7 +10903,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q47">
         <v>3.6</v>
@@ -11103,7 +11109,7 @@
         <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -11721,7 +11727,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -11927,7 +11933,7 @@
         <v>86</v>
       </c>
       <c r="P52" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q52">
         <v>2.1</v>
@@ -12211,7 +12217,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ53">
         <v>0.77</v>
@@ -12339,7 +12345,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -12420,7 +12426,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ54">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR54">
         <v>1.74</v>
@@ -12751,7 +12757,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q56">
         <v>3.25</v>
@@ -12957,7 +12963,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q57">
         <v>3.2</v>
@@ -13163,7 +13169,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q58">
         <v>1.8</v>
@@ -13653,7 +13659,7 @@
         <v>0.33</v>
       </c>
       <c r="AP60">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ60">
         <v>1.17</v>
@@ -13781,7 +13787,7 @@
         <v>125</v>
       </c>
       <c r="P61" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -14193,7 +14199,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q63">
         <v>3.6</v>
@@ -14274,7 +14280,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ63">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR63">
         <v>1.26</v>
@@ -14605,7 +14611,7 @@
         <v>128</v>
       </c>
       <c r="P65" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14811,7 +14817,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -15017,7 +15023,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -15223,7 +15229,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q68">
         <v>2.1</v>
@@ -15841,7 +15847,7 @@
         <v>133</v>
       </c>
       <c r="P71" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q71">
         <v>2.1</v>
@@ -16665,7 +16671,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16871,7 +16877,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -17077,7 +17083,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q77">
         <v>3.1</v>
@@ -17283,7 +17289,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q78">
         <v>3.75</v>
@@ -17364,7 +17370,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ78">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR78">
         <v>1.34</v>
@@ -17489,7 +17495,7 @@
         <v>138</v>
       </c>
       <c r="P79" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17901,7 +17907,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -18725,7 +18731,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q85">
         <v>2</v>
@@ -18931,7 +18937,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -19009,7 +19015,7 @@
         <v>3</v>
       </c>
       <c r="AP86">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ86">
         <v>2.23</v>
@@ -19343,7 +19349,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q88">
         <v>4.33</v>
@@ -19549,7 +19555,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q89">
         <v>3.1</v>
@@ -19755,7 +19761,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -20167,7 +20173,7 @@
         <v>86</v>
       </c>
       <c r="P92" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q92">
         <v>2.5</v>
@@ -20373,7 +20379,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20579,7 +20585,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20785,7 +20791,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q95">
         <v>2.6</v>
@@ -21197,7 +21203,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q97">
         <v>3.2</v>
@@ -21278,7 +21284,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ97">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR97">
         <v>1.11</v>
@@ -21609,7 +21615,7 @@
         <v>142</v>
       </c>
       <c r="P99" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21815,7 +21821,7 @@
         <v>86</v>
       </c>
       <c r="P100" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q100">
         <v>3.2</v>
@@ -22021,7 +22027,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -22433,7 +22439,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q103">
         <v>4.5</v>
@@ -22511,7 +22517,7 @@
         <v>2.17</v>
       </c>
       <c r="AP103">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ103">
         <v>2.21</v>
@@ -22639,7 +22645,7 @@
         <v>152</v>
       </c>
       <c r="P104" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -23051,7 +23057,7 @@
         <v>86</v>
       </c>
       <c r="P106" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23257,7 +23263,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23463,7 +23469,7 @@
         <v>153</v>
       </c>
       <c r="P108" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q108">
         <v>2.88</v>
@@ -23544,7 +23550,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ108">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR108">
         <v>1.76</v>
@@ -23669,7 +23675,7 @@
         <v>86</v>
       </c>
       <c r="P109" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q109">
         <v>3.2</v>
@@ -25111,7 +25117,7 @@
         <v>157</v>
       </c>
       <c r="P116" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q116">
         <v>3.5</v>
@@ -25729,7 +25735,7 @@
         <v>152</v>
       </c>
       <c r="P119" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q119">
         <v>2.63</v>
@@ -26013,7 +26019,7 @@
         <v>1</v>
       </c>
       <c r="AP120">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ120">
         <v>0.92</v>
@@ -26347,7 +26353,7 @@
         <v>86</v>
       </c>
       <c r="P122" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -26759,7 +26765,7 @@
         <v>161</v>
       </c>
       <c r="P124" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q124">
         <v>2.38</v>
@@ -26965,7 +26971,7 @@
         <v>162</v>
       </c>
       <c r="P125" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -27171,7 +27177,7 @@
         <v>163</v>
       </c>
       <c r="P126" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -27377,7 +27383,7 @@
         <v>164</v>
       </c>
       <c r="P127" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27583,7 +27589,7 @@
         <v>165</v>
       </c>
       <c r="P128" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q128">
         <v>2.75</v>
@@ -27789,7 +27795,7 @@
         <v>166</v>
       </c>
       <c r="P129" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q129">
         <v>1.95</v>
@@ -27995,7 +28001,7 @@
         <v>86</v>
       </c>
       <c r="P130" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q130">
         <v>3.4</v>
@@ -28407,7 +28413,7 @@
         <v>153</v>
       </c>
       <c r="P132" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28613,7 +28619,7 @@
         <v>168</v>
       </c>
       <c r="P133" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q133">
         <v>2.5</v>
@@ -28694,7 +28700,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ133">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR133">
         <v>1.4</v>
@@ -29103,7 +29109,7 @@
         <v>1.38</v>
       </c>
       <c r="AP135">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ135">
         <v>0.92</v>
@@ -29849,7 +29855,7 @@
         <v>171</v>
       </c>
       <c r="P139" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q139">
         <v>4.8</v>
@@ -30261,7 +30267,7 @@
         <v>173</v>
       </c>
       <c r="P141" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -31291,7 +31297,7 @@
         <v>178</v>
       </c>
       <c r="P146" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q146">
         <v>2.5</v>
@@ -31497,7 +31503,7 @@
         <v>179</v>
       </c>
       <c r="P147" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q147">
         <v>2.36</v>
@@ -31909,7 +31915,7 @@
         <v>181</v>
       </c>
       <c r="P149" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q149">
         <v>2.1</v>
@@ -32115,7 +32121,7 @@
         <v>182</v>
       </c>
       <c r="P150" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q150">
         <v>2.63</v>
@@ -32193,7 +32199,7 @@
         <v>1.38</v>
       </c>
       <c r="AP150">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ150">
         <v>0.92</v>
@@ -32402,7 +32408,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ151">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR151">
         <v>1.34</v>
@@ -32733,7 +32739,7 @@
         <v>185</v>
       </c>
       <c r="P153" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q153">
         <v>2.88</v>
@@ -32939,7 +32945,7 @@
         <v>86</v>
       </c>
       <c r="P154" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q154">
         <v>3.75</v>
@@ -33145,7 +33151,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q155">
         <v>3.6</v>
@@ -33635,7 +33641,7 @@
         <v>1.63</v>
       </c>
       <c r="AP157">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ157">
         <v>1.73</v>
@@ -33763,7 +33769,7 @@
         <v>188</v>
       </c>
       <c r="P158" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q158">
         <v>2.4</v>
@@ -33844,7 +33850,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ158">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR158">
         <v>1.5</v>
@@ -34381,7 +34387,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -34587,7 +34593,7 @@
         <v>192</v>
       </c>
       <c r="P162" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q162">
         <v>3.2</v>
@@ -35411,7 +35417,7 @@
         <v>195</v>
       </c>
       <c r="P166" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q166">
         <v>2.88</v>
@@ -36029,7 +36035,7 @@
         <v>198</v>
       </c>
       <c r="P169" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q169">
         <v>2.88</v>
@@ -36316,7 +36322,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ170">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR170">
         <v>1.79</v>
@@ -36441,7 +36447,7 @@
         <v>200</v>
       </c>
       <c r="P171" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q171">
         <v>2.5</v>
@@ -36853,7 +36859,7 @@
         <v>86</v>
       </c>
       <c r="P173" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q173">
         <v>3.1</v>
@@ -36931,7 +36937,7 @@
         <v>1.27</v>
       </c>
       <c r="AP173">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ173">
         <v>1.38</v>
@@ -37265,7 +37271,7 @@
         <v>177</v>
       </c>
       <c r="P175" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q175">
         <v>5</v>
@@ -37677,7 +37683,7 @@
         <v>86</v>
       </c>
       <c r="P177" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q177">
         <v>5.25</v>
@@ -37883,7 +37889,7 @@
         <v>203</v>
       </c>
       <c r="P178" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q178">
         <v>2.2</v>
@@ -38295,7 +38301,7 @@
         <v>204</v>
       </c>
       <c r="P180" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q180">
         <v>4.2</v>
@@ -38707,7 +38713,7 @@
         <v>206</v>
       </c>
       <c r="P182" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q182">
         <v>2.3</v>
@@ -38913,7 +38919,7 @@
         <v>207</v>
       </c>
       <c r="P183" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q183">
         <v>3.45</v>
@@ -39325,7 +39331,7 @@
         <v>208</v>
       </c>
       <c r="P185" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q185">
         <v>3.6</v>
@@ -39531,7 +39537,7 @@
         <v>209</v>
       </c>
       <c r="P186" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q186">
         <v>2.7</v>
@@ -39943,7 +39949,7 @@
         <v>152</v>
       </c>
       <c r="P188" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q188">
         <v>3</v>
@@ -40149,7 +40155,7 @@
         <v>211</v>
       </c>
       <c r="P189" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q189">
         <v>2.87</v>
@@ -40355,7 +40361,7 @@
         <v>212</v>
       </c>
       <c r="P190" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q190">
         <v>3.4</v>
@@ -40561,7 +40567,7 @@
         <v>213</v>
       </c>
       <c r="P191" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q191">
         <v>2.2</v>
@@ -40973,7 +40979,7 @@
         <v>214</v>
       </c>
       <c r="P193" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q193">
         <v>3.8</v>
@@ -41179,7 +41185,7 @@
         <v>86</v>
       </c>
       <c r="P194" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q194">
         <v>2.98</v>
@@ -41591,7 +41597,7 @@
         <v>216</v>
       </c>
       <c r="P196" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q196">
         <v>2.58</v>
@@ -41797,7 +41803,7 @@
         <v>217</v>
       </c>
       <c r="P197" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -42003,7 +42009,7 @@
         <v>218</v>
       </c>
       <c r="P198" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q198">
         <v>1.75</v>
@@ -42209,7 +42215,7 @@
         <v>219</v>
       </c>
       <c r="P199" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q199">
         <v>3</v>
@@ -42287,7 +42293,7 @@
         <v>0.64</v>
       </c>
       <c r="AP199">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ199">
         <v>0.77</v>
@@ -42415,7 +42421,7 @@
         <v>220</v>
       </c>
       <c r="P200" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q200">
         <v>1.92</v>
@@ -42621,7 +42627,7 @@
         <v>221</v>
       </c>
       <c r="P201" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q201">
         <v>3.2</v>
@@ -42827,7 +42833,7 @@
         <v>222</v>
       </c>
       <c r="P202" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q202">
         <v>1.77</v>
@@ -43033,7 +43039,7 @@
         <v>86</v>
       </c>
       <c r="P203" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q203">
         <v>2.62</v>
@@ -43114,7 +43120,7 @@
         <v>1</v>
       </c>
       <c r="AQ203">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR203">
         <v>1.53</v>
@@ -43651,7 +43657,7 @@
         <v>225</v>
       </c>
       <c r="P206" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q206">
         <v>5.19</v>
@@ -43808,6 +43814,212 @@
       </c>
       <c r="BP206">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="207" spans="1:68">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>7484727</v>
+      </c>
+      <c r="C207" t="s">
+        <v>68</v>
+      </c>
+      <c r="D207" t="s">
+        <v>69</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45776.54166666666</v>
+      </c>
+      <c r="F207">
+        <v>24</v>
+      </c>
+      <c r="G207" t="s">
+        <v>76</v>
+      </c>
+      <c r="H207" t="s">
+        <v>85</v>
+      </c>
+      <c r="I207">
+        <v>3</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>3</v>
+      </c>
+      <c r="L207">
+        <v>4</v>
+      </c>
+      <c r="M207">
+        <v>1</v>
+      </c>
+      <c r="N207">
+        <v>5</v>
+      </c>
+      <c r="O207" t="s">
+        <v>226</v>
+      </c>
+      <c r="P207" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q207">
+        <v>4.3</v>
+      </c>
+      <c r="R207">
+        <v>2.36</v>
+      </c>
+      <c r="S207">
+        <v>2.05</v>
+      </c>
+      <c r="T207">
+        <v>1.24</v>
+      </c>
+      <c r="U207">
+        <v>3.5</v>
+      </c>
+      <c r="V207">
+        <v>2.25</v>
+      </c>
+      <c r="W207">
+        <v>1.57</v>
+      </c>
+      <c r="X207">
+        <v>5</v>
+      </c>
+      <c r="Y207">
+        <v>1.14</v>
+      </c>
+      <c r="Z207">
+        <v>3.75</v>
+      </c>
+      <c r="AA207">
+        <v>3.94</v>
+      </c>
+      <c r="AB207">
+        <v>1.81</v>
+      </c>
+      <c r="AC207">
+        <v>1</v>
+      </c>
+      <c r="AD207">
+        <v>15</v>
+      </c>
+      <c r="AE207">
+        <v>1.18</v>
+      </c>
+      <c r="AF207">
+        <v>4.5</v>
+      </c>
+      <c r="AG207">
+        <v>1.57</v>
+      </c>
+      <c r="AH207">
+        <v>2.25</v>
+      </c>
+      <c r="AI207">
+        <v>1.5</v>
+      </c>
+      <c r="AJ207">
+        <v>2.3</v>
+      </c>
+      <c r="AK207">
+        <v>1.2</v>
+      </c>
+      <c r="AL207">
+        <v>0</v>
+      </c>
+      <c r="AM207">
+        <v>1.24</v>
+      </c>
+      <c r="AN207">
+        <v>1.5</v>
+      </c>
+      <c r="AO207">
+        <v>1.67</v>
+      </c>
+      <c r="AP207">
+        <v>1.62</v>
+      </c>
+      <c r="AQ207">
+        <v>1.54</v>
+      </c>
+      <c r="AR207">
+        <v>1.36</v>
+      </c>
+      <c r="AS207">
+        <v>1.48</v>
+      </c>
+      <c r="AT207">
+        <v>2.84</v>
+      </c>
+      <c r="AU207">
+        <v>10</v>
+      </c>
+      <c r="AV207">
+        <v>4</v>
+      </c>
+      <c r="AW207">
+        <v>9</v>
+      </c>
+      <c r="AX207">
+        <v>11</v>
+      </c>
+      <c r="AY207">
+        <v>22</v>
+      </c>
+      <c r="AZ207">
+        <v>19</v>
+      </c>
+      <c r="BA207">
+        <v>6</v>
+      </c>
+      <c r="BB207">
+        <v>1</v>
+      </c>
+      <c r="BC207">
+        <v>7</v>
+      </c>
+      <c r="BD207">
+        <v>2.38</v>
+      </c>
+      <c r="BE207">
+        <v>6.9</v>
+      </c>
+      <c r="BF207">
+        <v>1.87</v>
+      </c>
+      <c r="BG207">
+        <v>1.18</v>
+      </c>
+      <c r="BH207">
+        <v>4.1</v>
+      </c>
+      <c r="BI207">
+        <v>1.35</v>
+      </c>
+      <c r="BJ207">
+        <v>2.92</v>
+      </c>
+      <c r="BK207">
+        <v>1.6</v>
+      </c>
+      <c r="BL207">
+        <v>2.19</v>
+      </c>
+      <c r="BM207">
+        <v>1.96</v>
+      </c>
+      <c r="BN207">
+        <v>1.75</v>
+      </c>
+      <c r="BO207">
+        <v>2.48</v>
+      </c>
+      <c r="BP207">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria 2. Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria 2. Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="338">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -697,6 +697,18 @@
     <t>['12', '33', '40', '63']</t>
   </si>
   <si>
+    <t>['68']</t>
+  </si>
+  <si>
+    <t>['65']</t>
+  </si>
+  <si>
+    <t>['37', '50', '77', '90+3']</t>
+  </si>
+  <si>
+    <t>['8', '38']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -832,9 +844,6 @@
     <t>['19', '34']</t>
   </si>
   <si>
-    <t>['65']</t>
-  </si>
-  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -925,9 +934,6 @@
     <t>['90+1']</t>
   </si>
   <si>
-    <t>['68']</t>
-  </si>
-  <si>
     <t>['83', '89']</t>
   </si>
   <si>
@@ -1013,6 +1019,15 @@
   </si>
   <si>
     <t>['73']</t>
+  </si>
+  <si>
+    <t>['35', '43']</t>
+  </si>
+  <si>
+    <t>['1', '54']</t>
+  </si>
+  <si>
+    <t>['1', '6', '69', '73', '76']</t>
   </si>
 </sst>
 </file>
@@ -1374,7 +1389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP207"/>
+  <dimension ref="A1:BP213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1633,7 +1648,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1711,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ2">
         <v>1.54</v>
@@ -1839,7 +1854,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -2045,7 +2060,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q4">
         <v>6.5</v>
@@ -2123,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ4">
         <v>2.21</v>
@@ -2251,7 +2266,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q5">
         <v>3.25</v>
@@ -2329,10 +2344,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ5">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2744,7 +2759,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ7">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3359,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ10">
         <v>0.77</v>
@@ -3487,7 +3502,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3693,7 +3708,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3774,7 +3789,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ12">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3977,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ13">
         <v>0.77</v>
@@ -4186,7 +4201,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ14">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4389,10 +4404,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ15">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4517,7 +4532,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q16">
         <v>2.1</v>
@@ -4723,7 +4738,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -4804,7 +4819,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ17">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4929,7 +4944,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q18">
         <v>2.2</v>
@@ -5007,7 +5022,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ18">
         <v>1</v>
@@ -5135,7 +5150,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q19">
         <v>2.5</v>
@@ -5341,7 +5356,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q20">
         <v>3.75</v>
@@ -5419,7 +5434,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ20">
         <v>1.54</v>
@@ -5547,7 +5562,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q21">
         <v>4.5</v>
@@ -5753,7 +5768,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5834,7 +5849,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ22">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR22">
         <v>1.76</v>
@@ -6040,7 +6055,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ23">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AR23">
         <v>2.04</v>
@@ -6165,7 +6180,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6371,7 +6386,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q25">
         <v>2.38</v>
@@ -6577,7 +6592,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6655,10 +6670,10 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ26">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR26">
         <v>1.49</v>
@@ -6783,7 +6798,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q27">
         <v>4.5</v>
@@ -6861,10 +6876,10 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ27">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AR27">
         <v>1.73</v>
@@ -7195,7 +7210,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q29">
         <v>2.05</v>
@@ -7273,7 +7288,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ29">
         <v>1.31</v>
@@ -7401,7 +7416,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q30">
         <v>2.75</v>
@@ -7607,7 +7622,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7688,7 +7703,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ31">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR31">
         <v>0.93</v>
@@ -7891,7 +7906,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ32">
         <v>1.73</v>
@@ -8100,7 +8115,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ33">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR33">
         <v>1.76</v>
@@ -8225,7 +8240,7 @@
         <v>109</v>
       </c>
       <c r="P34" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q34">
         <v>1.8</v>
@@ -8303,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ34">
         <v>1.31</v>
@@ -8512,7 +8527,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ35">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR35">
         <v>1.62</v>
@@ -8637,7 +8652,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -8715,7 +8730,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -8843,7 +8858,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8924,7 +8939,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ37">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR37">
         <v>1.32</v>
@@ -9049,7 +9064,7 @@
         <v>112</v>
       </c>
       <c r="P38" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q38">
         <v>2.75</v>
@@ -9333,7 +9348,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ39">
         <v>0.77</v>
@@ -9461,7 +9476,7 @@
         <v>86</v>
       </c>
       <c r="P40" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9667,7 +9682,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9873,7 +9888,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -9954,7 +9969,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ42">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR42">
         <v>1.18</v>
@@ -10157,10 +10172,10 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ43">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR43">
         <v>1.43</v>
@@ -10363,10 +10378,10 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ44">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AR44">
         <v>1.33</v>
@@ -10491,7 +10506,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10569,7 +10584,7 @@
         <v>1.67</v>
       </c>
       <c r="AP45">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ45">
         <v>1</v>
@@ -10697,7 +10712,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10778,7 +10793,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ46">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR46">
         <v>1.15</v>
@@ -10903,7 +10918,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q47">
         <v>3.6</v>
@@ -11109,7 +11124,7 @@
         <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -11396,7 +11411,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ49">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR49">
         <v>1.42</v>
@@ -11727,7 +11742,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -11805,7 +11820,7 @@
         <v>3</v>
       </c>
       <c r="AP51">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ51">
         <v>2.21</v>
@@ -11933,7 +11948,7 @@
         <v>86</v>
       </c>
       <c r="P52" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q52">
         <v>2.1</v>
@@ -12011,7 +12026,7 @@
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ52">
         <v>0.77</v>
@@ -12345,7 +12360,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -12423,7 +12438,7 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ54">
         <v>1.54</v>
@@ -12632,7 +12647,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ55">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR55">
         <v>1.49</v>
@@ -12757,7 +12772,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q56">
         <v>3.25</v>
@@ -12835,7 +12850,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ56">
         <v>0.92</v>
@@ -12963,7 +12978,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q57">
         <v>3.2</v>
@@ -13169,7 +13184,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q58">
         <v>1.8</v>
@@ -13247,10 +13262,10 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ58">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR58">
         <v>1.23</v>
@@ -13662,7 +13677,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ60">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR60">
         <v>1.45</v>
@@ -13787,7 +13802,7 @@
         <v>125</v>
       </c>
       <c r="P61" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -13868,7 +13883,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ61">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AR61">
         <v>1.31</v>
@@ -14074,7 +14089,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ62">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AR62">
         <v>1.38</v>
@@ -14199,7 +14214,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q63">
         <v>3.6</v>
@@ -14277,7 +14292,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ63">
         <v>1.54</v>
@@ -14611,7 +14626,7 @@
         <v>128</v>
       </c>
       <c r="P65" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14692,7 +14707,7 @@
         <v>1</v>
       </c>
       <c r="AQ65">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AR65">
         <v>1.19</v>
@@ -14817,7 +14832,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -14895,10 +14910,10 @@
         <v>3</v>
       </c>
       <c r="AP66">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ66">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AR66">
         <v>1.04</v>
@@ -15023,7 +15038,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -15101,7 +15116,7 @@
         <v>1.5</v>
       </c>
       <c r="AP67">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ67">
         <v>0.77</v>
@@ -15229,7 +15244,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q68">
         <v>2.1</v>
@@ -15513,7 +15528,7 @@
         <v>3</v>
       </c>
       <c r="AP69">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ69">
         <v>1.54</v>
@@ -15722,7 +15737,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ70">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR70">
         <v>1.74</v>
@@ -15847,7 +15862,7 @@
         <v>133</v>
       </c>
       <c r="P71" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q71">
         <v>2.1</v>
@@ -15925,7 +15940,7 @@
         <v>0.75</v>
       </c>
       <c r="AP71">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ71">
         <v>1.77</v>
@@ -16131,10 +16146,10 @@
         <v>2</v>
       </c>
       <c r="AP72">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ72">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR72">
         <v>1.63</v>
@@ -16671,7 +16686,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16749,7 +16764,7 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ75">
         <v>1.31</v>
@@ -16877,7 +16892,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -17083,7 +17098,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q77">
         <v>3.1</v>
@@ -17161,10 +17176,10 @@
         <v>0.5</v>
       </c>
       <c r="AP77">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ77">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR77">
         <v>1.02</v>
@@ -17289,7 +17304,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q78">
         <v>3.75</v>
@@ -17495,7 +17510,7 @@
         <v>138</v>
       </c>
       <c r="P79" t="s">
-        <v>272</v>
+        <v>228</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17576,7 +17591,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ79">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR79">
         <v>0.98</v>
@@ -17907,7 +17922,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -17985,10 +18000,10 @@
         <v>0.8</v>
       </c>
       <c r="AP81">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ81">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR81">
         <v>1.61</v>
@@ -18191,7 +18206,7 @@
         <v>2.4</v>
       </c>
       <c r="AP82">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ82">
         <v>1.54</v>
@@ -18400,7 +18415,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ83">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR83">
         <v>1.17</v>
@@ -18603,7 +18618,7 @@
         <v>0.5</v>
       </c>
       <c r="AP84">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ84">
         <v>0.77</v>
@@ -18731,7 +18746,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q85">
         <v>2</v>
@@ -18812,7 +18827,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ85">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AR85">
         <v>1.86</v>
@@ -18937,7 +18952,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -19018,7 +19033,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ86">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AR86">
         <v>1.47</v>
@@ -19221,10 +19236,10 @@
         <v>2.2</v>
       </c>
       <c r="AP87">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ87">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR87">
         <v>1.6</v>
@@ -19349,7 +19364,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q88">
         <v>4.33</v>
@@ -19427,7 +19442,7 @@
         <v>1.2</v>
       </c>
       <c r="AP88">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ88">
         <v>1.77</v>
@@ -19555,7 +19570,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q89">
         <v>3.1</v>
@@ -19761,7 +19776,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -20173,7 +20188,7 @@
         <v>86</v>
       </c>
       <c r="P92" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q92">
         <v>2.5</v>
@@ -20379,7 +20394,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20585,7 +20600,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20791,7 +20806,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q95">
         <v>2.6</v>
@@ -21203,7 +21218,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q97">
         <v>3.2</v>
@@ -21487,10 +21502,10 @@
         <v>0.67</v>
       </c>
       <c r="AP98">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ98">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AR98">
         <v>1.62</v>
@@ -21615,7 +21630,7 @@
         <v>142</v>
       </c>
       <c r="P99" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21693,7 +21708,7 @@
         <v>2</v>
       </c>
       <c r="AP99">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ99">
         <v>1.54</v>
@@ -21821,7 +21836,7 @@
         <v>86</v>
       </c>
       <c r="P100" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q100">
         <v>3.2</v>
@@ -21899,7 +21914,7 @@
         <v>1.5</v>
       </c>
       <c r="AP100">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ100">
         <v>1.77</v>
@@ -22027,7 +22042,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -22105,10 +22120,10 @@
         <v>0.67</v>
       </c>
       <c r="AP101">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ101">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR101">
         <v>1.23</v>
@@ -22314,7 +22329,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ102">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR102">
         <v>1.18</v>
@@ -22439,7 +22454,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q103">
         <v>4.5</v>
@@ -22645,7 +22660,7 @@
         <v>152</v>
       </c>
       <c r="P104" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -22726,7 +22741,7 @@
         <v>1</v>
       </c>
       <c r="AQ104">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AR104">
         <v>1.26</v>
@@ -22929,10 +22944,10 @@
         <v>1.17</v>
       </c>
       <c r="AP105">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ105">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR105">
         <v>1.61</v>
@@ -23057,7 +23072,7 @@
         <v>86</v>
       </c>
       <c r="P106" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23138,7 +23153,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ106">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR106">
         <v>1.34</v>
@@ -23263,7 +23278,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23469,7 +23484,7 @@
         <v>153</v>
       </c>
       <c r="P108" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q108">
         <v>2.88</v>
@@ -23547,7 +23562,7 @@
         <v>2.17</v>
       </c>
       <c r="AP108">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ108">
         <v>1.54</v>
@@ -23675,7 +23690,7 @@
         <v>86</v>
       </c>
       <c r="P109" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q109">
         <v>3.2</v>
@@ -23959,7 +23974,7 @@
         <v>1.67</v>
       </c>
       <c r="AP110">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ110">
         <v>1</v>
@@ -24783,10 +24798,10 @@
         <v>2.5</v>
       </c>
       <c r="AP114">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ114">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AR114">
         <v>1.14</v>
@@ -24992,7 +25007,7 @@
         <v>1</v>
       </c>
       <c r="AQ115">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR115">
         <v>1.28</v>
@@ -25117,7 +25132,7 @@
         <v>157</v>
       </c>
       <c r="P116" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q116">
         <v>3.5</v>
@@ -25195,10 +25210,10 @@
         <v>1.14</v>
       </c>
       <c r="AP116">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ116">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR116">
         <v>1.11</v>
@@ -25404,7 +25419,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ117">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AR117">
         <v>1.34</v>
@@ -25735,7 +25750,7 @@
         <v>152</v>
       </c>
       <c r="P119" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q119">
         <v>2.63</v>
@@ -25813,7 +25828,7 @@
         <v>1.33</v>
       </c>
       <c r="AP119">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ119">
         <v>0.92</v>
@@ -26022,7 +26037,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ120">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR120">
         <v>1.33</v>
@@ -26225,7 +26240,7 @@
         <v>1.86</v>
       </c>
       <c r="AP121">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ121">
         <v>1.54</v>
@@ -26353,7 +26368,7 @@
         <v>86</v>
       </c>
       <c r="P122" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -26431,10 +26446,10 @@
         <v>1.14</v>
       </c>
       <c r="AP122">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ122">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR122">
         <v>1.65</v>
@@ -26637,7 +26652,7 @@
         <v>0.57</v>
       </c>
       <c r="AP123">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ123">
         <v>0.77</v>
@@ -26765,7 +26780,7 @@
         <v>161</v>
       </c>
       <c r="P124" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q124">
         <v>2.38</v>
@@ -26846,7 +26861,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ124">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR124">
         <v>1.35</v>
@@ -26971,7 +26986,7 @@
         <v>162</v>
       </c>
       <c r="P125" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -27177,7 +27192,7 @@
         <v>163</v>
       </c>
       <c r="P126" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -27258,7 +27273,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ126">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AR126">
         <v>1.27</v>
@@ -27383,7 +27398,7 @@
         <v>164</v>
       </c>
       <c r="P127" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27464,7 +27479,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ127">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR127">
         <v>1.44</v>
@@ -27589,7 +27604,7 @@
         <v>165</v>
       </c>
       <c r="P128" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q128">
         <v>2.75</v>
@@ -27667,7 +27682,7 @@
         <v>1.5</v>
       </c>
       <c r="AP128">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ128">
         <v>1.31</v>
@@ -27795,7 +27810,7 @@
         <v>166</v>
       </c>
       <c r="P129" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q129">
         <v>1.95</v>
@@ -28001,7 +28016,7 @@
         <v>86</v>
       </c>
       <c r="P130" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q130">
         <v>3.4</v>
@@ -28285,7 +28300,7 @@
         <v>1.57</v>
       </c>
       <c r="AP131">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ131">
         <v>0.92</v>
@@ -28413,7 +28428,7 @@
         <v>153</v>
       </c>
       <c r="P132" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28619,7 +28634,7 @@
         <v>168</v>
       </c>
       <c r="P133" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q133">
         <v>2.5</v>
@@ -28903,10 +28918,10 @@
         <v>0.5</v>
       </c>
       <c r="AP134">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ134">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AR134">
         <v>1.56</v>
@@ -29112,7 +29127,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ135">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR135">
         <v>1.26</v>
@@ -29315,7 +29330,7 @@
         <v>2.38</v>
       </c>
       <c r="AP136">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ136">
         <v>2.21</v>
@@ -29727,7 +29742,7 @@
         <v>2</v>
       </c>
       <c r="AP138">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ138">
         <v>1.77</v>
@@ -29855,7 +29870,7 @@
         <v>171</v>
       </c>
       <c r="P139" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q139">
         <v>4.8</v>
@@ -29936,7 +29951,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ139">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AR139">
         <v>1.38</v>
@@ -30142,7 +30157,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ140">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR140">
         <v>1.92</v>
@@ -30267,7 +30282,7 @@
         <v>173</v>
       </c>
       <c r="P141" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -30345,10 +30360,10 @@
         <v>1.38</v>
       </c>
       <c r="AP141">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ141">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR141">
         <v>1.04</v>
@@ -30757,10 +30772,10 @@
         <v>0.89</v>
       </c>
       <c r="AP143">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ143">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR143">
         <v>1.39</v>
@@ -31297,7 +31312,7 @@
         <v>178</v>
       </c>
       <c r="P146" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q146">
         <v>2.5</v>
@@ -31375,10 +31390,10 @@
         <v>0.44</v>
       </c>
       <c r="AP146">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ146">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AR146">
         <v>1.16</v>
@@ -31503,7 +31518,7 @@
         <v>179</v>
       </c>
       <c r="P147" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="Q147">
         <v>2.36</v>
@@ -31790,7 +31805,7 @@
         <v>1</v>
       </c>
       <c r="AQ148">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR148">
         <v>1.35</v>
@@ -31915,7 +31930,7 @@
         <v>181</v>
       </c>
       <c r="P149" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q149">
         <v>2.1</v>
@@ -32121,7 +32136,7 @@
         <v>182</v>
       </c>
       <c r="P150" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q150">
         <v>2.63</v>
@@ -32611,7 +32626,7 @@
         <v>2.44</v>
       </c>
       <c r="AP152">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ152">
         <v>2.21</v>
@@ -32739,7 +32754,7 @@
         <v>185</v>
       </c>
       <c r="P153" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q153">
         <v>2.88</v>
@@ -32817,7 +32832,7 @@
         <v>1.22</v>
       </c>
       <c r="AP153">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ153">
         <v>0.92</v>
@@ -32945,7 +32960,7 @@
         <v>86</v>
       </c>
       <c r="P154" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q154">
         <v>3.75</v>
@@ -33026,7 +33041,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ154">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AR154">
         <v>1.88</v>
@@ -33151,7 +33166,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q155">
         <v>3.6</v>
@@ -33229,7 +33244,7 @@
         <v>0.44</v>
       </c>
       <c r="AP155">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ155">
         <v>0.77</v>
@@ -33438,7 +33453,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ156">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR156">
         <v>1.35</v>
@@ -33769,7 +33784,7 @@
         <v>188</v>
       </c>
       <c r="P158" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q158">
         <v>2.4</v>
@@ -34053,10 +34068,10 @@
         <v>0.5</v>
       </c>
       <c r="AP159">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ159">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AR159">
         <v>1.42</v>
@@ -34262,7 +34277,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ160">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR160">
         <v>1.4</v>
@@ -34387,7 +34402,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -34593,7 +34608,7 @@
         <v>192</v>
       </c>
       <c r="P162" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q162">
         <v>3.2</v>
@@ -34877,7 +34892,7 @@
         <v>1.3</v>
       </c>
       <c r="AP163">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ163">
         <v>1.31</v>
@@ -35289,10 +35304,10 @@
         <v>0.8</v>
       </c>
       <c r="AP165">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ165">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR165">
         <v>1.59</v>
@@ -35417,7 +35432,7 @@
         <v>195</v>
       </c>
       <c r="P166" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q166">
         <v>2.88</v>
@@ -35495,10 +35510,10 @@
         <v>1.1</v>
       </c>
       <c r="AP166">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ166">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR166">
         <v>1.64</v>
@@ -36035,7 +36050,7 @@
         <v>198</v>
       </c>
       <c r="P169" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q169">
         <v>2.88</v>
@@ -36113,7 +36128,7 @@
         <v>0.5</v>
       </c>
       <c r="AP169">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ169">
         <v>0.77</v>
@@ -36447,7 +36462,7 @@
         <v>200</v>
       </c>
       <c r="P171" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q171">
         <v>2.5</v>
@@ -36528,7 +36543,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ171">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AR171">
         <v>1.38</v>
@@ -36731,7 +36746,7 @@
         <v>1.1</v>
       </c>
       <c r="AP172">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ172">
         <v>0.92</v>
@@ -36859,7 +36874,7 @@
         <v>86</v>
       </c>
       <c r="P173" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q173">
         <v>3.1</v>
@@ -36940,7 +36955,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ173">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR173">
         <v>1.29</v>
@@ -37143,7 +37158,7 @@
         <v>1.44</v>
       </c>
       <c r="AP174">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ174">
         <v>1.73</v>
@@ -37271,7 +37286,7 @@
         <v>177</v>
       </c>
       <c r="P175" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q175">
         <v>5</v>
@@ -37352,7 +37367,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ175">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AR175">
         <v>1.3</v>
@@ -37558,7 +37573,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ176">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR176">
         <v>1.55</v>
@@ -37683,7 +37698,7 @@
         <v>86</v>
       </c>
       <c r="P177" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q177">
         <v>5.25</v>
@@ -37889,7 +37904,7 @@
         <v>203</v>
       </c>
       <c r="P178" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q178">
         <v>2.2</v>
@@ -38176,7 +38191,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ179">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AR179">
         <v>1.27</v>
@@ -38301,7 +38316,7 @@
         <v>204</v>
       </c>
       <c r="P180" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q180">
         <v>4.2</v>
@@ -38379,7 +38394,7 @@
         <v>1.82</v>
       </c>
       <c r="AP180">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ180">
         <v>1.77</v>
@@ -38585,7 +38600,7 @@
         <v>1.55</v>
       </c>
       <c r="AP181">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ181">
         <v>1.54</v>
@@ -38713,7 +38728,7 @@
         <v>206</v>
       </c>
       <c r="P182" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q182">
         <v>2.3</v>
@@ -38919,7 +38934,7 @@
         <v>207</v>
       </c>
       <c r="P183" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q183">
         <v>3.45</v>
@@ -39000,7 +39015,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ183">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR183">
         <v>1.41</v>
@@ -39203,7 +39218,7 @@
         <v>0.6</v>
       </c>
       <c r="AP184">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ184">
         <v>0.77</v>
@@ -39331,7 +39346,7 @@
         <v>208</v>
       </c>
       <c r="P185" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q185">
         <v>3.6</v>
@@ -39412,7 +39427,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ185">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR185">
         <v>1.42</v>
@@ -39537,7 +39552,7 @@
         <v>209</v>
       </c>
       <c r="P186" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q186">
         <v>2.7</v>
@@ -39615,7 +39630,7 @@
         <v>1.18</v>
       </c>
       <c r="AP186">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ186">
         <v>1</v>
@@ -39824,7 +39839,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ187">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR187">
         <v>1.27</v>
@@ -39949,7 +39964,7 @@
         <v>152</v>
       </c>
       <c r="P188" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q188">
         <v>3</v>
@@ -40155,7 +40170,7 @@
         <v>211</v>
       </c>
       <c r="P189" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q189">
         <v>2.87</v>
@@ -40361,7 +40376,7 @@
         <v>212</v>
       </c>
       <c r="P190" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q190">
         <v>3.4</v>
@@ -40567,7 +40582,7 @@
         <v>213</v>
       </c>
       <c r="P191" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q191">
         <v>2.2</v>
@@ -40851,10 +40866,10 @@
         <v>0.75</v>
       </c>
       <c r="AP192">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ192">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR192">
         <v>1.71</v>
@@ -40979,7 +40994,7 @@
         <v>214</v>
       </c>
       <c r="P193" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q193">
         <v>3.8</v>
@@ -41057,7 +41072,7 @@
         <v>1.67</v>
       </c>
       <c r="AP193">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ193">
         <v>1.77</v>
@@ -41185,7 +41200,7 @@
         <v>86</v>
       </c>
       <c r="P194" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q194">
         <v>2.98</v>
@@ -41469,10 +41484,10 @@
         <v>1.42</v>
       </c>
       <c r="AP195">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ195">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR195">
         <v>1.46</v>
@@ -41597,7 +41612,7 @@
         <v>216</v>
       </c>
       <c r="P196" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q196">
         <v>2.58</v>
@@ -41803,7 +41818,7 @@
         <v>217</v>
       </c>
       <c r="P197" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -41881,10 +41896,10 @@
         <v>2.42</v>
       </c>
       <c r="AP197">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ197">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AR197">
         <v>1.69</v>
@@ -42009,7 +42024,7 @@
         <v>218</v>
       </c>
       <c r="P198" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q198">
         <v>1.75</v>
@@ -42090,7 +42105,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ198">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AR198">
         <v>1.29</v>
@@ -42215,7 +42230,7 @@
         <v>219</v>
       </c>
       <c r="P199" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q199">
         <v>3</v>
@@ -42421,7 +42436,7 @@
         <v>220</v>
       </c>
       <c r="P200" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q200">
         <v>1.92</v>
@@ -42627,7 +42642,7 @@
         <v>221</v>
       </c>
       <c r="P201" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q201">
         <v>3.2</v>
@@ -42708,7 +42723,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ201">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR201">
         <v>1.39</v>
@@ -42833,7 +42848,7 @@
         <v>222</v>
       </c>
       <c r="P202" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q202">
         <v>1.77</v>
@@ -43039,7 +43054,7 @@
         <v>86</v>
       </c>
       <c r="P203" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q203">
         <v>2.62</v>
@@ -43657,7 +43672,7 @@
         <v>225</v>
       </c>
       <c r="P206" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q206">
         <v>5.19</v>
@@ -43863,7 +43878,7 @@
         <v>226</v>
       </c>
       <c r="P207" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q207">
         <v>4.3</v>
@@ -44020,6 +44035,1242 @@
       </c>
       <c r="BP207">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="208" spans="1:68">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>7484746</v>
+      </c>
+      <c r="C208" t="s">
+        <v>68</v>
+      </c>
+      <c r="D208" t="s">
+        <v>69</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45779.54166666666</v>
+      </c>
+      <c r="F208">
+        <v>27</v>
+      </c>
+      <c r="G208" t="s">
+        <v>70</v>
+      </c>
+      <c r="H208" t="s">
+        <v>71</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>2</v>
+      </c>
+      <c r="K208">
+        <v>2</v>
+      </c>
+      <c r="L208">
+        <v>1</v>
+      </c>
+      <c r="M208">
+        <v>2</v>
+      </c>
+      <c r="N208">
+        <v>3</v>
+      </c>
+      <c r="O208" t="s">
+        <v>227</v>
+      </c>
+      <c r="P208" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q208">
+        <v>3.1</v>
+      </c>
+      <c r="R208">
+        <v>2.25</v>
+      </c>
+      <c r="S208">
+        <v>2.7</v>
+      </c>
+      <c r="T208">
+        <v>1.25</v>
+      </c>
+      <c r="U208">
+        <v>3.2</v>
+      </c>
+      <c r="V208">
+        <v>2.4</v>
+      </c>
+      <c r="W208">
+        <v>1.5</v>
+      </c>
+      <c r="X208">
+        <v>5.5</v>
+      </c>
+      <c r="Y208">
+        <v>1.11</v>
+      </c>
+      <c r="Z208">
+        <v>2.74</v>
+      </c>
+      <c r="AA208">
+        <v>3.68</v>
+      </c>
+      <c r="AB208">
+        <v>2.31</v>
+      </c>
+      <c r="AC208">
+        <v>1.03</v>
+      </c>
+      <c r="AD208">
+        <v>12</v>
+      </c>
+      <c r="AE208">
+        <v>1.15</v>
+      </c>
+      <c r="AF208">
+        <v>4.1</v>
+      </c>
+      <c r="AG208">
+        <v>1.61</v>
+      </c>
+      <c r="AH208">
+        <v>2.1</v>
+      </c>
+      <c r="AI208">
+        <v>1.55</v>
+      </c>
+      <c r="AJ208">
+        <v>2.3</v>
+      </c>
+      <c r="AK208">
+        <v>1.64</v>
+      </c>
+      <c r="AL208">
+        <v>1.25</v>
+      </c>
+      <c r="AM208">
+        <v>1.41</v>
+      </c>
+      <c r="AN208">
+        <v>1.38</v>
+      </c>
+      <c r="AO208">
+        <v>1.17</v>
+      </c>
+      <c r="AP208">
+        <v>1.29</v>
+      </c>
+      <c r="AQ208">
+        <v>1.31</v>
+      </c>
+      <c r="AR208">
+        <v>1.61</v>
+      </c>
+      <c r="AS208">
+        <v>1.57</v>
+      </c>
+      <c r="AT208">
+        <v>3.18</v>
+      </c>
+      <c r="AU208">
+        <v>2</v>
+      </c>
+      <c r="AV208">
+        <v>9</v>
+      </c>
+      <c r="AW208">
+        <v>3</v>
+      </c>
+      <c r="AX208">
+        <v>6</v>
+      </c>
+      <c r="AY208">
+        <v>6</v>
+      </c>
+      <c r="AZ208">
+        <v>18</v>
+      </c>
+      <c r="BA208">
+        <v>2</v>
+      </c>
+      <c r="BB208">
+        <v>9</v>
+      </c>
+      <c r="BC208">
+        <v>11</v>
+      </c>
+      <c r="BD208">
+        <v>1.95</v>
+      </c>
+      <c r="BE208">
+        <v>8.4</v>
+      </c>
+      <c r="BF208">
+        <v>2.16</v>
+      </c>
+      <c r="BG208">
+        <v>1.21</v>
+      </c>
+      <c r="BH208">
+        <v>3.75</v>
+      </c>
+      <c r="BI208">
+        <v>1.34</v>
+      </c>
+      <c r="BJ208">
+        <v>2.78</v>
+      </c>
+      <c r="BK208">
+        <v>1.69</v>
+      </c>
+      <c r="BL208">
+        <v>2.11</v>
+      </c>
+      <c r="BM208">
+        <v>2.07</v>
+      </c>
+      <c r="BN208">
+        <v>1.7</v>
+      </c>
+      <c r="BO208">
+        <v>2.6</v>
+      </c>
+      <c r="BP208">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="209" spans="1:68">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>7484747</v>
+      </c>
+      <c r="C209" t="s">
+        <v>68</v>
+      </c>
+      <c r="D209" t="s">
+        <v>69</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45779.54166666666</v>
+      </c>
+      <c r="F209">
+        <v>27</v>
+      </c>
+      <c r="G209" t="s">
+        <v>78</v>
+      </c>
+      <c r="H209" t="s">
+        <v>75</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <v>0</v>
+      </c>
+      <c r="L209">
+        <v>0</v>
+      </c>
+      <c r="M209">
+        <v>1</v>
+      </c>
+      <c r="N209">
+        <v>1</v>
+      </c>
+      <c r="O209" t="s">
+        <v>86</v>
+      </c>
+      <c r="P209" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q209">
+        <v>2.8</v>
+      </c>
+      <c r="R209">
+        <v>2.2</v>
+      </c>
+      <c r="S209">
+        <v>3.3</v>
+      </c>
+      <c r="T209">
+        <v>1.28</v>
+      </c>
+      <c r="U209">
+        <v>3.3</v>
+      </c>
+      <c r="V209">
+        <v>2.47</v>
+      </c>
+      <c r="W209">
+        <v>1.44</v>
+      </c>
+      <c r="X209">
+        <v>5.3</v>
+      </c>
+      <c r="Y209">
+        <v>1.1</v>
+      </c>
+      <c r="Z209">
+        <v>2.29</v>
+      </c>
+      <c r="AA209">
+        <v>3.57</v>
+      </c>
+      <c r="AB209">
+        <v>2.83</v>
+      </c>
+      <c r="AC209">
+        <v>1.03</v>
+      </c>
+      <c r="AD209">
+        <v>12</v>
+      </c>
+      <c r="AE209">
+        <v>1.15</v>
+      </c>
+      <c r="AF209">
+        <v>3.6</v>
+      </c>
+      <c r="AG209">
+        <v>1.77</v>
+      </c>
+      <c r="AH209">
+        <v>1.98</v>
+      </c>
+      <c r="AI209">
+        <v>1.65</v>
+      </c>
+      <c r="AJ209">
+        <v>2.32</v>
+      </c>
+      <c r="AK209">
+        <v>1.29</v>
+      </c>
+      <c r="AL209">
+        <v>0</v>
+      </c>
+      <c r="AM209">
+        <v>1.57</v>
+      </c>
+      <c r="AN209">
+        <v>1.62</v>
+      </c>
+      <c r="AO209">
+        <v>1.38</v>
+      </c>
+      <c r="AP209">
+        <v>1.5</v>
+      </c>
+      <c r="AQ209">
+        <v>1.5</v>
+      </c>
+      <c r="AR209">
+        <v>1.69</v>
+      </c>
+      <c r="AS209">
+        <v>1.28</v>
+      </c>
+      <c r="AT209">
+        <v>2.97</v>
+      </c>
+      <c r="AU209">
+        <v>4</v>
+      </c>
+      <c r="AV209">
+        <v>2</v>
+      </c>
+      <c r="AW209">
+        <v>7</v>
+      </c>
+      <c r="AX209">
+        <v>6</v>
+      </c>
+      <c r="AY209">
+        <v>13</v>
+      </c>
+      <c r="AZ209">
+        <v>11</v>
+      </c>
+      <c r="BA209">
+        <v>3</v>
+      </c>
+      <c r="BB209">
+        <v>5</v>
+      </c>
+      <c r="BC209">
+        <v>8</v>
+      </c>
+      <c r="BD209">
+        <v>1.9</v>
+      </c>
+      <c r="BE209">
+        <v>6.9</v>
+      </c>
+      <c r="BF209">
+        <v>2.27</v>
+      </c>
+      <c r="BG209">
+        <v>1.22</v>
+      </c>
+      <c r="BH209">
+        <v>3.75</v>
+      </c>
+      <c r="BI209">
+        <v>1.4</v>
+      </c>
+      <c r="BJ209">
+        <v>2.64</v>
+      </c>
+      <c r="BK209">
+        <v>1.93</v>
+      </c>
+      <c r="BL209">
+        <v>2.09</v>
+      </c>
+      <c r="BM209">
+        <v>2.12</v>
+      </c>
+      <c r="BN209">
+        <v>1.67</v>
+      </c>
+      <c r="BO209">
+        <v>2.83</v>
+      </c>
+      <c r="BP209">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="210" spans="1:68">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>7484748</v>
+      </c>
+      <c r="C210" t="s">
+        <v>68</v>
+      </c>
+      <c r="D210" t="s">
+        <v>69</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45779.54166666666</v>
+      </c>
+      <c r="F210">
+        <v>27</v>
+      </c>
+      <c r="G210" t="s">
+        <v>72</v>
+      </c>
+      <c r="H210" t="s">
+        <v>77</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>1</v>
+      </c>
+      <c r="K210">
+        <v>1</v>
+      </c>
+      <c r="L210">
+        <v>1</v>
+      </c>
+      <c r="M210">
+        <v>2</v>
+      </c>
+      <c r="N210">
+        <v>3</v>
+      </c>
+      <c r="O210" t="s">
+        <v>228</v>
+      </c>
+      <c r="P210" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q210">
+        <v>3.4</v>
+      </c>
+      <c r="R210">
+        <v>2</v>
+      </c>
+      <c r="S210">
+        <v>3.25</v>
+      </c>
+      <c r="T210">
+        <v>1.42</v>
+      </c>
+      <c r="U210">
+        <v>2.62</v>
+      </c>
+      <c r="V210">
+        <v>3</v>
+      </c>
+      <c r="W210">
+        <v>1.33</v>
+      </c>
+      <c r="X210">
+        <v>8.9</v>
+      </c>
+      <c r="Y210">
+        <v>1.06</v>
+      </c>
+      <c r="Z210">
+        <v>2.84</v>
+      </c>
+      <c r="AA210">
+        <v>3.23</v>
+      </c>
+      <c r="AB210">
+        <v>2.45</v>
+      </c>
+      <c r="AC210">
+        <v>1.07</v>
+      </c>
+      <c r="AD210">
+        <v>9.1</v>
+      </c>
+      <c r="AE210">
+        <v>1.31</v>
+      </c>
+      <c r="AF210">
+        <v>3.11</v>
+      </c>
+      <c r="AG210">
+        <v>2.05</v>
+      </c>
+      <c r="AH210">
+        <v>1.65</v>
+      </c>
+      <c r="AI210">
+        <v>1.85</v>
+      </c>
+      <c r="AJ210">
+        <v>1.83</v>
+      </c>
+      <c r="AK210">
+        <v>1.32</v>
+      </c>
+      <c r="AL210">
+        <v>0</v>
+      </c>
+      <c r="AM210">
+        <v>1.41</v>
+      </c>
+      <c r="AN210">
+        <v>1.25</v>
+      </c>
+      <c r="AO210">
+        <v>0.92</v>
+      </c>
+      <c r="AP210">
+        <v>1.15</v>
+      </c>
+      <c r="AQ210">
+        <v>1.07</v>
+      </c>
+      <c r="AR210">
+        <v>1.17</v>
+      </c>
+      <c r="AS210">
+        <v>1.21</v>
+      </c>
+      <c r="AT210">
+        <v>2.38</v>
+      </c>
+      <c r="AU210">
+        <v>4</v>
+      </c>
+      <c r="AV210">
+        <v>5</v>
+      </c>
+      <c r="AW210">
+        <v>10</v>
+      </c>
+      <c r="AX210">
+        <v>6</v>
+      </c>
+      <c r="AY210">
+        <v>17</v>
+      </c>
+      <c r="AZ210">
+        <v>12</v>
+      </c>
+      <c r="BA210">
+        <v>9</v>
+      </c>
+      <c r="BB210">
+        <v>5</v>
+      </c>
+      <c r="BC210">
+        <v>14</v>
+      </c>
+      <c r="BD210">
+        <v>2.05</v>
+      </c>
+      <c r="BE210">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF210">
+        <v>2.02</v>
+      </c>
+      <c r="BG210">
+        <v>1.31</v>
+      </c>
+      <c r="BH210">
+        <v>3.22</v>
+      </c>
+      <c r="BI210">
+        <v>1.56</v>
+      </c>
+      <c r="BJ210">
+        <v>2.34</v>
+      </c>
+      <c r="BK210">
+        <v>2.22</v>
+      </c>
+      <c r="BL210">
+        <v>1.84</v>
+      </c>
+      <c r="BM210">
+        <v>2.46</v>
+      </c>
+      <c r="BN210">
+        <v>1.52</v>
+      </c>
+      <c r="BO210">
+        <v>3.28</v>
+      </c>
+      <c r="BP210">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="211" spans="1:68">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>7484749</v>
+      </c>
+      <c r="C211" t="s">
+        <v>68</v>
+      </c>
+      <c r="D211" t="s">
+        <v>69</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45779.54166666666</v>
+      </c>
+      <c r="F211">
+        <v>27</v>
+      </c>
+      <c r="G211" t="s">
+        <v>83</v>
+      </c>
+      <c r="H211" t="s">
+        <v>84</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>2</v>
+      </c>
+      <c r="K211">
+        <v>2</v>
+      </c>
+      <c r="L211">
+        <v>1</v>
+      </c>
+      <c r="M211">
+        <v>5</v>
+      </c>
+      <c r="N211">
+        <v>6</v>
+      </c>
+      <c r="O211" t="s">
+        <v>137</v>
+      </c>
+      <c r="P211" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q211">
+        <v>3.1</v>
+      </c>
+      <c r="R211">
+        <v>2.7</v>
+      </c>
+      <c r="S211">
+        <v>2.28</v>
+      </c>
+      <c r="T211">
+        <v>1.22</v>
+      </c>
+      <c r="U211">
+        <v>4.6</v>
+      </c>
+      <c r="V211">
+        <v>1.91</v>
+      </c>
+      <c r="W211">
+        <v>1.96</v>
+      </c>
+      <c r="X211">
+        <v>3.75</v>
+      </c>
+      <c r="Y211">
+        <v>1.2</v>
+      </c>
+      <c r="Z211">
+        <v>2.43</v>
+      </c>
+      <c r="AA211">
+        <v>4.1</v>
+      </c>
+      <c r="AB211">
+        <v>2.4</v>
+      </c>
+      <c r="AC211">
+        <v>1.01</v>
+      </c>
+      <c r="AD211">
+        <v>21</v>
+      </c>
+      <c r="AE211">
+        <v>1.12</v>
+      </c>
+      <c r="AF211">
+        <v>5.75</v>
+      </c>
+      <c r="AG211">
+        <v>1.37</v>
+      </c>
+      <c r="AH211">
+        <v>2.85</v>
+      </c>
+      <c r="AI211">
+        <v>1.38</v>
+      </c>
+      <c r="AJ211">
+        <v>3.26</v>
+      </c>
+      <c r="AK211">
+        <v>1.25</v>
+      </c>
+      <c r="AL211">
+        <v>1.23</v>
+      </c>
+      <c r="AM211">
+        <v>1.29</v>
+      </c>
+      <c r="AN211">
+        <v>1.83</v>
+      </c>
+      <c r="AO211">
+        <v>0.92</v>
+      </c>
+      <c r="AP211">
+        <v>1.69</v>
+      </c>
+      <c r="AQ211">
+        <v>1.07</v>
+      </c>
+      <c r="AR211">
+        <v>1.69</v>
+      </c>
+      <c r="AS211">
+        <v>1.45</v>
+      </c>
+      <c r="AT211">
+        <v>3.14</v>
+      </c>
+      <c r="AU211">
+        <v>4</v>
+      </c>
+      <c r="AV211">
+        <v>9</v>
+      </c>
+      <c r="AW211">
+        <v>8</v>
+      </c>
+      <c r="AX211">
+        <v>8</v>
+      </c>
+      <c r="AY211">
+        <v>13</v>
+      </c>
+      <c r="AZ211">
+        <v>19</v>
+      </c>
+      <c r="BA211">
+        <v>7</v>
+      </c>
+      <c r="BB211">
+        <v>4</v>
+      </c>
+      <c r="BC211">
+        <v>11</v>
+      </c>
+      <c r="BD211">
+        <v>1.95</v>
+      </c>
+      <c r="BE211">
+        <v>7</v>
+      </c>
+      <c r="BF211">
+        <v>2.15</v>
+      </c>
+      <c r="BG211">
+        <v>1.19</v>
+      </c>
+      <c r="BH211">
+        <v>4</v>
+      </c>
+      <c r="BI211">
+        <v>1.34</v>
+      </c>
+      <c r="BJ211">
+        <v>2.78</v>
+      </c>
+      <c r="BK211">
+        <v>1.77</v>
+      </c>
+      <c r="BL211">
+        <v>2.1</v>
+      </c>
+      <c r="BM211">
+        <v>1.98</v>
+      </c>
+      <c r="BN211">
+        <v>1.75</v>
+      </c>
+      <c r="BO211">
+        <v>2.67</v>
+      </c>
+      <c r="BP211">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="212" spans="1:68">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>7484750</v>
+      </c>
+      <c r="C212" t="s">
+        <v>68</v>
+      </c>
+      <c r="D212" t="s">
+        <v>69</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45779.54166666666</v>
+      </c>
+      <c r="F212">
+        <v>27</v>
+      </c>
+      <c r="G212" t="s">
+        <v>73</v>
+      </c>
+      <c r="H212" t="s">
+        <v>79</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>1</v>
+      </c>
+      <c r="L212">
+        <v>4</v>
+      </c>
+      <c r="M212">
+        <v>1</v>
+      </c>
+      <c r="N212">
+        <v>5</v>
+      </c>
+      <c r="O212" t="s">
+        <v>229</v>
+      </c>
+      <c r="P212" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q212">
+        <v>2.42</v>
+      </c>
+      <c r="R212">
+        <v>2.34</v>
+      </c>
+      <c r="S212">
+        <v>3.58</v>
+      </c>
+      <c r="T212">
+        <v>1.29</v>
+      </c>
+      <c r="U212">
+        <v>3.5</v>
+      </c>
+      <c r="V212">
+        <v>2.2</v>
+      </c>
+      <c r="W212">
+        <v>1.61</v>
+      </c>
+      <c r="X212">
+        <v>4.8</v>
+      </c>
+      <c r="Y212">
+        <v>1.16</v>
+      </c>
+      <c r="Z212">
+        <v>2.1</v>
+      </c>
+      <c r="AA212">
+        <v>3.67</v>
+      </c>
+      <c r="AB212">
+        <v>3.12</v>
+      </c>
+      <c r="AC212">
+        <v>1.02</v>
+      </c>
+      <c r="AD212">
+        <v>14</v>
+      </c>
+      <c r="AE212">
+        <v>1.09</v>
+      </c>
+      <c r="AF212">
+        <v>4.5</v>
+      </c>
+      <c r="AG212">
+        <v>1.5</v>
+      </c>
+      <c r="AH212">
+        <v>2.41</v>
+      </c>
+      <c r="AI212">
+        <v>1.4</v>
+      </c>
+      <c r="AJ212">
+        <v>2.6</v>
+      </c>
+      <c r="AK212">
+        <v>1.25</v>
+      </c>
+      <c r="AL212">
+        <v>1.25</v>
+      </c>
+      <c r="AM212">
+        <v>1.77</v>
+      </c>
+      <c r="AN212">
+        <v>0.77</v>
+      </c>
+      <c r="AO212">
+        <v>0.38</v>
+      </c>
+      <c r="AP212">
+        <v>0.93</v>
+      </c>
+      <c r="AQ212">
+        <v>0.36</v>
+      </c>
+      <c r="AR212">
+        <v>1.09</v>
+      </c>
+      <c r="AS212">
+        <v>1.42</v>
+      </c>
+      <c r="AT212">
+        <v>2.51</v>
+      </c>
+      <c r="AU212">
+        <v>6</v>
+      </c>
+      <c r="AV212">
+        <v>2</v>
+      </c>
+      <c r="AW212">
+        <v>7</v>
+      </c>
+      <c r="AX212">
+        <v>3</v>
+      </c>
+      <c r="AY212">
+        <v>15</v>
+      </c>
+      <c r="AZ212">
+        <v>8</v>
+      </c>
+      <c r="BA212">
+        <v>3</v>
+      </c>
+      <c r="BB212">
+        <v>3</v>
+      </c>
+      <c r="BC212">
+        <v>6</v>
+      </c>
+      <c r="BD212">
+        <v>1.87</v>
+      </c>
+      <c r="BE212">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF212">
+        <v>2.23</v>
+      </c>
+      <c r="BG212">
+        <v>1.27</v>
+      </c>
+      <c r="BH212">
+        <v>3.27</v>
+      </c>
+      <c r="BI212">
+        <v>1.5</v>
+      </c>
+      <c r="BJ212">
+        <v>2.42</v>
+      </c>
+      <c r="BK212">
+        <v>2.07</v>
+      </c>
+      <c r="BL212">
+        <v>1.97</v>
+      </c>
+      <c r="BM212">
+        <v>2.28</v>
+      </c>
+      <c r="BN212">
+        <v>1.58</v>
+      </c>
+      <c r="BO212">
+        <v>2.92</v>
+      </c>
+      <c r="BP212">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="213" spans="1:68">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>7484751</v>
+      </c>
+      <c r="C213" t="s">
+        <v>68</v>
+      </c>
+      <c r="D213" t="s">
+        <v>69</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45779.64583333334</v>
+      </c>
+      <c r="F213">
+        <v>27</v>
+      </c>
+      <c r="G213" t="s">
+        <v>81</v>
+      </c>
+      <c r="H213" t="s">
+        <v>74</v>
+      </c>
+      <c r="I213">
+        <v>2</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>2</v>
+      </c>
+      <c r="L213">
+        <v>2</v>
+      </c>
+      <c r="M213">
+        <v>0</v>
+      </c>
+      <c r="N213">
+        <v>2</v>
+      </c>
+      <c r="O213" t="s">
+        <v>230</v>
+      </c>
+      <c r="P213" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q213">
+        <v>2.6</v>
+      </c>
+      <c r="R213">
+        <v>2.09</v>
+      </c>
+      <c r="S213">
+        <v>4.4</v>
+      </c>
+      <c r="T213">
+        <v>1.44</v>
+      </c>
+      <c r="U213">
+        <v>2.6</v>
+      </c>
+      <c r="V213">
+        <v>2.93</v>
+      </c>
+      <c r="W213">
+        <v>1.4</v>
+      </c>
+      <c r="X213">
+        <v>7.7</v>
+      </c>
+      <c r="Y213">
+        <v>1.03</v>
+      </c>
+      <c r="Z213">
+        <v>1.9</v>
+      </c>
+      <c r="AA213">
+        <v>3.55</v>
+      </c>
+      <c r="AB213">
+        <v>3.75</v>
+      </c>
+      <c r="AC213">
+        <v>1.05</v>
+      </c>
+      <c r="AD213">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE213">
+        <v>1.35</v>
+      </c>
+      <c r="AF213">
+        <v>2.9</v>
+      </c>
+      <c r="AG213">
+        <v>1.91</v>
+      </c>
+      <c r="AH213">
+        <v>1.65</v>
+      </c>
+      <c r="AI213">
+        <v>1.75</v>
+      </c>
+      <c r="AJ213">
+        <v>1.75</v>
+      </c>
+      <c r="AK213">
+        <v>1.22</v>
+      </c>
+      <c r="AL213">
+        <v>1.3</v>
+      </c>
+      <c r="AM213">
+        <v>1.77</v>
+      </c>
+      <c r="AN213">
+        <v>2</v>
+      </c>
+      <c r="AO213">
+        <v>2.23</v>
+      </c>
+      <c r="AP213">
+        <v>2.08</v>
+      </c>
+      <c r="AQ213">
+        <v>2.07</v>
+      </c>
+      <c r="AR213">
+        <v>1.45</v>
+      </c>
+      <c r="AS213">
+        <v>1.65</v>
+      </c>
+      <c r="AT213">
+        <v>3.1</v>
+      </c>
+      <c r="AU213">
+        <v>3</v>
+      </c>
+      <c r="AV213">
+        <v>3</v>
+      </c>
+      <c r="AW213">
+        <v>2</v>
+      </c>
+      <c r="AX213">
+        <v>6</v>
+      </c>
+      <c r="AY213">
+        <v>7</v>
+      </c>
+      <c r="AZ213">
+        <v>12</v>
+      </c>
+      <c r="BA213">
+        <v>2</v>
+      </c>
+      <c r="BB213">
+        <v>2</v>
+      </c>
+      <c r="BC213">
+        <v>4</v>
+      </c>
+      <c r="BD213">
+        <v>1.59</v>
+      </c>
+      <c r="BE213">
+        <v>7.1</v>
+      </c>
+      <c r="BF213">
+        <v>2.88</v>
+      </c>
+      <c r="BG213">
+        <v>1.42</v>
+      </c>
+      <c r="BH213">
+        <v>2.44</v>
+      </c>
+      <c r="BI213">
+        <v>1.84</v>
+      </c>
+      <c r="BJ213">
+        <v>1.85</v>
+      </c>
+      <c r="BK213">
+        <v>2.51</v>
+      </c>
+      <c r="BL213">
+        <v>1.52</v>
+      </c>
+      <c r="BM213">
+        <v>3.2</v>
+      </c>
+      <c r="BN213">
+        <v>1.28</v>
+      </c>
+      <c r="BO213">
+        <v>4.15</v>
+      </c>
+      <c r="BP213">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria 2. Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria 2. Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="340">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -709,6 +709,9 @@
     <t>['8', '38']</t>
   </si>
   <si>
+    <t>['41', '73']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -1028,6 +1031,9 @@
   </si>
   <si>
     <t>['1', '6', '69', '73', '76']</t>
+  </si>
+  <si>
+    <t>['6', '16', '21', '53']</t>
   </si>
 </sst>
 </file>
@@ -1389,7 +1395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP213"/>
+  <dimension ref="A1:BP214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1648,7 +1654,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1854,7 +1860,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -2060,7 +2066,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q4">
         <v>6.5</v>
@@ -2266,7 +2272,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q5">
         <v>3.25</v>
@@ -2962,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ8">
         <v>1</v>
@@ -3171,7 +3177,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ9">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3502,7 +3508,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3708,7 +3714,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -4532,7 +4538,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q16">
         <v>2.1</v>
@@ -4738,7 +4744,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -4944,7 +4950,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q18">
         <v>2.2</v>
@@ -5150,7 +5156,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q19">
         <v>2.5</v>
@@ -5356,7 +5362,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q20">
         <v>3.75</v>
@@ -5562,7 +5568,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q21">
         <v>4.5</v>
@@ -5768,7 +5774,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -6180,7 +6186,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6258,7 +6264,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ24">
         <v>1.54</v>
@@ -6386,7 +6392,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q25">
         <v>2.38</v>
@@ -6592,7 +6598,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6798,7 +6804,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q27">
         <v>4.5</v>
@@ -7085,7 +7091,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ28">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR28">
         <v>1.55</v>
@@ -7210,7 +7216,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q29">
         <v>2.05</v>
@@ -7416,7 +7422,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q30">
         <v>2.75</v>
@@ -7622,7 +7628,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -8240,7 +8246,7 @@
         <v>109</v>
       </c>
       <c r="P34" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q34">
         <v>1.8</v>
@@ -8652,7 +8658,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -8858,7 +8864,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -9064,7 +9070,7 @@
         <v>112</v>
       </c>
       <c r="P38" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q38">
         <v>2.75</v>
@@ -9145,7 +9151,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ38">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR38">
         <v>0.95</v>
@@ -9476,7 +9482,7 @@
         <v>86</v>
       </c>
       <c r="P40" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9682,7 +9688,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9888,7 +9894,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -10506,7 +10512,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10712,7 +10718,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10918,7 +10924,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q47">
         <v>3.6</v>
@@ -10999,7 +11005,7 @@
         <v>1</v>
       </c>
       <c r="AQ47">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR47">
         <v>1.13</v>
@@ -11124,7 +11130,7 @@
         <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -11742,7 +11748,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -11948,7 +11954,7 @@
         <v>86</v>
       </c>
       <c r="P52" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q52">
         <v>2.1</v>
@@ -12232,7 +12238,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ53">
         <v>0.77</v>
@@ -12360,7 +12366,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -12772,7 +12778,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q56">
         <v>3.25</v>
@@ -12978,7 +12984,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q57">
         <v>3.2</v>
@@ -13184,7 +13190,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q58">
         <v>1.8</v>
@@ -13674,7 +13680,7 @@
         <v>0.33</v>
       </c>
       <c r="AP60">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ60">
         <v>1.31</v>
@@ -13802,7 +13808,7 @@
         <v>125</v>
       </c>
       <c r="P61" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -14214,7 +14220,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q63">
         <v>3.6</v>
@@ -14626,7 +14632,7 @@
         <v>128</v>
       </c>
       <c r="P65" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14832,7 +14838,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -15038,7 +15044,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -15244,7 +15250,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q68">
         <v>2.1</v>
@@ -15862,7 +15868,7 @@
         <v>133</v>
       </c>
       <c r="P71" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q71">
         <v>2.1</v>
@@ -15943,7 +15949,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ71">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR71">
         <v>1.24</v>
@@ -16686,7 +16692,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16892,7 +16898,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -17098,7 +17104,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q77">
         <v>3.1</v>
@@ -17304,7 +17310,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q78">
         <v>3.75</v>
@@ -17922,7 +17928,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -18746,7 +18752,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q85">
         <v>2</v>
@@ -18952,7 +18958,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -19030,7 +19036,7 @@
         <v>3</v>
       </c>
       <c r="AP86">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ86">
         <v>2.07</v>
@@ -19364,7 +19370,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q88">
         <v>4.33</v>
@@ -19445,7 +19451,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ88">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR88">
         <v>1.25</v>
@@ -19570,7 +19576,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q89">
         <v>3.1</v>
@@ -19776,7 +19782,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -20188,7 +20194,7 @@
         <v>86</v>
       </c>
       <c r="P92" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q92">
         <v>2.5</v>
@@ -20394,7 +20400,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20600,7 +20606,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20806,7 +20812,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q95">
         <v>2.6</v>
@@ -21218,7 +21224,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q97">
         <v>3.2</v>
@@ -21630,7 +21636,7 @@
         <v>142</v>
       </c>
       <c r="P99" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21836,7 +21842,7 @@
         <v>86</v>
       </c>
       <c r="P100" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q100">
         <v>3.2</v>
@@ -21917,7 +21923,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ100">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR100">
         <v>1.75</v>
@@ -22042,7 +22048,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -22454,7 +22460,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q103">
         <v>4.5</v>
@@ -22532,7 +22538,7 @@
         <v>2.17</v>
       </c>
       <c r="AP103">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ103">
         <v>2.21</v>
@@ -22660,7 +22666,7 @@
         <v>152</v>
       </c>
       <c r="P104" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -23072,7 +23078,7 @@
         <v>86</v>
       </c>
       <c r="P106" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23278,7 +23284,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23359,7 +23365,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ107">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR107">
         <v>1.93</v>
@@ -23484,7 +23490,7 @@
         <v>153</v>
       </c>
       <c r="P108" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q108">
         <v>2.88</v>
@@ -23690,7 +23696,7 @@
         <v>86</v>
       </c>
       <c r="P109" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q109">
         <v>3.2</v>
@@ -25132,7 +25138,7 @@
         <v>157</v>
       </c>
       <c r="P116" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q116">
         <v>3.5</v>
@@ -25750,7 +25756,7 @@
         <v>152</v>
       </c>
       <c r="P119" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q119">
         <v>2.63</v>
@@ -26034,7 +26040,7 @@
         <v>1</v>
       </c>
       <c r="AP120">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ120">
         <v>1.07</v>
@@ -26368,7 +26374,7 @@
         <v>86</v>
       </c>
       <c r="P122" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -26780,7 +26786,7 @@
         <v>161</v>
       </c>
       <c r="P124" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q124">
         <v>2.38</v>
@@ -26986,7 +26992,7 @@
         <v>162</v>
       </c>
       <c r="P125" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -27192,7 +27198,7 @@
         <v>163</v>
       </c>
       <c r="P126" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -27398,7 +27404,7 @@
         <v>164</v>
       </c>
       <c r="P127" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27604,7 +27610,7 @@
         <v>165</v>
       </c>
       <c r="P128" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q128">
         <v>2.75</v>
@@ -27810,7 +27816,7 @@
         <v>166</v>
       </c>
       <c r="P129" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q129">
         <v>1.95</v>
@@ -28016,7 +28022,7 @@
         <v>86</v>
       </c>
       <c r="P130" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q130">
         <v>3.4</v>
@@ -28097,7 +28103,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ130">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR130">
         <v>1.29</v>
@@ -28428,7 +28434,7 @@
         <v>153</v>
       </c>
       <c r="P132" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28634,7 +28640,7 @@
         <v>168</v>
       </c>
       <c r="P133" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q133">
         <v>2.5</v>
@@ -29124,7 +29130,7 @@
         <v>1.38</v>
       </c>
       <c r="AP135">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ135">
         <v>1.07</v>
@@ -29745,7 +29751,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ138">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR138">
         <v>1.61</v>
@@ -29870,7 +29876,7 @@
         <v>171</v>
       </c>
       <c r="P139" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q139">
         <v>4.8</v>
@@ -30282,7 +30288,7 @@
         <v>173</v>
       </c>
       <c r="P141" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -31312,7 +31318,7 @@
         <v>178</v>
       </c>
       <c r="P146" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q146">
         <v>2.5</v>
@@ -31930,7 +31936,7 @@
         <v>181</v>
       </c>
       <c r="P149" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q149">
         <v>2.1</v>
@@ -32136,7 +32142,7 @@
         <v>182</v>
       </c>
       <c r="P150" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q150">
         <v>2.63</v>
@@ -32214,7 +32220,7 @@
         <v>1.38</v>
       </c>
       <c r="AP150">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ150">
         <v>0.92</v>
@@ -32754,7 +32760,7 @@
         <v>185</v>
       </c>
       <c r="P153" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q153">
         <v>2.88</v>
@@ -32960,7 +32966,7 @@
         <v>86</v>
       </c>
       <c r="P154" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q154">
         <v>3.75</v>
@@ -33166,7 +33172,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q155">
         <v>3.6</v>
@@ -33656,7 +33662,7 @@
         <v>1.63</v>
       </c>
       <c r="AP157">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ157">
         <v>1.73</v>
@@ -33784,7 +33790,7 @@
         <v>188</v>
       </c>
       <c r="P158" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q158">
         <v>2.4</v>
@@ -34402,7 +34408,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -34608,7 +34614,7 @@
         <v>192</v>
       </c>
       <c r="P162" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q162">
         <v>3.2</v>
@@ -35432,7 +35438,7 @@
         <v>195</v>
       </c>
       <c r="P166" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q166">
         <v>2.88</v>
@@ -35719,7 +35725,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ167">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR167">
         <v>1.46</v>
@@ -36050,7 +36056,7 @@
         <v>198</v>
       </c>
       <c r="P169" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q169">
         <v>2.88</v>
@@ -36462,7 +36468,7 @@
         <v>200</v>
       </c>
       <c r="P171" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q171">
         <v>2.5</v>
@@ -36874,7 +36880,7 @@
         <v>86</v>
       </c>
       <c r="P173" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q173">
         <v>3.1</v>
@@ -36952,7 +36958,7 @@
         <v>1.27</v>
       </c>
       <c r="AP173">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ173">
         <v>1.5</v>
@@ -37286,7 +37292,7 @@
         <v>177</v>
       </c>
       <c r="P175" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q175">
         <v>5</v>
@@ -37698,7 +37704,7 @@
         <v>86</v>
       </c>
       <c r="P177" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q177">
         <v>5.25</v>
@@ -37904,7 +37910,7 @@
         <v>203</v>
       </c>
       <c r="P178" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q178">
         <v>2.2</v>
@@ -38316,7 +38322,7 @@
         <v>204</v>
       </c>
       <c r="P180" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q180">
         <v>4.2</v>
@@ -38397,7 +38403,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ180">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR180">
         <v>1.18</v>
@@ -38728,7 +38734,7 @@
         <v>206</v>
       </c>
       <c r="P182" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q182">
         <v>2.3</v>
@@ -38934,7 +38940,7 @@
         <v>207</v>
       </c>
       <c r="P183" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q183">
         <v>3.45</v>
@@ -39346,7 +39352,7 @@
         <v>208</v>
       </c>
       <c r="P185" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q185">
         <v>3.6</v>
@@ -39552,7 +39558,7 @@
         <v>209</v>
       </c>
       <c r="P186" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q186">
         <v>2.7</v>
@@ -39964,7 +39970,7 @@
         <v>152</v>
       </c>
       <c r="P188" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q188">
         <v>3</v>
@@ -40170,7 +40176,7 @@
         <v>211</v>
       </c>
       <c r="P189" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q189">
         <v>2.87</v>
@@ -40376,7 +40382,7 @@
         <v>212</v>
       </c>
       <c r="P190" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q190">
         <v>3.4</v>
@@ -40582,7 +40588,7 @@
         <v>213</v>
       </c>
       <c r="P191" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q191">
         <v>2.2</v>
@@ -40994,7 +41000,7 @@
         <v>214</v>
       </c>
       <c r="P193" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q193">
         <v>3.8</v>
@@ -41075,7 +41081,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ193">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR193">
         <v>1.59</v>
@@ -41200,7 +41206,7 @@
         <v>86</v>
       </c>
       <c r="P194" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q194">
         <v>2.98</v>
@@ -41612,7 +41618,7 @@
         <v>216</v>
       </c>
       <c r="P196" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q196">
         <v>2.58</v>
@@ -41818,7 +41824,7 @@
         <v>217</v>
       </c>
       <c r="P197" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -42024,7 +42030,7 @@
         <v>218</v>
       </c>
       <c r="P198" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q198">
         <v>1.75</v>
@@ -42230,7 +42236,7 @@
         <v>219</v>
       </c>
       <c r="P199" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q199">
         <v>3</v>
@@ -42308,7 +42314,7 @@
         <v>0.64</v>
       </c>
       <c r="AP199">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ199">
         <v>0.77</v>
@@ -42436,7 +42442,7 @@
         <v>220</v>
       </c>
       <c r="P200" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q200">
         <v>1.92</v>
@@ -42642,7 +42648,7 @@
         <v>221</v>
       </c>
       <c r="P201" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q201">
         <v>3.2</v>
@@ -42848,7 +42854,7 @@
         <v>222</v>
       </c>
       <c r="P202" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q202">
         <v>1.77</v>
@@ -43054,7 +43060,7 @@
         <v>86</v>
       </c>
       <c r="P203" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q203">
         <v>2.62</v>
@@ -43672,7 +43678,7 @@
         <v>225</v>
       </c>
       <c r="P206" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q206">
         <v>5.19</v>
@@ -43878,7 +43884,7 @@
         <v>226</v>
       </c>
       <c r="P207" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q207">
         <v>4.3</v>
@@ -43956,7 +43962,7 @@
         <v>1.67</v>
       </c>
       <c r="AP207">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ207">
         <v>1.54</v>
@@ -44084,7 +44090,7 @@
         <v>227</v>
       </c>
       <c r="P208" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q208">
         <v>3.1</v>
@@ -44496,7 +44502,7 @@
         <v>228</v>
       </c>
       <c r="P210" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q210">
         <v>3.4</v>
@@ -44702,7 +44708,7 @@
         <v>137</v>
       </c>
       <c r="P211" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q211">
         <v>3.1</v>
@@ -45271,6 +45277,212 @@
       </c>
       <c r="BP213">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="214" spans="1:68">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>7484753</v>
+      </c>
+      <c r="C214" t="s">
+        <v>68</v>
+      </c>
+      <c r="D214" t="s">
+        <v>69</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45780.625</v>
+      </c>
+      <c r="F214">
+        <v>27</v>
+      </c>
+      <c r="G214" t="s">
+        <v>76</v>
+      </c>
+      <c r="H214" t="s">
+        <v>82</v>
+      </c>
+      <c r="I214">
+        <v>1</v>
+      </c>
+      <c r="J214">
+        <v>3</v>
+      </c>
+      <c r="K214">
+        <v>4</v>
+      </c>
+      <c r="L214">
+        <v>2</v>
+      </c>
+      <c r="M214">
+        <v>4</v>
+      </c>
+      <c r="N214">
+        <v>6</v>
+      </c>
+      <c r="O214" t="s">
+        <v>231</v>
+      </c>
+      <c r="P214" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q214">
+        <v>4.15</v>
+      </c>
+      <c r="R214">
+        <v>2.5</v>
+      </c>
+      <c r="S214">
+        <v>2.05</v>
+      </c>
+      <c r="T214">
+        <v>1.17</v>
+      </c>
+      <c r="U214">
+        <v>4.1</v>
+      </c>
+      <c r="V214">
+        <v>1.98</v>
+      </c>
+      <c r="W214">
+        <v>1.81</v>
+      </c>
+      <c r="X214">
+        <v>4</v>
+      </c>
+      <c r="Y214">
+        <v>1.18</v>
+      </c>
+      <c r="Z214">
+        <v>3.92</v>
+      </c>
+      <c r="AA214">
+        <v>3.71</v>
+      </c>
+      <c r="AB214">
+        <v>1.83</v>
+      </c>
+      <c r="AC214">
+        <v>1.01</v>
+      </c>
+      <c r="AD214">
+        <v>12</v>
+      </c>
+      <c r="AE214">
+        <v>1.07</v>
+      </c>
+      <c r="AF214">
+        <v>6.15</v>
+      </c>
+      <c r="AG214">
+        <v>1.45</v>
+      </c>
+      <c r="AH214">
+        <v>2.56</v>
+      </c>
+      <c r="AI214">
+        <v>1.5</v>
+      </c>
+      <c r="AJ214">
+        <v>2.45</v>
+      </c>
+      <c r="AK214">
+        <v>2.52</v>
+      </c>
+      <c r="AL214">
+        <v>0</v>
+      </c>
+      <c r="AM214">
+        <v>1.12</v>
+      </c>
+      <c r="AN214">
+        <v>1.62</v>
+      </c>
+      <c r="AO214">
+        <v>1.77</v>
+      </c>
+      <c r="AP214">
+        <v>1.5</v>
+      </c>
+      <c r="AQ214">
+        <v>1.86</v>
+      </c>
+      <c r="AR214">
+        <v>1.44</v>
+      </c>
+      <c r="AS214">
+        <v>1.56</v>
+      </c>
+      <c r="AT214">
+        <v>3</v>
+      </c>
+      <c r="AU214">
+        <v>7</v>
+      </c>
+      <c r="AV214">
+        <v>6</v>
+      </c>
+      <c r="AW214">
+        <v>10</v>
+      </c>
+      <c r="AX214">
+        <v>5</v>
+      </c>
+      <c r="AY214">
+        <v>19</v>
+      </c>
+      <c r="AZ214">
+        <v>14</v>
+      </c>
+      <c r="BA214">
+        <v>4</v>
+      </c>
+      <c r="BB214">
+        <v>1</v>
+      </c>
+      <c r="BC214">
+        <v>5</v>
+      </c>
+      <c r="BD214">
+        <v>2.73</v>
+      </c>
+      <c r="BE214">
+        <v>7.4</v>
+      </c>
+      <c r="BF214">
+        <v>1.67</v>
+      </c>
+      <c r="BG214">
+        <v>1.17</v>
+      </c>
+      <c r="BH214">
+        <v>4.2</v>
+      </c>
+      <c r="BI214">
+        <v>1.33</v>
+      </c>
+      <c r="BJ214">
+        <v>3.28</v>
+      </c>
+      <c r="BK214">
+        <v>1.48</v>
+      </c>
+      <c r="BL214">
+        <v>2.4</v>
+      </c>
+      <c r="BM214">
+        <v>1.95</v>
+      </c>
+      <c r="BN214">
+        <v>1.77</v>
+      </c>
+      <c r="BO214">
+        <v>2.43</v>
+      </c>
+      <c r="BP214">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria 2. Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria 2. Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="341">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1035,6 +1035,9 @@
   <si>
     <t>['6', '16', '21', '53']</t>
   </si>
+  <si>
+    <t>['30', '65']</t>
+  </si>
 </sst>
 </file>
 
@@ -1395,7 +1398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP214"/>
+  <dimension ref="A1:BP215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2559,7 +2562,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ6">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -4822,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ17">
         <v>2.07</v>
@@ -6267,7 +6270,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ24">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR24">
         <v>1.2</v>
@@ -7706,7 +7709,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ31">
         <v>1.07</v>
@@ -9148,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ38">
         <v>1.86</v>
@@ -9769,7 +9772,7 @@
         <v>1</v>
       </c>
       <c r="AQ41">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR41">
         <v>0.9</v>
@@ -10796,7 +10799,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ46">
         <v>1.07</v>
@@ -11211,7 +11214,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ48">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR48">
         <v>1.3</v>
@@ -15328,7 +15331,7 @@
         <v>0.5</v>
       </c>
       <c r="AP68">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ68">
         <v>1.31</v>
@@ -15537,7 +15540,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ69">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR69">
         <v>1.58</v>
@@ -18215,7 +18218,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ82">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR82">
         <v>1.24</v>
@@ -18418,7 +18421,7 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ83">
         <v>1.31</v>
@@ -21717,7 +21720,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ99">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR99">
         <v>1.1</v>
@@ -22332,7 +22335,7 @@
         <v>2</v>
       </c>
       <c r="AP102">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ102">
         <v>1.5</v>
@@ -25628,7 +25631,7 @@
         <v>2.29</v>
       </c>
       <c r="AP118">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ118">
         <v>2.21</v>
@@ -26249,7 +26252,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ121">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR121">
         <v>1.76</v>
@@ -27070,7 +27073,7 @@
         <v>1.86</v>
       </c>
       <c r="AP125">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ125">
         <v>1.73</v>
@@ -28515,7 +28518,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ132">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR132">
         <v>1.23</v>
@@ -30572,7 +30575,7 @@
         <v>0.5</v>
       </c>
       <c r="AP142">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ142">
         <v>0.77</v>
@@ -31605,7 +31608,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ147">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR147">
         <v>1.42</v>
@@ -34489,7 +34492,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ161">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR161">
         <v>1.26</v>
@@ -35928,7 +35931,7 @@
         <v>0.67</v>
       </c>
       <c r="AP168">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ168">
         <v>0.77</v>
@@ -37988,7 +37991,7 @@
         <v>1.3</v>
       </c>
       <c r="AP178">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ178">
         <v>1</v>
@@ -38609,7 +38612,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ181">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR181">
         <v>1.56</v>
@@ -41287,7 +41290,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ194">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR194">
         <v>1.71</v>
@@ -42108,7 +42111,7 @@
         <v>0.42</v>
       </c>
       <c r="AP198">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ198">
         <v>0.36</v>
@@ -45483,6 +45486,212 @@
       </c>
       <c r="BP214">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="215" spans="1:68">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>7484752</v>
+      </c>
+      <c r="C215" t="s">
+        <v>68</v>
+      </c>
+      <c r="D215" t="s">
+        <v>69</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45781.22916666666</v>
+      </c>
+      <c r="F215">
+        <v>27</v>
+      </c>
+      <c r="G215" t="s">
+        <v>85</v>
+      </c>
+      <c r="H215" t="s">
+        <v>80</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>1</v>
+      </c>
+      <c r="K215">
+        <v>1</v>
+      </c>
+      <c r="L215">
+        <v>0</v>
+      </c>
+      <c r="M215">
+        <v>2</v>
+      </c>
+      <c r="N215">
+        <v>2</v>
+      </c>
+      <c r="O215" t="s">
+        <v>86</v>
+      </c>
+      <c r="P215" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q215">
+        <v>2.1</v>
+      </c>
+      <c r="R215">
+        <v>2.32</v>
+      </c>
+      <c r="S215">
+        <v>4.25</v>
+      </c>
+      <c r="T215">
+        <v>1.26</v>
+      </c>
+      <c r="U215">
+        <v>3.4</v>
+      </c>
+      <c r="V215">
+        <v>2.4</v>
+      </c>
+      <c r="W215">
+        <v>1.45</v>
+      </c>
+      <c r="X215">
+        <v>6</v>
+      </c>
+      <c r="Y215">
+        <v>1.12</v>
+      </c>
+      <c r="Z215">
+        <v>1.79</v>
+      </c>
+      <c r="AA215">
+        <v>3.89</v>
+      </c>
+      <c r="AB215">
+        <v>3.94</v>
+      </c>
+      <c r="AC215">
+        <v>1.04</v>
+      </c>
+      <c r="AD215">
+        <v>12</v>
+      </c>
+      <c r="AE215">
+        <v>1.2</v>
+      </c>
+      <c r="AF215">
+        <v>4</v>
+      </c>
+      <c r="AG215">
+        <v>1.77</v>
+      </c>
+      <c r="AH215">
+        <v>1.98</v>
+      </c>
+      <c r="AI215">
+        <v>1.6</v>
+      </c>
+      <c r="AJ215">
+        <v>2.2</v>
+      </c>
+      <c r="AK215">
+        <v>1.25</v>
+      </c>
+      <c r="AL215">
+        <v>0</v>
+      </c>
+      <c r="AM215">
+        <v>2.1</v>
+      </c>
+      <c r="AN215">
+        <v>2.08</v>
+      </c>
+      <c r="AO215">
+        <v>1.54</v>
+      </c>
+      <c r="AP215">
+        <v>1.93</v>
+      </c>
+      <c r="AQ215">
+        <v>1.64</v>
+      </c>
+      <c r="AR215">
+        <v>1.37</v>
+      </c>
+      <c r="AS215">
+        <v>1.15</v>
+      </c>
+      <c r="AT215">
+        <v>2.52</v>
+      </c>
+      <c r="AU215">
+        <v>5</v>
+      </c>
+      <c r="AV215">
+        <v>6</v>
+      </c>
+      <c r="AW215">
+        <v>3</v>
+      </c>
+      <c r="AX215">
+        <v>3</v>
+      </c>
+      <c r="AY215">
+        <v>9</v>
+      </c>
+      <c r="AZ215">
+        <v>11</v>
+      </c>
+      <c r="BA215">
+        <v>3</v>
+      </c>
+      <c r="BB215">
+        <v>5</v>
+      </c>
+      <c r="BC215">
+        <v>8</v>
+      </c>
+      <c r="BD215">
+        <v>1.4</v>
+      </c>
+      <c r="BE215">
+        <v>9.4</v>
+      </c>
+      <c r="BF215">
+        <v>3.99</v>
+      </c>
+      <c r="BG215">
+        <v>1.18</v>
+      </c>
+      <c r="BH215">
+        <v>4.05</v>
+      </c>
+      <c r="BI215">
+        <v>1.37</v>
+      </c>
+      <c r="BJ215">
+        <v>2.87</v>
+      </c>
+      <c r="BK215">
+        <v>1.76</v>
+      </c>
+      <c r="BL215">
+        <v>2.2</v>
+      </c>
+      <c r="BM215">
+        <v>1.97</v>
+      </c>
+      <c r="BN215">
+        <v>1.75</v>
+      </c>
+      <c r="BO215">
+        <v>2.45</v>
+      </c>
+      <c r="BP215">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria 2. Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria 2. Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="342">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -712,6 +712,9 @@
     <t>['41', '73']</t>
   </si>
   <si>
+    <t>['18', '43']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -1398,7 +1401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP215"/>
+  <dimension ref="A1:BP216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1657,7 +1660,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1863,7 +1866,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -2069,7 +2072,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q4">
         <v>6.5</v>
@@ -2147,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ4">
         <v>2.21</v>
@@ -2275,7 +2278,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q5">
         <v>3.25</v>
@@ -3511,7 +3514,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3592,7 +3595,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ11">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3717,7 +3720,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -4541,7 +4544,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q16">
         <v>2.1</v>
@@ -4747,7 +4750,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -4953,7 +4956,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q18">
         <v>2.2</v>
@@ -5159,7 +5162,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q19">
         <v>2.5</v>
@@ -5365,7 +5368,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q20">
         <v>3.75</v>
@@ -5443,7 +5446,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ20">
         <v>1.54</v>
@@ -5571,7 +5574,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q21">
         <v>4.5</v>
@@ -5777,7 +5780,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -6189,7 +6192,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6395,7 +6398,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q25">
         <v>2.38</v>
@@ -6601,7 +6604,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6807,7 +6810,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q27">
         <v>4.5</v>
@@ -7219,7 +7222,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q29">
         <v>2.05</v>
@@ -7425,7 +7428,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q30">
         <v>2.75</v>
@@ -7631,7 +7634,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7918,7 +7921,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ32">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR32">
         <v>1.68</v>
@@ -8249,7 +8252,7 @@
         <v>109</v>
       </c>
       <c r="P34" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q34">
         <v>1.8</v>
@@ -8661,7 +8664,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -8867,7 +8870,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -9073,7 +9076,7 @@
         <v>112</v>
       </c>
       <c r="P38" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q38">
         <v>2.75</v>
@@ -9357,7 +9360,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ39">
         <v>0.77</v>
@@ -9485,7 +9488,7 @@
         <v>86</v>
       </c>
       <c r="P40" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9691,7 +9694,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9897,7 +9900,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -10515,7 +10518,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10593,7 +10596,7 @@
         <v>1.67</v>
       </c>
       <c r="AP45">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ45">
         <v>1</v>
@@ -10721,7 +10724,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10927,7 +10930,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q47">
         <v>3.6</v>
@@ -11133,7 +11136,7 @@
         <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -11751,7 +11754,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -11957,7 +11960,7 @@
         <v>86</v>
       </c>
       <c r="P52" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q52">
         <v>2.1</v>
@@ -12369,7 +12372,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -12781,7 +12784,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q56">
         <v>3.25</v>
@@ -12987,7 +12990,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q57">
         <v>3.2</v>
@@ -13068,7 +13071,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ57">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR57">
         <v>1.02</v>
@@ -13193,7 +13196,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q58">
         <v>1.8</v>
@@ -13811,7 +13814,7 @@
         <v>125</v>
       </c>
       <c r="P61" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -14223,7 +14226,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q63">
         <v>3.6</v>
@@ -14635,7 +14638,7 @@
         <v>128</v>
       </c>
       <c r="P65" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14841,7 +14844,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -14919,7 +14922,7 @@
         <v>3</v>
       </c>
       <c r="AP66">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ66">
         <v>2.07</v>
@@ -15047,7 +15050,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -15253,7 +15256,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q68">
         <v>2.1</v>
@@ -15871,7 +15874,7 @@
         <v>133</v>
       </c>
       <c r="P71" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q71">
         <v>2.1</v>
@@ -16364,7 +16367,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ73">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR73">
         <v>1.39</v>
@@ -16695,7 +16698,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16901,7 +16904,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -17107,7 +17110,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q77">
         <v>3.1</v>
@@ -17185,7 +17188,7 @@
         <v>0.5</v>
       </c>
       <c r="AP77">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ77">
         <v>1.31</v>
@@ -17313,7 +17316,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q78">
         <v>3.75</v>
@@ -17931,7 +17934,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -18755,7 +18758,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q85">
         <v>2</v>
@@ -18961,7 +18964,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -19373,7 +19376,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q88">
         <v>4.33</v>
@@ -19579,7 +19582,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q89">
         <v>3.1</v>
@@ -19660,7 +19663,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ89">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR89">
         <v>1.41</v>
@@ -19785,7 +19788,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -20197,7 +20200,7 @@
         <v>86</v>
       </c>
       <c r="P92" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q92">
         <v>2.5</v>
@@ -20403,7 +20406,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20484,7 +20487,7 @@
         <v>1</v>
       </c>
       <c r="AQ93">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR93">
         <v>1.23</v>
@@ -20609,7 +20612,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20815,7 +20818,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q95">
         <v>2.6</v>
@@ -21227,7 +21230,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q97">
         <v>3.2</v>
@@ -21639,7 +21642,7 @@
         <v>142</v>
       </c>
       <c r="P99" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21717,7 +21720,7 @@
         <v>2</v>
       </c>
       <c r="AP99">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ99">
         <v>1.64</v>
@@ -21845,7 +21848,7 @@
         <v>86</v>
       </c>
       <c r="P100" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q100">
         <v>3.2</v>
@@ -22051,7 +22054,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -22463,7 +22466,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q103">
         <v>4.5</v>
@@ -22669,7 +22672,7 @@
         <v>152</v>
       </c>
       <c r="P104" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -23081,7 +23084,7 @@
         <v>86</v>
       </c>
       <c r="P106" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23287,7 +23290,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23493,7 +23496,7 @@
         <v>153</v>
       </c>
       <c r="P108" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q108">
         <v>2.88</v>
@@ -23699,7 +23702,7 @@
         <v>86</v>
       </c>
       <c r="P109" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q109">
         <v>3.2</v>
@@ -24398,7 +24401,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ112">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR112">
         <v>1.39</v>
@@ -25141,7 +25144,7 @@
         <v>157</v>
       </c>
       <c r="P116" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q116">
         <v>3.5</v>
@@ -25219,7 +25222,7 @@
         <v>1.14</v>
       </c>
       <c r="AP116">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ116">
         <v>1.07</v>
@@ -25759,7 +25762,7 @@
         <v>152</v>
       </c>
       <c r="P119" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q119">
         <v>2.63</v>
@@ -26377,7 +26380,7 @@
         <v>86</v>
       </c>
       <c r="P122" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -26789,7 +26792,7 @@
         <v>161</v>
       </c>
       <c r="P124" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q124">
         <v>2.38</v>
@@ -26995,7 +26998,7 @@
         <v>162</v>
       </c>
       <c r="P125" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -27076,7 +27079,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ125">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR125">
         <v>1.17</v>
@@ -27201,7 +27204,7 @@
         <v>163</v>
       </c>
       <c r="P126" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -27407,7 +27410,7 @@
         <v>164</v>
       </c>
       <c r="P127" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27613,7 +27616,7 @@
         <v>165</v>
       </c>
       <c r="P128" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q128">
         <v>2.75</v>
@@ -27819,7 +27822,7 @@
         <v>166</v>
       </c>
       <c r="P129" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q129">
         <v>1.95</v>
@@ -28025,7 +28028,7 @@
         <v>86</v>
       </c>
       <c r="P130" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q130">
         <v>3.4</v>
@@ -28309,7 +28312,7 @@
         <v>1.57</v>
       </c>
       <c r="AP131">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ131">
         <v>0.92</v>
@@ -28437,7 +28440,7 @@
         <v>153</v>
       </c>
       <c r="P132" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28643,7 +28646,7 @@
         <v>168</v>
       </c>
       <c r="P133" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q133">
         <v>2.5</v>
@@ -29879,7 +29882,7 @@
         <v>171</v>
       </c>
       <c r="P139" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q139">
         <v>4.8</v>
@@ -30291,7 +30294,7 @@
         <v>173</v>
       </c>
       <c r="P141" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -31321,7 +31324,7 @@
         <v>178</v>
       </c>
       <c r="P146" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q146">
         <v>2.5</v>
@@ -31399,7 +31402,7 @@
         <v>0.44</v>
       </c>
       <c r="AP146">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ146">
         <v>0.36</v>
@@ -31939,7 +31942,7 @@
         <v>181</v>
       </c>
       <c r="P149" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q149">
         <v>2.1</v>
@@ -32145,7 +32148,7 @@
         <v>182</v>
       </c>
       <c r="P150" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q150">
         <v>2.63</v>
@@ -32763,7 +32766,7 @@
         <v>185</v>
       </c>
       <c r="P153" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q153">
         <v>2.88</v>
@@ -32969,7 +32972,7 @@
         <v>86</v>
       </c>
       <c r="P154" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q154">
         <v>3.75</v>
@@ -33175,7 +33178,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q155">
         <v>3.6</v>
@@ -33668,7 +33671,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ157">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR157">
         <v>1.27</v>
@@ -33793,7 +33796,7 @@
         <v>188</v>
       </c>
       <c r="P158" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q158">
         <v>2.4</v>
@@ -34411,7 +34414,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -34617,7 +34620,7 @@
         <v>192</v>
       </c>
       <c r="P162" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q162">
         <v>3.2</v>
@@ -34901,7 +34904,7 @@
         <v>1.3</v>
       </c>
       <c r="AP163">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ163">
         <v>1.31</v>
@@ -35441,7 +35444,7 @@
         <v>195</v>
       </c>
       <c r="P166" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q166">
         <v>2.88</v>
@@ -36059,7 +36062,7 @@
         <v>198</v>
       </c>
       <c r="P169" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q169">
         <v>2.88</v>
@@ -36471,7 +36474,7 @@
         <v>200</v>
       </c>
       <c r="P171" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q171">
         <v>2.5</v>
@@ -36883,7 +36886,7 @@
         <v>86</v>
       </c>
       <c r="P173" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q173">
         <v>3.1</v>
@@ -37170,7 +37173,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ174">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR174">
         <v>1.05</v>
@@ -37295,7 +37298,7 @@
         <v>177</v>
       </c>
       <c r="P175" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q175">
         <v>5</v>
@@ -37707,7 +37710,7 @@
         <v>86</v>
       </c>
       <c r="P177" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q177">
         <v>5.25</v>
@@ -37913,7 +37916,7 @@
         <v>203</v>
       </c>
       <c r="P178" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q178">
         <v>2.2</v>
@@ -38325,7 +38328,7 @@
         <v>204</v>
       </c>
       <c r="P180" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q180">
         <v>4.2</v>
@@ -38403,7 +38406,7 @@
         <v>1.82</v>
       </c>
       <c r="AP180">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ180">
         <v>1.86</v>
@@ -38737,7 +38740,7 @@
         <v>206</v>
       </c>
       <c r="P182" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q182">
         <v>2.3</v>
@@ -38943,7 +38946,7 @@
         <v>207</v>
       </c>
       <c r="P183" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q183">
         <v>3.45</v>
@@ -39355,7 +39358,7 @@
         <v>208</v>
       </c>
       <c r="P185" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q185">
         <v>3.6</v>
@@ -39561,7 +39564,7 @@
         <v>209</v>
       </c>
       <c r="P186" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q186">
         <v>2.7</v>
@@ -39973,7 +39976,7 @@
         <v>152</v>
       </c>
       <c r="P188" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q188">
         <v>3</v>
@@ -40054,7 +40057,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ188">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR188">
         <v>1.24</v>
@@ -40179,7 +40182,7 @@
         <v>211</v>
       </c>
       <c r="P189" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q189">
         <v>2.87</v>
@@ -40385,7 +40388,7 @@
         <v>212</v>
       </c>
       <c r="P190" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q190">
         <v>3.4</v>
@@ -40591,7 +40594,7 @@
         <v>213</v>
       </c>
       <c r="P191" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q191">
         <v>2.2</v>
@@ -41003,7 +41006,7 @@
         <v>214</v>
       </c>
       <c r="P193" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q193">
         <v>3.8</v>
@@ -41209,7 +41212,7 @@
         <v>86</v>
       </c>
       <c r="P194" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q194">
         <v>2.98</v>
@@ -41621,7 +41624,7 @@
         <v>216</v>
       </c>
       <c r="P196" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q196">
         <v>2.58</v>
@@ -41827,7 +41830,7 @@
         <v>217</v>
       </c>
       <c r="P197" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -42033,7 +42036,7 @@
         <v>218</v>
       </c>
       <c r="P198" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q198">
         <v>1.75</v>
@@ -42239,7 +42242,7 @@
         <v>219</v>
       </c>
       <c r="P199" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q199">
         <v>3</v>
@@ -42445,7 +42448,7 @@
         <v>220</v>
       </c>
       <c r="P200" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q200">
         <v>1.92</v>
@@ -42651,7 +42654,7 @@
         <v>221</v>
       </c>
       <c r="P201" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q201">
         <v>3.2</v>
@@ -42857,7 +42860,7 @@
         <v>222</v>
       </c>
       <c r="P202" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q202">
         <v>1.77</v>
@@ -43063,7 +43066,7 @@
         <v>86</v>
       </c>
       <c r="P203" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q203">
         <v>2.62</v>
@@ -43681,7 +43684,7 @@
         <v>225</v>
       </c>
       <c r="P206" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q206">
         <v>5.19</v>
@@ -43887,7 +43890,7 @@
         <v>226</v>
       </c>
       <c r="P207" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q207">
         <v>4.3</v>
@@ -44093,7 +44096,7 @@
         <v>227</v>
       </c>
       <c r="P208" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q208">
         <v>3.1</v>
@@ -44505,7 +44508,7 @@
         <v>228</v>
       </c>
       <c r="P210" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q210">
         <v>3.4</v>
@@ -44583,7 +44586,7 @@
         <v>0.92</v>
       </c>
       <c r="AP210">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ210">
         <v>1.07</v>
@@ -44711,7 +44714,7 @@
         <v>137</v>
       </c>
       <c r="P211" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q211">
         <v>3.1</v>
@@ -45329,7 +45332,7 @@
         <v>231</v>
       </c>
       <c r="P214" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q214">
         <v>4.15</v>
@@ -45535,7 +45538,7 @@
         <v>86</v>
       </c>
       <c r="P215" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q215">
         <v>2.1</v>
@@ -45692,6 +45695,212 @@
       </c>
       <c r="BP215">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="216" spans="1:68">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>7484737</v>
+      </c>
+      <c r="C216" t="s">
+        <v>68</v>
+      </c>
+      <c r="D216" t="s">
+        <v>69</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45783.54166666666</v>
+      </c>
+      <c r="F216">
+        <v>26</v>
+      </c>
+      <c r="G216" t="s">
+        <v>72</v>
+      </c>
+      <c r="H216" t="s">
+        <v>70</v>
+      </c>
+      <c r="I216">
+        <v>2</v>
+      </c>
+      <c r="J216">
+        <v>1</v>
+      </c>
+      <c r="K216">
+        <v>3</v>
+      </c>
+      <c r="L216">
+        <v>2</v>
+      </c>
+      <c r="M216">
+        <v>1</v>
+      </c>
+      <c r="N216">
+        <v>3</v>
+      </c>
+      <c r="O216" t="s">
+        <v>232</v>
+      </c>
+      <c r="P216" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q216">
+        <v>2.5</v>
+      </c>
+      <c r="R216">
+        <v>2.29</v>
+      </c>
+      <c r="S216">
+        <v>3.4</v>
+      </c>
+      <c r="T216">
+        <v>1.27</v>
+      </c>
+      <c r="U216">
+        <v>3.4</v>
+      </c>
+      <c r="V216">
+        <v>2.35</v>
+      </c>
+      <c r="W216">
+        <v>1.62</v>
+      </c>
+      <c r="X216">
+        <v>4.7</v>
+      </c>
+      <c r="Y216">
+        <v>1.14</v>
+      </c>
+      <c r="Z216">
+        <v>2</v>
+      </c>
+      <c r="AA216">
+        <v>3.86</v>
+      </c>
+      <c r="AB216">
+        <v>2.86</v>
+      </c>
+      <c r="AC216">
+        <v>1.03</v>
+      </c>
+      <c r="AD216">
+        <v>15</v>
+      </c>
+      <c r="AE216">
+        <v>1.17</v>
+      </c>
+      <c r="AF216">
+        <v>4.8</v>
+      </c>
+      <c r="AG216">
+        <v>1.61</v>
+      </c>
+      <c r="AH216">
+        <v>2.36</v>
+      </c>
+      <c r="AI216">
+        <v>1.53</v>
+      </c>
+      <c r="AJ216">
+        <v>2.3</v>
+      </c>
+      <c r="AK216">
+        <v>1.25</v>
+      </c>
+      <c r="AL216">
+        <v>0</v>
+      </c>
+      <c r="AM216">
+        <v>1.75</v>
+      </c>
+      <c r="AN216">
+        <v>1.15</v>
+      </c>
+      <c r="AO216">
+        <v>1.73</v>
+      </c>
+      <c r="AP216">
+        <v>1.29</v>
+      </c>
+      <c r="AQ216">
+        <v>1.58</v>
+      </c>
+      <c r="AR216">
+        <v>1.2</v>
+      </c>
+      <c r="AS216">
+        <v>1.37</v>
+      </c>
+      <c r="AT216">
+        <v>2.57</v>
+      </c>
+      <c r="AU216">
+        <v>6</v>
+      </c>
+      <c r="AV216">
+        <v>4</v>
+      </c>
+      <c r="AW216">
+        <v>1</v>
+      </c>
+      <c r="AX216">
+        <v>8</v>
+      </c>
+      <c r="AY216">
+        <v>8</v>
+      </c>
+      <c r="AZ216">
+        <v>16</v>
+      </c>
+      <c r="BA216">
+        <v>3</v>
+      </c>
+      <c r="BB216">
+        <v>4</v>
+      </c>
+      <c r="BC216">
+        <v>7</v>
+      </c>
+      <c r="BD216">
+        <v>2.08</v>
+      </c>
+      <c r="BE216">
+        <v>6.7</v>
+      </c>
+      <c r="BF216">
+        <v>2.08</v>
+      </c>
+      <c r="BG216">
+        <v>1.18</v>
+      </c>
+      <c r="BH216">
+        <v>3.68</v>
+      </c>
+      <c r="BI216">
+        <v>1.38</v>
+      </c>
+      <c r="BJ216">
+        <v>2.65</v>
+      </c>
+      <c r="BK216">
+        <v>1.67</v>
+      </c>
+      <c r="BL216">
+        <v>2.05</v>
+      </c>
+      <c r="BM216">
+        <v>2.1</v>
+      </c>
+      <c r="BN216">
+        <v>1.65</v>
+      </c>
+      <c r="BO216">
+        <v>2.63</v>
+      </c>
+      <c r="BP216">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria 2. Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria 2. Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="346">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -715,6 +715,15 @@
     <t>['18', '43']</t>
   </si>
   <si>
+    <t>['25', '39', '84']</t>
+  </si>
+  <si>
+    <t>['55']</t>
+  </si>
+  <si>
+    <t>['42']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -931,9 +940,6 @@
     <t>['46']</t>
   </si>
   <si>
-    <t>['42']</t>
-  </si>
-  <si>
     <t>['16']</t>
   </si>
   <si>
@@ -1040,6 +1046,12 @@
   </si>
   <si>
     <t>['30', '65']</t>
+  </si>
+  <si>
+    <t>['23']</t>
+  </si>
+  <si>
+    <t>['23', '55', '62', '86']</t>
   </si>
 </sst>
 </file>
@@ -1401,7 +1413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP216"/>
+  <dimension ref="A1:BP220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1660,7 +1672,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1741,7 +1753,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ2">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1866,7 +1878,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -2072,7 +2084,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q4">
         <v>6.5</v>
@@ -2278,7 +2290,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q5">
         <v>3.25</v>
@@ -2768,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AQ7">
         <v>0.36</v>
@@ -2977,7 +2989,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3180,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ9">
         <v>1.86</v>
@@ -3514,7 +3526,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3595,7 +3607,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ11">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3720,7 +3732,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -4007,7 +4019,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ13">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4210,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ14">
         <v>1.5</v>
@@ -4544,7 +4556,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q16">
         <v>2.1</v>
@@ -4622,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ16">
         <v>1.31</v>
@@ -4750,7 +4762,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -4956,7 +4968,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q18">
         <v>2.2</v>
@@ -5037,7 +5049,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR18">
         <v>1.17</v>
@@ -5162,7 +5174,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q19">
         <v>2.5</v>
@@ -5243,7 +5255,7 @@
         <v>1</v>
       </c>
       <c r="AQ19">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR19">
         <v>0.97</v>
@@ -5368,7 +5380,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q20">
         <v>3.75</v>
@@ -5449,7 +5461,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ20">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR20">
         <v>0.71</v>
@@ -5574,7 +5586,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q21">
         <v>4.5</v>
@@ -5652,7 +5664,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ21">
         <v>2.21</v>
@@ -5780,7 +5792,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5858,7 +5870,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AQ22">
         <v>1.07</v>
@@ -6192,7 +6204,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6398,7 +6410,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q25">
         <v>2.38</v>
@@ -6476,7 +6488,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ25">
         <v>0.92</v>
@@ -6604,7 +6616,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6810,7 +6822,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q27">
         <v>4.5</v>
@@ -7222,7 +7234,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q29">
         <v>2.05</v>
@@ -7428,7 +7440,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q30">
         <v>2.75</v>
@@ -7634,7 +7646,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7921,7 +7933,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ32">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR32">
         <v>1.68</v>
@@ -8124,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ33">
         <v>1.31</v>
@@ -8252,7 +8264,7 @@
         <v>109</v>
       </c>
       <c r="P34" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q34">
         <v>1.8</v>
@@ -8664,7 +8676,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -8745,7 +8757,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR36">
         <v>1.65</v>
@@ -8870,7 +8882,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8948,7 +8960,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AQ37">
         <v>1.07</v>
@@ -9076,7 +9088,7 @@
         <v>112</v>
       </c>
       <c r="P38" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q38">
         <v>2.75</v>
@@ -9363,7 +9375,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ39">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR39">
         <v>0.82</v>
@@ -9488,7 +9500,7 @@
         <v>86</v>
       </c>
       <c r="P40" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9694,7 +9706,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9900,7 +9912,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -10518,7 +10530,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10599,7 +10611,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ45">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR45">
         <v>0.9399999999999999</v>
@@ -10724,7 +10736,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10930,7 +10942,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q47">
         <v>3.6</v>
@@ -11136,7 +11148,7 @@
         <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -11626,7 +11638,7 @@
         <v>0.33</v>
       </c>
       <c r="AP50">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AQ50">
         <v>1.31</v>
@@ -11754,7 +11766,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -11960,7 +11972,7 @@
         <v>86</v>
       </c>
       <c r="P52" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q52">
         <v>2.1</v>
@@ -12041,7 +12053,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ52">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR52">
         <v>1.53</v>
@@ -12372,7 +12384,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -12453,7 +12465,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ54">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR54">
         <v>1.74</v>
@@ -12784,7 +12796,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q56">
         <v>3.25</v>
@@ -12990,7 +13002,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q57">
         <v>3.2</v>
@@ -13071,7 +13083,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ57">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR57">
         <v>1.02</v>
@@ -13196,7 +13208,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q58">
         <v>1.8</v>
@@ -13480,7 +13492,7 @@
         <v>0.33</v>
       </c>
       <c r="AP59">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ59">
         <v>0.77</v>
@@ -13814,7 +13826,7 @@
         <v>125</v>
       </c>
       <c r="P61" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -13892,7 +13904,7 @@
         <v>0.33</v>
       </c>
       <c r="AP61">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ61">
         <v>0.36</v>
@@ -14098,7 +14110,7 @@
         <v>3</v>
       </c>
       <c r="AP62">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ62">
         <v>2.07</v>
@@ -14226,7 +14238,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q63">
         <v>3.6</v>
@@ -14307,7 +14319,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ63">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR63">
         <v>1.26</v>
@@ -14510,7 +14522,7 @@
         <v>1.67</v>
       </c>
       <c r="AP64">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ64">
         <v>0.92</v>
@@ -14638,7 +14650,7 @@
         <v>128</v>
       </c>
       <c r="P65" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14844,7 +14856,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -15050,7 +15062,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -15131,7 +15143,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ67">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR67">
         <v>1.77</v>
@@ -15256,7 +15268,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q68">
         <v>2.1</v>
@@ -15746,7 +15758,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ70">
         <v>1.07</v>
@@ -15874,7 +15886,7 @@
         <v>133</v>
       </c>
       <c r="P71" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q71">
         <v>2.1</v>
@@ -16364,10 +16376,10 @@
         <v>2</v>
       </c>
       <c r="AP73">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ73">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR73">
         <v>1.39</v>
@@ -16570,7 +16582,7 @@
         <v>3</v>
       </c>
       <c r="AP74">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AQ74">
         <v>2.21</v>
@@ -16698,7 +16710,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16904,7 +16916,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -16982,10 +16994,10 @@
         <v>2</v>
       </c>
       <c r="AP76">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ76">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR76">
         <v>1.4</v>
@@ -17110,7 +17122,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q77">
         <v>3.1</v>
@@ -17316,7 +17328,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q78">
         <v>3.75</v>
@@ -17397,7 +17409,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ78">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR78">
         <v>1.34</v>
@@ -17934,7 +17946,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -18758,7 +18770,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q85">
         <v>2</v>
@@ -18836,7 +18848,7 @@
         <v>0.2</v>
       </c>
       <c r="AP85">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ85">
         <v>0.36</v>
@@ -18964,7 +18976,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -19376,7 +19388,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q88">
         <v>4.33</v>
@@ -19582,7 +19594,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q89">
         <v>3.1</v>
@@ -19660,10 +19672,10 @@
         <v>1.75</v>
       </c>
       <c r="AP89">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ89">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR89">
         <v>1.41</v>
@@ -19788,7 +19800,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19866,7 +19878,7 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ90">
         <v>1.31</v>
@@ -20200,7 +20212,7 @@
         <v>86</v>
       </c>
       <c r="P92" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q92">
         <v>2.5</v>
@@ -20278,7 +20290,7 @@
         <v>1</v>
       </c>
       <c r="AP92">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AQ92">
         <v>0.92</v>
@@ -20406,7 +20418,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20487,7 +20499,7 @@
         <v>1</v>
       </c>
       <c r="AQ93">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR93">
         <v>1.23</v>
@@ -20612,7 +20624,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20690,10 +20702,10 @@
         <v>1.8</v>
       </c>
       <c r="AP94">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ94">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR94">
         <v>1.93</v>
@@ -20818,7 +20830,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q95">
         <v>2.6</v>
@@ -20899,7 +20911,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ95">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR95">
         <v>1.33</v>
@@ -21102,7 +21114,7 @@
         <v>0.4</v>
       </c>
       <c r="AP96">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ96">
         <v>0.77</v>
@@ -21230,7 +21242,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q97">
         <v>3.2</v>
@@ -21311,7 +21323,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ97">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR97">
         <v>1.11</v>
@@ -21642,7 +21654,7 @@
         <v>142</v>
       </c>
       <c r="P99" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21848,7 +21860,7 @@
         <v>86</v>
       </c>
       <c r="P100" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q100">
         <v>3.2</v>
@@ -22054,7 +22066,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -22466,7 +22478,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q103">
         <v>4.5</v>
@@ -22672,7 +22684,7 @@
         <v>152</v>
       </c>
       <c r="P104" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -23084,7 +23096,7 @@
         <v>86</v>
       </c>
       <c r="P106" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23162,7 +23174,7 @@
         <v>0.83</v>
       </c>
       <c r="AP106">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ106">
         <v>1.31</v>
@@ -23290,7 +23302,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23368,7 +23380,7 @@
         <v>1.71</v>
       </c>
       <c r="AP107">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ107">
         <v>1.86</v>
@@ -23496,7 +23508,7 @@
         <v>153</v>
       </c>
       <c r="P108" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q108">
         <v>2.88</v>
@@ -23577,7 +23589,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ108">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR108">
         <v>1.76</v>
@@ -23702,7 +23714,7 @@
         <v>86</v>
       </c>
       <c r="P109" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q109">
         <v>3.2</v>
@@ -23989,7 +24001,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ110">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR110">
         <v>1.28</v>
@@ -24195,7 +24207,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ111">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR111">
         <v>1.21</v>
@@ -24401,7 +24413,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ112">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR112">
         <v>1.39</v>
@@ -24604,7 +24616,7 @@
         <v>0.5</v>
       </c>
       <c r="AP113">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AQ113">
         <v>0.77</v>
@@ -25144,7 +25156,7 @@
         <v>157</v>
       </c>
       <c r="P116" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q116">
         <v>3.5</v>
@@ -25428,7 +25440,7 @@
         <v>0.57</v>
       </c>
       <c r="AP117">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ117">
         <v>0.36</v>
@@ -25762,7 +25774,7 @@
         <v>152</v>
       </c>
       <c r="P119" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q119">
         <v>2.63</v>
@@ -26380,7 +26392,7 @@
         <v>86</v>
       </c>
       <c r="P122" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -26792,7 +26804,7 @@
         <v>161</v>
       </c>
       <c r="P124" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q124">
         <v>2.38</v>
@@ -26870,7 +26882,7 @@
         <v>1</v>
       </c>
       <c r="AP124">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ124">
         <v>1.07</v>
@@ -26998,7 +27010,7 @@
         <v>162</v>
       </c>
       <c r="P125" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -27079,7 +27091,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ125">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR125">
         <v>1.17</v>
@@ -27204,7 +27216,7 @@
         <v>163</v>
       </c>
       <c r="P126" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -27410,7 +27422,7 @@
         <v>164</v>
       </c>
       <c r="P127" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27616,7 +27628,7 @@
         <v>165</v>
       </c>
       <c r="P128" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q128">
         <v>2.75</v>
@@ -27822,7 +27834,7 @@
         <v>166</v>
       </c>
       <c r="P129" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q129">
         <v>1.95</v>
@@ -27900,10 +27912,10 @@
         <v>0.86</v>
       </c>
       <c r="AP129">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ129">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR129">
         <v>1.89</v>
@@ -28028,7 +28040,7 @@
         <v>86</v>
       </c>
       <c r="P130" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q130">
         <v>3.4</v>
@@ -28106,7 +28118,7 @@
         <v>1.88</v>
       </c>
       <c r="AP130">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AQ130">
         <v>1.86</v>
@@ -28440,7 +28452,7 @@
         <v>153</v>
       </c>
       <c r="P132" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28518,7 +28530,7 @@
         <v>1.63</v>
       </c>
       <c r="AP132">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ132">
         <v>1.64</v>
@@ -28646,7 +28658,7 @@
         <v>168</v>
       </c>
       <c r="P133" t="s">
-        <v>305</v>
+        <v>235</v>
       </c>
       <c r="Q133">
         <v>2.5</v>
@@ -28727,7 +28739,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ133">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR133">
         <v>1.4</v>
@@ -29551,7 +29563,7 @@
         <v>1</v>
       </c>
       <c r="AQ137">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR137">
         <v>1.29</v>
@@ -29882,7 +29894,7 @@
         <v>171</v>
       </c>
       <c r="P139" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q139">
         <v>4.8</v>
@@ -30166,7 +30178,7 @@
         <v>1.44</v>
       </c>
       <c r="AP140">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ140">
         <v>1.5</v>
@@ -30294,7 +30306,7 @@
         <v>173</v>
       </c>
       <c r="P141" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -31196,10 +31208,10 @@
         <v>0.75</v>
       </c>
       <c r="AP145">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AQ145">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR145">
         <v>1.22</v>
@@ -31324,7 +31336,7 @@
         <v>178</v>
       </c>
       <c r="P146" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q146">
         <v>2.5</v>
@@ -31608,7 +31620,7 @@
         <v>1.56</v>
       </c>
       <c r="AP147">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ147">
         <v>1.64</v>
@@ -31942,7 +31954,7 @@
         <v>181</v>
       </c>
       <c r="P149" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q149">
         <v>2.1</v>
@@ -32023,7 +32035,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ149">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR149">
         <v>1.38</v>
@@ -32148,7 +32160,7 @@
         <v>182</v>
       </c>
       <c r="P150" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q150">
         <v>2.63</v>
@@ -32432,10 +32444,10 @@
         <v>2</v>
       </c>
       <c r="AP151">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ151">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR151">
         <v>1.34</v>
@@ -32766,7 +32778,7 @@
         <v>185</v>
       </c>
       <c r="P153" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q153">
         <v>2.88</v>
@@ -32972,7 +32984,7 @@
         <v>86</v>
       </c>
       <c r="P154" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q154">
         <v>3.75</v>
@@ -33050,7 +33062,7 @@
         <v>2.22</v>
       </c>
       <c r="AP154">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ154">
         <v>2.07</v>
@@ -33178,7 +33190,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q155">
         <v>3.6</v>
@@ -33462,7 +33474,7 @@
         <v>1.3</v>
       </c>
       <c r="AP156">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ156">
         <v>1.5</v>
@@ -33671,7 +33683,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ157">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR157">
         <v>1.27</v>
@@ -33796,7 +33808,7 @@
         <v>188</v>
       </c>
       <c r="P158" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q158">
         <v>2.4</v>
@@ -33874,10 +33886,10 @@
         <v>1.78</v>
       </c>
       <c r="AP158">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ158">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR158">
         <v>1.5</v>
@@ -34414,7 +34426,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -34492,7 +34504,7 @@
         <v>1.4</v>
       </c>
       <c r="AP161">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AQ161">
         <v>1.64</v>
@@ -34620,7 +34632,7 @@
         <v>192</v>
       </c>
       <c r="P162" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q162">
         <v>3.2</v>
@@ -34701,7 +34713,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ162">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR162">
         <v>1.33</v>
@@ -35444,7 +35456,7 @@
         <v>195</v>
       </c>
       <c r="P166" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q166">
         <v>2.88</v>
@@ -35937,7 +35949,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ168">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR168">
         <v>1.22</v>
@@ -36062,7 +36074,7 @@
         <v>198</v>
       </c>
       <c r="P169" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q169">
         <v>2.88</v>
@@ -36346,10 +36358,10 @@
         <v>1.7</v>
       </c>
       <c r="AP170">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ170">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR170">
         <v>1.79</v>
@@ -36474,7 +36486,7 @@
         <v>200</v>
       </c>
       <c r="P171" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q171">
         <v>2.5</v>
@@ -36886,7 +36898,7 @@
         <v>86</v>
       </c>
       <c r="P173" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q173">
         <v>3.1</v>
@@ -37173,7 +37185,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ174">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR174">
         <v>1.05</v>
@@ -37298,7 +37310,7 @@
         <v>177</v>
       </c>
       <c r="P175" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q175">
         <v>5</v>
@@ -37376,7 +37388,7 @@
         <v>2.3</v>
       </c>
       <c r="AP175">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ175">
         <v>2.07</v>
@@ -37582,7 +37594,7 @@
         <v>1.1</v>
       </c>
       <c r="AP176">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ176">
         <v>1.31</v>
@@ -37710,7 +37722,7 @@
         <v>86</v>
       </c>
       <c r="P177" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q177">
         <v>5.25</v>
@@ -37788,7 +37800,7 @@
         <v>2.27</v>
       </c>
       <c r="AP177">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ177">
         <v>2.21</v>
@@ -37916,7 +37928,7 @@
         <v>203</v>
       </c>
       <c r="P178" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q178">
         <v>2.2</v>
@@ -37997,7 +38009,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ178">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR178">
         <v>1.24</v>
@@ -38200,7 +38212,7 @@
         <v>2.36</v>
       </c>
       <c r="AP179">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AQ179">
         <v>2.07</v>
@@ -38328,7 +38340,7 @@
         <v>204</v>
       </c>
       <c r="P180" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q180">
         <v>4.2</v>
@@ -38740,7 +38752,7 @@
         <v>206</v>
       </c>
       <c r="P182" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q182">
         <v>2.3</v>
@@ -38946,7 +38958,7 @@
         <v>207</v>
       </c>
       <c r="P183" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q183">
         <v>3.45</v>
@@ -39233,7 +39245,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ184">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR184">
         <v>1.72</v>
@@ -39358,7 +39370,7 @@
         <v>208</v>
       </c>
       <c r="P185" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q185">
         <v>3.6</v>
@@ -39564,7 +39576,7 @@
         <v>209</v>
       </c>
       <c r="P186" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q186">
         <v>2.7</v>
@@ -39645,7 +39657,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ186">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR186">
         <v>1.01</v>
@@ -39848,7 +39860,7 @@
         <v>1.09</v>
       </c>
       <c r="AP187">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ187">
         <v>1.07</v>
@@ -39976,7 +39988,7 @@
         <v>152</v>
       </c>
       <c r="P188" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q188">
         <v>3</v>
@@ -40054,10 +40066,10 @@
         <v>1.6</v>
       </c>
       <c r="AP188">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AQ188">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR188">
         <v>1.24</v>
@@ -40182,7 +40194,7 @@
         <v>211</v>
       </c>
       <c r="P189" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q189">
         <v>2.87</v>
@@ -40388,7 +40400,7 @@
         <v>212</v>
       </c>
       <c r="P190" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q190">
         <v>3.4</v>
@@ -40466,7 +40478,7 @@
         <v>2.33</v>
       </c>
       <c r="AP190">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ190">
         <v>2.21</v>
@@ -40594,7 +40606,7 @@
         <v>213</v>
       </c>
       <c r="P191" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q191">
         <v>2.2</v>
@@ -41006,7 +41018,7 @@
         <v>214</v>
       </c>
       <c r="P193" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q193">
         <v>3.8</v>
@@ -41212,7 +41224,7 @@
         <v>86</v>
       </c>
       <c r="P194" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q194">
         <v>2.98</v>
@@ -41290,7 +41302,7 @@
         <v>1.42</v>
       </c>
       <c r="AP194">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ194">
         <v>1.64</v>
@@ -41624,7 +41636,7 @@
         <v>216</v>
       </c>
       <c r="P196" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q196">
         <v>2.58</v>
@@ -41830,7 +41842,7 @@
         <v>217</v>
       </c>
       <c r="P197" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -42036,7 +42048,7 @@
         <v>218</v>
       </c>
       <c r="P198" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q198">
         <v>1.75</v>
@@ -42242,7 +42254,7 @@
         <v>219</v>
       </c>
       <c r="P199" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q199">
         <v>3</v>
@@ -42323,7 +42335,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ199">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR199">
         <v>1.32</v>
@@ -42448,7 +42460,7 @@
         <v>220</v>
       </c>
       <c r="P200" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q200">
         <v>1.92</v>
@@ -42526,10 +42538,10 @@
         <v>0.83</v>
       </c>
       <c r="AP200">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ200">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR200">
         <v>1.57</v>
@@ -42654,7 +42666,7 @@
         <v>221</v>
       </c>
       <c r="P201" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q201">
         <v>3.2</v>
@@ -42860,7 +42872,7 @@
         <v>222</v>
       </c>
       <c r="P202" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q202">
         <v>1.77</v>
@@ -43066,7 +43078,7 @@
         <v>86</v>
       </c>
       <c r="P203" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q203">
         <v>2.62</v>
@@ -43147,7 +43159,7 @@
         <v>1</v>
       </c>
       <c r="AQ203">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR203">
         <v>1.53</v>
@@ -43350,10 +43362,10 @@
         <v>1.08</v>
       </c>
       <c r="AP204">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AQ204">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR204">
         <v>1.23</v>
@@ -43556,7 +43568,7 @@
         <v>1</v>
       </c>
       <c r="AP205">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ205">
         <v>0.92</v>
@@ -43684,7 +43696,7 @@
         <v>225</v>
       </c>
       <c r="P206" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q206">
         <v>5.19</v>
@@ -43890,7 +43902,7 @@
         <v>226</v>
       </c>
       <c r="P207" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q207">
         <v>4.3</v>
@@ -43971,7 +43983,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ207">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR207">
         <v>1.36</v>
@@ -44096,7 +44108,7 @@
         <v>227</v>
       </c>
       <c r="P208" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q208">
         <v>3.1</v>
@@ -44508,7 +44520,7 @@
         <v>228</v>
       </c>
       <c r="P210" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q210">
         <v>3.4</v>
@@ -44714,7 +44726,7 @@
         <v>137</v>
       </c>
       <c r="P211" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q211">
         <v>3.1</v>
@@ -45332,7 +45344,7 @@
         <v>231</v>
       </c>
       <c r="P214" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q214">
         <v>4.15</v>
@@ -45538,7 +45550,7 @@
         <v>86</v>
       </c>
       <c r="P215" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q215">
         <v>2.1</v>
@@ -45744,7 +45756,7 @@
         <v>232</v>
       </c>
       <c r="P216" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q216">
         <v>2.5</v>
@@ -45825,7 +45837,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ216">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR216">
         <v>1.2</v>
@@ -45901,6 +45913,830 @@
       </c>
       <c r="BP216">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="217" spans="1:68">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>7484760</v>
+      </c>
+      <c r="C217" t="s">
+        <v>68</v>
+      </c>
+      <c r="D217" t="s">
+        <v>69</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45786.54166666666</v>
+      </c>
+      <c r="F217">
+        <v>28</v>
+      </c>
+      <c r="G217" t="s">
+        <v>82</v>
+      </c>
+      <c r="H217" t="s">
+        <v>83</v>
+      </c>
+      <c r="I217">
+        <v>2</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>2</v>
+      </c>
+      <c r="L217">
+        <v>3</v>
+      </c>
+      <c r="M217">
+        <v>1</v>
+      </c>
+      <c r="N217">
+        <v>4</v>
+      </c>
+      <c r="O217" t="s">
+        <v>233</v>
+      </c>
+      <c r="P217" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q217">
+        <v>1.57</v>
+      </c>
+      <c r="R217">
+        <v>3.1</v>
+      </c>
+      <c r="S217">
+        <v>6.25</v>
+      </c>
+      <c r="T217">
+        <v>1.17</v>
+      </c>
+      <c r="U217">
+        <v>4.5</v>
+      </c>
+      <c r="V217">
+        <v>1.8</v>
+      </c>
+      <c r="W217">
+        <v>1.9</v>
+      </c>
+      <c r="X217">
+        <v>3.66</v>
+      </c>
+      <c r="Y217">
+        <v>1.26</v>
+      </c>
+      <c r="Z217">
+        <v>1.28</v>
+      </c>
+      <c r="AA217">
+        <v>5.3</v>
+      </c>
+      <c r="AB217">
+        <v>7.6</v>
+      </c>
+      <c r="AC217">
+        <v>1</v>
+      </c>
+      <c r="AD217">
+        <v>23</v>
+      </c>
+      <c r="AE217">
+        <v>1.02</v>
+      </c>
+      <c r="AF217">
+        <v>7</v>
+      </c>
+      <c r="AG217">
+        <v>1.29</v>
+      </c>
+      <c r="AH217">
+        <v>3.5</v>
+      </c>
+      <c r="AI217">
+        <v>1.56</v>
+      </c>
+      <c r="AJ217">
+        <v>2.27</v>
+      </c>
+      <c r="AK217">
+        <v>1.07</v>
+      </c>
+      <c r="AL217">
+        <v>0</v>
+      </c>
+      <c r="AM217">
+        <v>3.8</v>
+      </c>
+      <c r="AN217">
+        <v>1.54</v>
+      </c>
+      <c r="AO217">
+        <v>1</v>
+      </c>
+      <c r="AP217">
+        <v>1.64</v>
+      </c>
+      <c r="AQ217">
+        <v>0.93</v>
+      </c>
+      <c r="AR217">
+        <v>1.66</v>
+      </c>
+      <c r="AS217">
+        <v>1.29</v>
+      </c>
+      <c r="AT217">
+        <v>2.95</v>
+      </c>
+      <c r="AU217">
+        <v>7</v>
+      </c>
+      <c r="AV217">
+        <v>4</v>
+      </c>
+      <c r="AW217">
+        <v>6</v>
+      </c>
+      <c r="AX217">
+        <v>8</v>
+      </c>
+      <c r="AY217">
+        <v>14</v>
+      </c>
+      <c r="AZ217">
+        <v>16</v>
+      </c>
+      <c r="BA217">
+        <v>8</v>
+      </c>
+      <c r="BB217">
+        <v>12</v>
+      </c>
+      <c r="BC217">
+        <v>20</v>
+      </c>
+      <c r="BD217">
+        <v>1.33</v>
+      </c>
+      <c r="BE217">
+        <v>10.25</v>
+      </c>
+      <c r="BF217">
+        <v>4.3</v>
+      </c>
+      <c r="BG217">
+        <v>1.15</v>
+      </c>
+      <c r="BH217">
+        <v>4.45</v>
+      </c>
+      <c r="BI217">
+        <v>1.29</v>
+      </c>
+      <c r="BJ217">
+        <v>3.34</v>
+      </c>
+      <c r="BK217">
+        <v>1.52</v>
+      </c>
+      <c r="BL217">
+        <v>2.42</v>
+      </c>
+      <c r="BM217">
+        <v>1.84</v>
+      </c>
+      <c r="BN217">
+        <v>1.9</v>
+      </c>
+      <c r="BO217">
+        <v>2.3</v>
+      </c>
+      <c r="BP217">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="218" spans="1:68">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>7484757</v>
+      </c>
+      <c r="C218" t="s">
+        <v>68</v>
+      </c>
+      <c r="D218" t="s">
+        <v>69</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45786.54166666666</v>
+      </c>
+      <c r="F218">
+        <v>28</v>
+      </c>
+      <c r="G218" t="s">
+        <v>75</v>
+      </c>
+      <c r="H218" t="s">
+        <v>85</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <v>0</v>
+      </c>
+      <c r="L218">
+        <v>0</v>
+      </c>
+      <c r="M218">
+        <v>0</v>
+      </c>
+      <c r="N218">
+        <v>0</v>
+      </c>
+      <c r="O218" t="s">
+        <v>86</v>
+      </c>
+      <c r="P218" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q218">
+        <v>2.7</v>
+      </c>
+      <c r="R218">
+        <v>2.22</v>
+      </c>
+      <c r="S218">
+        <v>3.47</v>
+      </c>
+      <c r="T218">
+        <v>1.33</v>
+      </c>
+      <c r="U218">
+        <v>3.3</v>
+      </c>
+      <c r="V218">
+        <v>2.4</v>
+      </c>
+      <c r="W218">
+        <v>1.55</v>
+      </c>
+      <c r="X218">
+        <v>5.25</v>
+      </c>
+      <c r="Y218">
+        <v>1.14</v>
+      </c>
+      <c r="Z218">
+        <v>2.27</v>
+      </c>
+      <c r="AA218">
+        <v>3.45</v>
+      </c>
+      <c r="AB218">
+        <v>2.9</v>
+      </c>
+      <c r="AC218">
+        <v>1.01</v>
+      </c>
+      <c r="AD218">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE218">
+        <v>1.18</v>
+      </c>
+      <c r="AF218">
+        <v>4.4</v>
+      </c>
+      <c r="AG218">
+        <v>1.62</v>
+      </c>
+      <c r="AH218">
+        <v>2.1</v>
+      </c>
+      <c r="AI218">
+        <v>1.5</v>
+      </c>
+      <c r="AJ218">
+        <v>2.3</v>
+      </c>
+      <c r="AK218">
+        <v>1.3</v>
+      </c>
+      <c r="AL218">
+        <v>0</v>
+      </c>
+      <c r="AM218">
+        <v>1.62</v>
+      </c>
+      <c r="AN218">
+        <v>0.92</v>
+      </c>
+      <c r="AO218">
+        <v>1.54</v>
+      </c>
+      <c r="AP218">
+        <v>0.93</v>
+      </c>
+      <c r="AQ218">
+        <v>1.5</v>
+      </c>
+      <c r="AR218">
+        <v>1.27</v>
+      </c>
+      <c r="AS218">
+        <v>1.5</v>
+      </c>
+      <c r="AT218">
+        <v>2.77</v>
+      </c>
+      <c r="AU218">
+        <v>3</v>
+      </c>
+      <c r="AV218">
+        <v>2</v>
+      </c>
+      <c r="AW218">
+        <v>4</v>
+      </c>
+      <c r="AX218">
+        <v>7</v>
+      </c>
+      <c r="AY218">
+        <v>8</v>
+      </c>
+      <c r="AZ218">
+        <v>12</v>
+      </c>
+      <c r="BA218">
+        <v>5</v>
+      </c>
+      <c r="BB218">
+        <v>3</v>
+      </c>
+      <c r="BC218">
+        <v>8</v>
+      </c>
+      <c r="BD218">
+        <v>1.65</v>
+      </c>
+      <c r="BE218">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF218">
+        <v>2.64</v>
+      </c>
+      <c r="BG218">
+        <v>1.27</v>
+      </c>
+      <c r="BH218">
+        <v>2.95</v>
+      </c>
+      <c r="BI218">
+        <v>1.53</v>
+      </c>
+      <c r="BJ218">
+        <v>2.28</v>
+      </c>
+      <c r="BK218">
+        <v>1.93</v>
+      </c>
+      <c r="BL218">
+        <v>1.78</v>
+      </c>
+      <c r="BM218">
+        <v>2.5</v>
+      </c>
+      <c r="BN218">
+        <v>1.44</v>
+      </c>
+      <c r="BO218">
+        <v>3.27</v>
+      </c>
+      <c r="BP218">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="219" spans="1:68">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>7484756</v>
+      </c>
+      <c r="C219" t="s">
+        <v>68</v>
+      </c>
+      <c r="D219" t="s">
+        <v>69</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45786.54166666666</v>
+      </c>
+      <c r="F219">
+        <v>28</v>
+      </c>
+      <c r="G219" t="s">
+        <v>77</v>
+      </c>
+      <c r="H219" t="s">
+        <v>73</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>1</v>
+      </c>
+      <c r="K219">
+        <v>1</v>
+      </c>
+      <c r="L219">
+        <v>1</v>
+      </c>
+      <c r="M219">
+        <v>1</v>
+      </c>
+      <c r="N219">
+        <v>2</v>
+      </c>
+      <c r="O219" t="s">
+        <v>234</v>
+      </c>
+      <c r="P219" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q219">
+        <v>2.6</v>
+      </c>
+      <c r="R219">
+        <v>2.3</v>
+      </c>
+      <c r="S219">
+        <v>3.9</v>
+      </c>
+      <c r="T219">
+        <v>1.34</v>
+      </c>
+      <c r="U219">
+        <v>2.95</v>
+      </c>
+      <c r="V219">
+        <v>2.69</v>
+      </c>
+      <c r="W219">
+        <v>1.44</v>
+      </c>
+      <c r="X219">
+        <v>5.75</v>
+      </c>
+      <c r="Y219">
+        <v>1.1</v>
+      </c>
+      <c r="Z219">
+        <v>1.78</v>
+      </c>
+      <c r="AA219">
+        <v>3.67</v>
+      </c>
+      <c r="AB219">
+        <v>2.8</v>
+      </c>
+      <c r="AC219">
+        <v>1.04</v>
+      </c>
+      <c r="AD219">
+        <v>10</v>
+      </c>
+      <c r="AE219">
+        <v>1.25</v>
+      </c>
+      <c r="AF219">
+        <v>3.6</v>
+      </c>
+      <c r="AG219">
+        <v>1.75</v>
+      </c>
+      <c r="AH219">
+        <v>1.93</v>
+      </c>
+      <c r="AI219">
+        <v>1.65</v>
+      </c>
+      <c r="AJ219">
+        <v>2.24</v>
+      </c>
+      <c r="AK219">
+        <v>1.33</v>
+      </c>
+      <c r="AL219">
+        <v>0</v>
+      </c>
+      <c r="AM219">
+        <v>1.75</v>
+      </c>
+      <c r="AN219">
+        <v>1.46</v>
+      </c>
+      <c r="AO219">
+        <v>0.77</v>
+      </c>
+      <c r="AP219">
+        <v>1.43</v>
+      </c>
+      <c r="AQ219">
+        <v>0.79</v>
+      </c>
+      <c r="AR219">
+        <v>1.27</v>
+      </c>
+      <c r="AS219">
+        <v>1.01</v>
+      </c>
+      <c r="AT219">
+        <v>2.28</v>
+      </c>
+      <c r="AU219">
+        <v>6</v>
+      </c>
+      <c r="AV219">
+        <v>4</v>
+      </c>
+      <c r="AW219">
+        <v>3</v>
+      </c>
+      <c r="AX219">
+        <v>6</v>
+      </c>
+      <c r="AY219">
+        <v>10</v>
+      </c>
+      <c r="AZ219">
+        <v>12</v>
+      </c>
+      <c r="BA219">
+        <v>4</v>
+      </c>
+      <c r="BB219">
+        <v>8</v>
+      </c>
+      <c r="BC219">
+        <v>12</v>
+      </c>
+      <c r="BD219">
+        <v>1.62</v>
+      </c>
+      <c r="BE219">
+        <v>7.1</v>
+      </c>
+      <c r="BF219">
+        <v>2.82</v>
+      </c>
+      <c r="BG219">
+        <v>1.26</v>
+      </c>
+      <c r="BH219">
+        <v>3.22</v>
+      </c>
+      <c r="BI219">
+        <v>1.5</v>
+      </c>
+      <c r="BJ219">
+        <v>2.36</v>
+      </c>
+      <c r="BK219">
+        <v>1.88</v>
+      </c>
+      <c r="BL219">
+        <v>1.82</v>
+      </c>
+      <c r="BM219">
+        <v>2.42</v>
+      </c>
+      <c r="BN219">
+        <v>1.47</v>
+      </c>
+      <c r="BO219">
+        <v>3.15</v>
+      </c>
+      <c r="BP219">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="220" spans="1:68">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>7484755</v>
+      </c>
+      <c r="C220" t="s">
+        <v>68</v>
+      </c>
+      <c r="D220" t="s">
+        <v>69</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45786.54166666666</v>
+      </c>
+      <c r="F220">
+        <v>28</v>
+      </c>
+      <c r="G220" t="s">
+        <v>84</v>
+      </c>
+      <c r="H220" t="s">
+        <v>70</v>
+      </c>
+      <c r="I220">
+        <v>1</v>
+      </c>
+      <c r="J220">
+        <v>1</v>
+      </c>
+      <c r="K220">
+        <v>2</v>
+      </c>
+      <c r="L220">
+        <v>1</v>
+      </c>
+      <c r="M220">
+        <v>4</v>
+      </c>
+      <c r="N220">
+        <v>5</v>
+      </c>
+      <c r="O220" t="s">
+        <v>235</v>
+      </c>
+      <c r="P220" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q220">
+        <v>2.7</v>
+      </c>
+      <c r="R220">
+        <v>2.51</v>
+      </c>
+      <c r="S220">
+        <v>3.1</v>
+      </c>
+      <c r="T220">
+        <v>1.25</v>
+      </c>
+      <c r="U220">
+        <v>3.6</v>
+      </c>
+      <c r="V220">
+        <v>2.07</v>
+      </c>
+      <c r="W220">
+        <v>1.65</v>
+      </c>
+      <c r="X220">
+        <v>4.5</v>
+      </c>
+      <c r="Y220">
+        <v>1.16</v>
+      </c>
+      <c r="Z220">
+        <v>2.42</v>
+      </c>
+      <c r="AA220">
+        <v>3.9</v>
+      </c>
+      <c r="AB220">
+        <v>2.73</v>
+      </c>
+      <c r="AC220">
+        <v>1.01</v>
+      </c>
+      <c r="AD220">
+        <v>19</v>
+      </c>
+      <c r="AE220">
+        <v>1.14</v>
+      </c>
+      <c r="AF220">
+        <v>5.8</v>
+      </c>
+      <c r="AG220">
+        <v>1.36</v>
+      </c>
+      <c r="AH220">
+        <v>2.7</v>
+      </c>
+      <c r="AI220">
+        <v>1.42</v>
+      </c>
+      <c r="AJ220">
+        <v>2.62</v>
+      </c>
+      <c r="AK220">
+        <v>1.2</v>
+      </c>
+      <c r="AL220">
+        <v>0</v>
+      </c>
+      <c r="AM220">
+        <v>1.65</v>
+      </c>
+      <c r="AN220">
+        <v>1.69</v>
+      </c>
+      <c r="AO220">
+        <v>1.58</v>
+      </c>
+      <c r="AP220">
+        <v>1.57</v>
+      </c>
+      <c r="AQ220">
+        <v>1.69</v>
+      </c>
+      <c r="AR220">
+        <v>1.77</v>
+      </c>
+      <c r="AS220">
+        <v>1.38</v>
+      </c>
+      <c r="AT220">
+        <v>3.15</v>
+      </c>
+      <c r="AU220">
+        <v>6</v>
+      </c>
+      <c r="AV220">
+        <v>7</v>
+      </c>
+      <c r="AW220">
+        <v>10</v>
+      </c>
+      <c r="AX220">
+        <v>7</v>
+      </c>
+      <c r="AY220">
+        <v>19</v>
+      </c>
+      <c r="AZ220">
+        <v>16</v>
+      </c>
+      <c r="BA220">
+        <v>6</v>
+      </c>
+      <c r="BB220">
+        <v>4</v>
+      </c>
+      <c r="BC220">
+        <v>10</v>
+      </c>
+      <c r="BD220">
+        <v>2.1</v>
+      </c>
+      <c r="BE220">
+        <v>6.55</v>
+      </c>
+      <c r="BF220">
+        <v>2.05</v>
+      </c>
+      <c r="BG220">
+        <v>1.2</v>
+      </c>
+      <c r="BH220">
+        <v>3.85</v>
+      </c>
+      <c r="BI220">
+        <v>1.26</v>
+      </c>
+      <c r="BJ220">
+        <v>3.22</v>
+      </c>
+      <c r="BK220">
+        <v>1.49</v>
+      </c>
+      <c r="BL220">
+        <v>2.14</v>
+      </c>
+      <c r="BM220">
+        <v>1.85</v>
+      </c>
+      <c r="BN220">
+        <v>1.85</v>
+      </c>
+      <c r="BO220">
+        <v>2.34</v>
+      </c>
+      <c r="BP220">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria 2. Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria 2. Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="346">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -724,6 +724,9 @@
     <t>['42']</t>
   </si>
   <si>
+    <t>['14']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -773,9 +776,6 @@
   </si>
   <si>
     <t>['75', '79']</t>
-  </si>
-  <si>
-    <t>['14']</t>
   </si>
   <si>
     <t>['48', '71']</t>
@@ -1413,7 +1413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP220"/>
+  <dimension ref="A1:BP221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1672,7 +1672,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1878,7 +1878,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -2084,7 +2084,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q4">
         <v>6.5</v>
@@ -2290,7 +2290,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q5">
         <v>3.25</v>
@@ -2574,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ6">
         <v>1.64</v>
@@ -3526,7 +3526,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3732,7 +3732,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -4431,7 +4431,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ15">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4556,7 +4556,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q16">
         <v>2.1</v>
@@ -4762,7 +4762,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -4968,7 +4968,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q18">
         <v>2.2</v>
@@ -5174,7 +5174,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q19">
         <v>2.5</v>
@@ -5380,7 +5380,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q20">
         <v>3.75</v>
@@ -5586,7 +5586,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q21">
         <v>4.5</v>
@@ -5792,7 +5792,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -6076,7 +6076,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ23">
         <v>0.36</v>
@@ -6204,7 +6204,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6410,7 +6410,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q25">
         <v>2.38</v>
@@ -6616,7 +6616,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6822,7 +6822,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q27">
         <v>4.5</v>
@@ -7234,7 +7234,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="Q29">
         <v>2.05</v>
@@ -8139,7 +8139,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ33">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR33">
         <v>1.76</v>
@@ -8548,7 +8548,7 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ35">
         <v>1.07</v>
@@ -8882,7 +8882,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -10199,7 +10199,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ43">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR43">
         <v>1.43</v>
@@ -11432,7 +11432,7 @@
         <v>1.33</v>
       </c>
       <c r="AP49">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ49">
         <v>1.07</v>
@@ -12668,7 +12668,7 @@
         <v>2.33</v>
       </c>
       <c r="AP55">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ55">
         <v>1.5</v>
@@ -13701,7 +13701,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ60">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR60">
         <v>1.45</v>
@@ -17203,7 +17203,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ77">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR77">
         <v>1.02</v>
@@ -17818,7 +17818,7 @@
         <v>1.25</v>
       </c>
       <c r="AP80">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ80">
         <v>0.92</v>
@@ -18439,7 +18439,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ83">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR83">
         <v>1.17</v>
@@ -20084,7 +20084,7 @@
         <v>2.6</v>
       </c>
       <c r="AP91">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ91">
         <v>2.21</v>
@@ -20418,7 +20418,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -23177,7 +23177,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ106">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR106">
         <v>1.34</v>
@@ -24410,7 +24410,7 @@
         <v>2.17</v>
       </c>
       <c r="AP112">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ112">
         <v>1.69</v>
@@ -26473,7 +26473,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ122">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR122">
         <v>1.65</v>
@@ -28736,7 +28736,7 @@
         <v>2.29</v>
       </c>
       <c r="AP133">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ133">
         <v>1.5</v>
@@ -30387,7 +30387,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ141">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR141">
         <v>1.04</v>
@@ -32032,7 +32032,7 @@
         <v>1.25</v>
       </c>
       <c r="AP149">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ149">
         <v>0.93</v>
@@ -34301,7 +34301,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ160">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR160">
         <v>1.4</v>
@@ -35740,7 +35740,7 @@
         <v>1.9</v>
       </c>
       <c r="AP167">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ167">
         <v>1.86</v>
@@ -37597,7 +37597,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ176">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR176">
         <v>1.55</v>
@@ -38752,7 +38752,7 @@
         <v>206</v>
       </c>
       <c r="P182" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q182">
         <v>2.3</v>
@@ -39451,7 +39451,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ185">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR185">
         <v>1.42</v>
@@ -40684,7 +40684,7 @@
         <v>0.73</v>
       </c>
       <c r="AP191">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ191">
         <v>0.77</v>
@@ -42950,7 +42950,7 @@
         <v>1.17</v>
       </c>
       <c r="AP202">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ202">
         <v>1.31</v>
@@ -44189,7 +44189,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ208">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR208">
         <v>1.61</v>
@@ -46737,6 +46737,212 @@
       </c>
       <c r="BP220">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:68">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>7484761</v>
+      </c>
+      <c r="C221" t="s">
+        <v>68</v>
+      </c>
+      <c r="D221" t="s">
+        <v>69</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45786.64583333334</v>
+      </c>
+      <c r="F221">
+        <v>28</v>
+      </c>
+      <c r="G221" t="s">
+        <v>74</v>
+      </c>
+      <c r="H221" t="s">
+        <v>71</v>
+      </c>
+      <c r="I221">
+        <v>1</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <v>1</v>
+      </c>
+      <c r="L221">
+        <v>1</v>
+      </c>
+      <c r="M221">
+        <v>0</v>
+      </c>
+      <c r="N221">
+        <v>1</v>
+      </c>
+      <c r="O221" t="s">
+        <v>236</v>
+      </c>
+      <c r="P221" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q221">
+        <v>2.3</v>
+      </c>
+      <c r="R221">
+        <v>2.25</v>
+      </c>
+      <c r="S221">
+        <v>4.2</v>
+      </c>
+      <c r="T221">
+        <v>1.33</v>
+      </c>
+      <c r="U221">
+        <v>3</v>
+      </c>
+      <c r="V221">
+        <v>2.62</v>
+      </c>
+      <c r="W221">
+        <v>1.5</v>
+      </c>
+      <c r="X221">
+        <v>5.3</v>
+      </c>
+      <c r="Y221">
+        <v>1.06</v>
+      </c>
+      <c r="Z221">
+        <v>1.83</v>
+      </c>
+      <c r="AA221">
+        <v>3.5</v>
+      </c>
+      <c r="AB221">
+        <v>4</v>
+      </c>
+      <c r="AC221">
+        <v>1</v>
+      </c>
+      <c r="AD221">
+        <v>9</v>
+      </c>
+      <c r="AE221">
+        <v>1.23</v>
+      </c>
+      <c r="AF221">
+        <v>3.8</v>
+      </c>
+      <c r="AG221">
+        <v>1.8</v>
+      </c>
+      <c r="AH221">
+        <v>2</v>
+      </c>
+      <c r="AI221">
+        <v>1.7</v>
+      </c>
+      <c r="AJ221">
+        <v>2</v>
+      </c>
+      <c r="AK221">
+        <v>1.19</v>
+      </c>
+      <c r="AL221">
+        <v>0</v>
+      </c>
+      <c r="AM221">
+        <v>2.15</v>
+      </c>
+      <c r="AN221">
+        <v>2.08</v>
+      </c>
+      <c r="AO221">
+        <v>1.31</v>
+      </c>
+      <c r="AP221">
+        <v>2.14</v>
+      </c>
+      <c r="AQ221">
+        <v>1.21</v>
+      </c>
+      <c r="AR221">
+        <v>1.54</v>
+      </c>
+      <c r="AS221">
+        <v>1.62</v>
+      </c>
+      <c r="AT221">
+        <v>3.16</v>
+      </c>
+      <c r="AU221">
+        <v>9</v>
+      </c>
+      <c r="AV221">
+        <v>2</v>
+      </c>
+      <c r="AW221">
+        <v>8</v>
+      </c>
+      <c r="AX221">
+        <v>5</v>
+      </c>
+      <c r="AY221">
+        <v>21</v>
+      </c>
+      <c r="AZ221">
+        <v>8</v>
+      </c>
+      <c r="BA221">
+        <v>4</v>
+      </c>
+      <c r="BB221">
+        <v>5</v>
+      </c>
+      <c r="BC221">
+        <v>9</v>
+      </c>
+      <c r="BD221">
+        <v>1.59</v>
+      </c>
+      <c r="BE221">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF221">
+        <v>2.82</v>
+      </c>
+      <c r="BG221">
+        <v>1.4</v>
+      </c>
+      <c r="BH221">
+        <v>2.62</v>
+      </c>
+      <c r="BI221">
+        <v>1.65</v>
+      </c>
+      <c r="BJ221">
+        <v>1.97</v>
+      </c>
+      <c r="BK221">
+        <v>2.23</v>
+      </c>
+      <c r="BL221">
+        <v>1.58</v>
+      </c>
+      <c r="BM221">
+        <v>2.98</v>
+      </c>
+      <c r="BN221">
+        <v>1.41</v>
+      </c>
+      <c r="BO221">
+        <v>4.2</v>
+      </c>
+      <c r="BP221">
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria 2. Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria 2. Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="350">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -727,6 +727,12 @@
     <t>['14']</t>
   </si>
   <si>
+    <t>['72']</t>
+  </si>
+  <si>
+    <t>['31', '54', '55']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -1052,6 +1058,12 @@
   </si>
   <si>
     <t>['23', '55', '62', '86']</t>
+  </si>
+  <si>
+    <t>['6', '26', '57', '59', '66']</t>
+  </si>
+  <si>
+    <t>['41', '86']</t>
   </si>
 </sst>
 </file>
@@ -1413,7 +1425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP221"/>
+  <dimension ref="A1:BP223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1672,7 +1684,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1878,7 +1890,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1959,7 +1971,7 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2084,7 +2096,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q4">
         <v>6.5</v>
@@ -2290,7 +2302,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q5">
         <v>3.25</v>
@@ -3401,7 +3413,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ10">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3526,7 +3538,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3604,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ11">
         <v>1.69</v>
@@ -3732,7 +3744,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3810,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
         <v>1.07</v>
@@ -4556,7 +4568,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q16">
         <v>2.1</v>
@@ -4762,7 +4774,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -4968,7 +4980,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q18">
         <v>2.2</v>
@@ -5174,7 +5186,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q19">
         <v>2.5</v>
@@ -5380,7 +5392,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q20">
         <v>3.75</v>
@@ -5586,7 +5598,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q21">
         <v>4.5</v>
@@ -5792,7 +5804,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -6204,7 +6216,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6410,7 +6422,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q25">
         <v>2.38</v>
@@ -6491,7 +6503,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ25">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR25">
         <v>0.84</v>
@@ -6616,7 +6628,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6822,7 +6834,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q27">
         <v>4.5</v>
@@ -7106,7 +7118,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ28">
         <v>1.86</v>
@@ -7440,7 +7452,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q30">
         <v>2.75</v>
@@ -7518,10 +7530,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ30">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR30">
         <v>1.86</v>
@@ -7646,7 +7658,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -8264,7 +8276,7 @@
         <v>109</v>
       </c>
       <c r="P34" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q34">
         <v>1.8</v>
@@ -8676,7 +8688,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -8882,7 +8894,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -9088,7 +9100,7 @@
         <v>112</v>
       </c>
       <c r="P38" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q38">
         <v>2.75</v>
@@ -9500,7 +9512,7 @@
         <v>86</v>
       </c>
       <c r="P40" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9578,7 +9590,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ40">
         <v>2.21</v>
@@ -9706,7 +9718,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9912,7 +9924,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -9990,7 +10002,7 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ42">
         <v>1.5</v>
@@ -10530,7 +10542,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10736,7 +10748,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10942,7 +10954,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q47">
         <v>3.6</v>
@@ -11148,7 +11160,7 @@
         <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -11226,7 +11238,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ48">
         <v>1.64</v>
@@ -11766,7 +11778,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -11972,7 +11984,7 @@
         <v>86</v>
       </c>
       <c r="P52" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q52">
         <v>2.1</v>
@@ -12259,7 +12271,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ53">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR53">
         <v>0.98</v>
@@ -12384,7 +12396,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -12796,7 +12808,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q56">
         <v>3.25</v>
@@ -12877,7 +12889,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ56">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR56">
         <v>1.26</v>
@@ -13002,7 +13014,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q57">
         <v>3.2</v>
@@ -13080,7 +13092,7 @@
         <v>1.5</v>
       </c>
       <c r="AP57">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ57">
         <v>1.69</v>
@@ -13208,7 +13220,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q58">
         <v>1.8</v>
@@ -13495,7 +13507,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ59">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR59">
         <v>1.05</v>
@@ -13826,7 +13838,7 @@
         <v>125</v>
       </c>
       <c r="P61" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -14238,7 +14250,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q63">
         <v>3.6</v>
@@ -14525,7 +14537,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ64">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR64">
         <v>1.93</v>
@@ -14650,7 +14662,7 @@
         <v>128</v>
       </c>
       <c r="P65" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14856,7 +14868,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -15062,7 +15074,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -15268,7 +15280,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q68">
         <v>2.1</v>
@@ -15886,7 +15898,7 @@
         <v>133</v>
       </c>
       <c r="P71" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q71">
         <v>2.1</v>
@@ -16710,7 +16722,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16916,7 +16928,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -17122,7 +17134,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q77">
         <v>3.1</v>
@@ -17328,7 +17340,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q78">
         <v>3.75</v>
@@ -17406,7 +17418,7 @@
         <v>1.75</v>
       </c>
       <c r="AP78">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ78">
         <v>1.5</v>
@@ -17612,7 +17624,7 @@
         <v>1.4</v>
       </c>
       <c r="AP79">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ79">
         <v>1.07</v>
@@ -17821,7 +17833,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ80">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR80">
         <v>1.44</v>
@@ -17946,7 +17958,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -18645,7 +18657,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ84">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR84">
         <v>1.58</v>
@@ -18770,7 +18782,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q85">
         <v>2</v>
@@ -18976,7 +18988,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -19388,7 +19400,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q88">
         <v>4.33</v>
@@ -19594,7 +19606,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q89">
         <v>3.1</v>
@@ -19800,7 +19812,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -20212,7 +20224,7 @@
         <v>86</v>
       </c>
       <c r="P92" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q92">
         <v>2.5</v>
@@ -20293,7 +20305,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ92">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR92">
         <v>1.32</v>
@@ -20418,7 +20430,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20624,7 +20636,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20830,7 +20842,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q95">
         <v>2.6</v>
@@ -20908,7 +20920,7 @@
         <v>1.2</v>
       </c>
       <c r="AP95">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ95">
         <v>0.79</v>
@@ -21117,7 +21129,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ96">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR96">
         <v>1.29</v>
@@ -21242,7 +21254,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q97">
         <v>3.2</v>
@@ -21320,7 +21332,7 @@
         <v>2</v>
       </c>
       <c r="AP97">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ97">
         <v>1.5</v>
@@ -21654,7 +21666,7 @@
         <v>142</v>
       </c>
       <c r="P99" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21860,7 +21872,7 @@
         <v>86</v>
       </c>
       <c r="P100" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q100">
         <v>3.2</v>
@@ -22066,7 +22078,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -22478,7 +22490,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q103">
         <v>4.5</v>
@@ -22684,7 +22696,7 @@
         <v>152</v>
       </c>
       <c r="P104" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -23096,7 +23108,7 @@
         <v>86</v>
       </c>
       <c r="P106" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23302,7 +23314,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23508,7 +23520,7 @@
         <v>153</v>
       </c>
       <c r="P108" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q108">
         <v>2.88</v>
@@ -23714,7 +23726,7 @@
         <v>86</v>
       </c>
       <c r="P109" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q109">
         <v>3.2</v>
@@ -23792,7 +23804,7 @@
         <v>1.29</v>
       </c>
       <c r="AP109">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ109">
         <v>1.31</v>
@@ -24204,7 +24216,7 @@
         <v>1</v>
       </c>
       <c r="AP111">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ111">
         <v>0.79</v>
@@ -24619,7 +24631,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ113">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR113">
         <v>1.3</v>
@@ -25156,7 +25168,7 @@
         <v>157</v>
       </c>
       <c r="P116" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q116">
         <v>3.5</v>
@@ -25774,7 +25786,7 @@
         <v>152</v>
       </c>
       <c r="P119" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q119">
         <v>2.63</v>
@@ -25855,7 +25867,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ119">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR119">
         <v>1.62</v>
@@ -26392,7 +26404,7 @@
         <v>86</v>
       </c>
       <c r="P122" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -26679,7 +26691,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ123">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR123">
         <v>1.4</v>
@@ -26804,7 +26816,7 @@
         <v>161</v>
       </c>
       <c r="P124" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q124">
         <v>2.38</v>
@@ -27010,7 +27022,7 @@
         <v>162</v>
       </c>
       <c r="P125" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -27216,7 +27228,7 @@
         <v>163</v>
       </c>
       <c r="P126" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -27294,7 +27306,7 @@
         <v>2.29</v>
       </c>
       <c r="AP126">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ126">
         <v>2.07</v>
@@ -27422,7 +27434,7 @@
         <v>164</v>
       </c>
       <c r="P127" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27500,7 +27512,7 @@
         <v>1.5</v>
       </c>
       <c r="AP127">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ127">
         <v>1.5</v>
@@ -27628,7 +27640,7 @@
         <v>165</v>
       </c>
       <c r="P128" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q128">
         <v>2.75</v>
@@ -27834,7 +27846,7 @@
         <v>166</v>
       </c>
       <c r="P129" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q129">
         <v>1.95</v>
@@ -28040,7 +28052,7 @@
         <v>86</v>
       </c>
       <c r="P130" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q130">
         <v>3.4</v>
@@ -28327,7 +28339,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ131">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR131">
         <v>1.14</v>
@@ -28452,7 +28464,7 @@
         <v>153</v>
       </c>
       <c r="P132" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -29894,7 +29906,7 @@
         <v>171</v>
       </c>
       <c r="P139" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q139">
         <v>4.8</v>
@@ -29972,7 +29984,7 @@
         <v>2.38</v>
       </c>
       <c r="AP139">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ139">
         <v>2.07</v>
@@ -30306,7 +30318,7 @@
         <v>173</v>
       </c>
       <c r="P141" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -30593,7 +30605,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ142">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR142">
         <v>1.21</v>
@@ -31002,7 +31014,7 @@
         <v>1.33</v>
       </c>
       <c r="AP144">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ144">
         <v>1.31</v>
@@ -31336,7 +31348,7 @@
         <v>178</v>
       </c>
       <c r="P146" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q146">
         <v>2.5</v>
@@ -31954,7 +31966,7 @@
         <v>181</v>
       </c>
       <c r="P149" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q149">
         <v>2.1</v>
@@ -32160,7 +32172,7 @@
         <v>182</v>
       </c>
       <c r="P150" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q150">
         <v>2.63</v>
@@ -32241,7 +32253,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ150">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR150">
         <v>1.28</v>
@@ -32778,7 +32790,7 @@
         <v>185</v>
       </c>
       <c r="P153" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q153">
         <v>2.88</v>
@@ -32859,7 +32871,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ153">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR153">
         <v>1.72</v>
@@ -32984,7 +32996,7 @@
         <v>86</v>
       </c>
       <c r="P154" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q154">
         <v>3.75</v>
@@ -33190,7 +33202,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q155">
         <v>3.6</v>
@@ -33271,7 +33283,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ155">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR155">
         <v>1.03</v>
@@ -33808,7 +33820,7 @@
         <v>188</v>
       </c>
       <c r="P158" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q158">
         <v>2.4</v>
@@ -34298,7 +34310,7 @@
         <v>1.22</v>
       </c>
       <c r="AP160">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ160">
         <v>1.21</v>
@@ -34426,7 +34438,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -34632,7 +34644,7 @@
         <v>192</v>
       </c>
       <c r="P162" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q162">
         <v>3.2</v>
@@ -34710,7 +34722,7 @@
         <v>1.11</v>
       </c>
       <c r="AP162">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ162">
         <v>0.93</v>
@@ -35456,7 +35468,7 @@
         <v>195</v>
       </c>
       <c r="P166" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q166">
         <v>2.88</v>
@@ -36074,7 +36086,7 @@
         <v>198</v>
       </c>
       <c r="P169" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q169">
         <v>2.88</v>
@@ -36155,7 +36167,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ169">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR169">
         <v>1.67</v>
@@ -36486,7 +36498,7 @@
         <v>200</v>
       </c>
       <c r="P171" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q171">
         <v>2.5</v>
@@ -36564,7 +36576,7 @@
         <v>0.45</v>
       </c>
       <c r="AP171">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ171">
         <v>0.36</v>
@@ -36773,7 +36785,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ172">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR172">
         <v>1.46</v>
@@ -36898,7 +36910,7 @@
         <v>86</v>
       </c>
       <c r="P173" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q173">
         <v>3.1</v>
@@ -37310,7 +37322,7 @@
         <v>177</v>
       </c>
       <c r="P175" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q175">
         <v>5</v>
@@ -37722,7 +37734,7 @@
         <v>86</v>
       </c>
       <c r="P177" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q177">
         <v>5.25</v>
@@ -37928,7 +37940,7 @@
         <v>203</v>
       </c>
       <c r="P178" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q178">
         <v>2.2</v>
@@ -38340,7 +38352,7 @@
         <v>204</v>
       </c>
       <c r="P180" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q180">
         <v>4.2</v>
@@ -38752,7 +38764,7 @@
         <v>206</v>
       </c>
       <c r="P182" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q182">
         <v>2.3</v>
@@ -38958,7 +38970,7 @@
         <v>207</v>
       </c>
       <c r="P183" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q183">
         <v>3.45</v>
@@ -39036,7 +39048,7 @@
         <v>0.73</v>
       </c>
       <c r="AP183">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ183">
         <v>1.07</v>
@@ -39370,7 +39382,7 @@
         <v>208</v>
       </c>
       <c r="P185" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q185">
         <v>3.6</v>
@@ -39448,7 +39460,7 @@
         <v>1</v>
       </c>
       <c r="AP185">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ185">
         <v>1.21</v>
@@ -39576,7 +39588,7 @@
         <v>209</v>
       </c>
       <c r="P186" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q186">
         <v>2.7</v>
@@ -39988,7 +40000,7 @@
         <v>152</v>
       </c>
       <c r="P188" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q188">
         <v>3</v>
@@ -40194,7 +40206,7 @@
         <v>211</v>
       </c>
       <c r="P189" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q189">
         <v>2.87</v>
@@ -40272,10 +40284,10 @@
         <v>1.09</v>
       </c>
       <c r="AP189">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ189">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR189">
         <v>1.4</v>
@@ -40400,7 +40412,7 @@
         <v>212</v>
       </c>
       <c r="P190" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q190">
         <v>3.4</v>
@@ -40606,7 +40618,7 @@
         <v>213</v>
       </c>
       <c r="P191" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q191">
         <v>2.2</v>
@@ -40687,7 +40699,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ191">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR191">
         <v>1.44</v>
@@ -41018,7 +41030,7 @@
         <v>214</v>
       </c>
       <c r="P193" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q193">
         <v>3.8</v>
@@ -41224,7 +41236,7 @@
         <v>86</v>
       </c>
       <c r="P194" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q194">
         <v>2.98</v>
@@ -41636,7 +41648,7 @@
         <v>216</v>
       </c>
       <c r="P196" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q196">
         <v>2.58</v>
@@ -41717,7 +41729,7 @@
         <v>1</v>
       </c>
       <c r="AQ196">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR196">
         <v>1.53</v>
@@ -41842,7 +41854,7 @@
         <v>217</v>
       </c>
       <c r="P197" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -42048,7 +42060,7 @@
         <v>218</v>
       </c>
       <c r="P198" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q198">
         <v>1.75</v>
@@ -42254,7 +42266,7 @@
         <v>219</v>
       </c>
       <c r="P199" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q199">
         <v>3</v>
@@ -42460,7 +42472,7 @@
         <v>220</v>
       </c>
       <c r="P200" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q200">
         <v>1.92</v>
@@ -42666,7 +42678,7 @@
         <v>221</v>
       </c>
       <c r="P201" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q201">
         <v>3.2</v>
@@ -42744,7 +42756,7 @@
         <v>1</v>
       </c>
       <c r="AP201">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ201">
         <v>1.07</v>
@@ -42872,7 +42884,7 @@
         <v>222</v>
       </c>
       <c r="P202" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q202">
         <v>1.77</v>
@@ -43078,7 +43090,7 @@
         <v>86</v>
       </c>
       <c r="P203" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q203">
         <v>2.62</v>
@@ -43571,7 +43583,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ205">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR205">
         <v>1.3</v>
@@ -43696,7 +43708,7 @@
         <v>225</v>
       </c>
       <c r="P206" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q206">
         <v>5.19</v>
@@ -43774,7 +43786,7 @@
         <v>2.38</v>
       </c>
       <c r="AP206">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ206">
         <v>2.21</v>
@@ -43902,7 +43914,7 @@
         <v>226</v>
       </c>
       <c r="P207" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q207">
         <v>4.3</v>
@@ -44108,7 +44120,7 @@
         <v>227</v>
       </c>
       <c r="P208" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q208">
         <v>3.1</v>
@@ -44520,7 +44532,7 @@
         <v>228</v>
       </c>
       <c r="P210" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q210">
         <v>3.4</v>
@@ -44726,7 +44738,7 @@
         <v>137</v>
       </c>
       <c r="P211" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q211">
         <v>3.1</v>
@@ -45344,7 +45356,7 @@
         <v>231</v>
       </c>
       <c r="P214" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q214">
         <v>4.15</v>
@@ -45550,7 +45562,7 @@
         <v>86</v>
       </c>
       <c r="P215" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q215">
         <v>2.1</v>
@@ -45756,7 +45768,7 @@
         <v>232</v>
       </c>
       <c r="P216" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q216">
         <v>2.5</v>
@@ -46374,7 +46386,7 @@
         <v>234</v>
       </c>
       <c r="P219" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q219">
         <v>2.6</v>
@@ -46580,7 +46592,7 @@
         <v>235</v>
       </c>
       <c r="P220" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q220">
         <v>2.7</v>
@@ -46943,6 +46955,418 @@
       </c>
       <c r="BP221">
         <v>1.15</v>
+      </c>
+    </row>
+    <row r="222" spans="1:68">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>7484754</v>
+      </c>
+      <c r="C222" t="s">
+        <v>68</v>
+      </c>
+      <c r="D222" t="s">
+        <v>69</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45787.39583333334</v>
+      </c>
+      <c r="F222">
+        <v>28</v>
+      </c>
+      <c r="G222" t="s">
+        <v>79</v>
+      </c>
+      <c r="H222" t="s">
+        <v>78</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>2</v>
+      </c>
+      <c r="K222">
+        <v>2</v>
+      </c>
+      <c r="L222">
+        <v>1</v>
+      </c>
+      <c r="M222">
+        <v>5</v>
+      </c>
+      <c r="N222">
+        <v>6</v>
+      </c>
+      <c r="O222" t="s">
+        <v>237</v>
+      </c>
+      <c r="P222" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q222">
+        <v>4.1</v>
+      </c>
+      <c r="R222">
+        <v>2.68</v>
+      </c>
+      <c r="S222">
+        <v>2.11</v>
+      </c>
+      <c r="T222">
+        <v>1.2</v>
+      </c>
+      <c r="U222">
+        <v>3.9</v>
+      </c>
+      <c r="V222">
+        <v>2.09</v>
+      </c>
+      <c r="W222">
+        <v>1.75</v>
+      </c>
+      <c r="X222">
+        <v>4.33</v>
+      </c>
+      <c r="Y222">
+        <v>1.18</v>
+      </c>
+      <c r="Z222">
+        <v>3.75</v>
+      </c>
+      <c r="AA222">
+        <v>3.9</v>
+      </c>
+      <c r="AB222">
+        <v>1.72</v>
+      </c>
+      <c r="AC222">
+        <v>1.02</v>
+      </c>
+      <c r="AD222">
+        <v>16.5</v>
+      </c>
+      <c r="AE222">
+        <v>1.11</v>
+      </c>
+      <c r="AF222">
+        <v>5.75</v>
+      </c>
+      <c r="AG222">
+        <v>1.42</v>
+      </c>
+      <c r="AH222">
+        <v>2.67</v>
+      </c>
+      <c r="AI222">
+        <v>1.44</v>
+      </c>
+      <c r="AJ222">
+        <v>2.62</v>
+      </c>
+      <c r="AK222">
+        <v>1.25</v>
+      </c>
+      <c r="AL222">
+        <v>0</v>
+      </c>
+      <c r="AM222">
+        <v>1.23</v>
+      </c>
+      <c r="AN222">
+        <v>0.77</v>
+      </c>
+      <c r="AO222">
+        <v>0.92</v>
+      </c>
+      <c r="AP222">
+        <v>0.71</v>
+      </c>
+      <c r="AQ222">
+        <v>1.07</v>
+      </c>
+      <c r="AR222">
+        <v>1.38</v>
+      </c>
+      <c r="AS222">
+        <v>1.46</v>
+      </c>
+      <c r="AT222">
+        <v>2.84</v>
+      </c>
+      <c r="AU222">
+        <v>2</v>
+      </c>
+      <c r="AV222">
+        <v>9</v>
+      </c>
+      <c r="AW222">
+        <v>8</v>
+      </c>
+      <c r="AX222">
+        <v>9</v>
+      </c>
+      <c r="AY222">
+        <v>12</v>
+      </c>
+      <c r="AZ222">
+        <v>22</v>
+      </c>
+      <c r="BA222">
+        <v>5</v>
+      </c>
+      <c r="BB222">
+        <v>9</v>
+      </c>
+      <c r="BC222">
+        <v>14</v>
+      </c>
+      <c r="BD222">
+        <v>2.93</v>
+      </c>
+      <c r="BE222">
+        <v>6.85</v>
+      </c>
+      <c r="BF222">
+        <v>1.6</v>
+      </c>
+      <c r="BG222">
+        <v>1.2</v>
+      </c>
+      <c r="BH222">
+        <v>3.8</v>
+      </c>
+      <c r="BI222">
+        <v>1.4</v>
+      </c>
+      <c r="BJ222">
+        <v>2.73</v>
+      </c>
+      <c r="BK222">
+        <v>1.65</v>
+      </c>
+      <c r="BL222">
+        <v>2.13</v>
+      </c>
+      <c r="BM222">
+        <v>2</v>
+      </c>
+      <c r="BN222">
+        <v>1.72</v>
+      </c>
+      <c r="BO222">
+        <v>2.57</v>
+      </c>
+      <c r="BP222">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="223" spans="1:68">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>7484758</v>
+      </c>
+      <c r="C223" t="s">
+        <v>68</v>
+      </c>
+      <c r="D223" t="s">
+        <v>69</v>
+      </c>
+      <c r="E223" s="2">
+        <v>45787.39583333334</v>
+      </c>
+      <c r="F223">
+        <v>28</v>
+      </c>
+      <c r="G223" t="s">
+        <v>80</v>
+      </c>
+      <c r="H223" t="s">
+        <v>72</v>
+      </c>
+      <c r="I223">
+        <v>1</v>
+      </c>
+      <c r="J223">
+        <v>1</v>
+      </c>
+      <c r="K223">
+        <v>2</v>
+      </c>
+      <c r="L223">
+        <v>3</v>
+      </c>
+      <c r="M223">
+        <v>2</v>
+      </c>
+      <c r="N223">
+        <v>5</v>
+      </c>
+      <c r="O223" t="s">
+        <v>238</v>
+      </c>
+      <c r="P223" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q223">
+        <v>3.1</v>
+      </c>
+      <c r="R223">
+        <v>2.39</v>
+      </c>
+      <c r="S223">
+        <v>3.2</v>
+      </c>
+      <c r="T223">
+        <v>1.33</v>
+      </c>
+      <c r="U223">
+        <v>3.18</v>
+      </c>
+      <c r="V223">
+        <v>2.4</v>
+      </c>
+      <c r="W223">
+        <v>1.47</v>
+      </c>
+      <c r="X223">
+        <v>5.5</v>
+      </c>
+      <c r="Y223">
+        <v>1.11</v>
+      </c>
+      <c r="Z223">
+        <v>2.47</v>
+      </c>
+      <c r="AA223">
+        <v>3.5</v>
+      </c>
+      <c r="AB223">
+        <v>2.52</v>
+      </c>
+      <c r="AC223">
+        <v>1.01</v>
+      </c>
+      <c r="AD223">
+        <v>10</v>
+      </c>
+      <c r="AE223">
+        <v>1.17</v>
+      </c>
+      <c r="AF223">
+        <v>3.8</v>
+      </c>
+      <c r="AG223">
+        <v>1.67</v>
+      </c>
+      <c r="AH223">
+        <v>2.15</v>
+      </c>
+      <c r="AI223">
+        <v>1.6</v>
+      </c>
+      <c r="AJ223">
+        <v>2.2</v>
+      </c>
+      <c r="AK223">
+        <v>1.45</v>
+      </c>
+      <c r="AL223">
+        <v>0</v>
+      </c>
+      <c r="AM223">
+        <v>1.55</v>
+      </c>
+      <c r="AN223">
+        <v>1.92</v>
+      </c>
+      <c r="AO223">
+        <v>0.77</v>
+      </c>
+      <c r="AP223">
+        <v>2</v>
+      </c>
+      <c r="AQ223">
+        <v>0.71</v>
+      </c>
+      <c r="AR223">
+        <v>1.38</v>
+      </c>
+      <c r="AS223">
+        <v>1.17</v>
+      </c>
+      <c r="AT223">
+        <v>2.55</v>
+      </c>
+      <c r="AU223">
+        <v>7</v>
+      </c>
+      <c r="AV223">
+        <v>4</v>
+      </c>
+      <c r="AW223">
+        <v>3</v>
+      </c>
+      <c r="AX223">
+        <v>3</v>
+      </c>
+      <c r="AY223">
+        <v>11</v>
+      </c>
+      <c r="AZ223">
+        <v>7</v>
+      </c>
+      <c r="BA223">
+        <v>7</v>
+      </c>
+      <c r="BB223">
+        <v>5</v>
+      </c>
+      <c r="BC223">
+        <v>12</v>
+      </c>
+      <c r="BD223">
+        <v>2.05</v>
+      </c>
+      <c r="BE223">
+        <v>6.8</v>
+      </c>
+      <c r="BF223">
+        <v>2.15</v>
+      </c>
+      <c r="BG223">
+        <v>1.16</v>
+      </c>
+      <c r="BH223">
+        <v>4.1</v>
+      </c>
+      <c r="BI223">
+        <v>1.35</v>
+      </c>
+      <c r="BJ223">
+        <v>2.84</v>
+      </c>
+      <c r="BK223">
+        <v>1.64</v>
+      </c>
+      <c r="BL223">
+        <v>2.12</v>
+      </c>
+      <c r="BM223">
+        <v>2.03</v>
+      </c>
+      <c r="BN223">
+        <v>1.7</v>
+      </c>
+      <c r="BO223">
+        <v>2.62</v>
+      </c>
+      <c r="BP223">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria 2. Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria 2. Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="352">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -733,6 +733,9 @@
     <t>['31', '54', '55']</t>
   </si>
   <si>
+    <t>['60', '90+4']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -1064,6 +1067,9 @@
   </si>
   <si>
     <t>['41', '86']</t>
+  </si>
+  <si>
+    <t>['90']</t>
   </si>
 </sst>
 </file>
@@ -1425,7 +1431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP223"/>
+  <dimension ref="A1:BP224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1684,7 +1690,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1890,7 +1896,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -2096,7 +2102,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q4">
         <v>6.5</v>
@@ -2302,7 +2308,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q5">
         <v>3.25</v>
@@ -3538,7 +3544,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3744,7 +3750,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -4028,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ13">
         <v>0.79</v>
@@ -4568,7 +4574,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q16">
         <v>2.1</v>
@@ -4649,7 +4655,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ16">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4774,7 +4780,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -4980,7 +4986,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q18">
         <v>2.2</v>
@@ -5186,7 +5192,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q19">
         <v>2.5</v>
@@ -5392,7 +5398,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q20">
         <v>3.75</v>
@@ -5598,7 +5604,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q21">
         <v>4.5</v>
@@ -5804,7 +5810,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -6216,7 +6222,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6422,7 +6428,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q25">
         <v>2.38</v>
@@ -6628,7 +6634,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6834,7 +6840,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q27">
         <v>4.5</v>
@@ -7327,7 +7333,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ29">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR29">
         <v>1.46</v>
@@ -7452,7 +7458,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q30">
         <v>2.75</v>
@@ -7658,7 +7664,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7942,7 +7948,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ32">
         <v>1.69</v>
@@ -8276,7 +8282,7 @@
         <v>109</v>
       </c>
       <c r="P34" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q34">
         <v>1.8</v>
@@ -8357,7 +8363,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ34">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR34">
         <v>1.46</v>
@@ -8688,7 +8694,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -8894,7 +8900,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -9100,7 +9106,7 @@
         <v>112</v>
       </c>
       <c r="P38" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q38">
         <v>2.75</v>
@@ -9512,7 +9518,7 @@
         <v>86</v>
       </c>
       <c r="P40" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9718,7 +9724,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9924,7 +9930,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -10208,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ43">
         <v>1.21</v>
@@ -10542,7 +10548,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10748,7 +10754,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10954,7 +10960,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q47">
         <v>3.6</v>
@@ -11160,7 +11166,7 @@
         <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -11653,7 +11659,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ50">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR50">
         <v>1.26</v>
@@ -11778,7 +11784,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -11984,7 +11990,7 @@
         <v>86</v>
       </c>
       <c r="P52" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q52">
         <v>2.1</v>
@@ -12396,7 +12402,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -12808,7 +12814,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q56">
         <v>3.25</v>
@@ -13014,7 +13020,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q57">
         <v>3.2</v>
@@ -13220,7 +13226,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q58">
         <v>1.8</v>
@@ -13298,7 +13304,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ58">
         <v>1.07</v>
@@ -13838,7 +13844,7 @@
         <v>125</v>
       </c>
       <c r="P61" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -14250,7 +14256,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q63">
         <v>3.6</v>
@@ -14662,7 +14668,7 @@
         <v>128</v>
       </c>
       <c r="P65" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14868,7 +14874,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -15074,7 +15080,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -15280,7 +15286,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q68">
         <v>2.1</v>
@@ -15361,7 +15367,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ68">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR68">
         <v>1.14</v>
@@ -15898,7 +15904,7 @@
         <v>133</v>
       </c>
       <c r="P71" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q71">
         <v>2.1</v>
@@ -15976,7 +15982,7 @@
         <v>0.75</v>
       </c>
       <c r="AP71">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ71">
         <v>1.86</v>
@@ -16722,7 +16728,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16803,7 +16809,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ75">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR75">
         <v>1.29</v>
@@ -16928,7 +16934,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -17134,7 +17140,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q77">
         <v>3.1</v>
@@ -17340,7 +17346,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q78">
         <v>3.75</v>
@@ -17958,7 +17964,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -18242,7 +18248,7 @@
         <v>2.4</v>
       </c>
       <c r="AP82">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ82">
         <v>1.64</v>
@@ -18782,7 +18788,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q85">
         <v>2</v>
@@ -18988,7 +18994,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -19400,7 +19406,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q88">
         <v>4.33</v>
@@ -19606,7 +19612,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q89">
         <v>3.1</v>
@@ -19812,7 +19818,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19893,7 +19899,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ90">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR90">
         <v>1.43</v>
@@ -20224,7 +20230,7 @@
         <v>86</v>
       </c>
       <c r="P92" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q92">
         <v>2.5</v>
@@ -20430,7 +20436,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20636,7 +20642,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20842,7 +20848,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q95">
         <v>2.6</v>
@@ -21254,7 +21260,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q97">
         <v>3.2</v>
@@ -21666,7 +21672,7 @@
         <v>142</v>
       </c>
       <c r="P99" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21872,7 +21878,7 @@
         <v>86</v>
       </c>
       <c r="P100" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q100">
         <v>3.2</v>
@@ -22078,7 +22084,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -22490,7 +22496,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q103">
         <v>4.5</v>
@@ -22696,7 +22702,7 @@
         <v>152</v>
       </c>
       <c r="P104" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -23108,7 +23114,7 @@
         <v>86</v>
       </c>
       <c r="P106" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23314,7 +23320,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23520,7 +23526,7 @@
         <v>153</v>
       </c>
       <c r="P108" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q108">
         <v>2.88</v>
@@ -23726,7 +23732,7 @@
         <v>86</v>
       </c>
       <c r="P109" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q109">
         <v>3.2</v>
@@ -23807,7 +23813,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ109">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR109">
         <v>1.43</v>
@@ -24010,7 +24016,7 @@
         <v>1.67</v>
       </c>
       <c r="AP110">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ110">
         <v>0.93</v>
@@ -25168,7 +25174,7 @@
         <v>157</v>
       </c>
       <c r="P116" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q116">
         <v>3.5</v>
@@ -25786,7 +25792,7 @@
         <v>152</v>
       </c>
       <c r="P119" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q119">
         <v>2.63</v>
@@ -26404,7 +26410,7 @@
         <v>86</v>
       </c>
       <c r="P122" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -26688,7 +26694,7 @@
         <v>0.57</v>
       </c>
       <c r="AP123">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ123">
         <v>0.71</v>
@@ -26816,7 +26822,7 @@
         <v>161</v>
       </c>
       <c r="P124" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q124">
         <v>2.38</v>
@@ -27022,7 +27028,7 @@
         <v>162</v>
       </c>
       <c r="P125" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -27228,7 +27234,7 @@
         <v>163</v>
       </c>
       <c r="P126" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -27434,7 +27440,7 @@
         <v>164</v>
       </c>
       <c r="P127" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27640,7 +27646,7 @@
         <v>165</v>
       </c>
       <c r="P128" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q128">
         <v>2.75</v>
@@ -27721,7 +27727,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ128">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR128">
         <v>1.75</v>
@@ -27846,7 +27852,7 @@
         <v>166</v>
       </c>
       <c r="P129" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q129">
         <v>1.95</v>
@@ -28052,7 +28058,7 @@
         <v>86</v>
       </c>
       <c r="P130" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q130">
         <v>3.4</v>
@@ -28464,7 +28470,7 @@
         <v>153</v>
       </c>
       <c r="P132" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -29906,7 +29912,7 @@
         <v>171</v>
       </c>
       <c r="P139" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q139">
         <v>4.8</v>
@@ -30318,7 +30324,7 @@
         <v>173</v>
       </c>
       <c r="P141" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -30808,7 +30814,7 @@
         <v>0.89</v>
       </c>
       <c r="AP143">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ143">
         <v>1.07</v>
@@ -31017,7 +31023,7 @@
         <v>2</v>
       </c>
       <c r="AQ144">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR144">
         <v>1.3</v>
@@ -31348,7 +31354,7 @@
         <v>178</v>
       </c>
       <c r="P146" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q146">
         <v>2.5</v>
@@ -31966,7 +31972,7 @@
         <v>181</v>
       </c>
       <c r="P149" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q149">
         <v>2.1</v>
@@ -32172,7 +32178,7 @@
         <v>182</v>
       </c>
       <c r="P150" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q150">
         <v>2.63</v>
@@ -32790,7 +32796,7 @@
         <v>185</v>
       </c>
       <c r="P153" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q153">
         <v>2.88</v>
@@ -32996,7 +33002,7 @@
         <v>86</v>
       </c>
       <c r="P154" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q154">
         <v>3.75</v>
@@ -33202,7 +33208,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q155">
         <v>3.6</v>
@@ -33820,7 +33826,7 @@
         <v>188</v>
       </c>
       <c r="P158" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q158">
         <v>2.4</v>
@@ -34104,7 +34110,7 @@
         <v>0.5</v>
       </c>
       <c r="AP159">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ159">
         <v>0.36</v>
@@ -34438,7 +34444,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -34644,7 +34650,7 @@
         <v>192</v>
       </c>
       <c r="P162" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q162">
         <v>3.2</v>
@@ -34931,7 +34937,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ163">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR163">
         <v>1.17</v>
@@ -35468,7 +35474,7 @@
         <v>195</v>
       </c>
       <c r="P166" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q166">
         <v>2.88</v>
@@ -36086,7 +36092,7 @@
         <v>198</v>
       </c>
       <c r="P169" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q169">
         <v>2.88</v>
@@ -36498,7 +36504,7 @@
         <v>200</v>
       </c>
       <c r="P171" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q171">
         <v>2.5</v>
@@ -36782,7 +36788,7 @@
         <v>1.1</v>
       </c>
       <c r="AP172">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ172">
         <v>1.07</v>
@@ -36910,7 +36916,7 @@
         <v>86</v>
       </c>
       <c r="P173" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q173">
         <v>3.1</v>
@@ -37322,7 +37328,7 @@
         <v>177</v>
       </c>
       <c r="P175" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q175">
         <v>5</v>
@@ -37734,7 +37740,7 @@
         <v>86</v>
       </c>
       <c r="P177" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q177">
         <v>5.25</v>
@@ -37940,7 +37946,7 @@
         <v>203</v>
       </c>
       <c r="P178" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q178">
         <v>2.2</v>
@@ -38352,7 +38358,7 @@
         <v>204</v>
       </c>
       <c r="P180" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q180">
         <v>4.2</v>
@@ -38764,7 +38770,7 @@
         <v>206</v>
       </c>
       <c r="P182" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q182">
         <v>2.3</v>
@@ -38845,7 +38851,7 @@
         <v>1</v>
       </c>
       <c r="AQ182">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR182">
         <v>1.41</v>
@@ -38970,7 +38976,7 @@
         <v>207</v>
       </c>
       <c r="P183" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q183">
         <v>3.45</v>
@@ -39382,7 +39388,7 @@
         <v>208</v>
       </c>
       <c r="P185" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q185">
         <v>3.6</v>
@@ -39588,7 +39594,7 @@
         <v>209</v>
       </c>
       <c r="P186" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q186">
         <v>2.7</v>
@@ -40000,7 +40006,7 @@
         <v>152</v>
       </c>
       <c r="P188" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q188">
         <v>3</v>
@@ -40206,7 +40212,7 @@
         <v>211</v>
       </c>
       <c r="P189" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q189">
         <v>2.87</v>
@@ -40412,7 +40418,7 @@
         <v>212</v>
       </c>
       <c r="P190" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q190">
         <v>3.4</v>
@@ -40618,7 +40624,7 @@
         <v>213</v>
       </c>
       <c r="P191" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q191">
         <v>2.2</v>
@@ -41030,7 +41036,7 @@
         <v>214</v>
       </c>
       <c r="P193" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q193">
         <v>3.8</v>
@@ -41236,7 +41242,7 @@
         <v>86</v>
       </c>
       <c r="P194" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q194">
         <v>2.98</v>
@@ -41520,7 +41526,7 @@
         <v>1.42</v>
       </c>
       <c r="AP195">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ195">
         <v>1.5</v>
@@ -41648,7 +41654,7 @@
         <v>216</v>
       </c>
       <c r="P196" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q196">
         <v>2.58</v>
@@ -41854,7 +41860,7 @@
         <v>217</v>
       </c>
       <c r="P197" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -42060,7 +42066,7 @@
         <v>218</v>
       </c>
       <c r="P198" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q198">
         <v>1.75</v>
@@ -42266,7 +42272,7 @@
         <v>219</v>
       </c>
       <c r="P199" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q199">
         <v>3</v>
@@ -42472,7 +42478,7 @@
         <v>220</v>
       </c>
       <c r="P200" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q200">
         <v>1.92</v>
@@ -42678,7 +42684,7 @@
         <v>221</v>
       </c>
       <c r="P201" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q201">
         <v>3.2</v>
@@ -42884,7 +42890,7 @@
         <v>222</v>
       </c>
       <c r="P202" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q202">
         <v>1.77</v>
@@ -42965,7 +42971,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ202">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR202">
         <v>1.43</v>
@@ -43090,7 +43096,7 @@
         <v>86</v>
       </c>
       <c r="P203" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q203">
         <v>2.62</v>
@@ -43708,7 +43714,7 @@
         <v>225</v>
       </c>
       <c r="P206" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q206">
         <v>5.19</v>
@@ -43914,7 +43920,7 @@
         <v>226</v>
       </c>
       <c r="P207" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q207">
         <v>4.3</v>
@@ -44120,7 +44126,7 @@
         <v>227</v>
       </c>
       <c r="P208" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q208">
         <v>3.1</v>
@@ -44532,7 +44538,7 @@
         <v>228</v>
       </c>
       <c r="P210" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q210">
         <v>3.4</v>
@@ -44738,7 +44744,7 @@
         <v>137</v>
       </c>
       <c r="P211" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q211">
         <v>3.1</v>
@@ -45228,7 +45234,7 @@
         <v>2.23</v>
       </c>
       <c r="AP213">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ213">
         <v>2.07</v>
@@ -45356,7 +45362,7 @@
         <v>231</v>
       </c>
       <c r="P214" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q214">
         <v>4.15</v>
@@ -45562,7 +45568,7 @@
         <v>86</v>
       </c>
       <c r="P215" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q215">
         <v>2.1</v>
@@ -45768,7 +45774,7 @@
         <v>232</v>
       </c>
       <c r="P216" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q216">
         <v>2.5</v>
@@ -46386,7 +46392,7 @@
         <v>234</v>
       </c>
       <c r="P219" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q219">
         <v>2.6</v>
@@ -46592,7 +46598,7 @@
         <v>235</v>
       </c>
       <c r="P220" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q220">
         <v>2.7</v>
@@ -47004,7 +47010,7 @@
         <v>237</v>
       </c>
       <c r="P222" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q222">
         <v>4.1</v>
@@ -47210,7 +47216,7 @@
         <v>238</v>
       </c>
       <c r="P223" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q223">
         <v>3.1</v>
@@ -47367,6 +47373,212 @@
       </c>
       <c r="BP223">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="224" spans="1:68">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>7484759</v>
+      </c>
+      <c r="C224" t="s">
+        <v>68</v>
+      </c>
+      <c r="D224" t="s">
+        <v>69</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45788.22916666666</v>
+      </c>
+      <c r="F224">
+        <v>28</v>
+      </c>
+      <c r="G224" t="s">
+        <v>81</v>
+      </c>
+      <c r="H224" t="s">
+        <v>76</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>2</v>
+      </c>
+      <c r="M224">
+        <v>1</v>
+      </c>
+      <c r="N224">
+        <v>3</v>
+      </c>
+      <c r="O224" t="s">
+        <v>239</v>
+      </c>
+      <c r="P224" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q224">
+        <v>1.63</v>
+      </c>
+      <c r="R224">
+        <v>2.8</v>
+      </c>
+      <c r="S224">
+        <v>8</v>
+      </c>
+      <c r="T224">
+        <v>1.2</v>
+      </c>
+      <c r="U224">
+        <v>4</v>
+      </c>
+      <c r="V224">
+        <v>2.04</v>
+      </c>
+      <c r="W224">
+        <v>1.73</v>
+      </c>
+      <c r="X224">
+        <v>4</v>
+      </c>
+      <c r="Y224">
+        <v>1.2</v>
+      </c>
+      <c r="Z224">
+        <v>1.19</v>
+      </c>
+      <c r="AA224">
+        <v>5.8</v>
+      </c>
+      <c r="AB224">
+        <v>9.1</v>
+      </c>
+      <c r="AC224">
+        <v>1.01</v>
+      </c>
+      <c r="AD224">
+        <v>17.5</v>
+      </c>
+      <c r="AE224">
+        <v>1.12</v>
+      </c>
+      <c r="AF224">
+        <v>5.75</v>
+      </c>
+      <c r="AG224">
+        <v>1.35</v>
+      </c>
+      <c r="AH224">
+        <v>2.94</v>
+      </c>
+      <c r="AI224">
+        <v>1.79</v>
+      </c>
+      <c r="AJ224">
+        <v>1.95</v>
+      </c>
+      <c r="AK224">
+        <v>1.03</v>
+      </c>
+      <c r="AL224">
+        <v>0</v>
+      </c>
+      <c r="AM224">
+        <v>3.8</v>
+      </c>
+      <c r="AN224">
+        <v>2.08</v>
+      </c>
+      <c r="AO224">
+        <v>1.31</v>
+      </c>
+      <c r="AP224">
+        <v>2.14</v>
+      </c>
+      <c r="AQ224">
+        <v>1.21</v>
+      </c>
+      <c r="AR224">
+        <v>1.41</v>
+      </c>
+      <c r="AS224">
+        <v>1.44</v>
+      </c>
+      <c r="AT224">
+        <v>2.85</v>
+      </c>
+      <c r="AU224">
+        <v>6</v>
+      </c>
+      <c r="AV224">
+        <v>3</v>
+      </c>
+      <c r="AW224">
+        <v>13</v>
+      </c>
+      <c r="AX224">
+        <v>3</v>
+      </c>
+      <c r="AY224">
+        <v>22</v>
+      </c>
+      <c r="AZ224">
+        <v>6</v>
+      </c>
+      <c r="BA224">
+        <v>9</v>
+      </c>
+      <c r="BB224">
+        <v>2</v>
+      </c>
+      <c r="BC224">
+        <v>11</v>
+      </c>
+      <c r="BD224">
+        <v>1.33</v>
+      </c>
+      <c r="BE224">
+        <v>7.6</v>
+      </c>
+      <c r="BF224">
+        <v>4.61</v>
+      </c>
+      <c r="BG224">
+        <v>1.29</v>
+      </c>
+      <c r="BH224">
+        <v>3.04</v>
+      </c>
+      <c r="BI224">
+        <v>1.56</v>
+      </c>
+      <c r="BJ224">
+        <v>2.21</v>
+      </c>
+      <c r="BK224">
+        <v>1.99</v>
+      </c>
+      <c r="BL224">
+        <v>1.81</v>
+      </c>
+      <c r="BM224">
+        <v>2.48</v>
+      </c>
+      <c r="BN224">
+        <v>1.48</v>
+      </c>
+      <c r="BO224">
+        <v>3.25</v>
+      </c>
+      <c r="BP224">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria 2. Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria 2. Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="358">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -631,13 +631,13 @@
     <t>['50', '56']</t>
   </si>
   <si>
-    <t>['70', '74']</t>
-  </si>
-  <si>
     <t>['45+1']</t>
   </si>
   <si>
     <t>['45', '83']</t>
+  </si>
+  <si>
+    <t>['70', '74']</t>
   </si>
   <si>
     <t>['29']</t>
@@ -676,13 +676,13 @@
     <t>['81']</t>
   </si>
   <si>
+    <t>['17', '78']</t>
+  </si>
+  <si>
     <t>['13', '22', '35', '37']</t>
   </si>
   <si>
     <t>['16', '86', '90+2']</t>
-  </si>
-  <si>
-    <t>['17', '78']</t>
   </si>
   <si>
     <t>['14', '77']</t>
@@ -697,13 +697,13 @@
     <t>['12', '33', '40', '63']</t>
   </si>
   <si>
-    <t>['68']</t>
+    <t>['37', '50', '77', '90+3']</t>
   </si>
   <si>
     <t>['65']</t>
   </si>
   <si>
-    <t>['37', '50', '77', '90+3']</t>
+    <t>['68']</t>
   </si>
   <si>
     <t>['8', '38']</t>
@@ -718,10 +718,10 @@
     <t>['25', '39', '84']</t>
   </si>
   <si>
-    <t>['55']</t>
+    <t>['42']</t>
   </si>
   <si>
-    <t>['42']</t>
+    <t>['55']</t>
   </si>
   <si>
     <t>['14']</t>
@@ -734,6 +734,21 @@
   </si>
   <si>
     <t>['60', '90+4']</t>
+  </si>
+  <si>
+    <t>['42', '71']</t>
+  </si>
+  <si>
+    <t>['54', '72', '90+7']</t>
+  </si>
+  <si>
+    <t>['60', '66', '69']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['44', '69']</t>
   </si>
   <si>
     <t>['62']</t>
@@ -952,9 +967,6 @@
     <t>['16']</t>
   </si>
   <si>
-    <t>['90+1']</t>
-  </si>
-  <si>
     <t>['83', '89']</t>
   </si>
   <si>
@@ -1027,10 +1039,10 @@
     <t>['8', '53', '86']</t>
   </si>
   <si>
-    <t>['45+2']</t>
+    <t>['32', '41', '75']</t>
   </si>
   <si>
-    <t>['32', '41', '75']</t>
+    <t>['45+2']</t>
   </si>
   <si>
     <t>['21', '23']</t>
@@ -1042,13 +1054,13 @@
     <t>['73']</t>
   </si>
   <si>
-    <t>['35', '43']</t>
+    <t>['1', '6', '69', '73', '76']</t>
   </si>
   <si>
     <t>['1', '54']</t>
   </si>
   <si>
-    <t>['1', '6', '69', '73', '76']</t>
+    <t>['35', '43']</t>
   </si>
   <si>
     <t>['6', '16', '21', '53']</t>
@@ -1057,10 +1069,10 @@
     <t>['30', '65']</t>
   </si>
   <si>
-    <t>['23']</t>
+    <t>['23', '55', '62', '86']</t>
   </si>
   <si>
-    <t>['23', '55', '62', '86']</t>
+    <t>['23']</t>
   </si>
   <si>
     <t>['6', '26', '57', '59', '66']</t>
@@ -1070,6 +1082,12 @@
   </si>
   <si>
     <t>['90']</t>
+  </si>
+  <si>
+    <t>['57']</t>
+  </si>
+  <si>
+    <t>['1', '45', '68']</t>
   </si>
 </sst>
 </file>
@@ -1431,7 +1449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP224"/>
+  <dimension ref="A1:BP230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1690,7 +1708,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1896,7 +1914,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1977,7 +1995,7 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2102,7 +2120,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q4">
         <v>6.5</v>
@@ -2180,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ4">
         <v>2.21</v>
@@ -2308,7 +2326,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q5">
         <v>3.25</v>
@@ -2386,10 +2404,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ5">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2595,7 +2613,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ6">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2801,7 +2819,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ7">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3004,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ8">
         <v>0.93</v>
@@ -3544,7 +3562,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3750,7 +3768,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -4240,10 +4258,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ14">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4574,7 +4592,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q16">
         <v>2.1</v>
@@ -4780,7 +4798,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -4858,7 +4876,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ17">
         <v>2.07</v>
@@ -4986,7 +5004,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q18">
         <v>2.2</v>
@@ -5192,7 +5210,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q19">
         <v>2.5</v>
@@ -5398,7 +5416,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q20">
         <v>3.75</v>
@@ -5476,7 +5494,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ20">
         <v>1.5</v>
@@ -5604,7 +5622,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q21">
         <v>4.5</v>
@@ -5810,7 +5828,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5891,7 +5909,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ22">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <v>1.76</v>
@@ -6097,7 +6115,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ23">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR23">
         <v>2.04</v>
@@ -6222,7 +6240,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6300,10 +6318,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ24">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR24">
         <v>1.2</v>
@@ -6428,7 +6446,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q25">
         <v>2.38</v>
@@ -6506,10 +6524,10 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ25">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR25">
         <v>0.84</v>
@@ -6634,7 +6652,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6712,10 +6730,10 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ26">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR26">
         <v>1.49</v>
@@ -6840,7 +6858,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q27">
         <v>4.5</v>
@@ -7458,7 +7476,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q30">
         <v>2.75</v>
@@ -7664,7 +7682,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7742,7 +7760,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ31">
         <v>1.07</v>
@@ -8282,7 +8300,7 @@
         <v>109</v>
       </c>
       <c r="P34" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q34">
         <v>1.8</v>
@@ -8569,7 +8587,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ35">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR35">
         <v>1.62</v>
@@ -8694,7 +8712,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -8900,7 +8918,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -9106,7 +9124,7 @@
         <v>112</v>
       </c>
       <c r="P38" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q38">
         <v>2.75</v>
@@ -9184,7 +9202,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ38">
         <v>1.86</v>
@@ -9390,7 +9408,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ39">
         <v>0.79</v>
@@ -9518,7 +9536,7 @@
         <v>86</v>
       </c>
       <c r="P40" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9724,7 +9742,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9805,7 +9823,7 @@
         <v>1</v>
       </c>
       <c r="AQ41">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR41">
         <v>0.9</v>
@@ -9930,7 +9948,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -10011,7 +10029,7 @@
         <v>2</v>
       </c>
       <c r="AQ42">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR42">
         <v>1.18</v>
@@ -10423,7 +10441,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ44">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR44">
         <v>1.33</v>
@@ -10548,7 +10566,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10626,7 +10644,7 @@
         <v>1.67</v>
       </c>
       <c r="AP45">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ45">
         <v>0.93</v>
@@ -10754,7 +10772,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10832,10 +10850,10 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ46">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR46">
         <v>1.15</v>
@@ -10960,7 +10978,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q47">
         <v>3.6</v>
@@ -11166,7 +11184,7 @@
         <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -11247,7 +11265,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ48">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR48">
         <v>1.3</v>
@@ -11784,7 +11802,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -11990,7 +12008,7 @@
         <v>86</v>
       </c>
       <c r="P52" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q52">
         <v>2.1</v>
@@ -12274,7 +12292,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ53">
         <v>0.71</v>
@@ -12402,7 +12420,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -12689,7 +12707,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ55">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR55">
         <v>1.49</v>
@@ -12814,7 +12832,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q56">
         <v>3.25</v>
@@ -12892,10 +12910,10 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ56">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR56">
         <v>1.26</v>
@@ -13020,7 +13038,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q57">
         <v>3.2</v>
@@ -13226,7 +13244,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q58">
         <v>1.8</v>
@@ -13307,7 +13325,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ58">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR58">
         <v>1.23</v>
@@ -13510,7 +13528,7 @@
         <v>0.33</v>
       </c>
       <c r="AP59">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ59">
         <v>0.71</v>
@@ -13716,7 +13734,7 @@
         <v>0.33</v>
       </c>
       <c r="AP60">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ60">
         <v>1.21</v>
@@ -13844,7 +13862,7 @@
         <v>125</v>
       </c>
       <c r="P61" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -13925,7 +13943,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ61">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR61">
         <v>1.31</v>
@@ -14128,7 +14146,7 @@
         <v>3</v>
       </c>
       <c r="AP62">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ62">
         <v>2.07</v>
@@ -14256,7 +14274,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q63">
         <v>3.6</v>
@@ -14334,7 +14352,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ63">
         <v>1.5</v>
@@ -14543,7 +14561,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ64">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR64">
         <v>1.93</v>
@@ -14668,7 +14686,7 @@
         <v>128</v>
       </c>
       <c r="P65" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14749,7 +14767,7 @@
         <v>1</v>
       </c>
       <c r="AQ65">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR65">
         <v>1.19</v>
@@ -14874,7 +14892,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -14952,7 +14970,7 @@
         <v>3</v>
       </c>
       <c r="AP66">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ66">
         <v>2.07</v>
@@ -15080,7 +15098,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -15286,7 +15304,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q68">
         <v>2.1</v>
@@ -15364,7 +15382,7 @@
         <v>0.5</v>
       </c>
       <c r="AP68">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ68">
         <v>1.21</v>
@@ -15573,7 +15591,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ69">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR69">
         <v>1.58</v>
@@ -15904,7 +15922,7 @@
         <v>133</v>
       </c>
       <c r="P71" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q71">
         <v>2.1</v>
@@ -16191,7 +16209,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ72">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR72">
         <v>1.63</v>
@@ -16394,7 +16412,7 @@
         <v>2</v>
       </c>
       <c r="AP73">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ73">
         <v>1.69</v>
@@ -16728,7 +16746,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16806,7 +16824,7 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ75">
         <v>1.21</v>
@@ -16934,7 +16952,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -17140,7 +17158,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q77">
         <v>3.1</v>
@@ -17218,7 +17236,7 @@
         <v>0.5</v>
       </c>
       <c r="AP77">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ77">
         <v>1.21</v>
@@ -17346,7 +17364,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q78">
         <v>3.75</v>
@@ -17633,7 +17651,7 @@
         <v>2</v>
       </c>
       <c r="AQ79">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR79">
         <v>0.98</v>
@@ -17839,7 +17857,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ80">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR80">
         <v>1.44</v>
@@ -17964,7 +17982,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -18251,7 +18269,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ82">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR82">
         <v>1.24</v>
@@ -18454,7 +18472,7 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ83">
         <v>1.21</v>
@@ -18788,7 +18806,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q85">
         <v>2</v>
@@ -18869,7 +18887,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ85">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR85">
         <v>1.86</v>
@@ -18994,7 +19012,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -19072,7 +19090,7 @@
         <v>3</v>
       </c>
       <c r="AP86">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ86">
         <v>2.07</v>
@@ -19281,7 +19299,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ87">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR87">
         <v>1.6</v>
@@ -19406,7 +19424,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q88">
         <v>4.33</v>
@@ -19484,7 +19502,7 @@
         <v>1.2</v>
       </c>
       <c r="AP88">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ88">
         <v>1.86</v>
@@ -19612,7 +19630,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q89">
         <v>3.1</v>
@@ -19818,7 +19836,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19896,7 +19914,7 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ90">
         <v>1.21</v>
@@ -20230,7 +20248,7 @@
         <v>86</v>
       </c>
       <c r="P92" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q92">
         <v>2.5</v>
@@ -20311,7 +20329,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ92">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR92">
         <v>1.32</v>
@@ -20436,7 +20454,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20642,7 +20660,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20848,7 +20866,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q95">
         <v>2.6</v>
@@ -21260,7 +21278,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q97">
         <v>3.2</v>
@@ -21547,7 +21565,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ98">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR98">
         <v>1.62</v>
@@ -21672,7 +21690,7 @@
         <v>142</v>
       </c>
       <c r="P99" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21750,10 +21768,10 @@
         <v>2</v>
       </c>
       <c r="AP99">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ99">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR99">
         <v>1.1</v>
@@ -21878,7 +21896,7 @@
         <v>86</v>
       </c>
       <c r="P100" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q100">
         <v>3.2</v>
@@ -22084,7 +22102,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -22162,7 +22180,7 @@
         <v>0.67</v>
       </c>
       <c r="AP101">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ101">
         <v>1.07</v>
@@ -22368,10 +22386,10 @@
         <v>2</v>
       </c>
       <c r="AP102">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ102">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR102">
         <v>1.18</v>
@@ -22496,7 +22514,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q103">
         <v>4.5</v>
@@ -22574,7 +22592,7 @@
         <v>2.17</v>
       </c>
       <c r="AP103">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ103">
         <v>2.21</v>
@@ -22702,7 +22720,7 @@
         <v>152</v>
       </c>
       <c r="P104" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -22989,7 +23007,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ105">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR105">
         <v>1.61</v>
@@ -23114,7 +23132,7 @@
         <v>86</v>
       </c>
       <c r="P106" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23320,7 +23338,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23526,7 +23544,7 @@
         <v>153</v>
       </c>
       <c r="P108" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q108">
         <v>2.88</v>
@@ -23732,7 +23750,7 @@
         <v>86</v>
       </c>
       <c r="P109" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q109">
         <v>3.2</v>
@@ -24840,7 +24858,7 @@
         <v>2.5</v>
       </c>
       <c r="AP114">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ114">
         <v>2.07</v>
@@ -25049,7 +25067,7 @@
         <v>1</v>
       </c>
       <c r="AQ115">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR115">
         <v>1.28</v>
@@ -25174,7 +25192,7 @@
         <v>157</v>
       </c>
       <c r="P116" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q116">
         <v>3.5</v>
@@ -25252,10 +25270,10 @@
         <v>1.14</v>
       </c>
       <c r="AP116">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ116">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR116">
         <v>1.11</v>
@@ -25458,10 +25476,10 @@
         <v>0.57</v>
       </c>
       <c r="AP117">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ117">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR117">
         <v>1.34</v>
@@ -25664,7 +25682,7 @@
         <v>2.29</v>
       </c>
       <c r="AP118">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ118">
         <v>2.21</v>
@@ -25792,7 +25810,7 @@
         <v>152</v>
       </c>
       <c r="P119" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q119">
         <v>2.63</v>
@@ -25873,7 +25891,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ119">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR119">
         <v>1.62</v>
@@ -26076,7 +26094,7 @@
         <v>1</v>
       </c>
       <c r="AP120">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ120">
         <v>1.07</v>
@@ -26285,7 +26303,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ121">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR121">
         <v>1.76</v>
@@ -26410,7 +26428,7 @@
         <v>86</v>
       </c>
       <c r="P122" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -26822,7 +26840,7 @@
         <v>161</v>
       </c>
       <c r="P124" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q124">
         <v>2.38</v>
@@ -26900,7 +26918,7 @@
         <v>1</v>
       </c>
       <c r="AP124">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ124">
         <v>1.07</v>
@@ -27028,7 +27046,7 @@
         <v>162</v>
       </c>
       <c r="P125" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -27106,7 +27124,7 @@
         <v>1.86</v>
       </c>
       <c r="AP125">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ125">
         <v>1.69</v>
@@ -27234,7 +27252,7 @@
         <v>163</v>
       </c>
       <c r="P126" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -27440,7 +27458,7 @@
         <v>164</v>
       </c>
       <c r="P127" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27521,7 +27539,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ127">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR127">
         <v>1.44</v>
@@ -27646,7 +27664,7 @@
         <v>165</v>
       </c>
       <c r="P128" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q128">
         <v>2.75</v>
@@ -27852,7 +27870,7 @@
         <v>166</v>
       </c>
       <c r="P129" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q129">
         <v>1.95</v>
@@ -28058,7 +28076,7 @@
         <v>86</v>
       </c>
       <c r="P130" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q130">
         <v>3.4</v>
@@ -28342,10 +28360,10 @@
         <v>1.57</v>
       </c>
       <c r="AP131">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ131">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR131">
         <v>1.14</v>
@@ -28470,7 +28488,7 @@
         <v>153</v>
       </c>
       <c r="P132" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28551,7 +28569,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ132">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR132">
         <v>1.23</v>
@@ -28676,7 +28694,7 @@
         <v>168</v>
       </c>
       <c r="P133" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q133">
         <v>2.5</v>
@@ -28963,7 +28981,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ134">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR134">
         <v>1.56</v>
@@ -29166,10 +29184,10 @@
         <v>1.38</v>
       </c>
       <c r="AP135">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ135">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR135">
         <v>1.26</v>
@@ -29372,7 +29390,7 @@
         <v>2.38</v>
       </c>
       <c r="AP136">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ136">
         <v>2.21</v>
@@ -29912,7 +29930,7 @@
         <v>171</v>
       </c>
       <c r="P139" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q139">
         <v>4.8</v>
@@ -30199,7 +30217,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ140">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR140">
         <v>1.92</v>
@@ -30324,7 +30342,7 @@
         <v>173</v>
       </c>
       <c r="P141" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -30402,7 +30420,7 @@
         <v>1.38</v>
       </c>
       <c r="AP141">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ141">
         <v>1.21</v>
@@ -30608,7 +30626,7 @@
         <v>0.5</v>
       </c>
       <c r="AP142">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ142">
         <v>0.71</v>
@@ -31354,7 +31372,7 @@
         <v>178</v>
       </c>
       <c r="P146" t="s">
-        <v>312</v>
+        <v>243</v>
       </c>
       <c r="Q146">
         <v>2.5</v>
@@ -31432,10 +31450,10 @@
         <v>0.44</v>
       </c>
       <c r="AP146">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ146">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR146">
         <v>1.16</v>
@@ -31560,7 +31578,7 @@
         <v>179</v>
       </c>
       <c r="P147" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q147">
         <v>2.36</v>
@@ -31638,10 +31656,10 @@
         <v>1.56</v>
       </c>
       <c r="AP147">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ147">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR147">
         <v>1.42</v>
@@ -31847,7 +31865,7 @@
         <v>1</v>
       </c>
       <c r="AQ148">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR148">
         <v>1.35</v>
@@ -31972,7 +31990,7 @@
         <v>181</v>
       </c>
       <c r="P149" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q149">
         <v>2.1</v>
@@ -32178,7 +32196,7 @@
         <v>182</v>
       </c>
       <c r="P150" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q150">
         <v>2.63</v>
@@ -32256,10 +32274,10 @@
         <v>1.38</v>
       </c>
       <c r="AP150">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ150">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR150">
         <v>1.28</v>
@@ -32796,7 +32814,7 @@
         <v>185</v>
       </c>
       <c r="P153" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q153">
         <v>2.88</v>
@@ -32877,7 +32895,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ153">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR153">
         <v>1.72</v>
@@ -33002,7 +33020,7 @@
         <v>86</v>
       </c>
       <c r="P154" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q154">
         <v>3.75</v>
@@ -33208,7 +33226,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q155">
         <v>3.6</v>
@@ -33286,7 +33304,7 @@
         <v>0.44</v>
       </c>
       <c r="AP155">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ155">
         <v>0.71</v>
@@ -33495,7 +33513,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ156">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR156">
         <v>1.35</v>
@@ -33698,7 +33716,7 @@
         <v>1.63</v>
       </c>
       <c r="AP157">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ157">
         <v>1.69</v>
@@ -33826,7 +33844,7 @@
         <v>188</v>
       </c>
       <c r="P158" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q158">
         <v>2.4</v>
@@ -33904,7 +33922,7 @@
         <v>1.78</v>
       </c>
       <c r="AP158">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ158">
         <v>1.5</v>
@@ -34113,7 +34131,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ159">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR159">
         <v>1.42</v>
@@ -34444,7 +34462,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -34525,7 +34543,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ161">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR161">
         <v>1.26</v>
@@ -34650,7 +34668,7 @@
         <v>192</v>
       </c>
       <c r="P162" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q162">
         <v>3.2</v>
@@ -34934,7 +34952,7 @@
         <v>1.3</v>
       </c>
       <c r="AP163">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ163">
         <v>1.21</v>
@@ -35474,7 +35492,7 @@
         <v>195</v>
       </c>
       <c r="P166" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q166">
         <v>2.88</v>
@@ -35555,7 +35573,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ166">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR166">
         <v>1.64</v>
@@ -35964,7 +35982,7 @@
         <v>0.67</v>
       </c>
       <c r="AP168">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ168">
         <v>0.79</v>
@@ -36092,7 +36110,7 @@
         <v>198</v>
       </c>
       <c r="P169" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q169">
         <v>2.88</v>
@@ -36504,7 +36522,7 @@
         <v>200</v>
       </c>
       <c r="P171" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q171">
         <v>2.5</v>
@@ -36585,7 +36603,7 @@
         <v>2</v>
       </c>
       <c r="AQ171">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR171">
         <v>1.38</v>
@@ -36791,7 +36809,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ172">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR172">
         <v>1.46</v>
@@ -36916,7 +36934,7 @@
         <v>86</v>
       </c>
       <c r="P173" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q173">
         <v>3.1</v>
@@ -36994,10 +37012,10 @@
         <v>1.27</v>
       </c>
       <c r="AP173">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ173">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR173">
         <v>1.29</v>
@@ -37200,7 +37218,7 @@
         <v>1.44</v>
       </c>
       <c r="AP174">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ174">
         <v>1.69</v>
@@ -37328,7 +37346,7 @@
         <v>177</v>
       </c>
       <c r="P175" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q175">
         <v>5</v>
@@ -37612,7 +37630,7 @@
         <v>1.1</v>
       </c>
       <c r="AP176">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ176">
         <v>1.21</v>
@@ -37740,7 +37758,7 @@
         <v>86</v>
       </c>
       <c r="P177" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q177">
         <v>5.25</v>
@@ -37946,7 +37964,7 @@
         <v>203</v>
       </c>
       <c r="P178" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q178">
         <v>2.2</v>
@@ -38024,7 +38042,7 @@
         <v>1.3</v>
       </c>
       <c r="AP178">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ178">
         <v>0.93</v>
@@ -38358,7 +38376,7 @@
         <v>204</v>
       </c>
       <c r="P180" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q180">
         <v>4.2</v>
@@ -38436,7 +38454,7 @@
         <v>1.82</v>
       </c>
       <c r="AP180">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ180">
         <v>1.86</v>
@@ -38522,7 +38540,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>7484712</v>
+        <v>7484713</v>
       </c>
       <c r="C181" t="s">
         <v>68</v>
@@ -38537,25 +38555,25 @@
         <v>23</v>
       </c>
       <c r="G181" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H181" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K181">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N181">
         <v>2</v>
@@ -38564,133 +38582,133 @@
         <v>205</v>
       </c>
       <c r="P181" t="s">
-        <v>86</v>
+        <v>256</v>
       </c>
       <c r="Q181">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="R181">
+        <v>2.25</v>
+      </c>
+      <c r="S181">
+        <v>4.33</v>
+      </c>
+      <c r="T181">
+        <v>1.3</v>
+      </c>
+      <c r="U181">
+        <v>3.25</v>
+      </c>
+      <c r="V181">
+        <v>2.35</v>
+      </c>
+      <c r="W181">
+        <v>1.52</v>
+      </c>
+      <c r="X181">
+        <v>5.5</v>
+      </c>
+      <c r="Y181">
+        <v>1.13</v>
+      </c>
+      <c r="Z181">
+        <v>1.89</v>
+      </c>
+      <c r="AA181">
+        <v>3.5</v>
+      </c>
+      <c r="AB181">
+        <v>3.25</v>
+      </c>
+      <c r="AC181">
+        <v>1.03</v>
+      </c>
+      <c r="AD181">
+        <v>12</v>
+      </c>
+      <c r="AE181">
+        <v>1.2</v>
+      </c>
+      <c r="AF181">
+        <v>4.15</v>
+      </c>
+      <c r="AG181">
+        <v>1.68</v>
+      </c>
+      <c r="AH181">
         <v>2.2</v>
       </c>
-      <c r="S181">
-        <v>3.1</v>
-      </c>
-      <c r="T181">
-        <v>1.36</v>
-      </c>
-      <c r="U181">
-        <v>2.9</v>
-      </c>
-      <c r="V181">
-        <v>2.36</v>
-      </c>
-      <c r="W181">
-        <v>1.5</v>
-      </c>
-      <c r="X181">
-        <v>5.75</v>
-      </c>
-      <c r="Y181">
-        <v>1.12</v>
-      </c>
-      <c r="Z181">
-        <v>2.15</v>
-      </c>
-      <c r="AA181">
-        <v>3.45</v>
-      </c>
-      <c r="AB181">
-        <v>3.15</v>
-      </c>
-      <c r="AC181">
-        <v>1.01</v>
-      </c>
-      <c r="AD181">
-        <v>11</v>
-      </c>
-      <c r="AE181">
+      <c r="AI181">
+        <v>1.61</v>
+      </c>
+      <c r="AJ181">
+        <v>2.2</v>
+      </c>
+      <c r="AK181">
+        <v>1.29</v>
+      </c>
+      <c r="AL181">
+        <v>1.24</v>
+      </c>
+      <c r="AM181">
+        <v>1.95</v>
+      </c>
+      <c r="AN181">
+        <v>1.09</v>
+      </c>
+      <c r="AO181">
         <v>1.18</v>
       </c>
-      <c r="AF181">
+      <c r="AP181">
+        <v>1</v>
+      </c>
+      <c r="AQ181">
+        <v>1.21</v>
+      </c>
+      <c r="AR181">
+        <v>1.41</v>
+      </c>
+      <c r="AS181">
+        <v>1.51</v>
+      </c>
+      <c r="AT181">
+        <v>2.92</v>
+      </c>
+      <c r="AU181">
+        <v>8</v>
+      </c>
+      <c r="AV181">
+        <v>2</v>
+      </c>
+      <c r="AW181">
+        <v>17</v>
+      </c>
+      <c r="AX181">
         <v>4</v>
       </c>
-      <c r="AG181">
-        <v>1.57</v>
-      </c>
-      <c r="AH181">
-        <v>2.1</v>
-      </c>
-      <c r="AI181">
-        <v>1.52</v>
-      </c>
-      <c r="AJ181">
-        <v>2.45</v>
-      </c>
-      <c r="AK181">
-        <v>1.32</v>
-      </c>
-      <c r="AL181">
-        <v>1.27</v>
-      </c>
-      <c r="AM181">
-        <v>1.74</v>
-      </c>
-      <c r="AN181">
-        <v>1.36</v>
-      </c>
-      <c r="AO181">
-        <v>1.55</v>
-      </c>
-      <c r="AP181">
-        <v>1.29</v>
-      </c>
-      <c r="AQ181">
-        <v>1.64</v>
-      </c>
-      <c r="AR181">
-        <v>1.56</v>
-      </c>
-      <c r="AS181">
-        <v>1.13</v>
-      </c>
-      <c r="AT181">
-        <v>2.69</v>
-      </c>
-      <c r="AU181">
-        <v>6</v>
-      </c>
-      <c r="AV181">
-        <v>3</v>
-      </c>
-      <c r="AW181">
-        <v>7</v>
-      </c>
-      <c r="AX181">
-        <v>9</v>
-      </c>
       <c r="AY181">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AZ181">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="BA181">
         <v>6</v>
       </c>
       <c r="BB181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC181">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD181">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="BE181">
-        <v>9.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="BF181">
-        <v>3.37</v>
+        <v>3.56</v>
       </c>
       <c r="BG181">
         <v>1.2</v>
@@ -38699,28 +38717,28 @@
         <v>3.82</v>
       </c>
       <c r="BI181">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="BJ181">
-        <v>2.84</v>
+        <v>2.7</v>
       </c>
       <c r="BK181">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="BL181">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="BM181">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="BN181">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="BO181">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="BP181">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="182" spans="1:68">
@@ -38728,7 +38746,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>7484713</v>
+        <v>7484716</v>
       </c>
       <c r="C182" t="s">
         <v>68</v>
@@ -38743,190 +38761,190 @@
         <v>23</v>
       </c>
       <c r="G182" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="H182" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I182">
         <v>1</v>
       </c>
       <c r="J182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K182">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N182">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O182" t="s">
         <v>206</v>
       </c>
       <c r="P182" t="s">
-        <v>251</v>
+        <v>329</v>
       </c>
       <c r="Q182">
+        <v>3.45</v>
+      </c>
+      <c r="R182">
         <v>2.3</v>
       </c>
-      <c r="R182">
-        <v>2.25</v>
-      </c>
       <c r="S182">
-        <v>4.33</v>
+        <v>2.78</v>
       </c>
       <c r="T182">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="U182">
+        <v>2.95</v>
+      </c>
+      <c r="V182">
+        <v>2.55</v>
+      </c>
+      <c r="W182">
+        <v>1.47</v>
+      </c>
+      <c r="X182">
+        <v>6.5</v>
+      </c>
+      <c r="Y182">
+        <v>1.1</v>
+      </c>
+      <c r="Z182">
+        <v>2.95</v>
+      </c>
+      <c r="AA182">
         <v>3.25</v>
       </c>
-      <c r="V182">
-        <v>2.35</v>
-      </c>
-      <c r="W182">
-        <v>1.52</v>
-      </c>
-      <c r="X182">
-        <v>5.5</v>
-      </c>
-      <c r="Y182">
-        <v>1.13</v>
-      </c>
-      <c r="Z182">
-        <v>1.89</v>
-      </c>
-      <c r="AA182">
-        <v>3.5</v>
-      </c>
       <c r="AB182">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="AC182">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AD182">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE182">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="AF182">
-        <v>4.15</v>
+        <v>3.6</v>
       </c>
       <c r="AG182">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="AH182">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="AI182">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="AJ182">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="AK182">
         <v>1.29</v>
       </c>
       <c r="AL182">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="AM182">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="AN182">
-        <v>1.09</v>
+        <v>0.6</v>
       </c>
       <c r="AO182">
-        <v>1.18</v>
+        <v>0.73</v>
       </c>
       <c r="AP182">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AQ182">
-        <v>1.21</v>
+        <v>1.07</v>
       </c>
       <c r="AR182">
         <v>1.41</v>
       </c>
       <c r="AS182">
-        <v>1.51</v>
+        <v>1.15</v>
       </c>
       <c r="AT182">
-        <v>2.92</v>
+        <v>2.56</v>
       </c>
       <c r="AU182">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AV182">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW182">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="AX182">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY182">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="AZ182">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA182">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BB182">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC182">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BD182">
-        <v>1.4</v>
+        <v>2.39</v>
       </c>
       <c r="BE182">
-        <v>7.4</v>
+        <v>6.35</v>
       </c>
       <c r="BF182">
-        <v>3.56</v>
+        <v>1.87</v>
       </c>
       <c r="BG182">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="BH182">
-        <v>3.82</v>
+        <v>3.12</v>
       </c>
       <c r="BI182">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="BJ182">
-        <v>2.7</v>
+        <v>2.28</v>
       </c>
       <c r="BK182">
-        <v>1.89</v>
+        <v>2.24</v>
       </c>
       <c r="BL182">
-        <v>2.04</v>
+        <v>1.78</v>
       </c>
       <c r="BM182">
-        <v>2.1</v>
+        <v>2.51</v>
       </c>
       <c r="BN182">
-        <v>1.65</v>
+        <v>1.44</v>
       </c>
       <c r="BO182">
-        <v>2.75</v>
+        <v>3.34</v>
       </c>
       <c r="BP182">
-        <v>1.37</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="183" spans="1:68">
@@ -38934,7 +38952,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>7484716</v>
+        <v>7484712</v>
       </c>
       <c r="C183" t="s">
         <v>68</v>
@@ -38949,190 +38967,190 @@
         <v>23</v>
       </c>
       <c r="G183" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="H183" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J183">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K183">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L183">
         <v>2</v>
       </c>
       <c r="M183">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N183">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O183" t="s">
         <v>207</v>
       </c>
       <c r="P183" t="s">
-        <v>325</v>
+        <v>86</v>
       </c>
       <c r="Q183">
+        <v>2.55</v>
+      </c>
+      <c r="R183">
+        <v>2.2</v>
+      </c>
+      <c r="S183">
+        <v>3.1</v>
+      </c>
+      <c r="T183">
+        <v>1.36</v>
+      </c>
+      <c r="U183">
+        <v>2.9</v>
+      </c>
+      <c r="V183">
+        <v>2.36</v>
+      </c>
+      <c r="W183">
+        <v>1.5</v>
+      </c>
+      <c r="X183">
+        <v>5.75</v>
+      </c>
+      <c r="Y183">
+        <v>1.12</v>
+      </c>
+      <c r="Z183">
+        <v>2.15</v>
+      </c>
+      <c r="AA183">
         <v>3.45</v>
       </c>
-      <c r="R183">
-        <v>2.3</v>
-      </c>
-      <c r="S183">
-        <v>2.78</v>
-      </c>
-      <c r="T183">
+      <c r="AB183">
+        <v>3.15</v>
+      </c>
+      <c r="AC183">
+        <v>1.01</v>
+      </c>
+      <c r="AD183">
+        <v>11</v>
+      </c>
+      <c r="AE183">
+        <v>1.18</v>
+      </c>
+      <c r="AF183">
+        <v>4</v>
+      </c>
+      <c r="AG183">
+        <v>1.57</v>
+      </c>
+      <c r="AH183">
+        <v>2.1</v>
+      </c>
+      <c r="AI183">
+        <v>1.52</v>
+      </c>
+      <c r="AJ183">
+        <v>2.45</v>
+      </c>
+      <c r="AK183">
+        <v>1.32</v>
+      </c>
+      <c r="AL183">
+        <v>1.27</v>
+      </c>
+      <c r="AM183">
+        <v>1.74</v>
+      </c>
+      <c r="AN183">
+        <v>1.36</v>
+      </c>
+      <c r="AO183">
+        <v>1.55</v>
+      </c>
+      <c r="AP183">
+        <v>1.29</v>
+      </c>
+      <c r="AQ183">
+        <v>1.53</v>
+      </c>
+      <c r="AR183">
+        <v>1.56</v>
+      </c>
+      <c r="AS183">
+        <v>1.13</v>
+      </c>
+      <c r="AT183">
+        <v>2.69</v>
+      </c>
+      <c r="AU183">
+        <v>6</v>
+      </c>
+      <c r="AV183">
+        <v>3</v>
+      </c>
+      <c r="AW183">
+        <v>7</v>
+      </c>
+      <c r="AX183">
+        <v>9</v>
+      </c>
+      <c r="AY183">
+        <v>17</v>
+      </c>
+      <c r="AZ183">
+        <v>14</v>
+      </c>
+      <c r="BA183">
+        <v>6</v>
+      </c>
+      <c r="BB183">
+        <v>0</v>
+      </c>
+      <c r="BC183">
+        <v>6</v>
+      </c>
+      <c r="BD183">
+        <v>1.45</v>
+      </c>
+      <c r="BE183">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF183">
+        <v>3.37</v>
+      </c>
+      <c r="BG183">
+        <v>1.2</v>
+      </c>
+      <c r="BH183">
+        <v>3.82</v>
+      </c>
+      <c r="BI183">
         <v>1.35</v>
       </c>
-      <c r="U183">
-        <v>2.95</v>
-      </c>
-      <c r="V183">
-        <v>2.55</v>
-      </c>
-      <c r="W183">
-        <v>1.47</v>
-      </c>
-      <c r="X183">
-        <v>6.5</v>
-      </c>
-      <c r="Y183">
-        <v>1.1</v>
-      </c>
-      <c r="Z183">
-        <v>2.95</v>
-      </c>
-      <c r="AA183">
-        <v>3.25</v>
-      </c>
-      <c r="AB183">
-        <v>2.1</v>
-      </c>
-      <c r="AC183">
-        <v>1.04</v>
-      </c>
-      <c r="AD183">
-        <v>10</v>
-      </c>
-      <c r="AE183">
-        <v>1.26</v>
-      </c>
-      <c r="AF183">
-        <v>3.6</v>
-      </c>
-      <c r="AG183">
-        <v>1.78</v>
-      </c>
-      <c r="AH183">
-        <v>2.04</v>
-      </c>
-      <c r="AI183">
-        <v>1.66</v>
-      </c>
-      <c r="AJ183">
-        <v>2.05</v>
-      </c>
-      <c r="AK183">
-        <v>1.29</v>
-      </c>
-      <c r="AL183">
-        <v>1.28</v>
-      </c>
-      <c r="AM183">
-        <v>1.4</v>
-      </c>
-      <c r="AN183">
-        <v>0.6</v>
-      </c>
-      <c r="AO183">
-        <v>0.73</v>
-      </c>
-      <c r="AP183">
-        <v>0.71</v>
-      </c>
-      <c r="AQ183">
-        <v>1.07</v>
-      </c>
-      <c r="AR183">
-        <v>1.41</v>
-      </c>
-      <c r="AS183">
-        <v>1.15</v>
-      </c>
-      <c r="AT183">
-        <v>2.56</v>
-      </c>
-      <c r="AU183">
-        <v>4</v>
-      </c>
-      <c r="AV183">
-        <v>6</v>
-      </c>
-      <c r="AW183">
-        <v>6</v>
-      </c>
-      <c r="AX183">
-        <v>3</v>
-      </c>
-      <c r="AY183">
-        <v>13</v>
-      </c>
-      <c r="AZ183">
-        <v>10</v>
-      </c>
-      <c r="BA183">
-        <v>0</v>
-      </c>
-      <c r="BB183">
-        <v>3</v>
-      </c>
-      <c r="BC183">
-        <v>3</v>
-      </c>
-      <c r="BD183">
-        <v>2.39</v>
-      </c>
-      <c r="BE183">
-        <v>6.35</v>
-      </c>
-      <c r="BF183">
-        <v>1.87</v>
-      </c>
-      <c r="BG183">
-        <v>1.32</v>
-      </c>
-      <c r="BH183">
-        <v>3.12</v>
-      </c>
-      <c r="BI183">
-        <v>1.53</v>
-      </c>
       <c r="BJ183">
-        <v>2.28</v>
+        <v>2.84</v>
       </c>
       <c r="BK183">
-        <v>2.24</v>
+        <v>1.85</v>
       </c>
       <c r="BL183">
-        <v>1.78</v>
+        <v>2.14</v>
       </c>
       <c r="BM183">
-        <v>2.51</v>
+        <v>2.02</v>
       </c>
       <c r="BN183">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="BO183">
-        <v>3.34</v>
+        <v>2.62</v>
       </c>
       <c r="BP183">
-        <v>1.24</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="184" spans="1:68">
@@ -39388,7 +39406,7 @@
         <v>208</v>
       </c>
       <c r="P185" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q185">
         <v>3.6</v>
@@ -39594,7 +39612,7 @@
         <v>209</v>
       </c>
       <c r="P186" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q186">
         <v>2.7</v>
@@ -39672,7 +39690,7 @@
         <v>1.18</v>
       </c>
       <c r="AP186">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ186">
         <v>0.93</v>
@@ -39881,7 +39899,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ187">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR187">
         <v>1.27</v>
@@ -40006,7 +40024,7 @@
         <v>152</v>
       </c>
       <c r="P188" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q188">
         <v>3</v>
@@ -40212,7 +40230,7 @@
         <v>211</v>
       </c>
       <c r="P189" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q189">
         <v>2.87</v>
@@ -40293,7 +40311,7 @@
         <v>2</v>
       </c>
       <c r="AQ189">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR189">
         <v>1.4</v>
@@ -40418,7 +40436,7 @@
         <v>212</v>
       </c>
       <c r="P190" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q190">
         <v>3.4</v>
@@ -40496,7 +40514,7 @@
         <v>2.33</v>
       </c>
       <c r="AP190">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ190">
         <v>2.21</v>
@@ -40624,7 +40642,7 @@
         <v>213</v>
       </c>
       <c r="P191" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q191">
         <v>2.2</v>
@@ -41036,7 +41054,7 @@
         <v>214</v>
       </c>
       <c r="P193" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q193">
         <v>3.8</v>
@@ -41242,7 +41260,7 @@
         <v>86</v>
       </c>
       <c r="P194" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q194">
         <v>2.98</v>
@@ -41323,7 +41341,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ194">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR194">
         <v>1.71</v>
@@ -41529,7 +41547,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ195">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR195">
         <v>1.46</v>
@@ -41654,7 +41672,7 @@
         <v>216</v>
       </c>
       <c r="P196" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q196">
         <v>2.58</v>
@@ -41860,7 +41878,7 @@
         <v>217</v>
       </c>
       <c r="P197" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -42066,7 +42084,7 @@
         <v>218</v>
       </c>
       <c r="P198" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q198">
         <v>1.75</v>
@@ -42144,10 +42162,10 @@
         <v>0.42</v>
       </c>
       <c r="AP198">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ198">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR198">
         <v>1.29</v>
@@ -42272,7 +42290,7 @@
         <v>219</v>
       </c>
       <c r="P199" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q199">
         <v>3</v>
@@ -42350,7 +42368,7 @@
         <v>0.64</v>
       </c>
       <c r="AP199">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ199">
         <v>0.79</v>
@@ -42436,7 +42454,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>7484742</v>
+        <v>7484745</v>
       </c>
       <c r="C200" t="s">
         <v>68</v>
@@ -42451,25 +42469,25 @@
         <v>26</v>
       </c>
       <c r="G200" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H200" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I200">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K200">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L200">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M200">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N200">
         <v>5</v>
@@ -42478,70 +42496,70 @@
         <v>220</v>
       </c>
       <c r="P200" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="Q200">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="R200">
-        <v>2.56</v>
+        <v>2.65</v>
       </c>
       <c r="S200">
-        <v>5.25</v>
+        <v>7</v>
       </c>
       <c r="T200">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U200">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="V200">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="W200">
-        <v>1.66</v>
+        <v>1.58</v>
       </c>
       <c r="X200">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="Y200">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="Z200">
-        <v>1.51</v>
+        <v>1.76</v>
       </c>
       <c r="AA200">
-        <v>4.1</v>
+        <v>3.53</v>
       </c>
       <c r="AB200">
-        <v>6.2</v>
+        <v>4.6</v>
       </c>
       <c r="AC200">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AD200">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AE200">
-        <v>1.09</v>
+        <v>1.17</v>
       </c>
       <c r="AF200">
-        <v>5.8</v>
+        <v>4.75</v>
       </c>
       <c r="AG200">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="AH200">
+        <v>2.05</v>
+      </c>
+      <c r="AI200">
         <v>1.79</v>
       </c>
-      <c r="AI200">
-        <v>1.57</v>
-      </c>
       <c r="AJ200">
-        <v>2.15</v>
+        <v>1.93</v>
       </c>
       <c r="AK200">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="AL200">
         <v>0</v>
@@ -42550,91 +42568,91 @@
         <v>2.65</v>
       </c>
       <c r="AN200">
-        <v>1.42</v>
+        <v>2.25</v>
       </c>
       <c r="AO200">
-        <v>0.83</v>
+        <v>1.17</v>
       </c>
       <c r="AP200">
-        <v>1.64</v>
+        <v>2.14</v>
       </c>
       <c r="AQ200">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="AR200">
-        <v>1.57</v>
+        <v>1.43</v>
       </c>
       <c r="AS200">
-        <v>1</v>
+        <v>1.46</v>
       </c>
       <c r="AT200">
-        <v>2.57</v>
+        <v>2.89</v>
       </c>
       <c r="AU200">
+        <v>10</v>
+      </c>
+      <c r="AV200">
+        <v>6</v>
+      </c>
+      <c r="AW200">
         <v>9</v>
       </c>
-      <c r="AV200">
-        <v>5</v>
-      </c>
-      <c r="AW200">
-        <v>13</v>
-      </c>
       <c r="AX200">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY200">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ200">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA200">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BB200">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC200">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="BD200">
         <v>1.32</v>
       </c>
       <c r="BE200">
-        <v>10</v>
+        <v>7.7</v>
       </c>
       <c r="BF200">
-        <v>4.61</v>
+        <v>4.5</v>
       </c>
       <c r="BG200">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="BH200">
-        <v>3.68</v>
+        <v>3.22</v>
       </c>
       <c r="BI200">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="BJ200">
-        <v>2.65</v>
+        <v>2.36</v>
       </c>
       <c r="BK200">
-        <v>1.89</v>
+        <v>2.14</v>
       </c>
       <c r="BL200">
-        <v>2.08</v>
+        <v>1.91</v>
       </c>
       <c r="BM200">
-        <v>2.11</v>
+        <v>2.4</v>
       </c>
       <c r="BN200">
-        <v>1.68</v>
+        <v>1.52</v>
       </c>
       <c r="BO200">
-        <v>2.65</v>
+        <v>3.28</v>
       </c>
       <c r="BP200">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="201" spans="1:68">
@@ -42642,7 +42660,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>7484738</v>
+        <v>7484742</v>
       </c>
       <c r="C201" t="s">
         <v>68</v>
@@ -42657,190 +42675,190 @@
         <v>26</v>
       </c>
       <c r="G201" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H201" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I201">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K201">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L201">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M201">
         <v>1</v>
       </c>
       <c r="N201">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O201" t="s">
         <v>221</v>
       </c>
       <c r="P201" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="Q201">
-        <v>3.2</v>
+        <v>1.92</v>
       </c>
       <c r="R201">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="S201">
-        <v>2.45</v>
+        <v>5.25</v>
       </c>
       <c r="T201">
-        <v>1.16</v>
+        <v>1.22</v>
       </c>
       <c r="U201">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="V201">
-        <v>1.91</v>
+        <v>2.22</v>
       </c>
       <c r="W201">
-        <v>1.85</v>
+        <v>1.66</v>
       </c>
       <c r="X201">
-        <v>4.35</v>
+        <v>4.33</v>
       </c>
       <c r="Y201">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="Z201">
-        <v>3.85</v>
+        <v>1.51</v>
       </c>
       <c r="AA201">
         <v>4.1</v>
       </c>
       <c r="AB201">
-        <v>1.76</v>
+        <v>6.2</v>
       </c>
       <c r="AC201">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="AD201">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE201">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="AF201">
-        <v>6.55</v>
+        <v>5.8</v>
       </c>
       <c r="AG201">
-        <v>1.45</v>
+        <v>1.95</v>
       </c>
       <c r="AH201">
-        <v>2.56</v>
+        <v>1.79</v>
       </c>
       <c r="AI201">
-        <v>1.31</v>
+        <v>1.57</v>
       </c>
       <c r="AJ201">
+        <v>2.15</v>
+      </c>
+      <c r="AK201">
+        <v>1.13</v>
+      </c>
+      <c r="AL201">
+        <v>0</v>
+      </c>
+      <c r="AM201">
+        <v>2.65</v>
+      </c>
+      <c r="AN201">
+        <v>1.42</v>
+      </c>
+      <c r="AO201">
+        <v>0.83</v>
+      </c>
+      <c r="AP201">
+        <v>1.73</v>
+      </c>
+      <c r="AQ201">
+        <v>0.79</v>
+      </c>
+      <c r="AR201">
+        <v>1.57</v>
+      </c>
+      <c r="AS201">
+        <v>1</v>
+      </c>
+      <c r="AT201">
+        <v>2.57</v>
+      </c>
+      <c r="AU201">
+        <v>9</v>
+      </c>
+      <c r="AV201">
+        <v>5</v>
+      </c>
+      <c r="AW201">
+        <v>13</v>
+      </c>
+      <c r="AX201">
         <v>3</v>
       </c>
-      <c r="AK201">
-        <v>1.22</v>
-      </c>
-      <c r="AL201">
-        <v>0</v>
-      </c>
-      <c r="AM201">
-        <v>1.35</v>
-      </c>
-      <c r="AN201">
-        <v>0.58</v>
-      </c>
-      <c r="AO201">
-        <v>1</v>
-      </c>
-      <c r="AP201">
-        <v>0.71</v>
-      </c>
-      <c r="AQ201">
-        <v>1.07</v>
-      </c>
-      <c r="AR201">
-        <v>1.39</v>
-      </c>
-      <c r="AS201">
-        <v>1.46</v>
-      </c>
-      <c r="AT201">
-        <v>2.85</v>
-      </c>
-      <c r="AU201">
-        <v>5</v>
-      </c>
-      <c r="AV201">
-        <v>2</v>
-      </c>
-      <c r="AW201">
-        <v>3</v>
-      </c>
-      <c r="AX201">
-        <v>6</v>
-      </c>
       <c r="AY201">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="AZ201">
         <v>8</v>
       </c>
       <c r="BA201">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="BB201">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC201">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="BD201">
-        <v>2.38</v>
+        <v>1.32</v>
       </c>
       <c r="BE201">
-        <v>6.9</v>
+        <v>10</v>
       </c>
       <c r="BF201">
-        <v>1.87</v>
+        <v>4.61</v>
       </c>
       <c r="BG201">
         <v>1.19</v>
       </c>
       <c r="BH201">
-        <v>3.95</v>
+        <v>3.68</v>
       </c>
       <c r="BI201">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="BJ201">
-        <v>2.88</v>
+        <v>2.65</v>
       </c>
       <c r="BK201">
-        <v>1.7</v>
+        <v>1.89</v>
       </c>
       <c r="BL201">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="BM201">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="BN201">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="BO201">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="BP201">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="202" spans="1:68">
@@ -42848,7 +42866,7 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>7484745</v>
+        <v>7484738</v>
       </c>
       <c r="C202" t="s">
         <v>68</v>
@@ -42863,190 +42881,190 @@
         <v>26</v>
       </c>
       <c r="G202" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H202" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="I202">
         <v>1</v>
       </c>
       <c r="J202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K202">
+        <v>2</v>
+      </c>
+      <c r="L202">
         <v>3</v>
       </c>
-      <c r="L202">
-        <v>2</v>
-      </c>
       <c r="M202">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N202">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O202" t="s">
         <v>222</v>
       </c>
       <c r="P202" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q202">
-        <v>1.77</v>
+        <v>3.2</v>
       </c>
       <c r="R202">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="S202">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="T202">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="U202">
-        <v>3.6</v>
+        <v>4.35</v>
       </c>
       <c r="V202">
-        <v>2.27</v>
+        <v>1.91</v>
       </c>
       <c r="W202">
-        <v>1.58</v>
+        <v>1.85</v>
       </c>
       <c r="X202">
-        <v>5</v>
+        <v>4.35</v>
       </c>
       <c r="Y202">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="Z202">
+        <v>3.85</v>
+      </c>
+      <c r="AA202">
+        <v>4.1</v>
+      </c>
+      <c r="AB202">
         <v>1.76</v>
       </c>
-      <c r="AA202">
-        <v>3.53</v>
-      </c>
-      <c r="AB202">
-        <v>4.6</v>
-      </c>
       <c r="AC202">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="AD202">
-        <v>14.5</v>
+        <v>10</v>
       </c>
       <c r="AE202">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AF202">
-        <v>4.75</v>
+        <v>6.55</v>
       </c>
       <c r="AG202">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="AH202">
-        <v>2.05</v>
+        <v>2.56</v>
       </c>
       <c r="AI202">
-        <v>1.79</v>
+        <v>1.31</v>
       </c>
       <c r="AJ202">
-        <v>1.93</v>
+        <v>3</v>
       </c>
       <c r="AK202">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="AL202">
         <v>0</v>
       </c>
       <c r="AM202">
-        <v>2.65</v>
+        <v>1.35</v>
       </c>
       <c r="AN202">
-        <v>2.25</v>
+        <v>0.58</v>
       </c>
       <c r="AO202">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AP202">
-        <v>2.14</v>
+        <v>0.71</v>
       </c>
       <c r="AQ202">
-        <v>1.21</v>
+        <v>1</v>
       </c>
       <c r="AR202">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="AS202">
         <v>1.46</v>
       </c>
       <c r="AT202">
-        <v>2.89</v>
+        <v>2.85</v>
       </c>
       <c r="AU202">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AV202">
+        <v>2</v>
+      </c>
+      <c r="AW202">
+        <v>3</v>
+      </c>
+      <c r="AX202">
         <v>6</v>
       </c>
-      <c r="AW202">
-        <v>9</v>
-      </c>
-      <c r="AX202">
-        <v>2</v>
-      </c>
       <c r="AY202">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="AZ202">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA202">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BB202">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BC202">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BD202">
-        <v>1.32</v>
+        <v>2.38</v>
       </c>
       <c r="BE202">
-        <v>7.7</v>
+        <v>6.9</v>
       </c>
       <c r="BF202">
-        <v>4.5</v>
+        <v>1.87</v>
       </c>
       <c r="BG202">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="BH202">
-        <v>3.22</v>
+        <v>3.95</v>
       </c>
       <c r="BI202">
-        <v>1.52</v>
+        <v>1.38</v>
       </c>
       <c r="BJ202">
-        <v>2.36</v>
+        <v>2.88</v>
       </c>
       <c r="BK202">
-        <v>2.14</v>
+        <v>1.7</v>
       </c>
       <c r="BL202">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="BM202">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="BN202">
-        <v>1.52</v>
+        <v>1.76</v>
       </c>
       <c r="BO202">
-        <v>3.28</v>
+        <v>2.5</v>
       </c>
       <c r="BP202">
-        <v>1.25</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="203" spans="1:68">
@@ -43096,7 +43114,7 @@
         <v>86</v>
       </c>
       <c r="P203" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q203">
         <v>2.62</v>
@@ -43589,7 +43607,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ205">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR205">
         <v>1.3</v>
@@ -43714,7 +43732,7 @@
         <v>225</v>
       </c>
       <c r="P206" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q206">
         <v>5.19</v>
@@ -43920,7 +43938,7 @@
         <v>226</v>
       </c>
       <c r="P207" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q207">
         <v>4.3</v>
@@ -43998,7 +44016,7 @@
         <v>1.67</v>
       </c>
       <c r="AP207">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ207">
         <v>1.5</v>
@@ -44084,7 +44102,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>7484746</v>
+        <v>7484750</v>
       </c>
       <c r="C208" t="s">
         <v>68</v>
@@ -44099,190 +44117,190 @@
         <v>27</v>
       </c>
       <c r="G208" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H208" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="I208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J208">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L208">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N208">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O208" t="s">
         <v>227</v>
       </c>
       <c r="P208" t="s">
-        <v>342</v>
+        <v>101</v>
       </c>
       <c r="Q208">
-        <v>3.1</v>
+        <v>2.42</v>
       </c>
       <c r="R208">
-        <v>2.25</v>
+        <v>2.34</v>
       </c>
       <c r="S208">
-        <v>2.7</v>
+        <v>3.58</v>
       </c>
       <c r="T208">
+        <v>1.29</v>
+      </c>
+      <c r="U208">
+        <v>3.5</v>
+      </c>
+      <c r="V208">
+        <v>2.2</v>
+      </c>
+      <c r="W208">
+        <v>1.61</v>
+      </c>
+      <c r="X208">
+        <v>4.8</v>
+      </c>
+      <c r="Y208">
+        <v>1.16</v>
+      </c>
+      <c r="Z208">
+        <v>2.1</v>
+      </c>
+      <c r="AA208">
+        <v>3.67</v>
+      </c>
+      <c r="AB208">
+        <v>3.12</v>
+      </c>
+      <c r="AC208">
+        <v>1.02</v>
+      </c>
+      <c r="AD208">
+        <v>14</v>
+      </c>
+      <c r="AE208">
+        <v>1.09</v>
+      </c>
+      <c r="AF208">
+        <v>4.5</v>
+      </c>
+      <c r="AG208">
+        <v>1.5</v>
+      </c>
+      <c r="AH208">
+        <v>2.41</v>
+      </c>
+      <c r="AI208">
+        <v>1.4</v>
+      </c>
+      <c r="AJ208">
+        <v>2.6</v>
+      </c>
+      <c r="AK208">
         <v>1.25</v>
-      </c>
-      <c r="U208">
-        <v>3.2</v>
-      </c>
-      <c r="V208">
-        <v>2.4</v>
-      </c>
-      <c r="W208">
-        <v>1.5</v>
-      </c>
-      <c r="X208">
-        <v>5.5</v>
-      </c>
-      <c r="Y208">
-        <v>1.11</v>
-      </c>
-      <c r="Z208">
-        <v>2.74</v>
-      </c>
-      <c r="AA208">
-        <v>3.68</v>
-      </c>
-      <c r="AB208">
-        <v>2.31</v>
-      </c>
-      <c r="AC208">
-        <v>1.03</v>
-      </c>
-      <c r="AD208">
-        <v>12</v>
-      </c>
-      <c r="AE208">
-        <v>1.15</v>
-      </c>
-      <c r="AF208">
-        <v>4.1</v>
-      </c>
-      <c r="AG208">
-        <v>1.61</v>
-      </c>
-      <c r="AH208">
-        <v>2.1</v>
-      </c>
-      <c r="AI208">
-        <v>1.55</v>
-      </c>
-      <c r="AJ208">
-        <v>2.3</v>
-      </c>
-      <c r="AK208">
-        <v>1.64</v>
       </c>
       <c r="AL208">
         <v>1.25</v>
       </c>
       <c r="AM208">
-        <v>1.41</v>
+        <v>1.77</v>
       </c>
       <c r="AN208">
-        <v>1.38</v>
+        <v>0.77</v>
       </c>
       <c r="AO208">
-        <v>1.17</v>
+        <v>0.38</v>
       </c>
       <c r="AP208">
-        <v>1.29</v>
+        <v>1.07</v>
       </c>
       <c r="AQ208">
-        <v>1.21</v>
+        <v>0.33</v>
       </c>
       <c r="AR208">
-        <v>1.61</v>
+        <v>1.09</v>
       </c>
       <c r="AS208">
-        <v>1.57</v>
+        <v>1.42</v>
       </c>
       <c r="AT208">
-        <v>3.18</v>
+        <v>2.51</v>
       </c>
       <c r="AU208">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV208">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AW208">
+        <v>7</v>
+      </c>
+      <c r="AX208">
         <v>3</v>
       </c>
-      <c r="AX208">
+      <c r="AY208">
+        <v>15</v>
+      </c>
+      <c r="AZ208">
+        <v>8</v>
+      </c>
+      <c r="BA208">
+        <v>3</v>
+      </c>
+      <c r="BB208">
+        <v>3</v>
+      </c>
+      <c r="BC208">
         <v>6</v>
       </c>
-      <c r="AY208">
-        <v>6</v>
-      </c>
-      <c r="AZ208">
-        <v>18</v>
-      </c>
-      <c r="BA208">
-        <v>2</v>
-      </c>
-      <c r="BB208">
-        <v>9</v>
-      </c>
-      <c r="BC208">
-        <v>11</v>
-      </c>
       <c r="BD208">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="BE208">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BF208">
-        <v>2.16</v>
+        <v>2.23</v>
       </c>
       <c r="BG208">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="BH208">
-        <v>3.75</v>
+        <v>3.27</v>
       </c>
       <c r="BI208">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="BJ208">
-        <v>2.78</v>
+        <v>2.42</v>
       </c>
       <c r="BK208">
-        <v>1.69</v>
+        <v>2.07</v>
       </c>
       <c r="BL208">
-        <v>2.11</v>
+        <v>1.97</v>
       </c>
       <c r="BM208">
-        <v>2.07</v>
+        <v>2.28</v>
       </c>
       <c r="BN208">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="BO208">
-        <v>2.6</v>
+        <v>2.92</v>
       </c>
       <c r="BP208">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="209" spans="1:68">
@@ -44290,7 +44308,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>7484747</v>
+        <v>7484749</v>
       </c>
       <c r="C209" t="s">
         <v>68</v>
@@ -44305,190 +44323,190 @@
         <v>27</v>
       </c>
       <c r="G209" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H209" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I209">
         <v>0</v>
       </c>
       <c r="J209">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K209">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M209">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N209">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O209" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="P209" t="s">
-        <v>101</v>
+        <v>346</v>
       </c>
       <c r="Q209">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="R209">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="S209">
-        <v>3.3</v>
+        <v>2.28</v>
       </c>
       <c r="T209">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="U209">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="V209">
-        <v>2.47</v>
+        <v>1.91</v>
       </c>
       <c r="W209">
-        <v>1.44</v>
+        <v>1.96</v>
       </c>
       <c r="X209">
-        <v>5.3</v>
+        <v>3.75</v>
       </c>
       <c r="Y209">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="Z209">
-        <v>2.29</v>
+        <v>2.43</v>
       </c>
       <c r="AA209">
-        <v>3.57</v>
+        <v>4.1</v>
       </c>
       <c r="AB209">
-        <v>2.83</v>
+        <v>2.4</v>
       </c>
       <c r="AC209">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD209">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AE209">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="AF209">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="AG209">
-        <v>1.77</v>
+        <v>1.37</v>
       </c>
       <c r="AH209">
-        <v>1.98</v>
+        <v>2.85</v>
       </c>
       <c r="AI209">
-        <v>1.65</v>
+        <v>1.38</v>
       </c>
       <c r="AJ209">
-        <v>2.32</v>
+        <v>3.26</v>
       </c>
       <c r="AK209">
+        <v>1.25</v>
+      </c>
+      <c r="AL209">
+        <v>1.23</v>
+      </c>
+      <c r="AM209">
         <v>1.29</v>
       </c>
-      <c r="AL209">
-        <v>0</v>
-      </c>
-      <c r="AM209">
-        <v>1.57</v>
-      </c>
       <c r="AN209">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AO209">
-        <v>1.38</v>
+        <v>0.92</v>
       </c>
       <c r="AP209">
-        <v>1.5</v>
+        <v>1.69</v>
       </c>
       <c r="AQ209">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR209">
         <v>1.69</v>
       </c>
       <c r="AS209">
-        <v>1.28</v>
+        <v>1.45</v>
       </c>
       <c r="AT209">
-        <v>2.97</v>
+        <v>3.14</v>
       </c>
       <c r="AU209">
         <v>4</v>
       </c>
       <c r="AV209">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AW209">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX209">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY209">
         <v>13</v>
       </c>
       <c r="AZ209">
+        <v>19</v>
+      </c>
+      <c r="BA209">
+        <v>7</v>
+      </c>
+      <c r="BB209">
+        <v>4</v>
+      </c>
+      <c r="BC209">
         <v>11</v>
       </c>
-      <c r="BA209">
-        <v>3</v>
-      </c>
-      <c r="BB209">
-        <v>5</v>
-      </c>
-      <c r="BC209">
-        <v>8</v>
-      </c>
       <c r="BD209">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="BE209">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="BF209">
-        <v>2.27</v>
+        <v>2.15</v>
       </c>
       <c r="BG209">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="BH209">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="BI209">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="BJ209">
-        <v>2.64</v>
+        <v>2.78</v>
       </c>
       <c r="BK209">
-        <v>1.93</v>
+        <v>1.77</v>
       </c>
       <c r="BL209">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
       <c r="BM209">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="BN209">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="BO209">
-        <v>2.83</v>
+        <v>2.67</v>
       </c>
       <c r="BP209">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="210" spans="1:68">
@@ -44538,7 +44556,7 @@
         <v>228</v>
       </c>
       <c r="P210" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q210">
         <v>3.4</v>
@@ -44616,7 +44634,7 @@
         <v>0.92</v>
       </c>
       <c r="AP210">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ210">
         <v>1.07</v>
@@ -44702,7 +44720,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>7484749</v>
+        <v>7484746</v>
       </c>
       <c r="C211" t="s">
         <v>68</v>
@@ -44717,10 +44735,10 @@
         <v>27</v>
       </c>
       <c r="G211" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H211" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="I211">
         <v>0</v>
@@ -44735,130 +44753,130 @@
         <v>1</v>
       </c>
       <c r="M211">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N211">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O211" t="s">
-        <v>137</v>
+        <v>229</v>
       </c>
       <c r="P211" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q211">
         <v>3.1</v>
       </c>
       <c r="R211">
+        <v>2.25</v>
+      </c>
+      <c r="S211">
         <v>2.7</v>
       </c>
-      <c r="S211">
-        <v>2.28</v>
-      </c>
       <c r="T211">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U211">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="V211">
-        <v>1.91</v>
+        <v>2.4</v>
       </c>
       <c r="W211">
-        <v>1.96</v>
+        <v>1.5</v>
       </c>
       <c r="X211">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Y211">
-        <v>1.2</v>
+        <v>1.11</v>
       </c>
       <c r="Z211">
-        <v>2.43</v>
+        <v>2.74</v>
       </c>
       <c r="AA211">
+        <v>3.68</v>
+      </c>
+      <c r="AB211">
+        <v>2.31</v>
+      </c>
+      <c r="AC211">
+        <v>1.03</v>
+      </c>
+      <c r="AD211">
+        <v>12</v>
+      </c>
+      <c r="AE211">
+        <v>1.15</v>
+      </c>
+      <c r="AF211">
         <v>4.1</v>
       </c>
-      <c r="AB211">
-        <v>2.4</v>
-      </c>
-      <c r="AC211">
-        <v>1.01</v>
-      </c>
-      <c r="AD211">
-        <v>21</v>
-      </c>
-      <c r="AE211">
-        <v>1.12</v>
-      </c>
-      <c r="AF211">
-        <v>5.75</v>
-      </c>
       <c r="AG211">
-        <v>1.37</v>
+        <v>1.61</v>
       </c>
       <c r="AH211">
-        <v>2.85</v>
+        <v>2.1</v>
       </c>
       <c r="AI211">
+        <v>1.55</v>
+      </c>
+      <c r="AJ211">
+        <v>2.3</v>
+      </c>
+      <c r="AK211">
+        <v>1.64</v>
+      </c>
+      <c r="AL211">
+        <v>1.25</v>
+      </c>
+      <c r="AM211">
+        <v>1.41</v>
+      </c>
+      <c r="AN211">
         <v>1.38</v>
       </c>
-      <c r="AJ211">
-        <v>3.26</v>
-      </c>
-      <c r="AK211">
-        <v>1.25</v>
-      </c>
-      <c r="AL211">
-        <v>1.23</v>
-      </c>
-      <c r="AM211">
+      <c r="AO211">
+        <v>1.17</v>
+      </c>
+      <c r="AP211">
         <v>1.29</v>
       </c>
-      <c r="AN211">
-        <v>1.83</v>
-      </c>
-      <c r="AO211">
-        <v>0.92</v>
-      </c>
-      <c r="AP211">
-        <v>1.69</v>
-      </c>
       <c r="AQ211">
-        <v>1.07</v>
+        <v>1.21</v>
       </c>
       <c r="AR211">
-        <v>1.69</v>
+        <v>1.61</v>
       </c>
       <c r="AS211">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="AT211">
-        <v>3.14</v>
+        <v>3.18</v>
       </c>
       <c r="AU211">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV211">
         <v>9</v>
       </c>
       <c r="AW211">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AX211">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AY211">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AZ211">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA211">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BB211">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BC211">
         <v>11</v>
@@ -44867,16 +44885,16 @@
         <v>1.95</v>
       </c>
       <c r="BE211">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="BF211">
-        <v>2.15</v>
+        <v>2.16</v>
       </c>
       <c r="BG211">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="BH211">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="BI211">
         <v>1.34</v>
@@ -44885,22 +44903,22 @@
         <v>2.78</v>
       </c>
       <c r="BK211">
-        <v>1.77</v>
+        <v>1.69</v>
       </c>
       <c r="BL211">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="BM211">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="BN211">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="BO211">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="BP211">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="212" spans="1:68">
@@ -44908,7 +44926,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>7484750</v>
+        <v>7484747</v>
       </c>
       <c r="C212" t="s">
         <v>68</v>
@@ -44923,127 +44941,127 @@
         <v>27</v>
       </c>
       <c r="G212" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H212" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212">
         <v>0</v>
       </c>
       <c r="K212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L212">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M212">
         <v>1</v>
       </c>
       <c r="N212">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O212" t="s">
-        <v>229</v>
+        <v>86</v>
       </c>
       <c r="P212" t="s">
         <v>101</v>
       </c>
       <c r="Q212">
-        <v>2.42</v>
+        <v>2.8</v>
       </c>
       <c r="R212">
-        <v>2.34</v>
+        <v>2.2</v>
       </c>
       <c r="S212">
-        <v>3.58</v>
+        <v>3.3</v>
       </c>
       <c r="T212">
+        <v>1.28</v>
+      </c>
+      <c r="U212">
+        <v>3.3</v>
+      </c>
+      <c r="V212">
+        <v>2.47</v>
+      </c>
+      <c r="W212">
+        <v>1.44</v>
+      </c>
+      <c r="X212">
+        <v>5.3</v>
+      </c>
+      <c r="Y212">
+        <v>1.1</v>
+      </c>
+      <c r="Z212">
+        <v>2.29</v>
+      </c>
+      <c r="AA212">
+        <v>3.57</v>
+      </c>
+      <c r="AB212">
+        <v>2.83</v>
+      </c>
+      <c r="AC212">
+        <v>1.03</v>
+      </c>
+      <c r="AD212">
+        <v>12</v>
+      </c>
+      <c r="AE212">
+        <v>1.15</v>
+      </c>
+      <c r="AF212">
+        <v>3.6</v>
+      </c>
+      <c r="AG212">
+        <v>1.77</v>
+      </c>
+      <c r="AH212">
+        <v>1.98</v>
+      </c>
+      <c r="AI212">
+        <v>1.65</v>
+      </c>
+      <c r="AJ212">
+        <v>2.32</v>
+      </c>
+      <c r="AK212">
         <v>1.29</v>
       </c>
-      <c r="U212">
-        <v>3.5</v>
-      </c>
-      <c r="V212">
-        <v>2.2</v>
-      </c>
-      <c r="W212">
-        <v>1.61</v>
-      </c>
-      <c r="X212">
-        <v>4.8</v>
-      </c>
-      <c r="Y212">
-        <v>1.16</v>
-      </c>
-      <c r="Z212">
-        <v>2.1</v>
-      </c>
-      <c r="AA212">
-        <v>3.67</v>
-      </c>
-      <c r="AB212">
-        <v>3.12</v>
-      </c>
-      <c r="AC212">
-        <v>1.02</v>
-      </c>
-      <c r="AD212">
-        <v>14</v>
-      </c>
-      <c r="AE212">
-        <v>1.09</v>
-      </c>
-      <c r="AF212">
-        <v>4.5</v>
-      </c>
-      <c r="AG212">
+      <c r="AL212">
+        <v>0</v>
+      </c>
+      <c r="AM212">
+        <v>1.57</v>
+      </c>
+      <c r="AN212">
+        <v>1.62</v>
+      </c>
+      <c r="AO212">
+        <v>1.38</v>
+      </c>
+      <c r="AP212">
         <v>1.5</v>
       </c>
-      <c r="AH212">
-        <v>2.41</v>
-      </c>
-      <c r="AI212">
+      <c r="AQ212">
         <v>1.4</v>
       </c>
-      <c r="AJ212">
-        <v>2.6</v>
-      </c>
-      <c r="AK212">
-        <v>1.25</v>
-      </c>
-      <c r="AL212">
-        <v>1.25</v>
-      </c>
-      <c r="AM212">
-        <v>1.77</v>
-      </c>
-      <c r="AN212">
-        <v>0.77</v>
-      </c>
-      <c r="AO212">
-        <v>0.38</v>
-      </c>
-      <c r="AP212">
-        <v>0.93</v>
-      </c>
-      <c r="AQ212">
-        <v>0.36</v>
-      </c>
       <c r="AR212">
-        <v>1.09</v>
+        <v>1.69</v>
       </c>
       <c r="AS212">
-        <v>1.42</v>
+        <v>1.28</v>
       </c>
       <c r="AT212">
-        <v>2.51</v>
+        <v>2.97</v>
       </c>
       <c r="AU212">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV212">
         <v>2</v>
@@ -45052,61 +45070,61 @@
         <v>7</v>
       </c>
       <c r="AX212">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY212">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ212">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA212">
         <v>3</v>
       </c>
       <c r="BB212">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC212">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD212">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="BE212">
-        <v>8.199999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="BF212">
-        <v>2.23</v>
+        <v>2.27</v>
       </c>
       <c r="BG212">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="BH212">
-        <v>3.27</v>
+        <v>3.75</v>
       </c>
       <c r="BI212">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="BJ212">
-        <v>2.42</v>
+        <v>2.64</v>
       </c>
       <c r="BK212">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="BL212">
-        <v>1.97</v>
+        <v>2.09</v>
       </c>
       <c r="BM212">
-        <v>2.28</v>
+        <v>2.12</v>
       </c>
       <c r="BN212">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="BO212">
-        <v>2.92</v>
+        <v>2.83</v>
       </c>
       <c r="BP212">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="213" spans="1:68">
@@ -45362,7 +45380,7 @@
         <v>231</v>
       </c>
       <c r="P214" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q214">
         <v>4.15</v>
@@ -45440,7 +45458,7 @@
         <v>1.77</v>
       </c>
       <c r="AP214">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ214">
         <v>1.86</v>
@@ -45568,7 +45586,7 @@
         <v>86</v>
       </c>
       <c r="P215" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q215">
         <v>2.1</v>
@@ -45646,10 +45664,10 @@
         <v>1.54</v>
       </c>
       <c r="AP215">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ215">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR215">
         <v>1.37</v>
@@ -45774,7 +45792,7 @@
         <v>232</v>
       </c>
       <c r="P216" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q216">
         <v>2.5</v>
@@ -45852,7 +45870,7 @@
         <v>1.73</v>
       </c>
       <c r="AP216">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ216">
         <v>1.69</v>
@@ -46058,7 +46076,7 @@
         <v>1</v>
       </c>
       <c r="AP217">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ217">
         <v>0.93</v>
@@ -46144,7 +46162,7 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>7484757</v>
+        <v>7484755</v>
       </c>
       <c r="C218" t="s">
         <v>68</v>
@@ -46159,190 +46177,190 @@
         <v>28</v>
       </c>
       <c r="G218" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H218" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K218">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M218">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N218">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O218" t="s">
-        <v>86</v>
+        <v>234</v>
       </c>
       <c r="P218" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
       <c r="Q218">
         <v>2.7</v>
       </c>
       <c r="R218">
-        <v>2.22</v>
+        <v>2.51</v>
       </c>
       <c r="S218">
-        <v>3.47</v>
+        <v>3.1</v>
       </c>
       <c r="T218">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="U218">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="V218">
-        <v>2.4</v>
+        <v>2.07</v>
       </c>
       <c r="W218">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="X218">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="Y218">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="Z218">
-        <v>2.27</v>
+        <v>2.42</v>
       </c>
       <c r="AA218">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="AB218">
-        <v>2.9</v>
+        <v>2.73</v>
       </c>
       <c r="AC218">
         <v>1.01</v>
       </c>
       <c r="AD218">
-        <v>8.699999999999999</v>
+        <v>19</v>
       </c>
       <c r="AE218">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="AF218">
-        <v>4.4</v>
+        <v>5.8</v>
       </c>
       <c r="AG218">
-        <v>1.62</v>
+        <v>1.36</v>
       </c>
       <c r="AH218">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="AI218">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AJ218">
-        <v>2.3</v>
+        <v>2.62</v>
       </c>
       <c r="AK218">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AL218">
         <v>0</v>
       </c>
       <c r="AM218">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="AN218">
-        <v>0.92</v>
+        <v>1.69</v>
       </c>
       <c r="AO218">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="AP218">
-        <v>0.93</v>
+        <v>1.57</v>
       </c>
       <c r="AQ218">
-        <v>1.5</v>
+        <v>1.69</v>
       </c>
       <c r="AR218">
-        <v>1.27</v>
+        <v>1.77</v>
       </c>
       <c r="AS218">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT218">
-        <v>2.77</v>
+        <v>3.15</v>
       </c>
       <c r="AU218">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV218">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AW218">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AX218">
         <v>7</v>
       </c>
       <c r="AY218">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AZ218">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA218">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB218">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC218">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD218">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="BE218">
-        <v>8.300000000000001</v>
+        <v>6.55</v>
       </c>
       <c r="BF218">
-        <v>2.64</v>
+        <v>2.05</v>
       </c>
       <c r="BG218">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="BH218">
-        <v>2.95</v>
+        <v>3.85</v>
       </c>
       <c r="BI218">
-        <v>1.53</v>
+        <v>1.26</v>
       </c>
       <c r="BJ218">
-        <v>2.28</v>
+        <v>3.22</v>
       </c>
       <c r="BK218">
-        <v>1.93</v>
+        <v>1.49</v>
       </c>
       <c r="BL218">
-        <v>1.78</v>
+        <v>2.14</v>
       </c>
       <c r="BM218">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="BN218">
-        <v>1.44</v>
+        <v>1.85</v>
       </c>
       <c r="BO218">
-        <v>3.27</v>
+        <v>2.34</v>
       </c>
       <c r="BP218">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="219" spans="1:68">
@@ -46389,10 +46407,10 @@
         <v>2</v>
       </c>
       <c r="O219" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P219" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Q219">
         <v>2.6</v>
@@ -46556,7 +46574,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>7484755</v>
+        <v>7484757</v>
       </c>
       <c r="C220" t="s">
         <v>68</v>
@@ -46571,190 +46589,190 @@
         <v>28</v>
       </c>
       <c r="G220" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H220" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="I220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K220">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M220">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N220">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O220" t="s">
-        <v>235</v>
+        <v>86</v>
       </c>
       <c r="P220" t="s">
-        <v>348</v>
+        <v>86</v>
       </c>
       <c r="Q220">
         <v>2.7</v>
       </c>
       <c r="R220">
-        <v>2.51</v>
+        <v>2.22</v>
       </c>
       <c r="S220">
-        <v>3.1</v>
+        <v>3.47</v>
       </c>
       <c r="T220">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="U220">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="V220">
-        <v>2.07</v>
+        <v>2.4</v>
       </c>
       <c r="W220">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="X220">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="Y220">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="Z220">
-        <v>2.42</v>
+        <v>2.27</v>
       </c>
       <c r="AA220">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="AB220">
-        <v>2.73</v>
+        <v>2.9</v>
       </c>
       <c r="AC220">
         <v>1.01</v>
       </c>
       <c r="AD220">
-        <v>19</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AE220">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AF220">
-        <v>5.8</v>
+        <v>4.4</v>
       </c>
       <c r="AG220">
-        <v>1.36</v>
+        <v>1.62</v>
       </c>
       <c r="AH220">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="AI220">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AJ220">
-        <v>2.62</v>
+        <v>2.3</v>
       </c>
       <c r="AK220">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AL220">
         <v>0</v>
       </c>
       <c r="AM220">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="AN220">
-        <v>1.69</v>
+        <v>0.92</v>
       </c>
       <c r="AO220">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AP220">
-        <v>1.57</v>
+        <v>0.93</v>
       </c>
       <c r="AQ220">
-        <v>1.69</v>
+        <v>1.5</v>
       </c>
       <c r="AR220">
-        <v>1.77</v>
+        <v>1.27</v>
       </c>
       <c r="AS220">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT220">
-        <v>3.15</v>
+        <v>2.77</v>
       </c>
       <c r="AU220">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AV220">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AW220">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AX220">
         <v>7</v>
       </c>
       <c r="AY220">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="AZ220">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BA220">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB220">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC220">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD220">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="BE220">
-        <v>6.55</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="BF220">
-        <v>2.05</v>
+        <v>2.64</v>
       </c>
       <c r="BG220">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="BH220">
-        <v>3.85</v>
+        <v>2.95</v>
       </c>
       <c r="BI220">
-        <v>1.26</v>
+        <v>1.53</v>
       </c>
       <c r="BJ220">
-        <v>3.22</v>
+        <v>2.28</v>
       </c>
       <c r="BK220">
-        <v>1.49</v>
+        <v>1.93</v>
       </c>
       <c r="BL220">
-        <v>2.14</v>
+        <v>1.78</v>
       </c>
       <c r="BM220">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="BN220">
-        <v>1.85</v>
+        <v>1.44</v>
       </c>
       <c r="BO220">
-        <v>2.34</v>
+        <v>3.27</v>
       </c>
       <c r="BP220">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="221" spans="1:68">
@@ -47010,7 +47028,7 @@
         <v>237</v>
       </c>
       <c r="P222" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q222">
         <v>4.1</v>
@@ -47091,7 +47109,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ222">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR222">
         <v>1.38</v>
@@ -47216,7 +47234,7 @@
         <v>238</v>
       </c>
       <c r="P223" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q223">
         <v>3.1</v>
@@ -47422,7 +47440,7 @@
         <v>239</v>
       </c>
       <c r="P224" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q224">
         <v>1.63</v>
@@ -47579,6 +47597,1242 @@
       </c>
       <c r="BP224">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="225" spans="1:68">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>7484763</v>
+      </c>
+      <c r="C225" t="s">
+        <v>68</v>
+      </c>
+      <c r="D225" t="s">
+        <v>69</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45793.54166666666</v>
+      </c>
+      <c r="F225">
+        <v>29</v>
+      </c>
+      <c r="G225" t="s">
+        <v>71</v>
+      </c>
+      <c r="H225" t="s">
+        <v>77</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225" t="s">
+        <v>86</v>
+      </c>
+      <c r="P225" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q225">
+        <v>2.14</v>
+      </c>
+      <c r="R225">
+        <v>2.19</v>
+      </c>
+      <c r="S225">
+        <v>4.6</v>
+      </c>
+      <c r="T225">
+        <v>1.35</v>
+      </c>
+      <c r="U225">
+        <v>3.1</v>
+      </c>
+      <c r="V225">
+        <v>2.53</v>
+      </c>
+      <c r="W225">
+        <v>1.5</v>
+      </c>
+      <c r="X225">
+        <v>6.1</v>
+      </c>
+      <c r="Y225">
+        <v>1.11</v>
+      </c>
+      <c r="Z225">
+        <v>1.6</v>
+      </c>
+      <c r="AA225">
+        <v>4.2</v>
+      </c>
+      <c r="AB225">
+        <v>5</v>
+      </c>
+      <c r="AC225">
+        <v>1.04</v>
+      </c>
+      <c r="AD225">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE225">
+        <v>1.23</v>
+      </c>
+      <c r="AF225">
+        <v>4.2</v>
+      </c>
+      <c r="AG225">
+        <v>1.72</v>
+      </c>
+      <c r="AH225">
+        <v>2.13</v>
+      </c>
+      <c r="AI225">
+        <v>1.73</v>
+      </c>
+      <c r="AJ225">
+        <v>2.04</v>
+      </c>
+      <c r="AK225">
+        <v>1.18</v>
+      </c>
+      <c r="AL225">
+        <v>1.25</v>
+      </c>
+      <c r="AM225">
+        <v>2.18</v>
+      </c>
+      <c r="AN225">
+        <v>1</v>
+      </c>
+      <c r="AO225">
+        <v>1.07</v>
+      </c>
+      <c r="AP225">
+        <v>1</v>
+      </c>
+      <c r="AQ225">
+        <v>1.07</v>
+      </c>
+      <c r="AR225">
+        <v>1.5</v>
+      </c>
+      <c r="AS225">
+        <v>1.22</v>
+      </c>
+      <c r="AT225">
+        <v>2.72</v>
+      </c>
+      <c r="AU225">
+        <v>2</v>
+      </c>
+      <c r="AV225">
+        <v>0</v>
+      </c>
+      <c r="AW225">
+        <v>3</v>
+      </c>
+      <c r="AX225">
+        <v>0</v>
+      </c>
+      <c r="AY225">
+        <v>5</v>
+      </c>
+      <c r="AZ225">
+        <v>0</v>
+      </c>
+      <c r="BA225">
+        <v>5</v>
+      </c>
+      <c r="BB225">
+        <v>1</v>
+      </c>
+      <c r="BC225">
+        <v>6</v>
+      </c>
+      <c r="BD225">
+        <v>1.6</v>
+      </c>
+      <c r="BE225">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF225">
+        <v>2.8</v>
+      </c>
+      <c r="BG225">
+        <v>1.26</v>
+      </c>
+      <c r="BH225">
+        <v>3.35</v>
+      </c>
+      <c r="BI225">
+        <v>1.47</v>
+      </c>
+      <c r="BJ225">
+        <v>2.5</v>
+      </c>
+      <c r="BK225">
+        <v>1.77</v>
+      </c>
+      <c r="BL225">
+        <v>1.93</v>
+      </c>
+      <c r="BM225">
+        <v>2.28</v>
+      </c>
+      <c r="BN225">
+        <v>1.53</v>
+      </c>
+      <c r="BO225">
+        <v>3.04</v>
+      </c>
+      <c r="BP225">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="226" spans="1:68">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>7484764</v>
+      </c>
+      <c r="C226" t="s">
+        <v>68</v>
+      </c>
+      <c r="D226" t="s">
+        <v>69</v>
+      </c>
+      <c r="E226" s="2">
+        <v>45793.54166666666</v>
+      </c>
+      <c r="F226">
+        <v>29</v>
+      </c>
+      <c r="G226" t="s">
+        <v>72</v>
+      </c>
+      <c r="H226" t="s">
+        <v>75</v>
+      </c>
+      <c r="I226">
+        <v>1</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>1</v>
+      </c>
+      <c r="L226">
+        <v>2</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>2</v>
+      </c>
+      <c r="O226" t="s">
+        <v>240</v>
+      </c>
+      <c r="P226" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q226">
+        <v>3.02</v>
+      </c>
+      <c r="R226">
+        <v>1.95</v>
+      </c>
+      <c r="S226">
+        <v>2.97</v>
+      </c>
+      <c r="T226">
+        <v>1.39</v>
+      </c>
+      <c r="U226">
+        <v>2.9</v>
+      </c>
+      <c r="V226">
+        <v>2.77</v>
+      </c>
+      <c r="W226">
+        <v>1.41</v>
+      </c>
+      <c r="X226">
+        <v>6.5</v>
+      </c>
+      <c r="Y226">
+        <v>1.09</v>
+      </c>
+      <c r="Z226">
+        <v>2.6</v>
+      </c>
+      <c r="AA226">
+        <v>3.2</v>
+      </c>
+      <c r="AB226">
+        <v>2.45</v>
+      </c>
+      <c r="AC226">
+        <v>1.01</v>
+      </c>
+      <c r="AD226">
+        <v>8.5</v>
+      </c>
+      <c r="AE226">
+        <v>1.26</v>
+      </c>
+      <c r="AF226">
+        <v>3.22</v>
+      </c>
+      <c r="AG226">
+        <v>1.93</v>
+      </c>
+      <c r="AH226">
+        <v>1.83</v>
+      </c>
+      <c r="AI226">
+        <v>1.75</v>
+      </c>
+      <c r="AJ226">
+        <v>2.02</v>
+      </c>
+      <c r="AK226">
+        <v>1.28</v>
+      </c>
+      <c r="AL226">
+        <v>1.25</v>
+      </c>
+      <c r="AM226">
+        <v>1.4</v>
+      </c>
+      <c r="AN226">
+        <v>1.29</v>
+      </c>
+      <c r="AO226">
+        <v>1.5</v>
+      </c>
+      <c r="AP226">
+        <v>1.4</v>
+      </c>
+      <c r="AQ226">
+        <v>1.4</v>
+      </c>
+      <c r="AR226">
+        <v>1.2</v>
+      </c>
+      <c r="AS226">
+        <v>1.26</v>
+      </c>
+      <c r="AT226">
+        <v>2.46</v>
+      </c>
+      <c r="AU226">
+        <v>6</v>
+      </c>
+      <c r="AV226">
+        <v>5</v>
+      </c>
+      <c r="AW226">
+        <v>9</v>
+      </c>
+      <c r="AX226">
+        <v>5</v>
+      </c>
+      <c r="AY226">
+        <v>18</v>
+      </c>
+      <c r="AZ226">
+        <v>10</v>
+      </c>
+      <c r="BA226">
+        <v>2</v>
+      </c>
+      <c r="BB226">
+        <v>1</v>
+      </c>
+      <c r="BC226">
+        <v>3</v>
+      </c>
+      <c r="BD226">
+        <v>2.31</v>
+      </c>
+      <c r="BE226">
+        <v>6.8</v>
+      </c>
+      <c r="BF226">
+        <v>1.94</v>
+      </c>
+      <c r="BG226">
+        <v>1.28</v>
+      </c>
+      <c r="BH226">
+        <v>3.22</v>
+      </c>
+      <c r="BI226">
+        <v>1.5</v>
+      </c>
+      <c r="BJ226">
+        <v>2.39</v>
+      </c>
+      <c r="BK226">
+        <v>2.09</v>
+      </c>
+      <c r="BL226">
+        <v>1.87</v>
+      </c>
+      <c r="BM226">
+        <v>2.34</v>
+      </c>
+      <c r="BN226">
+        <v>1.55</v>
+      </c>
+      <c r="BO226">
+        <v>3.02</v>
+      </c>
+      <c r="BP226">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="227" spans="1:68">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>7484766</v>
+      </c>
+      <c r="C227" t="s">
+        <v>68</v>
+      </c>
+      <c r="D227" t="s">
+        <v>69</v>
+      </c>
+      <c r="E227" s="2">
+        <v>45793.54166666666</v>
+      </c>
+      <c r="F227">
+        <v>29</v>
+      </c>
+      <c r="G227" t="s">
+        <v>73</v>
+      </c>
+      <c r="H227" t="s">
+        <v>80</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>3</v>
+      </c>
+      <c r="M227">
+        <v>1</v>
+      </c>
+      <c r="N227">
+        <v>4</v>
+      </c>
+      <c r="O227" t="s">
+        <v>241</v>
+      </c>
+      <c r="P227" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q227">
+        <v>3.22</v>
+      </c>
+      <c r="R227">
+        <v>2.15</v>
+      </c>
+      <c r="S227">
+        <v>2.7</v>
+      </c>
+      <c r="T227">
+        <v>1.22</v>
+      </c>
+      <c r="U227">
+        <v>3.58</v>
+      </c>
+      <c r="V227">
+        <v>2.23</v>
+      </c>
+      <c r="W227">
+        <v>1.62</v>
+      </c>
+      <c r="X227">
+        <v>4.4</v>
+      </c>
+      <c r="Y227">
+        <v>1.13</v>
+      </c>
+      <c r="Z227">
+        <v>2.66</v>
+      </c>
+      <c r="AA227">
+        <v>3.8</v>
+      </c>
+      <c r="AB227">
+        <v>2.39</v>
+      </c>
+      <c r="AC227">
+        <v>1.03</v>
+      </c>
+      <c r="AD227">
+        <v>10</v>
+      </c>
+      <c r="AE227">
+        <v>1.11</v>
+      </c>
+      <c r="AF227">
+        <v>5</v>
+      </c>
+      <c r="AG227">
+        <v>1.52</v>
+      </c>
+      <c r="AH227">
+        <v>2.4</v>
+      </c>
+      <c r="AI227">
+        <v>1.44</v>
+      </c>
+      <c r="AJ227">
+        <v>2.6</v>
+      </c>
+      <c r="AK227">
+        <v>1.2</v>
+      </c>
+      <c r="AL227">
+        <v>1.22</v>
+      </c>
+      <c r="AM227">
+        <v>1.33</v>
+      </c>
+      <c r="AN227">
+        <v>0.93</v>
+      </c>
+      <c r="AO227">
+        <v>1.64</v>
+      </c>
+      <c r="AP227">
+        <v>1.07</v>
+      </c>
+      <c r="AQ227">
+        <v>1.53</v>
+      </c>
+      <c r="AR227">
+        <v>1.13</v>
+      </c>
+      <c r="AS227">
+        <v>1.16</v>
+      </c>
+      <c r="AT227">
+        <v>2.29</v>
+      </c>
+      <c r="AU227">
+        <v>5</v>
+      </c>
+      <c r="AV227">
+        <v>4</v>
+      </c>
+      <c r="AW227">
+        <v>5</v>
+      </c>
+      <c r="AX227">
+        <v>5</v>
+      </c>
+      <c r="AY227">
+        <v>12</v>
+      </c>
+      <c r="AZ227">
+        <v>10</v>
+      </c>
+      <c r="BA227">
+        <v>6</v>
+      </c>
+      <c r="BB227">
+        <v>2</v>
+      </c>
+      <c r="BC227">
+        <v>8</v>
+      </c>
+      <c r="BD227">
+        <v>1.9</v>
+      </c>
+      <c r="BE227">
+        <v>6.8</v>
+      </c>
+      <c r="BF227">
+        <v>2.28</v>
+      </c>
+      <c r="BG227">
+        <v>1.22</v>
+      </c>
+      <c r="BH227">
+        <v>3.48</v>
+      </c>
+      <c r="BI227">
+        <v>1.48</v>
+      </c>
+      <c r="BJ227">
+        <v>2.48</v>
+      </c>
+      <c r="BK227">
+        <v>2</v>
+      </c>
+      <c r="BL227">
+        <v>1.95</v>
+      </c>
+      <c r="BM227">
+        <v>2.3</v>
+      </c>
+      <c r="BN227">
+        <v>1.6</v>
+      </c>
+      <c r="BO227">
+        <v>3.05</v>
+      </c>
+      <c r="BP227">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="228" spans="1:68">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>7484767</v>
+      </c>
+      <c r="C228" t="s">
+        <v>68</v>
+      </c>
+      <c r="D228" t="s">
+        <v>69</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45793.54166666666</v>
+      </c>
+      <c r="F228">
+        <v>29</v>
+      </c>
+      <c r="G228" t="s">
+        <v>82</v>
+      </c>
+      <c r="H228" t="s">
+        <v>84</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>3</v>
+      </c>
+      <c r="M228">
+        <v>1</v>
+      </c>
+      <c r="N228">
+        <v>4</v>
+      </c>
+      <c r="O228" t="s">
+        <v>242</v>
+      </c>
+      <c r="P228" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q228">
+        <v>1.74</v>
+      </c>
+      <c r="R228">
+        <v>2.95</v>
+      </c>
+      <c r="S228">
+        <v>4.75</v>
+      </c>
+      <c r="T228">
+        <v>1.14</v>
+      </c>
+      <c r="U228">
+        <v>4.9</v>
+      </c>
+      <c r="V228">
+        <v>1.77</v>
+      </c>
+      <c r="W228">
+        <v>2.07</v>
+      </c>
+      <c r="X228">
+        <v>3.4</v>
+      </c>
+      <c r="Y228">
+        <v>1.3</v>
+      </c>
+      <c r="Z228">
+        <v>1.38</v>
+      </c>
+      <c r="AA228">
+        <v>5.5</v>
+      </c>
+      <c r="AB228">
+        <v>5.75</v>
+      </c>
+      <c r="AC228">
+        <v>1.01</v>
+      </c>
+      <c r="AD228">
+        <v>23</v>
+      </c>
+      <c r="AE228">
+        <v>1.02</v>
+      </c>
+      <c r="AF228">
+        <v>6.42</v>
+      </c>
+      <c r="AG228">
+        <v>1.25</v>
+      </c>
+      <c r="AH228">
+        <v>3.6</v>
+      </c>
+      <c r="AI228">
+        <v>1.47</v>
+      </c>
+      <c r="AJ228">
+        <v>2.88</v>
+      </c>
+      <c r="AK228">
+        <v>1.13</v>
+      </c>
+      <c r="AL228">
+        <v>1.12</v>
+      </c>
+      <c r="AM228">
+        <v>3.04</v>
+      </c>
+      <c r="AN228">
+        <v>1.64</v>
+      </c>
+      <c r="AO228">
+        <v>1.07</v>
+      </c>
+      <c r="AP228">
+        <v>1.73</v>
+      </c>
+      <c r="AQ228">
+        <v>1</v>
+      </c>
+      <c r="AR228">
+        <v>1.68</v>
+      </c>
+      <c r="AS228">
+        <v>1.5</v>
+      </c>
+      <c r="AT228">
+        <v>3.18</v>
+      </c>
+      <c r="AU228">
+        <v>7</v>
+      </c>
+      <c r="AV228">
+        <v>8</v>
+      </c>
+      <c r="AW228">
+        <v>7</v>
+      </c>
+      <c r="AX228">
+        <v>11</v>
+      </c>
+      <c r="AY228">
+        <v>16</v>
+      </c>
+      <c r="AZ228">
+        <v>26</v>
+      </c>
+      <c r="BA228">
+        <v>1</v>
+      </c>
+      <c r="BB228">
+        <v>6</v>
+      </c>
+      <c r="BC228">
+        <v>7</v>
+      </c>
+      <c r="BD228">
+        <v>1.41</v>
+      </c>
+      <c r="BE228">
+        <v>7.6</v>
+      </c>
+      <c r="BF228">
+        <v>4.2</v>
+      </c>
+      <c r="BG228">
+        <v>1.13</v>
+      </c>
+      <c r="BH228">
+        <v>4.9</v>
+      </c>
+      <c r="BI228">
+        <v>1.25</v>
+      </c>
+      <c r="BJ228">
+        <v>3.68</v>
+      </c>
+      <c r="BK228">
+        <v>1.52</v>
+      </c>
+      <c r="BL228">
+        <v>2.46</v>
+      </c>
+      <c r="BM228">
+        <v>1.74</v>
+      </c>
+      <c r="BN228">
+        <v>2.02</v>
+      </c>
+      <c r="BO228">
+        <v>2.14</v>
+      </c>
+      <c r="BP228">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="229" spans="1:68">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>7484768</v>
+      </c>
+      <c r="C229" t="s">
+        <v>68</v>
+      </c>
+      <c r="D229" t="s">
+        <v>69</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45793.54166666666</v>
+      </c>
+      <c r="F229">
+        <v>29</v>
+      </c>
+      <c r="G229" t="s">
+        <v>85</v>
+      </c>
+      <c r="H229" t="s">
+        <v>78</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>2</v>
+      </c>
+      <c r="K229">
+        <v>2</v>
+      </c>
+      <c r="L229">
+        <v>1</v>
+      </c>
+      <c r="M229">
+        <v>3</v>
+      </c>
+      <c r="N229">
+        <v>4</v>
+      </c>
+      <c r="O229" t="s">
+        <v>243</v>
+      </c>
+      <c r="P229" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q229">
+        <v>2.59</v>
+      </c>
+      <c r="R229">
+        <v>2.25</v>
+      </c>
+      <c r="S229">
+        <v>3.2</v>
+      </c>
+      <c r="T229">
+        <v>1.3</v>
+      </c>
+      <c r="U229">
+        <v>3.22</v>
+      </c>
+      <c r="V229">
+        <v>2.4</v>
+      </c>
+      <c r="W229">
+        <v>1.5</v>
+      </c>
+      <c r="X229">
+        <v>5.8</v>
+      </c>
+      <c r="Y229">
+        <v>1.14</v>
+      </c>
+      <c r="Z229">
+        <v>2.29</v>
+      </c>
+      <c r="AA229">
+        <v>3.4</v>
+      </c>
+      <c r="AB229">
+        <v>2.83</v>
+      </c>
+      <c r="AC229">
+        <v>1.03</v>
+      </c>
+      <c r="AD229">
+        <v>13</v>
+      </c>
+      <c r="AE229">
+        <v>1.22</v>
+      </c>
+      <c r="AF229">
+        <v>4</v>
+      </c>
+      <c r="AG229">
+        <v>1.67</v>
+      </c>
+      <c r="AH229">
+        <v>2.16</v>
+      </c>
+      <c r="AI229">
+        <v>1.46</v>
+      </c>
+      <c r="AJ229">
+        <v>2.39</v>
+      </c>
+      <c r="AK229">
+        <v>1.28</v>
+      </c>
+      <c r="AL229">
+        <v>1.22</v>
+      </c>
+      <c r="AM229">
+        <v>1.61</v>
+      </c>
+      <c r="AN229">
+        <v>1.93</v>
+      </c>
+      <c r="AO229">
+        <v>1.07</v>
+      </c>
+      <c r="AP229">
+        <v>1.8</v>
+      </c>
+      <c r="AQ229">
+        <v>1.2</v>
+      </c>
+      <c r="AR229">
+        <v>1.35</v>
+      </c>
+      <c r="AS229">
+        <v>1.52</v>
+      </c>
+      <c r="AT229">
+        <v>2.87</v>
+      </c>
+      <c r="AU229">
+        <v>3</v>
+      </c>
+      <c r="AV229">
+        <v>12</v>
+      </c>
+      <c r="AW229">
+        <v>1</v>
+      </c>
+      <c r="AX229">
+        <v>0</v>
+      </c>
+      <c r="AY229">
+        <v>4</v>
+      </c>
+      <c r="AZ229">
+        <v>12</v>
+      </c>
+      <c r="BA229">
+        <v>3</v>
+      </c>
+      <c r="BB229">
+        <v>4</v>
+      </c>
+      <c r="BC229">
+        <v>7</v>
+      </c>
+      <c r="BD229">
+        <v>1.9</v>
+      </c>
+      <c r="BE229">
+        <v>6.9</v>
+      </c>
+      <c r="BF229">
+        <v>2.31</v>
+      </c>
+      <c r="BG229">
+        <v>1.2</v>
+      </c>
+      <c r="BH229">
+        <v>3.88</v>
+      </c>
+      <c r="BI229">
+        <v>1.34</v>
+      </c>
+      <c r="BJ229">
+        <v>2.78</v>
+      </c>
+      <c r="BK229">
+        <v>1.65</v>
+      </c>
+      <c r="BL229">
+        <v>2.16</v>
+      </c>
+      <c r="BM229">
+        <v>2.03</v>
+      </c>
+      <c r="BN229">
+        <v>1.74</v>
+      </c>
+      <c r="BO229">
+        <v>2.53</v>
+      </c>
+      <c r="BP229">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="230" spans="1:68">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>7484769</v>
+      </c>
+      <c r="C230" t="s">
+        <v>68</v>
+      </c>
+      <c r="D230" t="s">
+        <v>69</v>
+      </c>
+      <c r="E230" s="2">
+        <v>45793.54166666666</v>
+      </c>
+      <c r="F230">
+        <v>29</v>
+      </c>
+      <c r="G230" t="s">
+        <v>76</v>
+      </c>
+      <c r="H230" t="s">
+        <v>79</v>
+      </c>
+      <c r="I230">
+        <v>1</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>1</v>
+      </c>
+      <c r="L230">
+        <v>2</v>
+      </c>
+      <c r="M230">
+        <v>1</v>
+      </c>
+      <c r="N230">
+        <v>3</v>
+      </c>
+      <c r="O230" t="s">
+        <v>244</v>
+      </c>
+      <c r="P230" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q230">
+        <v>2.04</v>
+      </c>
+      <c r="R230">
+        <v>2.62</v>
+      </c>
+      <c r="S230">
+        <v>4.3</v>
+      </c>
+      <c r="T230">
+        <v>1.18</v>
+      </c>
+      <c r="U230">
+        <v>4.6</v>
+      </c>
+      <c r="V230">
+        <v>1.85</v>
+      </c>
+      <c r="W230">
+        <v>1.85</v>
+      </c>
+      <c r="X230">
+        <v>3.88</v>
+      </c>
+      <c r="Y230">
+        <v>1.2</v>
+      </c>
+      <c r="Z230">
+        <v>1.68</v>
+      </c>
+      <c r="AA230">
+        <v>4</v>
+      </c>
+      <c r="AB230">
+        <v>3.2</v>
+      </c>
+      <c r="AC230">
+        <v>1.01</v>
+      </c>
+      <c r="AD230">
+        <v>19</v>
+      </c>
+      <c r="AE230">
+        <v>1.06</v>
+      </c>
+      <c r="AF230">
+        <v>7.1</v>
+      </c>
+      <c r="AG230">
+        <v>1.3</v>
+      </c>
+      <c r="AH230">
+        <v>3.19</v>
+      </c>
+      <c r="AI230">
+        <v>1.4</v>
+      </c>
+      <c r="AJ230">
+        <v>2.87</v>
+      </c>
+      <c r="AK230">
+        <v>1.2</v>
+      </c>
+      <c r="AL230">
+        <v>1.18</v>
+      </c>
+      <c r="AM230">
+        <v>2.01</v>
+      </c>
+      <c r="AN230">
+        <v>1.5</v>
+      </c>
+      <c r="AO230">
+        <v>0.36</v>
+      </c>
+      <c r="AP230">
+        <v>1.6</v>
+      </c>
+      <c r="AQ230">
+        <v>0.33</v>
+      </c>
+      <c r="AR230">
+        <v>1.51</v>
+      </c>
+      <c r="AS230">
+        <v>1.38</v>
+      </c>
+      <c r="AT230">
+        <v>2.89</v>
+      </c>
+      <c r="AU230">
+        <v>5</v>
+      </c>
+      <c r="AV230">
+        <v>8</v>
+      </c>
+      <c r="AW230">
+        <v>4</v>
+      </c>
+      <c r="AX230">
+        <v>8</v>
+      </c>
+      <c r="AY230">
+        <v>11</v>
+      </c>
+      <c r="AZ230">
+        <v>18</v>
+      </c>
+      <c r="BA230">
+        <v>3</v>
+      </c>
+      <c r="BB230">
+        <v>3</v>
+      </c>
+      <c r="BC230">
+        <v>6</v>
+      </c>
+      <c r="BD230">
+        <v>1.59</v>
+      </c>
+      <c r="BE230">
+        <v>7.5</v>
+      </c>
+      <c r="BF230">
+        <v>2.74</v>
+      </c>
+      <c r="BG230">
+        <v>1.19</v>
+      </c>
+      <c r="BH230">
+        <v>3.98</v>
+      </c>
+      <c r="BI230">
+        <v>1.31</v>
+      </c>
+      <c r="BJ230">
+        <v>2.92</v>
+      </c>
+      <c r="BK230">
+        <v>1.62</v>
+      </c>
+      <c r="BL230">
+        <v>2.21</v>
+      </c>
+      <c r="BM230">
+        <v>1.98</v>
+      </c>
+      <c r="BN230">
+        <v>1.76</v>
+      </c>
+      <c r="BO230">
+        <v>2.46</v>
+      </c>
+      <c r="BP230">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria 2. Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria 2. Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="359">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -751,6 +751,9 @@
     <t>['44', '69']</t>
   </si>
   <si>
+    <t>['60']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -863,9 +866,6 @@
   </si>
   <si>
     <t>['16', '28']</t>
-  </si>
-  <si>
-    <t>['60']</t>
   </si>
   <si>
     <t>['2', '31', '56', '80']</t>
@@ -1088,6 +1088,9 @@
   </si>
   <si>
     <t>['1', '45', '68']</t>
+  </si>
+  <si>
+    <t>['17', '45', '62', '87']</t>
   </si>
 </sst>
 </file>
@@ -1449,7 +1452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP230"/>
+  <dimension ref="A1:BP232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1708,7 +1711,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1786,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ2">
         <v>1.5</v>
@@ -1914,7 +1917,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -2120,7 +2123,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q4">
         <v>6.5</v>
@@ -2201,7 +2204,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ4">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2326,7 +2329,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q5">
         <v>3.25</v>
@@ -3562,7 +3565,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3768,7 +3771,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -4464,7 +4467,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ15">
         <v>1.21</v>
@@ -4592,7 +4595,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q16">
         <v>2.1</v>
@@ -4798,7 +4801,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -4879,7 +4882,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ17">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5004,7 +5007,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q18">
         <v>2.2</v>
@@ -5082,7 +5085,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ18">
         <v>0.93</v>
@@ -5210,7 +5213,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q19">
         <v>2.5</v>
@@ -5416,7 +5419,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q20">
         <v>3.75</v>
@@ -5622,7 +5625,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q21">
         <v>4.5</v>
@@ -5703,7 +5706,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ21">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AR21">
         <v>1.86</v>
@@ -5828,7 +5831,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -6240,7 +6243,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6446,7 +6449,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q25">
         <v>2.38</v>
@@ -6652,7 +6655,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6858,7 +6861,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q27">
         <v>4.5</v>
@@ -6936,10 +6939,10 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ27">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR27">
         <v>1.73</v>
@@ -7476,7 +7479,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q30">
         <v>2.75</v>
@@ -7682,7 +7685,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -8300,7 +8303,7 @@
         <v>109</v>
       </c>
       <c r="P34" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q34">
         <v>1.8</v>
@@ -8378,7 +8381,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ34">
         <v>1.21</v>
@@ -8712,7 +8715,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -8918,7 +8921,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -9124,7 +9127,7 @@
         <v>112</v>
       </c>
       <c r="P38" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q38">
         <v>2.75</v>
@@ -9536,7 +9539,7 @@
         <v>86</v>
       </c>
       <c r="P40" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9617,7 +9620,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ40">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AR40">
         <v>1.6</v>
@@ -9742,7 +9745,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9948,7 +9951,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -10438,7 +10441,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ44">
         <v>0.33</v>
@@ -10566,7 +10569,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10772,7 +10775,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10978,7 +10981,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q47">
         <v>3.6</v>
@@ -11184,7 +11187,7 @@
         <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -11802,7 +11805,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -11883,7 +11886,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ51">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AR51">
         <v>1.65</v>
@@ -12008,7 +12011,7 @@
         <v>86</v>
       </c>
       <c r="P52" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q52">
         <v>2.1</v>
@@ -12086,7 +12089,7 @@
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ52">
         <v>0.79</v>
@@ -12420,7 +12423,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -12498,7 +12501,7 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ54">
         <v>1.5</v>
@@ -12832,7 +12835,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q56">
         <v>3.25</v>
@@ -13038,7 +13041,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q57">
         <v>3.2</v>
@@ -13244,7 +13247,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q58">
         <v>1.8</v>
@@ -13862,7 +13865,7 @@
         <v>125</v>
       </c>
       <c r="P61" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -14149,7 +14152,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ62">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR62">
         <v>1.38</v>
@@ -14274,7 +14277,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q63">
         <v>3.6</v>
@@ -14686,7 +14689,7 @@
         <v>128</v>
       </c>
       <c r="P65" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14892,7 +14895,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -14973,7 +14976,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ66">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR66">
         <v>1.04</v>
@@ -15098,7 +15101,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -15176,7 +15179,7 @@
         <v>1.5</v>
       </c>
       <c r="AP67">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ67">
         <v>0.79</v>
@@ -16206,7 +16209,7 @@
         <v>2</v>
       </c>
       <c r="AP72">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ72">
         <v>1.4</v>
@@ -16621,7 +16624,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ74">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AR74">
         <v>1.42</v>
@@ -17364,7 +17367,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q78">
         <v>3.75</v>
@@ -18678,7 +18681,7 @@
         <v>0.5</v>
       </c>
       <c r="AP84">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ84">
         <v>0.71</v>
@@ -19093,7 +19096,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ86">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR86">
         <v>1.47</v>
@@ -19296,7 +19299,7 @@
         <v>2.2</v>
       </c>
       <c r="AP87">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ87">
         <v>1.4</v>
@@ -19630,7 +19633,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q89">
         <v>3.1</v>
@@ -20123,7 +20126,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ91">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AR91">
         <v>1.44</v>
@@ -20454,7 +20457,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20660,7 +20663,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -21974,7 +21977,7 @@
         <v>1.5</v>
       </c>
       <c r="AP100">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ100">
         <v>1.86</v>
@@ -22595,7 +22598,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ103">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AR103">
         <v>1.49</v>
@@ -22801,7 +22804,7 @@
         <v>1</v>
       </c>
       <c r="AQ104">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR104">
         <v>1.26</v>
@@ -23004,7 +23007,7 @@
         <v>1.17</v>
       </c>
       <c r="AP105">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ105">
         <v>1</v>
@@ -23338,7 +23341,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -24861,7 +24864,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ114">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR114">
         <v>1.14</v>
@@ -25685,7 +25688,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ118">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AR118">
         <v>1.23</v>
@@ -25888,7 +25891,7 @@
         <v>1.33</v>
       </c>
       <c r="AP119">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ119">
         <v>1.2</v>
@@ -26300,7 +26303,7 @@
         <v>1.86</v>
       </c>
       <c r="AP121">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ121">
         <v>1.53</v>
@@ -27333,7 +27336,7 @@
         <v>2</v>
       </c>
       <c r="AQ126">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR126">
         <v>1.27</v>
@@ -27742,7 +27745,7 @@
         <v>1.5</v>
       </c>
       <c r="AP128">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ128">
         <v>1.21</v>
@@ -28978,7 +28981,7 @@
         <v>0.5</v>
       </c>
       <c r="AP134">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ134">
         <v>0.33</v>
@@ -29393,7 +29396,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ136">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AR136">
         <v>1.11</v>
@@ -29930,7 +29933,7 @@
         <v>171</v>
       </c>
       <c r="P139" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q139">
         <v>4.8</v>
@@ -30011,7 +30014,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ139">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR139">
         <v>1.38</v>
@@ -32686,10 +32689,10 @@
         <v>2.44</v>
       </c>
       <c r="AP152">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ152">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AR152">
         <v>1.56</v>
@@ -32892,7 +32895,7 @@
         <v>1.22</v>
       </c>
       <c r="AP153">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ153">
         <v>1.2</v>
@@ -33101,7 +33104,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ154">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR154">
         <v>1.88</v>
@@ -35161,7 +35164,7 @@
         <v>1</v>
       </c>
       <c r="AQ164">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AR164">
         <v>1.46</v>
@@ -35364,7 +35367,7 @@
         <v>0.8</v>
       </c>
       <c r="AP165">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ165">
         <v>1.07</v>
@@ -36188,7 +36191,7 @@
         <v>0.5</v>
       </c>
       <c r="AP169">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ169">
         <v>0.71</v>
@@ -37427,7 +37430,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ175">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR175">
         <v>1.3</v>
@@ -37839,7 +37842,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ177">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AR177">
         <v>1.71</v>
@@ -37964,7 +37967,7 @@
         <v>203</v>
       </c>
       <c r="P178" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="Q178">
         <v>2.2</v>
@@ -38251,7 +38254,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ179">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR179">
         <v>1.27</v>
@@ -38582,7 +38585,7 @@
         <v>205</v>
       </c>
       <c r="P181" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q181">
         <v>2.3</v>
@@ -39072,7 +39075,7 @@
         <v>1.55</v>
       </c>
       <c r="AP183">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ183">
         <v>1.53</v>
@@ -40517,7 +40520,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ190">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AR190">
         <v>1.63</v>
@@ -40926,7 +40929,7 @@
         <v>0.75</v>
       </c>
       <c r="AP192">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ192">
         <v>1.07</v>
@@ -41132,7 +41135,7 @@
         <v>1.67</v>
       </c>
       <c r="AP193">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ193">
         <v>1.86</v>
@@ -41959,7 +41962,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ197">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR197">
         <v>1.69</v>
@@ -42084,7 +42087,7 @@
         <v>218</v>
       </c>
       <c r="P198" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="Q198">
         <v>1.75</v>
@@ -43813,7 +43816,7 @@
         <v>2</v>
       </c>
       <c r="AQ206">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AR206">
         <v>1.42</v>
@@ -44428,7 +44431,7 @@
         <v>0.92</v>
       </c>
       <c r="AP209">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ209">
         <v>1</v>
@@ -44840,7 +44843,7 @@
         <v>1.17</v>
       </c>
       <c r="AP211">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ211">
         <v>1.21</v>
@@ -45255,7 +45258,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ213">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR213">
         <v>1.45</v>
@@ -48264,7 +48267,7 @@
         <v>242</v>
       </c>
       <c r="P228" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q228">
         <v>1.74</v>
@@ -48833,6 +48836,418 @@
       </c>
       <c r="BP230">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="231" spans="1:68">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>7484762</v>
+      </c>
+      <c r="C231" t="s">
+        <v>68</v>
+      </c>
+      <c r="D231" t="s">
+        <v>69</v>
+      </c>
+      <c r="E231" s="2">
+        <v>45793.64583333334</v>
+      </c>
+      <c r="F231">
+        <v>29</v>
+      </c>
+      <c r="G231" t="s">
+        <v>70</v>
+      </c>
+      <c r="H231" t="s">
+        <v>74</v>
+      </c>
+      <c r="I231">
+        <v>1</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>1</v>
+      </c>
+      <c r="L231">
+        <v>1</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>1</v>
+      </c>
+      <c r="O231" t="s">
+        <v>171</v>
+      </c>
+      <c r="P231" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q231">
+        <v>4</v>
+      </c>
+      <c r="R231">
+        <v>2.4</v>
+      </c>
+      <c r="S231">
+        <v>2.35</v>
+      </c>
+      <c r="T231">
+        <v>1.22</v>
+      </c>
+      <c r="U231">
+        <v>3.7</v>
+      </c>
+      <c r="V231">
+        <v>2.1</v>
+      </c>
+      <c r="W231">
+        <v>1.66</v>
+      </c>
+      <c r="X231">
+        <v>5.15</v>
+      </c>
+      <c r="Y231">
+        <v>1.16</v>
+      </c>
+      <c r="Z231">
+        <v>3.7</v>
+      </c>
+      <c r="AA231">
+        <v>3.8</v>
+      </c>
+      <c r="AB231">
+        <v>1.72</v>
+      </c>
+      <c r="AC231">
+        <v>1</v>
+      </c>
+      <c r="AD231">
+        <v>14.5</v>
+      </c>
+      <c r="AE231">
+        <v>1.11</v>
+      </c>
+      <c r="AF231">
+        <v>5.1</v>
+      </c>
+      <c r="AG231">
+        <v>1.5</v>
+      </c>
+      <c r="AH231">
+        <v>2.52</v>
+      </c>
+      <c r="AI231">
+        <v>1.5</v>
+      </c>
+      <c r="AJ231">
+        <v>2.54</v>
+      </c>
+      <c r="AK231">
+        <v>1.2</v>
+      </c>
+      <c r="AL231">
+        <v>1.2</v>
+      </c>
+      <c r="AM231">
+        <v>1.2</v>
+      </c>
+      <c r="AN231">
+        <v>1.29</v>
+      </c>
+      <c r="AO231">
+        <v>2.07</v>
+      </c>
+      <c r="AP231">
+        <v>1.4</v>
+      </c>
+      <c r="AQ231">
+        <v>1.93</v>
+      </c>
+      <c r="AR231">
+        <v>1.55</v>
+      </c>
+      <c r="AS231">
+        <v>1.62</v>
+      </c>
+      <c r="AT231">
+        <v>3.17</v>
+      </c>
+      <c r="AU231">
+        <v>3</v>
+      </c>
+      <c r="AV231">
+        <v>6</v>
+      </c>
+      <c r="AW231">
+        <v>4</v>
+      </c>
+      <c r="AX231">
+        <v>8</v>
+      </c>
+      <c r="AY231">
+        <v>7</v>
+      </c>
+      <c r="AZ231">
+        <v>14</v>
+      </c>
+      <c r="BA231">
+        <v>1</v>
+      </c>
+      <c r="BB231">
+        <v>6</v>
+      </c>
+      <c r="BC231">
+        <v>7</v>
+      </c>
+      <c r="BD231">
+        <v>2.88</v>
+      </c>
+      <c r="BE231">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF231">
+        <v>1.62</v>
+      </c>
+      <c r="BG231">
+        <v>1.29</v>
+      </c>
+      <c r="BH231">
+        <v>3.15</v>
+      </c>
+      <c r="BI231">
+        <v>1.5</v>
+      </c>
+      <c r="BJ231">
+        <v>2.4</v>
+      </c>
+      <c r="BK231">
+        <v>1.77</v>
+      </c>
+      <c r="BL231">
+        <v>1.77</v>
+      </c>
+      <c r="BM231">
+        <v>2.51</v>
+      </c>
+      <c r="BN231">
+        <v>1.44</v>
+      </c>
+      <c r="BO231">
+        <v>3.42</v>
+      </c>
+      <c r="BP231">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="232" spans="1:68">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>7484765</v>
+      </c>
+      <c r="C232" t="s">
+        <v>68</v>
+      </c>
+      <c r="D232" t="s">
+        <v>69</v>
+      </c>
+      <c r="E232" s="2">
+        <v>45793.64583333334</v>
+      </c>
+      <c r="F232">
+        <v>29</v>
+      </c>
+      <c r="G232" t="s">
+        <v>83</v>
+      </c>
+      <c r="H232" t="s">
+        <v>81</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>2</v>
+      </c>
+      <c r="K232">
+        <v>2</v>
+      </c>
+      <c r="L232">
+        <v>1</v>
+      </c>
+      <c r="M232">
+        <v>4</v>
+      </c>
+      <c r="N232">
+        <v>5</v>
+      </c>
+      <c r="O232" t="s">
+        <v>245</v>
+      </c>
+      <c r="P232" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q232">
+        <v>6.28</v>
+      </c>
+      <c r="R232">
+        <v>2.89</v>
+      </c>
+      <c r="S232">
+        <v>1.62</v>
+      </c>
+      <c r="T232">
+        <v>1.16</v>
+      </c>
+      <c r="U232">
+        <v>4.4</v>
+      </c>
+      <c r="V232">
+        <v>1.85</v>
+      </c>
+      <c r="W232">
+        <v>1.91</v>
+      </c>
+      <c r="X232">
+        <v>3.7</v>
+      </c>
+      <c r="Y232">
+        <v>1.22</v>
+      </c>
+      <c r="Z232">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AA232">
+        <v>5.75</v>
+      </c>
+      <c r="AB232">
+        <v>1.18</v>
+      </c>
+      <c r="AC232">
+        <v>1.01</v>
+      </c>
+      <c r="AD232">
+        <v>19.5</v>
+      </c>
+      <c r="AE232">
+        <v>1.04</v>
+      </c>
+      <c r="AF232">
+        <v>6.39</v>
+      </c>
+      <c r="AG232">
+        <v>1.36</v>
+      </c>
+      <c r="AH232">
+        <v>3.04</v>
+      </c>
+      <c r="AI232">
+        <v>1.67</v>
+      </c>
+      <c r="AJ232">
+        <v>2.15</v>
+      </c>
+      <c r="AK232">
+        <v>4</v>
+      </c>
+      <c r="AL232">
+        <v>1.11</v>
+      </c>
+      <c r="AM232">
+        <v>1.06</v>
+      </c>
+      <c r="AN232">
+        <v>1.69</v>
+      </c>
+      <c r="AO232">
+        <v>2.21</v>
+      </c>
+      <c r="AP232">
+        <v>1.57</v>
+      </c>
+      <c r="AQ232">
+        <v>2.27</v>
+      </c>
+      <c r="AR232">
+        <v>1.67</v>
+      </c>
+      <c r="AS232">
+        <v>1.66</v>
+      </c>
+      <c r="AT232">
+        <v>3.33</v>
+      </c>
+      <c r="AU232">
+        <v>5</v>
+      </c>
+      <c r="AV232">
+        <v>5</v>
+      </c>
+      <c r="AW232">
+        <v>5</v>
+      </c>
+      <c r="AX232">
+        <v>4</v>
+      </c>
+      <c r="AY232">
+        <v>13</v>
+      </c>
+      <c r="AZ232">
+        <v>11</v>
+      </c>
+      <c r="BA232">
+        <v>6</v>
+      </c>
+      <c r="BB232">
+        <v>5</v>
+      </c>
+      <c r="BC232">
+        <v>11</v>
+      </c>
+      <c r="BD232">
+        <v>3.58</v>
+      </c>
+      <c r="BE232">
+        <v>8.9</v>
+      </c>
+      <c r="BF232">
+        <v>1.4</v>
+      </c>
+      <c r="BG232">
+        <v>1.27</v>
+      </c>
+      <c r="BH232">
+        <v>3.14</v>
+      </c>
+      <c r="BI232">
+        <v>1.51</v>
+      </c>
+      <c r="BJ232">
+        <v>2.5</v>
+      </c>
+      <c r="BK232">
+        <v>1.83</v>
+      </c>
+      <c r="BL232">
+        <v>1.96</v>
+      </c>
+      <c r="BM232">
+        <v>2.34</v>
+      </c>
+      <c r="BN232">
+        <v>1.44</v>
+      </c>
+      <c r="BO232">
+        <v>3.02</v>
+      </c>
+      <c r="BP232">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria 2. Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria 2. Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="368">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -754,6 +754,21 @@
     <t>['60']</t>
   </si>
   <si>
+    <t>['28', '38', '56', '66', '90+4']</t>
+  </si>
+  <si>
+    <t>['14', '24', '48']</t>
+  </si>
+  <si>
+    <t>['6', '15', '56']</t>
+  </si>
+  <si>
+    <t>['50', '74']</t>
+  </si>
+  <si>
+    <t>['16', '48']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -1091,6 +1106,18 @@
   </si>
   <si>
     <t>['17', '45', '62', '87']</t>
+  </si>
+  <si>
+    <t>['45+1', '55', '60']</t>
+  </si>
+  <si>
+    <t>['7', '11']</t>
+  </si>
+  <si>
+    <t>['2', '26', '59']</t>
+  </si>
+  <si>
+    <t>['25', '41', '70']</t>
   </si>
 </sst>
 </file>
@@ -1452,7 +1479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP232"/>
+  <dimension ref="A1:BP240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1711,7 +1738,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1792,7 +1819,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ2">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1917,7 +1944,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -2123,7 +2150,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q4">
         <v>6.5</v>
@@ -2329,7 +2356,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q5">
         <v>3.25</v>
@@ -2613,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
         <v>1.53</v>
@@ -2819,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ7">
         <v>0.33</v>
@@ -3028,7 +3055,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ8">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3231,10 +3258,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ9">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3437,10 +3464,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ10">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3565,7 +3592,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3643,10 +3670,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AQ11">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3771,7 +3798,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3849,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ12">
         <v>1.07</v>
@@ -4055,10 +4082,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ13">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4470,7 +4497,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ15">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4595,7 +4622,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q16">
         <v>2.1</v>
@@ -4673,10 +4700,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ16">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4801,7 +4828,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -5007,7 +5034,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q18">
         <v>2.2</v>
@@ -5088,7 +5115,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ18">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR18">
         <v>1.17</v>
@@ -5213,7 +5240,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q19">
         <v>2.5</v>
@@ -5294,7 +5321,7 @@
         <v>1</v>
       </c>
       <c r="AQ19">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR19">
         <v>0.97</v>
@@ -5419,7 +5446,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q20">
         <v>3.75</v>
@@ -5500,7 +5527,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ20">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR20">
         <v>0.71</v>
@@ -5625,7 +5652,7 @@
         <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q21">
         <v>4.5</v>
@@ -5703,7 +5730,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ21">
         <v>2.27</v>
@@ -5831,7 +5858,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5909,7 +5936,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ22">
         <v>1</v>
@@ -6115,7 +6142,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ23">
         <v>0.33</v>
@@ -6243,7 +6270,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6449,7 +6476,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q25">
         <v>2.38</v>
@@ -6655,7 +6682,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6861,7 +6888,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q27">
         <v>4.5</v>
@@ -7145,10 +7172,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ28">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AR28">
         <v>1.55</v>
@@ -7351,10 +7378,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ29">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR29">
         <v>1.46</v>
@@ -7479,7 +7506,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q30">
         <v>2.75</v>
@@ -7557,10 +7584,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AQ30">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR30">
         <v>1.86</v>
@@ -7685,7 +7712,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7969,10 +7996,10 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ32">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR32">
         <v>1.68</v>
@@ -8175,10 +8202,10 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ33">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR33">
         <v>1.76</v>
@@ -8303,7 +8330,7 @@
         <v>109</v>
       </c>
       <c r="P34" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q34">
         <v>1.8</v>
@@ -8384,7 +8411,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ34">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR34">
         <v>1.46</v>
@@ -8587,7 +8614,7 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ35">
         <v>1</v>
@@ -8715,7 +8742,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -8793,10 +8820,10 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ36">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR36">
         <v>1.65</v>
@@ -8921,7 +8948,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8999,7 +9026,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ37">
         <v>1.07</v>
@@ -9127,7 +9154,7 @@
         <v>112</v>
       </c>
       <c r="P38" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q38">
         <v>2.75</v>
@@ -9208,7 +9235,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ38">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AR38">
         <v>0.95</v>
@@ -9414,7 +9441,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ39">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR39">
         <v>0.82</v>
@@ -9539,7 +9566,7 @@
         <v>86</v>
       </c>
       <c r="P40" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9617,7 +9644,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AQ40">
         <v>2.27</v>
@@ -9745,7 +9772,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9951,7 +9978,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -10029,7 +10056,7 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ42">
         <v>1.4</v>
@@ -10235,10 +10262,10 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ43">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR43">
         <v>1.43</v>
@@ -10569,7 +10596,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10650,7 +10677,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ45">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR45">
         <v>0.9399999999999999</v>
@@ -10775,7 +10802,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10981,7 +11008,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q47">
         <v>3.6</v>
@@ -11062,7 +11089,7 @@
         <v>1</v>
       </c>
       <c r="AQ47">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AR47">
         <v>1.13</v>
@@ -11187,7 +11214,7 @@
         <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -11265,7 +11292,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AQ48">
         <v>1.53</v>
@@ -11471,7 +11498,7 @@
         <v>1.33</v>
       </c>
       <c r="AP49">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ49">
         <v>1.07</v>
@@ -11677,10 +11704,10 @@
         <v>0.33</v>
       </c>
       <c r="AP50">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ50">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR50">
         <v>1.26</v>
@@ -11805,7 +11832,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -11883,7 +11910,7 @@
         <v>3</v>
       </c>
       <c r="AP51">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ51">
         <v>2.27</v>
@@ -12011,7 +12038,7 @@
         <v>86</v>
       </c>
       <c r="P52" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q52">
         <v>2.1</v>
@@ -12092,7 +12119,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ52">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR52">
         <v>1.53</v>
@@ -12298,7 +12325,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ53">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR53">
         <v>0.98</v>
@@ -12423,7 +12450,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -12504,7 +12531,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ54">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR54">
         <v>1.74</v>
@@ -12707,7 +12734,7 @@
         <v>2.33</v>
       </c>
       <c r="AP55">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ55">
         <v>1.4</v>
@@ -12835,7 +12862,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q56">
         <v>3.25</v>
@@ -13041,7 +13068,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q57">
         <v>3.2</v>
@@ -13119,10 +13146,10 @@
         <v>1.5</v>
       </c>
       <c r="AP57">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ57">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR57">
         <v>1.02</v>
@@ -13247,7 +13274,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q58">
         <v>1.8</v>
@@ -13325,7 +13352,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ58">
         <v>1</v>
@@ -13534,7 +13561,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ59">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR59">
         <v>1.05</v>
@@ -13740,7 +13767,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ60">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR60">
         <v>1.45</v>
@@ -13865,7 +13892,7 @@
         <v>125</v>
       </c>
       <c r="P61" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -13943,7 +13970,7 @@
         <v>0.33</v>
       </c>
       <c r="AP61">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ61">
         <v>0.33</v>
@@ -14277,7 +14304,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q63">
         <v>3.6</v>
@@ -14358,7 +14385,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ63">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR63">
         <v>1.26</v>
@@ -14561,7 +14588,7 @@
         <v>1.67</v>
       </c>
       <c r="AP64">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ64">
         <v>1.2</v>
@@ -14689,7 +14716,7 @@
         <v>128</v>
       </c>
       <c r="P65" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14895,7 +14922,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -15182,7 +15209,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ67">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR67">
         <v>1.77</v>
@@ -15307,7 +15334,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q68">
         <v>2.1</v>
@@ -15388,7 +15415,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ68">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR68">
         <v>1.14</v>
@@ -15591,7 +15618,7 @@
         <v>3</v>
       </c>
       <c r="AP69">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ69">
         <v>1.53</v>
@@ -15797,7 +15824,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ70">
         <v>1.07</v>
@@ -15925,7 +15952,7 @@
         <v>133</v>
       </c>
       <c r="P71" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q71">
         <v>2.1</v>
@@ -16003,10 +16030,10 @@
         <v>0.75</v>
       </c>
       <c r="AP71">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ71">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AR71">
         <v>1.24</v>
@@ -16418,7 +16445,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ73">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR73">
         <v>1.39</v>
@@ -16621,7 +16648,7 @@
         <v>3</v>
       </c>
       <c r="AP74">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ74">
         <v>2.27</v>
@@ -16749,7 +16776,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16830,7 +16857,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ75">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR75">
         <v>1.29</v>
@@ -16955,7 +16982,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -17033,10 +17060,10 @@
         <v>2</v>
       </c>
       <c r="AP76">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ76">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR76">
         <v>1.4</v>
@@ -17161,7 +17188,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q77">
         <v>3.1</v>
@@ -17242,7 +17269,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ77">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR77">
         <v>1.02</v>
@@ -17367,7 +17394,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q78">
         <v>3.75</v>
@@ -17445,10 +17472,10 @@
         <v>1.75</v>
       </c>
       <c r="AP78">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AQ78">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR78">
         <v>1.34</v>
@@ -17651,7 +17678,7 @@
         <v>1.4</v>
       </c>
       <c r="AP79">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ79">
         <v>1</v>
@@ -17857,7 +17884,7 @@
         <v>1.25</v>
       </c>
       <c r="AP80">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ80">
         <v>1.2</v>
@@ -17985,7 +18012,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -18063,7 +18090,7 @@
         <v>0.8</v>
       </c>
       <c r="AP81">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ81">
         <v>1.07</v>
@@ -18269,7 +18296,7 @@
         <v>2.4</v>
       </c>
       <c r="AP82">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ82">
         <v>1.53</v>
@@ -18478,7 +18505,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ83">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR83">
         <v>1.17</v>
@@ -18684,7 +18711,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ84">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR84">
         <v>1.58</v>
@@ -18809,7 +18836,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q85">
         <v>2</v>
@@ -18887,7 +18914,7 @@
         <v>0.2</v>
       </c>
       <c r="AP85">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ85">
         <v>0.33</v>
@@ -19015,7 +19042,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -19427,7 +19454,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q88">
         <v>4.33</v>
@@ -19508,7 +19535,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ88">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AR88">
         <v>1.25</v>
@@ -19633,7 +19660,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q89">
         <v>3.1</v>
@@ -19711,10 +19738,10 @@
         <v>1.75</v>
       </c>
       <c r="AP89">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ89">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR89">
         <v>1.41</v>
@@ -19839,7 +19866,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19920,7 +19947,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ90">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR90">
         <v>1.43</v>
@@ -20123,7 +20150,7 @@
         <v>2.6</v>
       </c>
       <c r="AP91">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ91">
         <v>2.27</v>
@@ -20251,7 +20278,7 @@
         <v>86</v>
       </c>
       <c r="P92" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q92">
         <v>2.5</v>
@@ -20329,7 +20356,7 @@
         <v>1</v>
       </c>
       <c r="AP92">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ92">
         <v>1.2</v>
@@ -20457,7 +20484,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20538,7 +20565,7 @@
         <v>1</v>
       </c>
       <c r="AQ93">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR93">
         <v>1.23</v>
@@ -20663,7 +20690,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20741,10 +20768,10 @@
         <v>1.8</v>
       </c>
       <c r="AP94">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ94">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR94">
         <v>1.93</v>
@@ -20869,7 +20896,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q95">
         <v>2.6</v>
@@ -20947,10 +20974,10 @@
         <v>1.2</v>
       </c>
       <c r="AP95">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AQ95">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR95">
         <v>1.33</v>
@@ -21153,10 +21180,10 @@
         <v>0.4</v>
       </c>
       <c r="AP96">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ96">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR96">
         <v>1.29</v>
@@ -21281,7 +21308,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q97">
         <v>3.2</v>
@@ -21359,10 +21386,10 @@
         <v>2</v>
       </c>
       <c r="AP97">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ97">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR97">
         <v>1.11</v>
@@ -21565,7 +21592,7 @@
         <v>0.67</v>
       </c>
       <c r="AP98">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ98">
         <v>0.33</v>
@@ -21693,7 +21720,7 @@
         <v>142</v>
       </c>
       <c r="P99" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q99">
         <v>3.2</v>
@@ -21899,7 +21926,7 @@
         <v>86</v>
       </c>
       <c r="P100" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q100">
         <v>3.2</v>
@@ -21980,7 +22007,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ100">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AR100">
         <v>1.75</v>
@@ -22105,7 +22132,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -22517,7 +22544,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q103">
         <v>4.5</v>
@@ -22723,7 +22750,7 @@
         <v>152</v>
       </c>
       <c r="P104" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -23135,7 +23162,7 @@
         <v>86</v>
       </c>
       <c r="P106" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23213,10 +23240,10 @@
         <v>0.83</v>
       </c>
       <c r="AP106">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ106">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR106">
         <v>1.34</v>
@@ -23419,10 +23446,10 @@
         <v>1.71</v>
       </c>
       <c r="AP107">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ107">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AR107">
         <v>1.93</v>
@@ -23547,7 +23574,7 @@
         <v>153</v>
       </c>
       <c r="P108" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q108">
         <v>2.88</v>
@@ -23625,10 +23652,10 @@
         <v>2.17</v>
       </c>
       <c r="AP108">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ108">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR108">
         <v>1.76</v>
@@ -23753,7 +23780,7 @@
         <v>86</v>
       </c>
       <c r="P109" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q109">
         <v>3.2</v>
@@ -23831,10 +23858,10 @@
         <v>1.29</v>
       </c>
       <c r="AP109">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AQ109">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR109">
         <v>1.43</v>
@@ -24037,10 +24064,10 @@
         <v>1.67</v>
       </c>
       <c r="AP110">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ110">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR110">
         <v>1.28</v>
@@ -24243,10 +24270,10 @@
         <v>1</v>
       </c>
       <c r="AP111">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ111">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR111">
         <v>1.21</v>
@@ -24449,10 +24476,10 @@
         <v>2.17</v>
       </c>
       <c r="AP112">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ112">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR112">
         <v>1.39</v>
@@ -24655,10 +24682,10 @@
         <v>0.5</v>
       </c>
       <c r="AP113">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ113">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR113">
         <v>1.3</v>
@@ -25195,7 +25222,7 @@
         <v>157</v>
       </c>
       <c r="P116" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q116">
         <v>3.5</v>
@@ -25813,7 +25840,7 @@
         <v>152</v>
       </c>
       <c r="P119" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q119">
         <v>2.63</v>
@@ -26431,7 +26458,7 @@
         <v>86</v>
       </c>
       <c r="P122" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -26509,10 +26536,10 @@
         <v>1.14</v>
       </c>
       <c r="AP122">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ122">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR122">
         <v>1.65</v>
@@ -26715,10 +26742,10 @@
         <v>0.57</v>
       </c>
       <c r="AP123">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ123">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR123">
         <v>1.4</v>
@@ -26843,7 +26870,7 @@
         <v>161</v>
       </c>
       <c r="P124" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q124">
         <v>2.38</v>
@@ -27049,7 +27076,7 @@
         <v>162</v>
       </c>
       <c r="P125" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -27130,7 +27157,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ125">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR125">
         <v>1.17</v>
@@ -27255,7 +27282,7 @@
         <v>163</v>
       </c>
       <c r="P126" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -27333,7 +27360,7 @@
         <v>2.29</v>
       </c>
       <c r="AP126">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ126">
         <v>1.93</v>
@@ -27461,7 +27488,7 @@
         <v>164</v>
       </c>
       <c r="P127" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27539,7 +27566,7 @@
         <v>1.5</v>
       </c>
       <c r="AP127">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AQ127">
         <v>1.4</v>
@@ -27667,7 +27694,7 @@
         <v>165</v>
       </c>
       <c r="P128" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q128">
         <v>2.75</v>
@@ -27748,7 +27775,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ128">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR128">
         <v>1.75</v>
@@ -27873,7 +27900,7 @@
         <v>166</v>
       </c>
       <c r="P129" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q129">
         <v>1.95</v>
@@ -27951,10 +27978,10 @@
         <v>0.86</v>
       </c>
       <c r="AP129">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ129">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR129">
         <v>1.89</v>
@@ -28079,7 +28106,7 @@
         <v>86</v>
       </c>
       <c r="P130" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q130">
         <v>3.4</v>
@@ -28157,10 +28184,10 @@
         <v>1.88</v>
       </c>
       <c r="AP130">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ130">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AR130">
         <v>1.29</v>
@@ -28491,7 +28518,7 @@
         <v>153</v>
       </c>
       <c r="P132" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28569,7 +28596,7 @@
         <v>1.63</v>
       </c>
       <c r="AP132">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ132">
         <v>1.53</v>
@@ -28775,10 +28802,10 @@
         <v>2.29</v>
       </c>
       <c r="AP133">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ133">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR133">
         <v>1.4</v>
@@ -29602,7 +29629,7 @@
         <v>1</v>
       </c>
       <c r="AQ137">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR137">
         <v>1.29</v>
@@ -29805,10 +29832,10 @@
         <v>2</v>
       </c>
       <c r="AP138">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ138">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AR138">
         <v>1.61</v>
@@ -29933,7 +29960,7 @@
         <v>171</v>
       </c>
       <c r="P139" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q139">
         <v>4.8</v>
@@ -30011,7 +30038,7 @@
         <v>2.38</v>
       </c>
       <c r="AP139">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AQ139">
         <v>1.93</v>
@@ -30217,7 +30244,7 @@
         <v>1.44</v>
       </c>
       <c r="AP140">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ140">
         <v>1.4</v>
@@ -30345,7 +30372,7 @@
         <v>173</v>
       </c>
       <c r="P141" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -30426,7 +30453,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ141">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR141">
         <v>1.04</v>
@@ -30632,7 +30659,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ142">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR142">
         <v>1.21</v>
@@ -30835,7 +30862,7 @@
         <v>0.89</v>
       </c>
       <c r="AP143">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ143">
         <v>1.07</v>
@@ -31041,10 +31068,10 @@
         <v>1.33</v>
       </c>
       <c r="AP144">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ144">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR144">
         <v>1.3</v>
@@ -31247,10 +31274,10 @@
         <v>0.75</v>
       </c>
       <c r="AP145">
+        <v>1.07</v>
+      </c>
+      <c r="AQ145">
         <v>0.93</v>
-      </c>
-      <c r="AQ145">
-        <v>0.79</v>
       </c>
       <c r="AR145">
         <v>1.22</v>
@@ -31993,7 +32020,7 @@
         <v>181</v>
       </c>
       <c r="P149" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q149">
         <v>2.1</v>
@@ -32071,10 +32098,10 @@
         <v>1.25</v>
       </c>
       <c r="AP149">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ149">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR149">
         <v>1.38</v>
@@ -32199,7 +32226,7 @@
         <v>182</v>
       </c>
       <c r="P150" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q150">
         <v>2.63</v>
@@ -32483,10 +32510,10 @@
         <v>2</v>
       </c>
       <c r="AP151">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ151">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR151">
         <v>1.34</v>
@@ -32817,7 +32844,7 @@
         <v>185</v>
       </c>
       <c r="P153" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q153">
         <v>2.88</v>
@@ -33023,7 +33050,7 @@
         <v>86</v>
       </c>
       <c r="P154" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q154">
         <v>3.75</v>
@@ -33101,7 +33128,7 @@
         <v>2.22</v>
       </c>
       <c r="AP154">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ154">
         <v>1.93</v>
@@ -33229,7 +33256,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q155">
         <v>3.6</v>
@@ -33310,7 +33337,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ155">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR155">
         <v>1.03</v>
@@ -33513,7 +33540,7 @@
         <v>1.3</v>
       </c>
       <c r="AP156">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ156">
         <v>1.4</v>
@@ -33722,7 +33749,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ157">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR157">
         <v>1.27</v>
@@ -33847,7 +33874,7 @@
         <v>188</v>
       </c>
       <c r="P158" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q158">
         <v>2.4</v>
@@ -33928,7 +33955,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ158">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR158">
         <v>1.5</v>
@@ -34131,7 +34158,7 @@
         <v>0.5</v>
       </c>
       <c r="AP159">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ159">
         <v>0.33</v>
@@ -34337,10 +34364,10 @@
         <v>1.22</v>
       </c>
       <c r="AP160">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ160">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR160">
         <v>1.4</v>
@@ -34465,7 +34492,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -34543,7 +34570,7 @@
         <v>1.4</v>
       </c>
       <c r="AP161">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ161">
         <v>1.53</v>
@@ -34671,7 +34698,7 @@
         <v>192</v>
       </c>
       <c r="P162" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q162">
         <v>3.2</v>
@@ -34749,10 +34776,10 @@
         <v>1.11</v>
       </c>
       <c r="AP162">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AQ162">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR162">
         <v>1.33</v>
@@ -34958,7 +34985,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ163">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR163">
         <v>1.17</v>
@@ -35495,7 +35522,7 @@
         <v>195</v>
       </c>
       <c r="P166" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q166">
         <v>2.88</v>
@@ -35573,7 +35600,7 @@
         <v>1.1</v>
       </c>
       <c r="AP166">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ166">
         <v>1</v>
@@ -35779,10 +35806,10 @@
         <v>1.9</v>
       </c>
       <c r="AP167">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ167">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AR167">
         <v>1.46</v>
@@ -35988,7 +36015,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ168">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR168">
         <v>1.22</v>
@@ -36113,7 +36140,7 @@
         <v>198</v>
       </c>
       <c r="P169" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q169">
         <v>2.88</v>
@@ -36194,7 +36221,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ169">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR169">
         <v>1.67</v>
@@ -36397,10 +36424,10 @@
         <v>1.7</v>
       </c>
       <c r="AP170">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ170">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR170">
         <v>1.79</v>
@@ -36525,7 +36552,7 @@
         <v>200</v>
       </c>
       <c r="P171" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q171">
         <v>2.5</v>
@@ -36603,7 +36630,7 @@
         <v>0.45</v>
       </c>
       <c r="AP171">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ171">
         <v>0.33</v>
@@ -36809,7 +36836,7 @@
         <v>1.1</v>
       </c>
       <c r="AP172">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ172">
         <v>1.2</v>
@@ -36937,7 +36964,7 @@
         <v>86</v>
       </c>
       <c r="P173" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q173">
         <v>3.1</v>
@@ -37224,7 +37251,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ174">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR174">
         <v>1.05</v>
@@ -37349,7 +37376,7 @@
         <v>177</v>
       </c>
       <c r="P175" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q175">
         <v>5</v>
@@ -37427,7 +37454,7 @@
         <v>2.3</v>
       </c>
       <c r="AP175">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ175">
         <v>1.93</v>
@@ -37636,7 +37663,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ176">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR176">
         <v>1.55</v>
@@ -37761,7 +37788,7 @@
         <v>86</v>
       </c>
       <c r="P177" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Q177">
         <v>5.25</v>
@@ -37839,7 +37866,7 @@
         <v>2.27</v>
       </c>
       <c r="AP177">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ177">
         <v>2.27</v>
@@ -38048,7 +38075,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ178">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR178">
         <v>1.24</v>
@@ -38251,7 +38278,7 @@
         <v>2.36</v>
       </c>
       <c r="AP179">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ179">
         <v>1.93</v>
@@ -38379,7 +38406,7 @@
         <v>204</v>
       </c>
       <c r="P180" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q180">
         <v>4.2</v>
@@ -38460,7 +38487,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ180">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AR180">
         <v>1.18</v>
@@ -38585,7 +38612,7 @@
         <v>205</v>
       </c>
       <c r="P181" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q181">
         <v>2.3</v>
@@ -38666,7 +38693,7 @@
         <v>1</v>
       </c>
       <c r="AQ181">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR181">
         <v>1.41</v>
@@ -38791,7 +38818,7 @@
         <v>206</v>
       </c>
       <c r="P182" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Q182">
         <v>3.45</v>
@@ -38869,7 +38896,7 @@
         <v>0.73</v>
       </c>
       <c r="AP182">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AQ182">
         <v>1.07</v>
@@ -39281,10 +39308,10 @@
         <v>0.6</v>
       </c>
       <c r="AP184">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ184">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR184">
         <v>1.72</v>
@@ -39409,7 +39436,7 @@
         <v>208</v>
       </c>
       <c r="P185" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q185">
         <v>3.6</v>
@@ -39487,10 +39514,10 @@
         <v>1</v>
       </c>
       <c r="AP185">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AQ185">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR185">
         <v>1.42</v>
@@ -39615,7 +39642,7 @@
         <v>209</v>
       </c>
       <c r="P186" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q186">
         <v>2.7</v>
@@ -39696,7 +39723,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ186">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR186">
         <v>1.01</v>
@@ -39899,7 +39926,7 @@
         <v>1.09</v>
       </c>
       <c r="AP187">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ187">
         <v>1</v>
@@ -40027,7 +40054,7 @@
         <v>152</v>
       </c>
       <c r="P188" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q188">
         <v>3</v>
@@ -40105,10 +40132,10 @@
         <v>1.6</v>
       </c>
       <c r="AP188">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ188">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR188">
         <v>1.24</v>
@@ -40233,7 +40260,7 @@
         <v>211</v>
       </c>
       <c r="P189" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q189">
         <v>2.87</v>
@@ -40311,7 +40338,7 @@
         <v>1.09</v>
       </c>
       <c r="AP189">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ189">
         <v>1.2</v>
@@ -40439,7 +40466,7 @@
         <v>212</v>
       </c>
       <c r="P190" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q190">
         <v>3.4</v>
@@ -40645,7 +40672,7 @@
         <v>213</v>
       </c>
       <c r="P191" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q191">
         <v>2.2</v>
@@ -40723,10 +40750,10 @@
         <v>0.73</v>
       </c>
       <c r="AP191">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ191">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR191">
         <v>1.44</v>
@@ -41057,7 +41084,7 @@
         <v>214</v>
       </c>
       <c r="P193" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q193">
         <v>3.8</v>
@@ -41138,7 +41165,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ193">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AR193">
         <v>1.59</v>
@@ -41263,7 +41290,7 @@
         <v>86</v>
       </c>
       <c r="P194" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q194">
         <v>2.98</v>
@@ -41341,7 +41368,7 @@
         <v>1.42</v>
       </c>
       <c r="AP194">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ194">
         <v>1.53</v>
@@ -41547,7 +41574,7 @@
         <v>1.42</v>
       </c>
       <c r="AP195">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ195">
         <v>1.4</v>
@@ -41675,7 +41702,7 @@
         <v>216</v>
       </c>
       <c r="P196" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="Q196">
         <v>2.58</v>
@@ -41756,7 +41783,7 @@
         <v>1</v>
       </c>
       <c r="AQ196">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR196">
         <v>1.53</v>
@@ -41881,7 +41908,7 @@
         <v>217</v>
       </c>
       <c r="P197" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -41959,7 +41986,7 @@
         <v>2.42</v>
       </c>
       <c r="AP197">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ197">
         <v>1.93</v>
@@ -42293,7 +42320,7 @@
         <v>219</v>
       </c>
       <c r="P199" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Q199">
         <v>3</v>
@@ -42374,7 +42401,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ199">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR199">
         <v>1.32</v>
@@ -42499,7 +42526,7 @@
         <v>220</v>
       </c>
       <c r="P200" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q200">
         <v>1.77</v>
@@ -42577,10 +42604,10 @@
         <v>1.17</v>
       </c>
       <c r="AP200">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ200">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR200">
         <v>1.43</v>
@@ -42705,7 +42732,7 @@
         <v>221</v>
       </c>
       <c r="P201" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q201">
         <v>1.92</v>
@@ -42786,7 +42813,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ201">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR201">
         <v>1.57</v>
@@ -42911,7 +42938,7 @@
         <v>222</v>
       </c>
       <c r="P202" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q202">
         <v>3.2</v>
@@ -42989,7 +43016,7 @@
         <v>1</v>
       </c>
       <c r="AP202">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AQ202">
         <v>1</v>
@@ -43117,7 +43144,7 @@
         <v>86</v>
       </c>
       <c r="P203" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q203">
         <v>2.62</v>
@@ -43198,7 +43225,7 @@
         <v>1</v>
       </c>
       <c r="AQ203">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR203">
         <v>1.53</v>
@@ -43401,10 +43428,10 @@
         <v>1.08</v>
       </c>
       <c r="AP204">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ204">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR204">
         <v>1.23</v>
@@ -43607,7 +43634,7 @@
         <v>1</v>
       </c>
       <c r="AP205">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ205">
         <v>1.2</v>
@@ -43735,7 +43762,7 @@
         <v>225</v>
       </c>
       <c r="P206" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q206">
         <v>5.19</v>
@@ -43813,7 +43840,7 @@
         <v>2.38</v>
       </c>
       <c r="AP206">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ206">
         <v>2.27</v>
@@ -43941,7 +43968,7 @@
         <v>226</v>
       </c>
       <c r="P207" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Q207">
         <v>4.3</v>
@@ -44022,7 +44049,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ207">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR207">
         <v>1.36</v>
@@ -44353,7 +44380,7 @@
         <v>137</v>
       </c>
       <c r="P209" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q209">
         <v>3.1</v>
@@ -44559,7 +44586,7 @@
         <v>228</v>
       </c>
       <c r="P210" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Q210">
         <v>3.4</v>
@@ -44765,7 +44792,7 @@
         <v>229</v>
       </c>
       <c r="P211" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="Q211">
         <v>3.1</v>
@@ -44846,7 +44873,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ211">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR211">
         <v>1.61</v>
@@ -45049,7 +45076,7 @@
         <v>1.38</v>
       </c>
       <c r="AP212">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ212">
         <v>1.4</v>
@@ -45255,7 +45282,7 @@
         <v>2.23</v>
       </c>
       <c r="AP213">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ213">
         <v>1.93</v>
@@ -45383,7 +45410,7 @@
         <v>231</v>
       </c>
       <c r="P214" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="Q214">
         <v>4.15</v>
@@ -45464,7 +45491,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ214">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AR214">
         <v>1.44</v>
@@ -45589,7 +45616,7 @@
         <v>86</v>
       </c>
       <c r="P215" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q215">
         <v>2.1</v>
@@ -45795,7 +45822,7 @@
         <v>232</v>
       </c>
       <c r="P216" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q216">
         <v>2.5</v>
@@ -45876,7 +45903,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ216">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR216">
         <v>1.2</v>
@@ -46082,7 +46109,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ217">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR217">
         <v>1.66</v>
@@ -46207,7 +46234,7 @@
         <v>234</v>
       </c>
       <c r="P218" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="Q218">
         <v>2.7</v>
@@ -46285,10 +46312,10 @@
         <v>1.58</v>
       </c>
       <c r="AP218">
+        <v>1.47</v>
+      </c>
+      <c r="AQ218">
         <v>1.57</v>
-      </c>
-      <c r="AQ218">
-        <v>1.69</v>
       </c>
       <c r="AR218">
         <v>1.77</v>
@@ -46413,7 +46440,7 @@
         <v>235</v>
       </c>
       <c r="P219" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="Q219">
         <v>2.6</v>
@@ -46491,10 +46518,10 @@
         <v>0.77</v>
       </c>
       <c r="AP219">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ219">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR219">
         <v>1.27</v>
@@ -46697,10 +46724,10 @@
         <v>1.54</v>
       </c>
       <c r="AP220">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ220">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR220">
         <v>1.27</v>
@@ -46903,10 +46930,10 @@
         <v>1.31</v>
       </c>
       <c r="AP221">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ221">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR221">
         <v>1.54</v>
@@ -47031,7 +47058,7 @@
         <v>237</v>
       </c>
       <c r="P222" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="Q222">
         <v>4.1</v>
@@ -47109,7 +47136,7 @@
         <v>0.92</v>
       </c>
       <c r="AP222">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AQ222">
         <v>1.2</v>
@@ -47237,7 +47264,7 @@
         <v>238</v>
       </c>
       <c r="P223" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="Q223">
         <v>3.1</v>
@@ -47315,10 +47342,10 @@
         <v>0.77</v>
       </c>
       <c r="AP223">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ223">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR223">
         <v>1.38</v>
@@ -47443,7 +47470,7 @@
         <v>239</v>
       </c>
       <c r="P224" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="Q224">
         <v>1.63</v>
@@ -47521,10 +47548,10 @@
         <v>1.31</v>
       </c>
       <c r="AP224">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ224">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR224">
         <v>1.41</v>
@@ -48061,7 +48088,7 @@
         <v>241</v>
       </c>
       <c r="P227" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="Q227">
         <v>3.22</v>
@@ -48267,7 +48294,7 @@
         <v>242</v>
       </c>
       <c r="P228" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q228">
         <v>1.74</v>
@@ -48473,7 +48500,7 @@
         <v>243</v>
       </c>
       <c r="P229" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="Q229">
         <v>2.59</v>
@@ -49091,7 +49118,7 @@
         <v>245</v>
       </c>
       <c r="P232" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="Q232">
         <v>6.28</v>
@@ -49248,6 +49275,1654 @@
       </c>
       <c r="BP232">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="233" spans="1:68">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>7484775</v>
+      </c>
+      <c r="C233" t="s">
+        <v>68</v>
+      </c>
+      <c r="D233" t="s">
+        <v>69</v>
+      </c>
+      <c r="E233" s="2">
+        <v>45801.39583333334</v>
+      </c>
+      <c r="F233">
+        <v>30</v>
+      </c>
+      <c r="G233" t="s">
+        <v>80</v>
+      </c>
+      <c r="H233" t="s">
+        <v>83</v>
+      </c>
+      <c r="I233">
+        <v>2</v>
+      </c>
+      <c r="J233">
+        <v>1</v>
+      </c>
+      <c r="K233">
+        <v>3</v>
+      </c>
+      <c r="L233">
+        <v>5</v>
+      </c>
+      <c r="M233">
+        <v>3</v>
+      </c>
+      <c r="N233">
+        <v>8</v>
+      </c>
+      <c r="O233" t="s">
+        <v>246</v>
+      </c>
+      <c r="P233" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q233">
+        <v>2.17</v>
+      </c>
+      <c r="R233">
+        <v>2.59</v>
+      </c>
+      <c r="S233">
+        <v>4.1</v>
+      </c>
+      <c r="T233">
+        <v>1.17</v>
+      </c>
+      <c r="U233">
+        <v>4.6</v>
+      </c>
+      <c r="V233">
+        <v>1.91</v>
+      </c>
+      <c r="W233">
+        <v>1.95</v>
+      </c>
+      <c r="X233">
+        <v>3.75</v>
+      </c>
+      <c r="Y233">
+        <v>1.25</v>
+      </c>
+      <c r="Z233">
+        <v>1.74</v>
+      </c>
+      <c r="AA233">
+        <v>4.35</v>
+      </c>
+      <c r="AB233">
+        <v>3.86</v>
+      </c>
+      <c r="AC233">
+        <v>1.01</v>
+      </c>
+      <c r="AD233">
+        <v>20</v>
+      </c>
+      <c r="AE233">
+        <v>1.05</v>
+      </c>
+      <c r="AF233">
+        <v>7</v>
+      </c>
+      <c r="AG233">
+        <v>1.28</v>
+      </c>
+      <c r="AH233">
+        <v>3.1</v>
+      </c>
+      <c r="AI233">
+        <v>1.36</v>
+      </c>
+      <c r="AJ233">
+        <v>2.93</v>
+      </c>
+      <c r="AK233">
+        <v>1.27</v>
+      </c>
+      <c r="AL233">
+        <v>1.21</v>
+      </c>
+      <c r="AM233">
+        <v>2.07</v>
+      </c>
+      <c r="AN233">
+        <v>2</v>
+      </c>
+      <c r="AO233">
+        <v>0.93</v>
+      </c>
+      <c r="AP233">
+        <v>2.07</v>
+      </c>
+      <c r="AQ233">
+        <v>0.87</v>
+      </c>
+      <c r="AR233">
+        <v>1.38</v>
+      </c>
+      <c r="AS233">
+        <v>1.31</v>
+      </c>
+      <c r="AT233">
+        <v>2.69</v>
+      </c>
+      <c r="AU233">
+        <v>10</v>
+      </c>
+      <c r="AV233">
+        <v>6</v>
+      </c>
+      <c r="AW233">
+        <v>1</v>
+      </c>
+      <c r="AX233">
+        <v>10</v>
+      </c>
+      <c r="AY233">
+        <v>11</v>
+      </c>
+      <c r="AZ233">
+        <v>18</v>
+      </c>
+      <c r="BA233">
+        <v>3</v>
+      </c>
+      <c r="BB233">
+        <v>9</v>
+      </c>
+      <c r="BC233">
+        <v>12</v>
+      </c>
+      <c r="BD233">
+        <v>1.57</v>
+      </c>
+      <c r="BE233">
+        <v>7.5</v>
+      </c>
+      <c r="BF233">
+        <v>2.53</v>
+      </c>
+      <c r="BG233">
+        <v>1.18</v>
+      </c>
+      <c r="BH233">
+        <v>4.1</v>
+      </c>
+      <c r="BI233">
+        <v>1.3</v>
+      </c>
+      <c r="BJ233">
+        <v>2.97</v>
+      </c>
+      <c r="BK233">
+        <v>1.74</v>
+      </c>
+      <c r="BL233">
+        <v>2.25</v>
+      </c>
+      <c r="BM233">
+        <v>1.95</v>
+      </c>
+      <c r="BN233">
+        <v>1.8</v>
+      </c>
+      <c r="BO233">
+        <v>2.5</v>
+      </c>
+      <c r="BP233">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="234" spans="1:68">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>7484773</v>
+      </c>
+      <c r="C234" t="s">
+        <v>68</v>
+      </c>
+      <c r="D234" t="s">
+        <v>69</v>
+      </c>
+      <c r="E234" s="2">
+        <v>45801.39583333334</v>
+      </c>
+      <c r="F234">
+        <v>30</v>
+      </c>
+      <c r="G234" t="s">
+        <v>77</v>
+      </c>
+      <c r="H234" t="s">
+        <v>76</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
+      <c r="K234">
+        <v>0</v>
+      </c>
+      <c r="L234">
+        <v>1</v>
+      </c>
+      <c r="M234">
+        <v>1</v>
+      </c>
+      <c r="N234">
+        <v>2</v>
+      </c>
+      <c r="O234" t="s">
+        <v>102</v>
+      </c>
+      <c r="P234" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q234">
+        <v>2.54</v>
+      </c>
+      <c r="R234">
+        <v>2.35</v>
+      </c>
+      <c r="S234">
+        <v>3.54</v>
+      </c>
+      <c r="T234">
+        <v>1.25</v>
+      </c>
+      <c r="U234">
+        <v>3.5</v>
+      </c>
+      <c r="V234">
+        <v>2.25</v>
+      </c>
+      <c r="W234">
+        <v>1.6</v>
+      </c>
+      <c r="X234">
+        <v>4.9</v>
+      </c>
+      <c r="Y234">
+        <v>1.13</v>
+      </c>
+      <c r="Z234">
+        <v>1.98</v>
+      </c>
+      <c r="AA234">
+        <v>3.84</v>
+      </c>
+      <c r="AB234">
+        <v>3</v>
+      </c>
+      <c r="AC234">
+        <v>1</v>
+      </c>
+      <c r="AD234">
+        <v>15</v>
+      </c>
+      <c r="AE234">
+        <v>1.12</v>
+      </c>
+      <c r="AF234">
+        <v>4.75</v>
+      </c>
+      <c r="AG234">
+        <v>1.56</v>
+      </c>
+      <c r="AH234">
+        <v>2.3</v>
+      </c>
+      <c r="AI234">
+        <v>1.55</v>
+      </c>
+      <c r="AJ234">
+        <v>2.46</v>
+      </c>
+      <c r="AK234">
+        <v>1.22</v>
+      </c>
+      <c r="AL234">
+        <v>1.28</v>
+      </c>
+      <c r="AM234">
+        <v>1.86</v>
+      </c>
+      <c r="AN234">
+        <v>1.43</v>
+      </c>
+      <c r="AO234">
+        <v>1.21</v>
+      </c>
+      <c r="AP234">
+        <v>1.4</v>
+      </c>
+      <c r="AQ234">
+        <v>1.2</v>
+      </c>
+      <c r="AR234">
+        <v>1.28</v>
+      </c>
+      <c r="AS234">
+        <v>1.41</v>
+      </c>
+      <c r="AT234">
+        <v>2.69</v>
+      </c>
+      <c r="AU234">
+        <v>5</v>
+      </c>
+      <c r="AV234">
+        <v>5</v>
+      </c>
+      <c r="AW234">
+        <v>9</v>
+      </c>
+      <c r="AX234">
+        <v>6</v>
+      </c>
+      <c r="AY234">
+        <v>18</v>
+      </c>
+      <c r="AZ234">
+        <v>14</v>
+      </c>
+      <c r="BA234">
+        <v>6</v>
+      </c>
+      <c r="BB234">
+        <v>7</v>
+      </c>
+      <c r="BC234">
+        <v>13</v>
+      </c>
+      <c r="BD234">
+        <v>1.53</v>
+      </c>
+      <c r="BE234">
+        <v>7.4</v>
+      </c>
+      <c r="BF234">
+        <v>3.24</v>
+      </c>
+      <c r="BG234">
+        <v>1.25</v>
+      </c>
+      <c r="BH234">
+        <v>3.88</v>
+      </c>
+      <c r="BI234">
+        <v>1.47</v>
+      </c>
+      <c r="BJ234">
+        <v>2.5</v>
+      </c>
+      <c r="BK234">
+        <v>1.68</v>
+      </c>
+      <c r="BL234">
+        <v>1.97</v>
+      </c>
+      <c r="BM234">
+        <v>2.2</v>
+      </c>
+      <c r="BN234">
+        <v>1.62</v>
+      </c>
+      <c r="BO234">
+        <v>2.74</v>
+      </c>
+      <c r="BP234">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="235" spans="1:68">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>7484770</v>
+      </c>
+      <c r="C235" t="s">
+        <v>68</v>
+      </c>
+      <c r="D235" t="s">
+        <v>69</v>
+      </c>
+      <c r="E235" s="2">
+        <v>45802.39583333334</v>
+      </c>
+      <c r="F235">
+        <v>30</v>
+      </c>
+      <c r="G235" t="s">
+        <v>78</v>
+      </c>
+      <c r="H235" t="s">
+        <v>70</v>
+      </c>
+      <c r="I235">
+        <v>2</v>
+      </c>
+      <c r="J235">
+        <v>1</v>
+      </c>
+      <c r="K235">
+        <v>3</v>
+      </c>
+      <c r="L235">
+        <v>3</v>
+      </c>
+      <c r="M235">
+        <v>1</v>
+      </c>
+      <c r="N235">
+        <v>4</v>
+      </c>
+      <c r="O235" t="s">
+        <v>247</v>
+      </c>
+      <c r="P235" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q235">
+        <v>2.56</v>
+      </c>
+      <c r="R235">
+        <v>2.05</v>
+      </c>
+      <c r="S235">
+        <v>3.75</v>
+      </c>
+      <c r="T235">
+        <v>1.25</v>
+      </c>
+      <c r="U235">
+        <v>3.6</v>
+      </c>
+      <c r="V235">
+        <v>2.36</v>
+      </c>
+      <c r="W235">
+        <v>1.62</v>
+      </c>
+      <c r="X235">
+        <v>5.85</v>
+      </c>
+      <c r="Y235">
+        <v>1.15</v>
+      </c>
+      <c r="Z235">
+        <v>2.05</v>
+      </c>
+      <c r="AA235">
+        <v>3.5</v>
+      </c>
+      <c r="AB235">
+        <v>3.1</v>
+      </c>
+      <c r="AC235">
+        <v>1.04</v>
+      </c>
+      <c r="AD235">
+        <v>12</v>
+      </c>
+      <c r="AE235">
+        <v>1.2</v>
+      </c>
+      <c r="AF235">
+        <v>4.75</v>
+      </c>
+      <c r="AG235">
+        <v>1.63</v>
+      </c>
+      <c r="AH235">
+        <v>2.23</v>
+      </c>
+      <c r="AI235">
+        <v>1.53</v>
+      </c>
+      <c r="AJ235">
+        <v>2.4</v>
+      </c>
+      <c r="AK235">
+        <v>1.26</v>
+      </c>
+      <c r="AL235">
+        <v>1.24</v>
+      </c>
+      <c r="AM235">
+        <v>1.76</v>
+      </c>
+      <c r="AN235">
+        <v>1.5</v>
+      </c>
+      <c r="AO235">
+        <v>1.69</v>
+      </c>
+      <c r="AP235">
+        <v>1.6</v>
+      </c>
+      <c r="AQ235">
+        <v>1.57</v>
+      </c>
+      <c r="AR235">
+        <v>1.67</v>
+      </c>
+      <c r="AS235">
+        <v>1.41</v>
+      </c>
+      <c r="AT235">
+        <v>3.08</v>
+      </c>
+      <c r="AU235">
+        <v>5</v>
+      </c>
+      <c r="AV235">
+        <v>2</v>
+      </c>
+      <c r="AW235">
+        <v>6</v>
+      </c>
+      <c r="AX235">
+        <v>4</v>
+      </c>
+      <c r="AY235">
+        <v>13</v>
+      </c>
+      <c r="AZ235">
+        <v>8</v>
+      </c>
+      <c r="BA235">
+        <v>7</v>
+      </c>
+      <c r="BB235">
+        <v>5</v>
+      </c>
+      <c r="BC235">
+        <v>12</v>
+      </c>
+      <c r="BD235">
+        <v>1.57</v>
+      </c>
+      <c r="BE235">
+        <v>7.4</v>
+      </c>
+      <c r="BF235">
+        <v>2.73</v>
+      </c>
+      <c r="BG235">
+        <v>1.18</v>
+      </c>
+      <c r="BH235">
+        <v>4.1</v>
+      </c>
+      <c r="BI235">
+        <v>1.34</v>
+      </c>
+      <c r="BJ235">
+        <v>2.98</v>
+      </c>
+      <c r="BK235">
+        <v>1.64</v>
+      </c>
+      <c r="BL235">
+        <v>2.26</v>
+      </c>
+      <c r="BM235">
+        <v>1.82</v>
+      </c>
+      <c r="BN235">
+        <v>1.76</v>
+      </c>
+      <c r="BO235">
+        <v>2.41</v>
+      </c>
+      <c r="BP235">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:68">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>7484774</v>
+      </c>
+      <c r="C236" t="s">
+        <v>68</v>
+      </c>
+      <c r="D236" t="s">
+        <v>69</v>
+      </c>
+      <c r="E236" s="2">
+        <v>45802.5</v>
+      </c>
+      <c r="F236">
+        <v>30</v>
+      </c>
+      <c r="G236" t="s">
+        <v>75</v>
+      </c>
+      <c r="H236" t="s">
+        <v>71</v>
+      </c>
+      <c r="I236">
+        <v>2</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <v>2</v>
+      </c>
+      <c r="L236">
+        <v>3</v>
+      </c>
+      <c r="M236">
+        <v>0</v>
+      </c>
+      <c r="N236">
+        <v>3</v>
+      </c>
+      <c r="O236" t="s">
+        <v>248</v>
+      </c>
+      <c r="P236" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q236">
+        <v>3.1</v>
+      </c>
+      <c r="R236">
+        <v>2.2</v>
+      </c>
+      <c r="S236">
+        <v>3.08</v>
+      </c>
+      <c r="T236">
+        <v>1.33</v>
+      </c>
+      <c r="U236">
+        <v>2.94</v>
+      </c>
+      <c r="V236">
+        <v>2.62</v>
+      </c>
+      <c r="W236">
+        <v>1.42</v>
+      </c>
+      <c r="X236">
+        <v>5.8</v>
+      </c>
+      <c r="Y236">
+        <v>1.09</v>
+      </c>
+      <c r="Z236">
+        <v>2.8</v>
+      </c>
+      <c r="AA236">
+        <v>3.25</v>
+      </c>
+      <c r="AB236">
+        <v>2.3</v>
+      </c>
+      <c r="AC236">
+        <v>1.02</v>
+      </c>
+      <c r="AD236">
+        <v>10</v>
+      </c>
+      <c r="AE236">
+        <v>1.22</v>
+      </c>
+      <c r="AF236">
+        <v>3.4</v>
+      </c>
+      <c r="AG236">
+        <v>1.83</v>
+      </c>
+      <c r="AH236">
+        <v>1.85</v>
+      </c>
+      <c r="AI236">
+        <v>1.67</v>
+      </c>
+      <c r="AJ236">
+        <v>2.2</v>
+      </c>
+      <c r="AK236">
+        <v>1.53</v>
+      </c>
+      <c r="AL236">
+        <v>1.3</v>
+      </c>
+      <c r="AM236">
+        <v>1.48</v>
+      </c>
+      <c r="AN236">
+        <v>0.93</v>
+      </c>
+      <c r="AO236">
+        <v>1.21</v>
+      </c>
+      <c r="AP236">
+        <v>1.07</v>
+      </c>
+      <c r="AQ236">
+        <v>1.13</v>
+      </c>
+      <c r="AR236">
+        <v>1.27</v>
+      </c>
+      <c r="AS236">
+        <v>1.58</v>
+      </c>
+      <c r="AT236">
+        <v>2.85</v>
+      </c>
+      <c r="AU236">
+        <v>6</v>
+      </c>
+      <c r="AV236">
+        <v>2</v>
+      </c>
+      <c r="AW236">
+        <v>6</v>
+      </c>
+      <c r="AX236">
+        <v>12</v>
+      </c>
+      <c r="AY236">
+        <v>13</v>
+      </c>
+      <c r="AZ236">
+        <v>21</v>
+      </c>
+      <c r="BA236">
+        <v>3</v>
+      </c>
+      <c r="BB236">
+        <v>9</v>
+      </c>
+      <c r="BC236">
+        <v>12</v>
+      </c>
+      <c r="BD236">
+        <v>2.28</v>
+      </c>
+      <c r="BE236">
+        <v>6.2</v>
+      </c>
+      <c r="BF236">
+        <v>1.95</v>
+      </c>
+      <c r="BG236">
+        <v>1.38</v>
+      </c>
+      <c r="BH236">
+        <v>2.8</v>
+      </c>
+      <c r="BI236">
+        <v>1.65</v>
+      </c>
+      <c r="BJ236">
+        <v>2.1</v>
+      </c>
+      <c r="BK236">
+        <v>2.4</v>
+      </c>
+      <c r="BL236">
+        <v>1.71</v>
+      </c>
+      <c r="BM236">
+        <v>2.4</v>
+      </c>
+      <c r="BN236">
+        <v>1.5</v>
+      </c>
+      <c r="BO236">
+        <v>3.48</v>
+      </c>
+      <c r="BP236">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="237" spans="1:68">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>7484776</v>
+      </c>
+      <c r="C237" t="s">
+        <v>68</v>
+      </c>
+      <c r="D237" t="s">
+        <v>69</v>
+      </c>
+      <c r="E237" s="2">
+        <v>45802.5</v>
+      </c>
+      <c r="F237">
+        <v>30</v>
+      </c>
+      <c r="G237" t="s">
+        <v>81</v>
+      </c>
+      <c r="H237" t="s">
+        <v>85</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>0</v>
+      </c>
+      <c r="L237">
+        <v>1</v>
+      </c>
+      <c r="M237">
+        <v>1</v>
+      </c>
+      <c r="N237">
+        <v>2</v>
+      </c>
+      <c r="O237" t="s">
+        <v>245</v>
+      </c>
+      <c r="P237" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q237">
+        <v>1.62</v>
+      </c>
+      <c r="R237">
+        <v>2.6</v>
+      </c>
+      <c r="S237">
+        <v>6.5</v>
+      </c>
+      <c r="T237">
+        <v>1.25</v>
+      </c>
+      <c r="U237">
+        <v>3.6</v>
+      </c>
+      <c r="V237">
+        <v>2.15</v>
+      </c>
+      <c r="W237">
+        <v>1.6</v>
+      </c>
+      <c r="X237">
+        <v>5.05</v>
+      </c>
+      <c r="Y237">
+        <v>1.12</v>
+      </c>
+      <c r="Z237">
+        <v>1.38</v>
+      </c>
+      <c r="AA237">
+        <v>4.75</v>
+      </c>
+      <c r="AB237">
+        <v>6.3</v>
+      </c>
+      <c r="AC237">
+        <v>1</v>
+      </c>
+      <c r="AD237">
+        <v>12</v>
+      </c>
+      <c r="AE237">
+        <v>1.16</v>
+      </c>
+      <c r="AF237">
+        <v>5</v>
+      </c>
+      <c r="AG237">
+        <v>1.47</v>
+      </c>
+      <c r="AH237">
+        <v>2.36</v>
+      </c>
+      <c r="AI237">
+        <v>1.73</v>
+      </c>
+      <c r="AJ237">
+        <v>2.05</v>
+      </c>
+      <c r="AK237">
+        <v>1.15</v>
+      </c>
+      <c r="AL237">
+        <v>1.16</v>
+      </c>
+      <c r="AM237">
+        <v>3.1</v>
+      </c>
+      <c r="AN237">
+        <v>2.14</v>
+      </c>
+      <c r="AO237">
+        <v>1.5</v>
+      </c>
+      <c r="AP237">
+        <v>2.07</v>
+      </c>
+      <c r="AQ237">
+        <v>1.47</v>
+      </c>
+      <c r="AR237">
+        <v>1.47</v>
+      </c>
+      <c r="AS237">
+        <v>1.48</v>
+      </c>
+      <c r="AT237">
+        <v>2.95</v>
+      </c>
+      <c r="AU237">
+        <v>4</v>
+      </c>
+      <c r="AV237">
+        <v>2</v>
+      </c>
+      <c r="AW237">
+        <v>7</v>
+      </c>
+      <c r="AX237">
+        <v>5</v>
+      </c>
+      <c r="AY237">
+        <v>14</v>
+      </c>
+      <c r="AZ237">
+        <v>7</v>
+      </c>
+      <c r="BA237">
+        <v>4</v>
+      </c>
+      <c r="BB237">
+        <v>1</v>
+      </c>
+      <c r="BC237">
+        <v>5</v>
+      </c>
+      <c r="BD237">
+        <v>1.35</v>
+      </c>
+      <c r="BE237">
+        <v>7.6</v>
+      </c>
+      <c r="BF237">
+        <v>4.4</v>
+      </c>
+      <c r="BG237">
+        <v>1.38</v>
+      </c>
+      <c r="BH237">
+        <v>2.9</v>
+      </c>
+      <c r="BI237">
+        <v>1.7</v>
+      </c>
+      <c r="BJ237">
+        <v>2.23</v>
+      </c>
+      <c r="BK237">
+        <v>2.3</v>
+      </c>
+      <c r="BL237">
+        <v>1.77</v>
+      </c>
+      <c r="BM237">
+        <v>2.5</v>
+      </c>
+      <c r="BN237">
+        <v>1.5</v>
+      </c>
+      <c r="BO237">
+        <v>3.58</v>
+      </c>
+      <c r="BP237">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="238" spans="1:68">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>7484771</v>
+      </c>
+      <c r="C238" t="s">
+        <v>68</v>
+      </c>
+      <c r="D238" t="s">
+        <v>69</v>
+      </c>
+      <c r="E238" s="2">
+        <v>45802.5</v>
+      </c>
+      <c r="F238">
+        <v>30</v>
+      </c>
+      <c r="G238" t="s">
+        <v>79</v>
+      </c>
+      <c r="H238" t="s">
+        <v>82</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+      <c r="J238">
+        <v>2</v>
+      </c>
+      <c r="K238">
+        <v>2</v>
+      </c>
+      <c r="L238">
+        <v>2</v>
+      </c>
+      <c r="M238">
+        <v>2</v>
+      </c>
+      <c r="N238">
+        <v>4</v>
+      </c>
+      <c r="O238" t="s">
+        <v>249</v>
+      </c>
+      <c r="P238" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q238">
+        <v>7.5</v>
+      </c>
+      <c r="R238">
+        <v>3.3</v>
+      </c>
+      <c r="S238">
+        <v>1.51</v>
+      </c>
+      <c r="T238">
+        <v>1.14</v>
+      </c>
+      <c r="U238">
+        <v>5.25</v>
+      </c>
+      <c r="V238">
+        <v>1.75</v>
+      </c>
+      <c r="W238">
+        <v>2.01</v>
+      </c>
+      <c r="X238">
+        <v>3.28</v>
+      </c>
+      <c r="Y238">
+        <v>1.25</v>
+      </c>
+      <c r="Z238">
+        <v>11</v>
+      </c>
+      <c r="AA238">
+        <v>7.2</v>
+      </c>
+      <c r="AB238">
+        <v>1.28</v>
+      </c>
+      <c r="AC238">
+        <v>1.01</v>
+      </c>
+      <c r="AD238">
+        <v>24</v>
+      </c>
+      <c r="AE238">
+        <v>1.12</v>
+      </c>
+      <c r="AF238">
+        <v>5.83</v>
+      </c>
+      <c r="AG238">
+        <v>1.18</v>
+      </c>
+      <c r="AH238">
+        <v>3.75</v>
+      </c>
+      <c r="AI238">
+        <v>1.57</v>
+      </c>
+      <c r="AJ238">
+        <v>2.25</v>
+      </c>
+      <c r="AK238">
+        <v>4.35</v>
+      </c>
+      <c r="AL238">
+        <v>1.11</v>
+      </c>
+      <c r="AM238">
+        <v>1.07</v>
+      </c>
+      <c r="AN238">
+        <v>0.71</v>
+      </c>
+      <c r="AO238">
+        <v>1.86</v>
+      </c>
+      <c r="AP238">
+        <v>0.73</v>
+      </c>
+      <c r="AQ238">
+        <v>1.8</v>
+      </c>
+      <c r="AR238">
+        <v>1.36</v>
+      </c>
+      <c r="AS238">
+        <v>1.56</v>
+      </c>
+      <c r="AT238">
+        <v>2.92</v>
+      </c>
+      <c r="AU238">
+        <v>7</v>
+      </c>
+      <c r="AV238">
+        <v>11</v>
+      </c>
+      <c r="AW238">
+        <v>7</v>
+      </c>
+      <c r="AX238">
+        <v>12</v>
+      </c>
+      <c r="AY238">
+        <v>15</v>
+      </c>
+      <c r="AZ238">
+        <v>28</v>
+      </c>
+      <c r="BA238">
+        <v>2</v>
+      </c>
+      <c r="BB238">
+        <v>6</v>
+      </c>
+      <c r="BC238">
+        <v>8</v>
+      </c>
+      <c r="BD238">
+        <v>3.6</v>
+      </c>
+      <c r="BE238">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF238">
+        <v>1.39</v>
+      </c>
+      <c r="BG238">
+        <v>1.16</v>
+      </c>
+      <c r="BH238">
+        <v>4.25</v>
+      </c>
+      <c r="BI238">
+        <v>1.31</v>
+      </c>
+      <c r="BJ238">
+        <v>3.22</v>
+      </c>
+      <c r="BK238">
+        <v>1.71</v>
+      </c>
+      <c r="BL238">
+        <v>2.32</v>
+      </c>
+      <c r="BM238">
+        <v>1.94</v>
+      </c>
+      <c r="BN238">
+        <v>1.87</v>
+      </c>
+      <c r="BO238">
+        <v>2.38</v>
+      </c>
+      <c r="BP238">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="239" spans="1:68">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>7484772</v>
+      </c>
+      <c r="C239" t="s">
+        <v>68</v>
+      </c>
+      <c r="D239" t="s">
+        <v>69</v>
+      </c>
+      <c r="E239" s="2">
+        <v>45802.5</v>
+      </c>
+      <c r="F239">
+        <v>30</v>
+      </c>
+      <c r="G239" t="s">
+        <v>84</v>
+      </c>
+      <c r="H239" t="s">
+        <v>72</v>
+      </c>
+      <c r="I239">
+        <v>1</v>
+      </c>
+      <c r="J239">
+        <v>2</v>
+      </c>
+      <c r="K239">
+        <v>3</v>
+      </c>
+      <c r="L239">
+        <v>2</v>
+      </c>
+      <c r="M239">
+        <v>3</v>
+      </c>
+      <c r="N239">
+        <v>5</v>
+      </c>
+      <c r="O239" t="s">
+        <v>250</v>
+      </c>
+      <c r="P239" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q239">
+        <v>3.6</v>
+      </c>
+      <c r="R239">
+        <v>2.7</v>
+      </c>
+      <c r="S239">
+        <v>2.1</v>
+      </c>
+      <c r="T239">
+        <v>1.13</v>
+      </c>
+      <c r="U239">
+        <v>4.3</v>
+      </c>
+      <c r="V239">
+        <v>1.91</v>
+      </c>
+      <c r="W239">
+        <v>1.95</v>
+      </c>
+      <c r="X239">
+        <v>3.4</v>
+      </c>
+      <c r="Y239">
+        <v>1.25</v>
+      </c>
+      <c r="Z239">
+        <v>3.75</v>
+      </c>
+      <c r="AA239">
+        <v>4.25</v>
+      </c>
+      <c r="AB239">
+        <v>1.6</v>
+      </c>
+      <c r="AC239">
+        <v>1.01</v>
+      </c>
+      <c r="AD239">
+        <v>19.5</v>
+      </c>
+      <c r="AE239">
+        <v>1.03</v>
+      </c>
+      <c r="AF239">
+        <v>7.6</v>
+      </c>
+      <c r="AG239">
+        <v>1.25</v>
+      </c>
+      <c r="AH239">
+        <v>3.4</v>
+      </c>
+      <c r="AI239">
+        <v>1.36</v>
+      </c>
+      <c r="AJ239">
+        <v>3</v>
+      </c>
+      <c r="AK239">
+        <v>2.15</v>
+      </c>
+      <c r="AL239">
+        <v>1.18</v>
+      </c>
+      <c r="AM239">
+        <v>1.25</v>
+      </c>
+      <c r="AN239">
+        <v>1.57</v>
+      </c>
+      <c r="AO239">
+        <v>0.71</v>
+      </c>
+      <c r="AP239">
+        <v>1.47</v>
+      </c>
+      <c r="AQ239">
+        <v>0.87</v>
+      </c>
+      <c r="AR239">
+        <v>1.78</v>
+      </c>
+      <c r="AS239">
+        <v>1.17</v>
+      </c>
+      <c r="AT239">
+        <v>2.95</v>
+      </c>
+      <c r="AU239">
+        <v>5</v>
+      </c>
+      <c r="AV239">
+        <v>6</v>
+      </c>
+      <c r="AW239">
+        <v>2</v>
+      </c>
+      <c r="AX239">
+        <v>6</v>
+      </c>
+      <c r="AY239">
+        <v>8</v>
+      </c>
+      <c r="AZ239">
+        <v>17</v>
+      </c>
+      <c r="BA239">
+        <v>1</v>
+      </c>
+      <c r="BB239">
+        <v>7</v>
+      </c>
+      <c r="BC239">
+        <v>8</v>
+      </c>
+      <c r="BD239">
+        <v>1.87</v>
+      </c>
+      <c r="BE239">
+        <v>6.95</v>
+      </c>
+      <c r="BF239">
+        <v>2.38</v>
+      </c>
+      <c r="BG239">
+        <v>1.2</v>
+      </c>
+      <c r="BH239">
+        <v>3.88</v>
+      </c>
+      <c r="BI239">
+        <v>1.39</v>
+      </c>
+      <c r="BJ239">
+        <v>2.77</v>
+      </c>
+      <c r="BK239">
+        <v>1.65</v>
+      </c>
+      <c r="BL239">
+        <v>2.19</v>
+      </c>
+      <c r="BM239">
+        <v>2.06</v>
+      </c>
+      <c r="BN239">
+        <v>1.72</v>
+      </c>
+      <c r="BO239">
+        <v>2.38</v>
+      </c>
+      <c r="BP239">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="240" spans="1:68">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>7484777</v>
+      </c>
+      <c r="C240" t="s">
+        <v>68</v>
+      </c>
+      <c r="D240" t="s">
+        <v>69</v>
+      </c>
+      <c r="E240" s="2">
+        <v>45802.5</v>
+      </c>
+      <c r="F240">
+        <v>30</v>
+      </c>
+      <c r="G240" t="s">
+        <v>74</v>
+      </c>
+      <c r="H240" t="s">
+        <v>73</v>
+      </c>
+      <c r="I240">
+        <v>1</v>
+      </c>
+      <c r="J240">
+        <v>2</v>
+      </c>
+      <c r="K240">
+        <v>3</v>
+      </c>
+      <c r="L240">
+        <v>1</v>
+      </c>
+      <c r="M240">
+        <v>3</v>
+      </c>
+      <c r="N240">
+        <v>4</v>
+      </c>
+      <c r="O240" t="s">
+        <v>114</v>
+      </c>
+      <c r="P240" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q240">
+        <v>1.85</v>
+      </c>
+      <c r="R240">
+        <v>2.5</v>
+      </c>
+      <c r="S240">
+        <v>6</v>
+      </c>
+      <c r="T240">
+        <v>1.25</v>
+      </c>
+      <c r="U240">
+        <v>3.4</v>
+      </c>
+      <c r="V240">
+        <v>2.31</v>
+      </c>
+      <c r="W240">
+        <v>1.57</v>
+      </c>
+      <c r="X240">
+        <v>5.15</v>
+      </c>
+      <c r="Y240">
+        <v>1.11</v>
+      </c>
+      <c r="Z240">
+        <v>1.45</v>
+      </c>
+      <c r="AA240">
+        <v>4.6</v>
+      </c>
+      <c r="AB240">
+        <v>6.2</v>
+      </c>
+      <c r="AC240">
+        <v>1</v>
+      </c>
+      <c r="AD240">
+        <v>15</v>
+      </c>
+      <c r="AE240">
+        <v>1.17</v>
+      </c>
+      <c r="AF240">
+        <v>4.51</v>
+      </c>
+      <c r="AG240">
+        <v>1.57</v>
+      </c>
+      <c r="AH240">
+        <v>2.24</v>
+      </c>
+      <c r="AI240">
+        <v>1.75</v>
+      </c>
+      <c r="AJ240">
+        <v>2</v>
+      </c>
+      <c r="AK240">
+        <v>1.2</v>
+      </c>
+      <c r="AL240">
+        <v>1.16</v>
+      </c>
+      <c r="AM240">
+        <v>2.6</v>
+      </c>
+      <c r="AN240">
+        <v>2.14</v>
+      </c>
+      <c r="AO240">
+        <v>0.79</v>
+      </c>
+      <c r="AP240">
+        <v>2</v>
+      </c>
+      <c r="AQ240">
+        <v>0.93</v>
+      </c>
+      <c r="AR240">
+        <v>1.58</v>
+      </c>
+      <c r="AS240">
+        <v>1.03</v>
+      </c>
+      <c r="AT240">
+        <v>2.61</v>
+      </c>
+      <c r="AU240">
+        <v>9</v>
+      </c>
+      <c r="AV240">
+        <v>4</v>
+      </c>
+      <c r="AW240">
+        <v>10</v>
+      </c>
+      <c r="AX240">
+        <v>4</v>
+      </c>
+      <c r="AY240">
+        <v>24</v>
+      </c>
+      <c r="AZ240">
+        <v>11</v>
+      </c>
+      <c r="BA240">
+        <v>10</v>
+      </c>
+      <c r="BB240">
+        <v>2</v>
+      </c>
+      <c r="BC240">
+        <v>12</v>
+      </c>
+      <c r="BD240">
+        <v>1.25</v>
+      </c>
+      <c r="BE240">
+        <v>8.6</v>
+      </c>
+      <c r="BF240">
+        <v>5.43</v>
+      </c>
+      <c r="BG240">
+        <v>1.36</v>
+      </c>
+      <c r="BH240">
+        <v>2.9</v>
+      </c>
+      <c r="BI240">
+        <v>1.61</v>
+      </c>
+      <c r="BJ240">
+        <v>2.24</v>
+      </c>
+      <c r="BK240">
+        <v>1.97</v>
+      </c>
+      <c r="BL240">
+        <v>1.76</v>
+      </c>
+      <c r="BM240">
+        <v>2.35</v>
+      </c>
+      <c r="BN240">
+        <v>1.52</v>
+      </c>
+      <c r="BO240">
+        <v>3.32</v>
+      </c>
+      <c r="BP240">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria 2. Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria 2. Liga_20242025.xlsx
@@ -1843,10 +1843,10 @@
         <v>7</v>
       </c>
       <c r="AY2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AZ2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BA2">
         <v>11</v>
@@ -2049,10 +2049,10 @@
         <v>5</v>
       </c>
       <c r="AY3">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AZ3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA3">
         <v>7</v>
@@ -2255,10 +2255,10 @@
         <v>7</v>
       </c>
       <c r="AY4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AZ4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA4">
         <v>4</v>
@@ -2461,10 +2461,10 @@
         <v>0</v>
       </c>
       <c r="AY5">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA5">
         <v>2</v>
@@ -2667,10 +2667,10 @@
         <v>1</v>
       </c>
       <c r="AY6">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AZ6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA6">
         <v>9</v>
@@ -2873,10 +2873,10 @@
         <v>6</v>
       </c>
       <c r="AY7">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AZ7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA7">
         <v>11</v>
@@ -3079,10 +3079,10 @@
         <v>5</v>
       </c>
       <c r="AY8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BA8">
         <v>3</v>
@@ -3285,10 +3285,10 @@
         <v>5</v>
       </c>
       <c r="AY9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BA9">
         <v>6</v>
@@ -3491,7 +3491,7 @@
         <v>5</v>
       </c>
       <c r="AY10">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ10">
         <v>8</v>
@@ -3700,7 +3700,7 @@
         <v>15</v>
       </c>
       <c r="AZ11">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA11">
         <v>10</v>
@@ -3906,7 +3906,7 @@
         <v>11</v>
       </c>
       <c r="AZ12">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BA12">
         <v>7</v>
@@ -4109,7 +4109,7 @@
         <v>2</v>
       </c>
       <c r="AY13">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ13">
         <v>5</v>
@@ -4315,10 +4315,10 @@
         <v>4</v>
       </c>
       <c r="AY14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ14">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA14">
         <v>4</v>
@@ -4727,19 +4727,19 @@
         <v>6</v>
       </c>
       <c r="AY16">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AZ16">
         <v>12</v>
       </c>
       <c r="BA16">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BB16">
         <v>3</v>
       </c>
       <c r="BC16">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD16">
         <v>1.46</v>
@@ -4933,10 +4933,10 @@
         <v>5</v>
       </c>
       <c r="AY17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ17">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BA17">
         <v>3</v>
@@ -5139,10 +5139,10 @@
         <v>2</v>
       </c>
       <c r="AY18">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AZ18">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BA18">
         <v>8</v>
@@ -5345,10 +5345,10 @@
         <v>2</v>
       </c>
       <c r="AY19">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AZ19">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA19">
         <v>3</v>
@@ -5554,7 +5554,7 @@
         <v>6</v>
       </c>
       <c r="AZ20">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA20">
         <v>8</v>
@@ -5760,7 +5760,7 @@
         <v>5</v>
       </c>
       <c r="AZ21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA21">
         <v>4</v>
@@ -5966,7 +5966,7 @@
         <v>7</v>
       </c>
       <c r="AZ22">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA22">
         <v>2</v>
@@ -6375,10 +6375,10 @@
         <v>1</v>
       </c>
       <c r="AY24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ24">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA24">
         <v>2</v>
@@ -6581,10 +6581,10 @@
         <v>4</v>
       </c>
       <c r="AY25">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AZ25">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA25">
         <v>6</v>
@@ -6787,7 +6787,7 @@
         <v>4</v>
       </c>
       <c r="AY26">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AZ26">
         <v>10</v>
@@ -6993,7 +6993,7 @@
         <v>2</v>
       </c>
       <c r="AY27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ27">
         <v>10</v>
@@ -7199,10 +7199,10 @@
         <v>5</v>
       </c>
       <c r="AY28">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ28">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BA28">
         <v>1</v>
@@ -7405,19 +7405,19 @@
         <v>0</v>
       </c>
       <c r="AY29">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AZ29">
+        <v>6</v>
+      </c>
+      <c r="BA29">
         <v>9</v>
-      </c>
-      <c r="BA29">
-        <v>13</v>
       </c>
       <c r="BB29">
         <v>4</v>
       </c>
       <c r="BC29">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="BD29">
         <v>1.29</v>
@@ -7611,19 +7611,19 @@
         <v>5</v>
       </c>
       <c r="AY30">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ30">
         <v>9</v>
       </c>
       <c r="BA30">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BB30">
         <v>3</v>
       </c>
       <c r="BC30">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD30">
         <v>1.9</v>
@@ -7817,10 +7817,10 @@
         <v>1</v>
       </c>
       <c r="AY31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA31">
         <v>3</v>
@@ -8023,10 +8023,10 @@
         <v>1</v>
       </c>
       <c r="AY32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA32">
         <v>8</v>
@@ -8229,10 +8229,10 @@
         <v>6</v>
       </c>
       <c r="AY33">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ33">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA33">
         <v>5</v>
@@ -8438,7 +8438,7 @@
         <v>14</v>
       </c>
       <c r="AZ34">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA34">
         <v>6</v>
@@ -8641,7 +8641,7 @@
         <v>1</v>
       </c>
       <c r="AY35">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ35">
         <v>5</v>
@@ -9056,7 +9056,7 @@
         <v>9</v>
       </c>
       <c r="AZ37">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA37">
         <v>6</v>
@@ -9259,10 +9259,10 @@
         <v>6</v>
       </c>
       <c r="AY38">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ38">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA38">
         <v>7</v>
@@ -9468,7 +9468,7 @@
         <v>7</v>
       </c>
       <c r="AZ39">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BA39">
         <v>6</v>
@@ -9671,10 +9671,10 @@
         <v>7</v>
       </c>
       <c r="AY40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ40">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="BA40">
         <v>5</v>
@@ -9877,10 +9877,10 @@
         <v>1</v>
       </c>
       <c r="AY41">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ41">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA41">
         <v>5</v>
@@ -10086,7 +10086,7 @@
         <v>3</v>
       </c>
       <c r="AZ42">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA42">
         <v>7</v>
@@ -10289,10 +10289,10 @@
         <v>2</v>
       </c>
       <c r="AY43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ43">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA43">
         <v>3</v>
@@ -10495,10 +10495,10 @@
         <v>9</v>
       </c>
       <c r="AY44">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AZ44">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA44">
         <v>7</v>
@@ -10701,10 +10701,10 @@
         <v>3</v>
       </c>
       <c r="AY45">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ45">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA45">
         <v>6</v>
@@ -10907,10 +10907,10 @@
         <v>6</v>
       </c>
       <c r="AY46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ46">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA46">
         <v>3</v>
@@ -11113,10 +11113,10 @@
         <v>5</v>
       </c>
       <c r="AY47">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AZ47">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA47">
         <v>5</v>
@@ -11319,10 +11319,10 @@
         <v>6</v>
       </c>
       <c r="AY48">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AZ48">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA48">
         <v>5</v>
@@ -11525,7 +11525,7 @@
         <v>1</v>
       </c>
       <c r="AY49">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ49">
         <v>4</v>
@@ -11731,10 +11731,10 @@
         <v>2</v>
       </c>
       <c r="AY50">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ50">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA50">
         <v>5</v>
@@ -11937,10 +11937,10 @@
         <v>5</v>
       </c>
       <c r="AY51">
+        <v>10</v>
+      </c>
+      <c r="AZ51">
         <v>12</v>
-      </c>
-      <c r="AZ51">
-        <v>16</v>
       </c>
       <c r="BA51">
         <v>5</v>
@@ -12143,7 +12143,7 @@
         <v>1</v>
       </c>
       <c r="AY52">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AZ52">
         <v>4</v>
@@ -12555,10 +12555,10 @@
         <v>6</v>
       </c>
       <c r="AY54">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ54">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA54">
         <v>0</v>
@@ -12761,10 +12761,10 @@
         <v>3</v>
       </c>
       <c r="AY55">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ55">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA55">
         <v>6</v>
@@ -12967,10 +12967,10 @@
         <v>4</v>
       </c>
       <c r="AY56">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ56">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA56">
         <v>2</v>
@@ -13173,10 +13173,10 @@
         <v>9</v>
       </c>
       <c r="AY57">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AZ57">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA57">
         <v>3</v>
@@ -13379,10 +13379,10 @@
         <v>2</v>
       </c>
       <c r="AY58">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ58">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA58">
         <v>9</v>
@@ -13791,10 +13791,10 @@
         <v>4</v>
       </c>
       <c r="AY60">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ60">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA60">
         <v>3</v>
@@ -13997,10 +13997,10 @@
         <v>3</v>
       </c>
       <c r="AY61">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ61">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA61">
         <v>7</v>
@@ -14206,7 +14206,7 @@
         <v>10</v>
       </c>
       <c r="AZ62">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA62">
         <v>3</v>
@@ -14409,10 +14409,10 @@
         <v>9</v>
       </c>
       <c r="AY63">
+        <v>12</v>
+      </c>
+      <c r="AZ63">
         <v>16</v>
-      </c>
-      <c r="AZ63">
-        <v>17</v>
       </c>
       <c r="BA63">
         <v>1</v>
@@ -14615,10 +14615,10 @@
         <v>13</v>
       </c>
       <c r="AY64">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AZ64">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="BA64">
         <v>1</v>
@@ -14821,10 +14821,10 @@
         <v>3</v>
       </c>
       <c r="AY65">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AZ65">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA65">
         <v>4</v>
@@ -15027,10 +15027,10 @@
         <v>9</v>
       </c>
       <c r="AY66">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AZ66">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA66">
         <v>5</v>
@@ -15233,10 +15233,10 @@
         <v>6</v>
       </c>
       <c r="AY67">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AZ67">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="BA67">
         <v>2</v>
@@ -15439,10 +15439,10 @@
         <v>2</v>
       </c>
       <c r="AY68">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ68">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA68">
         <v>7</v>
@@ -15645,10 +15645,10 @@
         <v>3</v>
       </c>
       <c r="AY69">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AZ69">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA69">
         <v>7</v>
@@ -15851,7 +15851,7 @@
         <v>2</v>
       </c>
       <c r="AY70">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AZ70">
         <v>9</v>
@@ -16057,10 +16057,10 @@
         <v>8</v>
       </c>
       <c r="AY71">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ71">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA71">
         <v>3</v>
@@ -16263,10 +16263,10 @@
         <v>4</v>
       </c>
       <c r="AY72">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ72">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA72">
         <v>8</v>
@@ -16469,10 +16469,10 @@
         <v>7</v>
       </c>
       <c r="AY73">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AZ73">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA73">
         <v>5</v>
@@ -16675,10 +16675,10 @@
         <v>7</v>
       </c>
       <c r="AY74">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AZ74">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="BA74">
         <v>4</v>
@@ -16881,10 +16881,10 @@
         <v>8</v>
       </c>
       <c r="AY75">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AZ75">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA75">
         <v>4</v>
@@ -17087,10 +17087,10 @@
         <v>7</v>
       </c>
       <c r="AY76">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ76">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA76">
         <v>0</v>
@@ -17293,10 +17293,10 @@
         <v>5</v>
       </c>
       <c r="AY77">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ77">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="BA77">
         <v>5</v>
@@ -17499,10 +17499,10 @@
         <v>2</v>
       </c>
       <c r="AY78">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AZ78">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA78">
         <v>5</v>
@@ -17705,10 +17705,10 @@
         <v>5</v>
       </c>
       <c r="AY79">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AZ79">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA79">
         <v>2</v>
@@ -17911,7 +17911,7 @@
         <v>3</v>
       </c>
       <c r="AY80">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AZ80">
         <v>5</v>
@@ -18117,10 +18117,10 @@
         <v>4</v>
       </c>
       <c r="AY81">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AZ81">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA81">
         <v>5</v>
@@ -18323,7 +18323,7 @@
         <v>4</v>
       </c>
       <c r="AY82">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ82">
         <v>8</v>
@@ -18529,10 +18529,10 @@
         <v>3</v>
       </c>
       <c r="AY83">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AZ83">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA83">
         <v>4</v>
@@ -18735,7 +18735,7 @@
         <v>0</v>
       </c>
       <c r="AY84">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ84">
         <v>5</v>
@@ -18941,10 +18941,10 @@
         <v>3</v>
       </c>
       <c r="AY85">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AZ85">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="BA85">
         <v>9</v>
@@ -19150,7 +19150,7 @@
         <v>11</v>
       </c>
       <c r="AZ86">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BA86">
         <v>4</v>
@@ -19353,10 +19353,10 @@
         <v>4</v>
       </c>
       <c r="AY87">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AZ87">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA87">
         <v>9</v>
@@ -19562,7 +19562,7 @@
         <v>8</v>
       </c>
       <c r="AZ88">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BA88">
         <v>5</v>
@@ -19768,7 +19768,7 @@
         <v>6</v>
       </c>
       <c r="AZ89">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA89">
         <v>1</v>
@@ -19971,10 +19971,10 @@
         <v>8</v>
       </c>
       <c r="AY90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ90">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA90">
         <v>4</v>
@@ -20177,7 +20177,7 @@
         <v>1</v>
       </c>
       <c r="AY91">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AZ91">
         <v>6</v>
@@ -20383,10 +20383,10 @@
         <v>4</v>
       </c>
       <c r="AY92">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AZ92">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA92">
         <v>4</v>
@@ -20589,10 +20589,10 @@
         <v>4</v>
       </c>
       <c r="AY93">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AZ93">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA93">
         <v>6</v>
@@ -20795,10 +20795,10 @@
         <v>8</v>
       </c>
       <c r="AY94">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ94">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA94">
         <v>8</v>
@@ -21001,7 +21001,7 @@
         <v>3</v>
       </c>
       <c r="AY95">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ95">
         <v>8</v>
@@ -21207,7 +21207,7 @@
         <v>2</v>
       </c>
       <c r="AY96">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ96">
         <v>5</v>
@@ -21413,10 +21413,10 @@
         <v>3</v>
       </c>
       <c r="AY97">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AZ97">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA97">
         <v>8</v>
@@ -21619,7 +21619,7 @@
         <v>4</v>
       </c>
       <c r="AY98">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AZ98">
         <v>8</v>
@@ -21825,10 +21825,10 @@
         <v>2</v>
       </c>
       <c r="AY99">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ99">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA99">
         <v>4</v>
@@ -22031,10 +22031,10 @@
         <v>3</v>
       </c>
       <c r="AY100">
+        <v>11</v>
+      </c>
+      <c r="AZ100">
         <v>13</v>
-      </c>
-      <c r="AZ100">
-        <v>15</v>
       </c>
       <c r="BA100">
         <v>8</v>
@@ -22237,7 +22237,7 @@
         <v>1</v>
       </c>
       <c r="AY101">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ101">
         <v>8</v>
@@ -22446,7 +22446,7 @@
         <v>10</v>
       </c>
       <c r="AZ102">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BA102">
         <v>4</v>
@@ -22652,7 +22652,7 @@
         <v>4</v>
       </c>
       <c r="AZ103">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA103">
         <v>2</v>
@@ -22855,7 +22855,7 @@
         <v>3</v>
       </c>
       <c r="AY104">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AZ104">
         <v>6</v>
@@ -23061,10 +23061,10 @@
         <v>4</v>
       </c>
       <c r="AY105">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ105">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="BA105">
         <v>4</v>
@@ -23270,7 +23270,7 @@
         <v>3</v>
       </c>
       <c r="AZ106">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="BA106">
         <v>4</v>
@@ -23473,10 +23473,10 @@
         <v>4</v>
       </c>
       <c r="AY107">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AZ107">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BA107">
         <v>8</v>
@@ -23679,10 +23679,10 @@
         <v>3</v>
       </c>
       <c r="AY108">
+        <v>5</v>
+      </c>
+      <c r="AZ108">
         <v>8</v>
-      </c>
-      <c r="AZ108">
-        <v>9</v>
       </c>
       <c r="BA108">
         <v>5</v>
@@ -23885,7 +23885,7 @@
         <v>6</v>
       </c>
       <c r="AY109">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ109">
         <v>11</v>
@@ -24091,10 +24091,10 @@
         <v>3</v>
       </c>
       <c r="AY110">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AZ110">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BA110">
         <v>7</v>
@@ -24297,10 +24297,10 @@
         <v>4</v>
       </c>
       <c r="AY111">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AZ111">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BA111">
         <v>3</v>
@@ -24503,10 +24503,10 @@
         <v>5</v>
       </c>
       <c r="AY112">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ112">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BA112">
         <v>2</v>
@@ -24915,10 +24915,10 @@
         <v>8</v>
       </c>
       <c r="AY114">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AZ114">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="BA114">
         <v>0</v>
@@ -25121,10 +25121,10 @@
         <v>4</v>
       </c>
       <c r="AY115">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ115">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA115">
         <v>3</v>
@@ -25327,10 +25327,10 @@
         <v>5</v>
       </c>
       <c r="AY116">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AZ116">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="BA116">
         <v>5</v>
@@ -25533,10 +25533,10 @@
         <v>2</v>
       </c>
       <c r="AY117">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ117">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BA117">
         <v>5</v>
@@ -25742,7 +25742,7 @@
         <v>4</v>
       </c>
       <c r="AZ118">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA118">
         <v>2</v>
@@ -25945,10 +25945,10 @@
         <v>8</v>
       </c>
       <c r="AY119">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ119">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA119">
         <v>6</v>
@@ -26151,10 +26151,10 @@
         <v>5</v>
       </c>
       <c r="AY120">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AZ120">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA120">
         <v>2</v>
@@ -26357,10 +26357,10 @@
         <v>5</v>
       </c>
       <c r="AY121">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AZ121">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA121">
         <v>5</v>
@@ -26563,10 +26563,10 @@
         <v>5</v>
       </c>
       <c r="AY122">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ122">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA122">
         <v>1</v>
@@ -26769,19 +26769,19 @@
         <v>1</v>
       </c>
       <c r="AY123">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ123">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA123">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BB123">
         <v>5</v>
       </c>
       <c r="BC123">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BD123">
         <v>1.14</v>
@@ -26975,10 +26975,10 @@
         <v>1</v>
       </c>
       <c r="AY124">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AZ124">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA124">
         <v>3</v>
@@ -27181,10 +27181,10 @@
         <v>4</v>
       </c>
       <c r="AY125">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AZ125">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BA125">
         <v>0</v>
@@ -27387,10 +27387,10 @@
         <v>4</v>
       </c>
       <c r="AY126">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ126">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA126">
         <v>2</v>
@@ -27596,7 +27596,7 @@
         <v>7</v>
       </c>
       <c r="AZ127">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA127">
         <v>2</v>
@@ -27799,10 +27799,10 @@
         <v>4</v>
       </c>
       <c r="AY128">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AZ128">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BA128">
         <v>4</v>
@@ -28005,10 +28005,10 @@
         <v>0</v>
       </c>
       <c r="AY129">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AZ129">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA129">
         <v>7</v>
@@ -28214,7 +28214,7 @@
         <v>4</v>
       </c>
       <c r="AZ130">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA130">
         <v>6</v>
@@ -28417,10 +28417,10 @@
         <v>9</v>
       </c>
       <c r="AY131">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AZ131">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA131">
         <v>3</v>
@@ -28623,10 +28623,10 @@
         <v>5</v>
       </c>
       <c r="AY132">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ132">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA132">
         <v>9</v>
@@ -28829,10 +28829,10 @@
         <v>6</v>
       </c>
       <c r="AY133">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ133">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA133">
         <v>1</v>
@@ -29241,10 +29241,10 @@
         <v>11</v>
       </c>
       <c r="AY135">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ135">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="BA135">
         <v>3</v>
@@ -29450,7 +29450,7 @@
         <v>2</v>
       </c>
       <c r="AZ136">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BA136">
         <v>0</v>
@@ -29653,10 +29653,10 @@
         <v>4</v>
       </c>
       <c r="AY137">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ137">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA137">
         <v>5</v>
@@ -29862,7 +29862,7 @@
         <v>13</v>
       </c>
       <c r="AZ138">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="BA138">
         <v>3</v>
@@ -30065,10 +30065,10 @@
         <v>6</v>
       </c>
       <c r="AY139">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ139">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA139">
         <v>3</v>
@@ -30271,10 +30271,10 @@
         <v>6</v>
       </c>
       <c r="AY140">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AZ140">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA140">
         <v>4</v>
@@ -30480,7 +30480,7 @@
         <v>5</v>
       </c>
       <c r="AZ141">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="BA141">
         <v>2</v>
@@ -30683,7 +30683,7 @@
         <v>1</v>
       </c>
       <c r="AY142">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ142">
         <v>5</v>
@@ -30892,7 +30892,7 @@
         <v>13</v>
       </c>
       <c r="AZ143">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA143">
         <v>1</v>
@@ -31095,10 +31095,10 @@
         <v>3</v>
       </c>
       <c r="AY144">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AZ144">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA144">
         <v>10</v>
@@ -31301,10 +31301,10 @@
         <v>7</v>
       </c>
       <c r="AY145">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ145">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA145">
         <v>3</v>
@@ -31507,10 +31507,10 @@
         <v>6</v>
       </c>
       <c r="AY146">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AZ146">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA146">
         <v>5</v>
@@ -31713,7 +31713,7 @@
         <v>3</v>
       </c>
       <c r="AY147">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AZ147">
         <v>6</v>
@@ -31919,10 +31919,10 @@
         <v>6</v>
       </c>
       <c r="AY148">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AZ148">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA148">
         <v>9</v>
@@ -32125,10 +32125,10 @@
         <v>3</v>
       </c>
       <c r="AY149">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AZ149">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA149">
         <v>3</v>
@@ -32331,10 +32331,10 @@
         <v>5</v>
       </c>
       <c r="AY150">
+        <v>10</v>
+      </c>
+      <c r="AZ150">
         <v>11</v>
-      </c>
-      <c r="AZ150">
-        <v>13</v>
       </c>
       <c r="BA150">
         <v>4</v>
@@ -32537,7 +32537,7 @@
         <v>1</v>
       </c>
       <c r="AY151">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ151">
         <v>4</v>
@@ -32743,10 +32743,10 @@
         <v>6</v>
       </c>
       <c r="AY152">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AZ152">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA152">
         <v>4</v>
@@ -32952,7 +32952,7 @@
         <v>9</v>
       </c>
       <c r="AZ153">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BA153">
         <v>7</v>
@@ -33155,10 +33155,10 @@
         <v>10</v>
       </c>
       <c r="AY154">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ154">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="BA154">
         <v>4</v>
@@ -33364,16 +33364,16 @@
         <v>9</v>
       </c>
       <c r="AZ155">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA155">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BB155">
         <v>5</v>
       </c>
       <c r="BC155">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BD155">
         <v>2.47</v>
@@ -33567,7 +33567,7 @@
         <v>3</v>
       </c>
       <c r="AY156">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ156">
         <v>5</v>
@@ -33773,7 +33773,7 @@
         <v>5</v>
       </c>
       <c r="AY157">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ157">
         <v>10</v>
@@ -33979,7 +33979,7 @@
         <v>5</v>
       </c>
       <c r="AY158">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AZ158">
         <v>12</v>
@@ -34185,10 +34185,10 @@
         <v>4</v>
       </c>
       <c r="AY159">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ159">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA159">
         <v>4</v>
@@ -34394,7 +34394,7 @@
         <v>9</v>
       </c>
       <c r="AZ160">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="BA160">
         <v>2</v>
@@ -34600,7 +34600,7 @@
         <v>10</v>
       </c>
       <c r="AZ161">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA161">
         <v>5</v>
@@ -34803,10 +34803,10 @@
         <v>1</v>
       </c>
       <c r="AY162">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AZ162">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA162">
         <v>7</v>
@@ -35012,7 +35012,7 @@
         <v>9</v>
       </c>
       <c r="AZ163">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA163">
         <v>6</v>
@@ -35218,7 +35218,7 @@
         <v>6</v>
       </c>
       <c r="AZ164">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA164">
         <v>1</v>
@@ -35421,10 +35421,10 @@
         <v>4</v>
       </c>
       <c r="AY165">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ165">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA165">
         <v>4</v>
@@ -35627,10 +35627,10 @@
         <v>7</v>
       </c>
       <c r="AY166">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AZ166">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA166">
         <v>8</v>
@@ -35836,7 +35836,7 @@
         <v>10</v>
       </c>
       <c r="AZ167">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA167">
         <v>2</v>
@@ -36042,7 +36042,7 @@
         <v>14</v>
       </c>
       <c r="AZ168">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA168">
         <v>6</v>
@@ -36245,10 +36245,10 @@
         <v>8</v>
       </c>
       <c r="AY169">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AZ169">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA169">
         <v>7</v>
@@ -36451,10 +36451,10 @@
         <v>13</v>
       </c>
       <c r="AY170">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AZ170">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="BA170">
         <v>3</v>
@@ -36657,10 +36657,10 @@
         <v>6</v>
       </c>
       <c r="AY171">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ171">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA171">
         <v>6</v>
@@ -36863,10 +36863,10 @@
         <v>7</v>
       </c>
       <c r="AY172">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ172">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA172">
         <v>5</v>
@@ -37069,10 +37069,10 @@
         <v>6</v>
       </c>
       <c r="AY173">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ173">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA173">
         <v>7</v>
@@ -37275,10 +37275,10 @@
         <v>2</v>
       </c>
       <c r="AY174">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ174">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA174">
         <v>5</v>
@@ -37481,10 +37481,10 @@
         <v>4</v>
       </c>
       <c r="AY175">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ175">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA175">
         <v>4</v>
@@ -37687,10 +37687,10 @@
         <v>8</v>
       </c>
       <c r="AY176">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AZ176">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA176">
         <v>10</v>
@@ -37893,7 +37893,7 @@
         <v>2</v>
       </c>
       <c r="AY177">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ177">
         <v>11</v>
@@ -38099,10 +38099,10 @@
         <v>5</v>
       </c>
       <c r="AY178">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AZ178">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BA178">
         <v>6</v>
@@ -38305,10 +38305,10 @@
         <v>7</v>
       </c>
       <c r="AY179">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ179">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA179">
         <v>1</v>
@@ -38511,10 +38511,10 @@
         <v>8</v>
       </c>
       <c r="AY180">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AZ180">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="BA180">
         <v>1</v>
@@ -38717,10 +38717,10 @@
         <v>4</v>
       </c>
       <c r="AY181">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AZ181">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA181">
         <v>6</v>
@@ -38923,10 +38923,10 @@
         <v>3</v>
       </c>
       <c r="AY182">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ182">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA182">
         <v>0</v>
@@ -39129,10 +39129,10 @@
         <v>9</v>
       </c>
       <c r="AY183">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AZ183">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA183">
         <v>6</v>
@@ -39335,10 +39335,10 @@
         <v>4</v>
       </c>
       <c r="AY184">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AZ184">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA184">
         <v>9</v>
@@ -39541,10 +39541,10 @@
         <v>5</v>
       </c>
       <c r="AY185">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ185">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA185">
         <v>5</v>
@@ -39747,10 +39747,10 @@
         <v>8</v>
       </c>
       <c r="AY186">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ186">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA186">
         <v>5</v>
@@ -39953,10 +39953,10 @@
         <v>10</v>
       </c>
       <c r="AY187">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AZ187">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA187">
         <v>7</v>
@@ -40159,10 +40159,10 @@
         <v>2</v>
       </c>
       <c r="AY188">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ188">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA188">
         <v>12</v>
@@ -40365,10 +40365,10 @@
         <v>8</v>
       </c>
       <c r="AY189">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ189">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="BA189">
         <v>2</v>
@@ -40574,7 +40574,7 @@
         <v>7</v>
       </c>
       <c r="AZ190">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="BA190">
         <v>3</v>
@@ -40983,7 +40983,7 @@
         <v>6</v>
       </c>
       <c r="AY192">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ192">
         <v>12</v>
@@ -41189,10 +41189,10 @@
         <v>5</v>
       </c>
       <c r="AY193">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AZ193">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA193">
         <v>10</v>
@@ -41395,10 +41395,10 @@
         <v>3</v>
       </c>
       <c r="AY194">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AZ194">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA194">
         <v>9</v>
@@ -41807,10 +41807,10 @@
         <v>6</v>
       </c>
       <c r="AY196">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AZ196">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA196">
         <v>5</v>
@@ -42013,10 +42013,10 @@
         <v>7</v>
       </c>
       <c r="AY197">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AZ197">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BA197">
         <v>4</v>
@@ -42219,10 +42219,10 @@
         <v>5</v>
       </c>
       <c r="AY198">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AZ198">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA198">
         <v>18</v>
@@ -42425,10 +42425,10 @@
         <v>5</v>
       </c>
       <c r="AY199">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ199">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA199">
         <v>5</v>
@@ -42631,10 +42631,10 @@
         <v>2</v>
       </c>
       <c r="AY200">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AZ200">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA200">
         <v>10</v>
@@ -42837,7 +42837,7 @@
         <v>3</v>
       </c>
       <c r="AY201">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AZ201">
         <v>8</v>
@@ -43252,7 +43252,7 @@
         <v>7</v>
       </c>
       <c r="AZ203">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA203">
         <v>4</v>
@@ -43455,10 +43455,10 @@
         <v>7</v>
       </c>
       <c r="AY204">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AZ204">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA204">
         <v>2</v>
@@ -43661,10 +43661,10 @@
         <v>4</v>
       </c>
       <c r="AY205">
+        <v>6</v>
+      </c>
+      <c r="AZ205">
         <v>8</v>
-      </c>
-      <c r="AZ205">
-        <v>9</v>
       </c>
       <c r="BA205">
         <v>1</v>
@@ -44073,10 +44073,10 @@
         <v>11</v>
       </c>
       <c r="AY207">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AZ207">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="BA207">
         <v>6</v>
@@ -44279,10 +44279,10 @@
         <v>3</v>
       </c>
       <c r="AY208">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ208">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BA208">
         <v>3</v>
@@ -44485,10 +44485,10 @@
         <v>8</v>
       </c>
       <c r="AY209">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ209">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA209">
         <v>7</v>
@@ -44691,10 +44691,10 @@
         <v>6</v>
       </c>
       <c r="AY210">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AZ210">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA210">
         <v>9</v>
@@ -44897,10 +44897,10 @@
         <v>6</v>
       </c>
       <c r="AY211">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ211">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BA211">
         <v>2</v>
@@ -45103,10 +45103,10 @@
         <v>6</v>
       </c>
       <c r="AY212">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ212">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BA212">
         <v>3</v>
@@ -45309,10 +45309,10 @@
         <v>6</v>
       </c>
       <c r="AY213">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AZ213">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA213">
         <v>2</v>
@@ -45515,10 +45515,10 @@
         <v>5</v>
       </c>
       <c r="AY214">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ214">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA214">
         <v>4</v>
@@ -45721,10 +45721,10 @@
         <v>3</v>
       </c>
       <c r="AY215">
+        <v>8</v>
+      </c>
+      <c r="AZ215">
         <v>9</v>
-      </c>
-      <c r="AZ215">
-        <v>11</v>
       </c>
       <c r="BA215">
         <v>3</v>
@@ -45927,10 +45927,10 @@
         <v>8</v>
       </c>
       <c r="AY216">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ216">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BA216">
         <v>3</v>
@@ -46133,10 +46133,10 @@
         <v>8</v>
       </c>
       <c r="AY217">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ217">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BA217">
         <v>8</v>
@@ -46339,10 +46339,10 @@
         <v>7</v>
       </c>
       <c r="AY218">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AZ218">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA218">
         <v>6</v>
@@ -46545,10 +46545,10 @@
         <v>6</v>
       </c>
       <c r="AY219">
+        <v>9</v>
+      </c>
+      <c r="AZ219">
         <v>10</v>
-      </c>
-      <c r="AZ219">
-        <v>12</v>
       </c>
       <c r="BA219">
         <v>4</v>
@@ -46751,10 +46751,10 @@
         <v>7</v>
       </c>
       <c r="AY220">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ220">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA220">
         <v>5</v>
@@ -46957,10 +46957,10 @@
         <v>5</v>
       </c>
       <c r="AY221">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AZ221">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA221">
         <v>4</v>
@@ -47163,10 +47163,10 @@
         <v>9</v>
       </c>
       <c r="AY222">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ222">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="BA222">
         <v>5</v>
@@ -47369,7 +47369,7 @@
         <v>3</v>
       </c>
       <c r="AY223">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ223">
         <v>7</v>
@@ -47575,7 +47575,7 @@
         <v>3</v>
       </c>
       <c r="AY224">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AZ224">
         <v>6</v>
@@ -47987,7 +47987,7 @@
         <v>5</v>
       </c>
       <c r="AY226">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ226">
         <v>10</v>
@@ -48193,10 +48193,10 @@
         <v>5</v>
       </c>
       <c r="AY227">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ227">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA227">
         <v>6</v>
@@ -48399,10 +48399,10 @@
         <v>11</v>
       </c>
       <c r="AY228">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ228">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="BA228">
         <v>1</v>
@@ -48811,10 +48811,10 @@
         <v>8</v>
       </c>
       <c r="AY230">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ230">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BA230">
         <v>3</v>
@@ -49223,10 +49223,10 @@
         <v>4</v>
       </c>
       <c r="AY232">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ232">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA232">
         <v>6</v>
@@ -49432,7 +49432,7 @@
         <v>11</v>
       </c>
       <c r="AZ233">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BA233">
         <v>3</v>
@@ -49635,10 +49635,10 @@
         <v>6</v>
       </c>
       <c r="AY234">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AZ234">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA234">
         <v>6</v>
@@ -49841,10 +49841,10 @@
         <v>4</v>
       </c>
       <c r="AY235">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ235">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA235">
         <v>7</v>
@@ -50047,10 +50047,10 @@
         <v>12</v>
       </c>
       <c r="AY236">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ236">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="BA236">
         <v>3</v>
@@ -50253,7 +50253,7 @@
         <v>5</v>
       </c>
       <c r="AY237">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AZ237">
         <v>7</v>
@@ -50459,10 +50459,10 @@
         <v>12</v>
       </c>
       <c r="AY238">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ238">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="BA238">
         <v>2</v>
@@ -50665,10 +50665,10 @@
         <v>6</v>
       </c>
       <c r="AY239">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ239">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="BA239">
         <v>1</v>
@@ -50871,10 +50871,10 @@
         <v>4</v>
       </c>
       <c r="AY240">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AZ240">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BA240">
         <v>10</v>
